--- a/Standard_Library_TestCaseUserUtil.xlsx
+++ b/Standard_Library_TestCaseUserUtil.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\11\-\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="-15" yWindow="4455" windowWidth="12510" windowHeight="4395" tabRatio="884" activeTab="1"/>
   </bookViews>
@@ -194,10 +199,6 @@
     <phoneticPr fontId="11"/>
   </si>
   <si>
-    <t>getCurrentUser()</t>
-    <phoneticPr fontId="11"/>
-  </si>
-  <si>
     <t>When execute this method,the method will use other method of getCurrentUser().
 Please make sure that the method "getCurrentUser()" is correct.</t>
     <phoneticPr fontId="11"/>
@@ -979,6 +980,10 @@
   </si>
   <si>
     <t>addPrincipal(NmCommandBean cb)</t>
+    <phoneticPr fontId="11"/>
+  </si>
+  <si>
+    <t>getCurrentUser()</t>
     <phoneticPr fontId="11"/>
   </si>
 </sst>
@@ -2084,55 +2089,55 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="176" fontId="8" fillId="18" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="20" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="10" fillId="20" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="35" fillId="22" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="34" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="22" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="22" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="35" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="35" fillId="22" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="22" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="22" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="22" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="44">
@@ -2259,12 +2264,15 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -2306,7 +2314,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2341,7 +2349,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2564,14 +2572,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="15">
-      <c r="A1" s="89"/>
-      <c r="B1" s="89"/>
-      <c r="C1" s="89"/>
-      <c r="D1" s="89"/>
-      <c r="E1" s="89"/>
-      <c r="F1" s="89"/>
-      <c r="G1" s="89"/>
-      <c r="H1" s="89"/>
+      <c r="A1" s="90"/>
+      <c r="B1" s="90"/>
+      <c r="C1" s="90"/>
+      <c r="D1" s="90"/>
+      <c r="E1" s="90"/>
+      <c r="F1" s="90"/>
+      <c r="G1" s="90"/>
+      <c r="H1" s="90"/>
     </row>
     <row r="2" spans="1:8" ht="27.75">
       <c r="A2" s="4"/>
@@ -2625,10 +2633,10 @@
     </row>
     <row r="7" spans="1:8">
       <c r="A7" s="6"/>
-      <c r="B7" s="90" t="s">
+      <c r="B7" s="91" t="s">
         <v>0</v>
       </c>
-      <c r="C7" s="91"/>
+      <c r="C7" s="92"/>
       <c r="D7" s="6"/>
       <c r="E7" s="6"/>
       <c r="F7" s="6"/>
@@ -2720,8 +2728,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K467"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="87" zoomScaleNormal="87" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="87" zoomScaleNormal="87" workbookViewId="0">
+      <selection activeCell="F24" sqref="F24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75"/>
@@ -2839,16 +2847,16 @@
         <v>1</v>
       </c>
       <c r="C7" s="82" t="s">
-        <v>31</v>
+        <v>149</v>
       </c>
       <c r="D7" s="58" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E7" s="83" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F7" s="55" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G7" s="56" t="s">
         <v>23</v>
@@ -2874,13 +2882,13 @@
         <v>25</v>
       </c>
       <c r="D8" s="43" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E8" s="84" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="F8" s="44" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G8" s="45" t="s">
         <v>28</v>
@@ -2895,7 +2903,7 @@
         <v>20160906</v>
       </c>
       <c r="K8" s="37" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="9" spans="1:11" s="27" customFormat="1" ht="22.5" customHeight="1">
@@ -2903,16 +2911,16 @@
         <v>3</v>
       </c>
       <c r="C9" s="85" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D9" s="43" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E9" s="84" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F9" s="44" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G9" s="35" t="s">
         <v>29</v>
@@ -2927,30 +2935,30 @@
         <v>20160906</v>
       </c>
       <c r="K9" s="37" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="10" spans="1:11" s="27" customFormat="1" ht="26.25" customHeight="1" thickBot="1">
-      <c r="B10" s="99">
+      <c r="B10" s="93">
         <v>4</v>
       </c>
-      <c r="C10" s="92" t="s">
+      <c r="C10" s="96" t="s">
         <v>30</v>
       </c>
       <c r="D10" s="43" t="s">
-        <v>49</v>
-      </c>
-      <c r="E10" s="94" t="s">
-        <v>32</v>
+        <v>48</v>
+      </c>
+      <c r="E10" s="103" t="s">
+        <v>31</v>
       </c>
       <c r="F10" s="44" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G10" s="35" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H10" s="35" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="I10" s="38" t="s">
         <v>13</v>
@@ -2959,24 +2967,24 @@
         <v>20160906</v>
       </c>
       <c r="K10" s="39" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="11" spans="1:11" s="27" customFormat="1" ht="23.25" customHeight="1" thickBot="1">
-      <c r="B11" s="100"/>
-      <c r="C11" s="93"/>
+      <c r="B11" s="94"/>
+      <c r="C11" s="97"/>
       <c r="D11" s="43" t="s">
-        <v>48</v>
-      </c>
-      <c r="E11" s="93"/>
+        <v>47</v>
+      </c>
+      <c r="E11" s="97"/>
       <c r="F11" s="44" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G11" s="35" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H11" s="35" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I11" s="38" t="s">
         <v>13</v>
@@ -2985,157 +2993,157 @@
         <v>20160906</v>
       </c>
       <c r="K11" s="39" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="12" spans="1:11" s="47" customFormat="1" ht="30" customHeight="1" thickBot="1">
-      <c r="B12" s="99">
+      <c r="B12" s="93">
         <v>5</v>
       </c>
-      <c r="C12" s="92" t="s">
-        <v>47</v>
+      <c r="C12" s="96" t="s">
+        <v>46</v>
       </c>
       <c r="D12" s="48" t="s">
-        <v>64</v>
-      </c>
-      <c r="E12" s="94" t="s">
-        <v>61</v>
+        <v>63</v>
+      </c>
+      <c r="E12" s="103" t="s">
+        <v>60</v>
       </c>
       <c r="F12" s="49" t="s">
+        <v>54</v>
+      </c>
+      <c r="G12" s="50" t="s">
+        <v>56</v>
+      </c>
+      <c r="H12" s="50" t="s">
+        <v>57</v>
+      </c>
+      <c r="I12" s="51" t="s">
         <v>55</v>
-      </c>
-      <c r="G12" s="50" t="s">
-        <v>57</v>
-      </c>
-      <c r="H12" s="50" t="s">
-        <v>58</v>
-      </c>
-      <c r="I12" s="51" t="s">
-        <v>56</v>
       </c>
       <c r="J12" s="52"/>
       <c r="K12" s="53" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="13" spans="1:11" s="27" customFormat="1" ht="26.25" customHeight="1" thickBot="1">
-      <c r="B13" s="100"/>
-      <c r="C13" s="93"/>
+      <c r="B13" s="94"/>
+      <c r="C13" s="97"/>
       <c r="D13" s="43" t="s">
-        <v>50</v>
-      </c>
-      <c r="E13" s="93"/>
+        <v>49</v>
+      </c>
+      <c r="E13" s="97"/>
       <c r="F13" s="44" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G13" s="35" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="H13" s="35" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="I13" s="38" t="s">
         <v>13</v>
       </c>
       <c r="J13" s="40"/>
       <c r="K13" s="39" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="14" spans="1:11" s="27" customFormat="1" ht="29.25" customHeight="1" thickBot="1">
-      <c r="B14" s="99">
+      <c r="B14" s="93">
         <v>6</v>
       </c>
-      <c r="C14" s="102" t="s">
+      <c r="C14" s="98" t="s">
+        <v>69</v>
+      </c>
+      <c r="D14" s="43" t="s">
+        <v>63</v>
+      </c>
+      <c r="E14" s="103" t="s">
+        <v>75</v>
+      </c>
+      <c r="F14" s="44" t="s">
+        <v>62</v>
+      </c>
+      <c r="G14" s="35" t="s">
+        <v>66</v>
+      </c>
+      <c r="H14" s="56" t="s">
+        <v>74</v>
+      </c>
+      <c r="I14" s="38" t="s">
         <v>70</v>
-      </c>
-      <c r="D14" s="43" t="s">
-        <v>64</v>
-      </c>
-      <c r="E14" s="94" t="s">
-        <v>76</v>
-      </c>
-      <c r="F14" s="44" t="s">
-        <v>63</v>
-      </c>
-      <c r="G14" s="35" t="s">
-        <v>67</v>
-      </c>
-      <c r="H14" s="56" t="s">
-        <v>75</v>
-      </c>
-      <c r="I14" s="38" t="s">
-        <v>71</v>
       </c>
       <c r="J14" s="40"/>
       <c r="K14" s="39" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="15" spans="1:11" s="27" customFormat="1" ht="29.25" customHeight="1" thickBot="1">
-      <c r="B15" s="104"/>
-      <c r="C15" s="103"/>
+      <c r="B15" s="100"/>
+      <c r="C15" s="99"/>
       <c r="D15" s="43" t="s">
-        <v>65</v>
-      </c>
-      <c r="E15" s="97"/>
+        <v>64</v>
+      </c>
+      <c r="E15" s="104"/>
       <c r="F15" s="44" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G15" s="35" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="H15" s="56" t="s">
+        <v>67</v>
+      </c>
+      <c r="I15" s="38" t="s">
         <v>68</v>
-      </c>
-      <c r="I15" s="38" t="s">
-        <v>69</v>
       </c>
       <c r="J15" s="40"/>
       <c r="K15" s="39" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="16" spans="1:11" s="27" customFormat="1" ht="27.75" customHeight="1" thickBot="1">
-      <c r="B16" s="100"/>
-      <c r="C16" s="93"/>
+      <c r="B16" s="94"/>
+      <c r="C16" s="97"/>
       <c r="D16" s="43" t="s">
-        <v>66</v>
-      </c>
-      <c r="E16" s="93"/>
+        <v>65</v>
+      </c>
+      <c r="E16" s="97"/>
       <c r="F16" s="44" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="G16" s="35" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="H16" s="35" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="I16" s="38" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="J16" s="40"/>
       <c r="K16" s="39" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="17" spans="2:11" s="27" customFormat="1" ht="30.75" customHeight="1" thickBot="1">
-      <c r="B17" s="99">
+      <c r="B17" s="93">
         <v>7</v>
       </c>
-      <c r="C17" s="92" t="s">
+      <c r="C17" s="96" t="s">
+        <v>77</v>
+      </c>
+      <c r="D17" s="43" t="s">
+        <v>63</v>
+      </c>
+      <c r="E17" s="103"/>
+      <c r="F17" s="86" t="s">
         <v>78</v>
       </c>
-      <c r="D17" s="43" t="s">
-        <v>64</v>
-      </c>
-      <c r="E17" s="94"/>
-      <c r="F17" s="86" t="s">
+      <c r="G17" s="35" t="s">
         <v>79</v>
-      </c>
-      <c r="G17" s="35" t="s">
-        <v>80</v>
       </c>
       <c r="H17" s="35" t="b">
         <v>1</v>
@@ -3145,138 +3153,138 @@
       </c>
       <c r="J17" s="40"/>
       <c r="K17" s="39" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="18" spans="2:11" s="27" customFormat="1" ht="33.75" customHeight="1" thickBot="1">
-      <c r="B18" s="100"/>
-      <c r="C18" s="93"/>
+      <c r="B18" s="94"/>
+      <c r="C18" s="97"/>
       <c r="D18" s="43" t="s">
-        <v>50</v>
-      </c>
-      <c r="E18" s="93"/>
+        <v>49</v>
+      </c>
+      <c r="E18" s="97"/>
       <c r="F18" s="87" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G18" s="35" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="H18" s="35" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I18" s="38" t="s">
         <v>13</v>
       </c>
       <c r="J18" s="40"/>
       <c r="K18" s="39" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="19" spans="2:11" s="27" customFormat="1" ht="31.5" customHeight="1" thickBot="1">
       <c r="B19" s="88">
         <v>8</v>
       </c>
-      <c r="C19" s="105" t="s">
-        <v>149</v>
+      <c r="C19" s="89" t="s">
+        <v>148</v>
       </c>
       <c r="D19" s="43" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E19" s="72"/>
       <c r="F19" s="44"/>
       <c r="G19" s="35" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="H19" s="35" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="I19" s="38" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="J19" s="40"/>
       <c r="K19" s="39" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="20" spans="2:11" s="27" customFormat="1" ht="32.25" customHeight="1" thickBot="1">
-      <c r="B20" s="99">
+      <c r="B20" s="93">
         <v>9</v>
       </c>
-      <c r="C20" s="92" t="s">
-        <v>89</v>
+      <c r="C20" s="96" t="s">
+        <v>88</v>
       </c>
       <c r="D20" s="43" t="s">
-        <v>64</v>
-      </c>
-      <c r="E20" s="94"/>
+        <v>63</v>
+      </c>
+      <c r="E20" s="103"/>
       <c r="F20" s="44" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G20" s="35" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="H20" s="35" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="I20" s="38" t="s">
         <v>13</v>
       </c>
       <c r="J20" s="40"/>
       <c r="K20" s="39" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="21" spans="2:11" s="27" customFormat="1" ht="32.25" customHeight="1" thickBot="1">
-      <c r="B21" s="100"/>
-      <c r="C21" s="93"/>
+      <c r="B21" s="94"/>
+      <c r="C21" s="97"/>
       <c r="D21" s="43" t="s">
-        <v>50</v>
-      </c>
-      <c r="E21" s="93"/>
+        <v>49</v>
+      </c>
+      <c r="E21" s="97"/>
       <c r="F21" s="44" t="b">
         <v>0</v>
       </c>
       <c r="G21" s="35" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="H21" s="35" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="I21" s="38" t="s">
         <v>13</v>
       </c>
       <c r="J21" s="40"/>
       <c r="K21" s="39" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="22" spans="2:11" s="27" customFormat="1" ht="33" customHeight="1" thickBot="1">
-      <c r="B22" s="99">
+      <c r="B22" s="93">
         <v>10</v>
       </c>
-      <c r="C22" s="92" t="s">
-        <v>90</v>
+      <c r="C22" s="96" t="s">
+        <v>89</v>
       </c>
       <c r="D22" s="43" t="s">
-        <v>100</v>
-      </c>
-      <c r="E22" s="94"/>
+        <v>99</v>
+      </c>
+      <c r="E22" s="103"/>
       <c r="F22" s="44"/>
       <c r="G22" s="35"/>
       <c r="H22" s="35"/>
       <c r="I22" s="38"/>
       <c r="J22" s="40"/>
       <c r="K22" s="39" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="23" spans="2:11" s="27" customFormat="1" ht="33" customHeight="1" thickBot="1">
-      <c r="B23" s="100"/>
-      <c r="C23" s="93"/>
+      <c r="B23" s="94"/>
+      <c r="C23" s="97"/>
       <c r="D23" s="43" t="s">
-        <v>101</v>
-      </c>
-      <c r="E23" s="93"/>
+        <v>100</v>
+      </c>
+      <c r="E23" s="97"/>
       <c r="F23" s="44"/>
       <c r="G23" s="35"/>
       <c r="H23" s="35" t="b">
@@ -3287,122 +3295,122 @@
       </c>
       <c r="J23" s="40"/>
       <c r="K23" s="39" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="24" spans="2:11" s="27" customFormat="1" ht="33" customHeight="1" thickBot="1">
-      <c r="B24" s="99">
+      <c r="B24" s="93">
         <v>11</v>
       </c>
-      <c r="C24" s="92" t="s">
-        <v>99</v>
+      <c r="C24" s="96" t="s">
+        <v>98</v>
       </c>
       <c r="D24" s="43" t="s">
-        <v>114</v>
-      </c>
-      <c r="E24" s="94"/>
+        <v>113</v>
+      </c>
+      <c r="E24" s="103"/>
       <c r="F24" s="59" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="G24" s="80" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="H24" s="80" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="I24" s="38" t="s">
         <v>13</v>
       </c>
       <c r="J24" s="40"/>
       <c r="K24" s="39" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="25" spans="2:11" s="27" customFormat="1" ht="33" customHeight="1" thickBot="1">
-      <c r="B25" s="100"/>
-      <c r="C25" s="93"/>
+      <c r="B25" s="94"/>
+      <c r="C25" s="97"/>
       <c r="D25" s="43" t="s">
-        <v>102</v>
-      </c>
-      <c r="E25" s="93"/>
+        <v>101</v>
+      </c>
+      <c r="E25" s="97"/>
       <c r="F25" s="44" t="b">
         <v>0</v>
       </c>
       <c r="G25" s="80" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="H25" s="80" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="I25" s="38" t="s">
         <v>13</v>
       </c>
       <c r="J25" s="40"/>
       <c r="K25" s="39" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="26" spans="2:11" s="27" customFormat="1" ht="33" customHeight="1" thickBot="1">
-      <c r="B26" s="99">
+      <c r="B26" s="93">
         <v>12</v>
       </c>
-      <c r="C26" s="92" t="s">
-        <v>113</v>
+      <c r="C26" s="96" t="s">
+        <v>112</v>
       </c>
       <c r="D26" s="43" t="s">
-        <v>125</v>
-      </c>
-      <c r="E26" s="94"/>
+        <v>124</v>
+      </c>
+      <c r="E26" s="103"/>
       <c r="F26" s="44" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="G26" s="35" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="H26" s="35" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="I26" s="38" t="s">
         <v>13</v>
       </c>
       <c r="J26" s="40"/>
       <c r="K26" s="39" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="27" spans="2:11" s="27" customFormat="1" ht="33" customHeight="1" thickBot="1">
-      <c r="B27" s="100"/>
-      <c r="C27" s="93"/>
+      <c r="B27" s="94"/>
+      <c r="C27" s="97"/>
       <c r="D27" s="43" t="s">
-        <v>126</v>
-      </c>
-      <c r="E27" s="93"/>
+        <v>125</v>
+      </c>
+      <c r="E27" s="97"/>
       <c r="F27" s="44" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="G27" s="35" t="s">
+        <v>116</v>
+      </c>
+      <c r="H27" s="35" t="s">
         <v>117</v>
-      </c>
-      <c r="H27" s="35" t="s">
-        <v>118</v>
       </c>
       <c r="I27" s="38" t="s">
         <v>13</v>
       </c>
       <c r="J27" s="40"/>
       <c r="K27" s="39" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="28" spans="2:11" s="27" customFormat="1" ht="33" customHeight="1" thickBot="1">
-      <c r="B28" s="99">
+      <c r="B28" s="93">
         <v>13</v>
       </c>
-      <c r="C28" s="92" t="s">
-        <v>122</v>
+      <c r="C28" s="96" t="s">
+        <v>121</v>
       </c>
       <c r="D28" s="43"/>
-      <c r="E28" s="94"/>
+      <c r="E28" s="103"/>
       <c r="F28" s="44"/>
       <c r="G28" s="35"/>
       <c r="H28" s="35"/>
@@ -3411,10 +3419,10 @@
       <c r="K28" s="39"/>
     </row>
     <row r="29" spans="2:11" s="27" customFormat="1" ht="33" customHeight="1" thickBot="1">
-      <c r="B29" s="100"/>
-      <c r="C29" s="93"/>
+      <c r="B29" s="94"/>
+      <c r="C29" s="97"/>
       <c r="D29" s="43"/>
-      <c r="E29" s="93"/>
+      <c r="E29" s="97"/>
       <c r="F29" s="44"/>
       <c r="G29" s="35"/>
       <c r="H29" s="35"/>
@@ -3423,114 +3431,114 @@
       <c r="K29" s="39"/>
     </row>
     <row r="30" spans="2:11" s="27" customFormat="1" ht="33" customHeight="1" thickBot="1">
-      <c r="B30" s="99">
+      <c r="B30" s="93">
         <v>14</v>
       </c>
-      <c r="C30" s="92" t="s">
-        <v>124</v>
+      <c r="C30" s="96" t="s">
+        <v>123</v>
       </c>
       <c r="D30" s="43" t="s">
-        <v>134</v>
-      </c>
-      <c r="E30" s="94"/>
+        <v>133</v>
+      </c>
+      <c r="E30" s="103"/>
       <c r="F30" s="44" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="G30" s="35" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="H30" s="35" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="I30" s="38" t="s">
         <v>13</v>
       </c>
       <c r="J30" s="40"/>
       <c r="K30" s="39" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="31" spans="2:11" s="27" customFormat="1" ht="33" customHeight="1" thickBot="1">
-      <c r="B31" s="100"/>
-      <c r="C31" s="93"/>
+      <c r="B31" s="94"/>
+      <c r="C31" s="97"/>
       <c r="D31" s="43" t="s">
-        <v>127</v>
-      </c>
-      <c r="E31" s="93"/>
+        <v>126</v>
+      </c>
+      <c r="E31" s="97"/>
       <c r="F31" s="44" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="G31" s="35" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="H31" s="35" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="I31" s="38" t="s">
         <v>13</v>
       </c>
       <c r="J31" s="40"/>
       <c r="K31" s="39" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="32" spans="2:11" s="27" customFormat="1" ht="33" customHeight="1" thickBot="1">
-      <c r="B32" s="99">
+      <c r="B32" s="93">
         <v>15</v>
       </c>
-      <c r="C32" s="92" t="s">
+      <c r="C32" s="96" t="s">
+        <v>132</v>
+      </c>
+      <c r="D32" s="43" t="s">
         <v>133</v>
       </c>
-      <c r="D32" s="43" t="s">
-        <v>134</v>
-      </c>
-      <c r="E32" s="94"/>
+      <c r="E32" s="103"/>
       <c r="F32" s="59" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="G32" s="35" t="s">
+        <v>142</v>
+      </c>
+      <c r="H32" s="35" t="s">
         <v>143</v>
-      </c>
-      <c r="H32" s="35" t="s">
-        <v>144</v>
       </c>
       <c r="I32" s="38" t="s">
         <v>13</v>
       </c>
       <c r="J32" s="40"/>
       <c r="K32" s="39" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="33" spans="2:11" s="27" customFormat="1" ht="33" customHeight="1" thickBot="1">
-      <c r="B33" s="100"/>
-      <c r="C33" s="93"/>
+      <c r="B33" s="94"/>
+      <c r="C33" s="97"/>
       <c r="D33" s="43" t="s">
-        <v>135</v>
-      </c>
-      <c r="E33" s="93"/>
+        <v>134</v>
+      </c>
+      <c r="E33" s="97"/>
       <c r="F33" s="44" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="G33" s="35" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="H33" s="35" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="I33" s="38" t="s">
         <v>13</v>
       </c>
       <c r="J33" s="40"/>
       <c r="K33" s="39" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="34" spans="2:11" s="27" customFormat="1" ht="33" customHeight="1" thickBot="1">
-      <c r="B34" s="99"/>
-      <c r="C34" s="92"/>
+      <c r="B34" s="93"/>
+      <c r="C34" s="96"/>
       <c r="D34" s="43"/>
-      <c r="E34" s="94"/>
+      <c r="E34" s="103"/>
       <c r="F34" s="44"/>
       <c r="G34" s="35"/>
       <c r="H34" s="35"/>
@@ -3539,10 +3547,10 @@
       <c r="K34" s="39"/>
     </row>
     <row r="35" spans="2:11" s="27" customFormat="1" ht="33" customHeight="1" thickBot="1">
-      <c r="B35" s="100"/>
-      <c r="C35" s="93"/>
+      <c r="B35" s="94"/>
+      <c r="C35" s="97"/>
       <c r="D35" s="43"/>
-      <c r="E35" s="93"/>
+      <c r="E35" s="97"/>
       <c r="F35" s="44"/>
       <c r="G35" s="35"/>
       <c r="H35" s="35"/>
@@ -3551,10 +3559,10 @@
       <c r="K35" s="39"/>
     </row>
     <row r="36" spans="2:11" s="27" customFormat="1" ht="33" customHeight="1" thickBot="1">
-      <c r="B36" s="99"/>
-      <c r="C36" s="92"/>
+      <c r="B36" s="93"/>
+      <c r="C36" s="96"/>
       <c r="D36" s="43"/>
-      <c r="E36" s="94"/>
+      <c r="E36" s="103"/>
       <c r="F36" s="44"/>
       <c r="G36" s="35"/>
       <c r="H36" s="35"/>
@@ -3563,10 +3571,10 @@
       <c r="K36" s="39"/>
     </row>
     <row r="37" spans="2:11" s="27" customFormat="1" ht="33" customHeight="1" thickBot="1">
-      <c r="B37" s="100"/>
-      <c r="C37" s="93"/>
+      <c r="B37" s="94"/>
+      <c r="C37" s="97"/>
       <c r="D37" s="43"/>
-      <c r="E37" s="93"/>
+      <c r="E37" s="97"/>
       <c r="F37" s="44"/>
       <c r="G37" s="35"/>
       <c r="H37" s="35"/>
@@ -3575,10 +3583,10 @@
       <c r="K37" s="39"/>
     </row>
     <row r="38" spans="2:11" s="27" customFormat="1" ht="33" customHeight="1" thickBot="1">
-      <c r="B38" s="99"/>
-      <c r="C38" s="92"/>
+      <c r="B38" s="93"/>
+      <c r="C38" s="96"/>
       <c r="D38" s="43"/>
-      <c r="E38" s="94"/>
+      <c r="E38" s="103"/>
       <c r="F38" s="44"/>
       <c r="G38" s="35"/>
       <c r="H38" s="35"/>
@@ -3587,10 +3595,10 @@
       <c r="K38" s="39"/>
     </row>
     <row r="39" spans="2:11" s="27" customFormat="1" ht="33" customHeight="1" thickBot="1">
-      <c r="B39" s="100"/>
-      <c r="C39" s="93"/>
+      <c r="B39" s="94"/>
+      <c r="C39" s="97"/>
       <c r="D39" s="43"/>
-      <c r="E39" s="93"/>
+      <c r="E39" s="97"/>
       <c r="F39" s="44"/>
       <c r="G39" s="35"/>
       <c r="H39" s="35"/>
@@ -3599,10 +3607,10 @@
       <c r="K39" s="39"/>
     </row>
     <row r="40" spans="2:11" s="27" customFormat="1" ht="33" customHeight="1" thickBot="1">
-      <c r="B40" s="99"/>
-      <c r="C40" s="92"/>
+      <c r="B40" s="93"/>
+      <c r="C40" s="96"/>
       <c r="D40" s="43"/>
-      <c r="E40" s="94"/>
+      <c r="E40" s="103"/>
       <c r="F40" s="44"/>
       <c r="G40" s="35"/>
       <c r="H40" s="35"/>
@@ -3611,10 +3619,10 @@
       <c r="K40" s="39"/>
     </row>
     <row r="41" spans="2:11" s="27" customFormat="1" ht="33" customHeight="1" thickBot="1">
-      <c r="B41" s="100"/>
-      <c r="C41" s="93"/>
+      <c r="B41" s="94"/>
+      <c r="C41" s="97"/>
       <c r="D41" s="43"/>
-      <c r="E41" s="93"/>
+      <c r="E41" s="97"/>
       <c r="F41" s="44"/>
       <c r="G41" s="35"/>
       <c r="H41" s="35"/>
@@ -3623,10 +3631,10 @@
       <c r="K41" s="39"/>
     </row>
     <row r="42" spans="2:11" s="27" customFormat="1" ht="33" customHeight="1" thickBot="1">
-      <c r="B42" s="99"/>
-      <c r="C42" s="92"/>
+      <c r="B42" s="93"/>
+      <c r="C42" s="96"/>
       <c r="D42" s="43"/>
-      <c r="E42" s="94"/>
+      <c r="E42" s="103"/>
       <c r="F42" s="44"/>
       <c r="G42" s="35"/>
       <c r="H42" s="35"/>
@@ -3635,10 +3643,10 @@
       <c r="K42" s="39"/>
     </row>
     <row r="43" spans="2:11" s="27" customFormat="1" ht="33" customHeight="1" thickBot="1">
-      <c r="B43" s="100"/>
-      <c r="C43" s="93"/>
+      <c r="B43" s="94"/>
+      <c r="C43" s="97"/>
       <c r="D43" s="43"/>
-      <c r="E43" s="93"/>
+      <c r="E43" s="97"/>
       <c r="F43" s="44"/>
       <c r="G43" s="35"/>
       <c r="H43" s="35"/>
@@ -3647,10 +3655,10 @@
       <c r="K43" s="39"/>
     </row>
     <row r="44" spans="2:11" s="27" customFormat="1" ht="33" customHeight="1" thickBot="1">
-      <c r="B44" s="99"/>
-      <c r="C44" s="92"/>
+      <c r="B44" s="93"/>
+      <c r="C44" s="96"/>
       <c r="D44" s="43"/>
-      <c r="E44" s="94"/>
+      <c r="E44" s="103"/>
       <c r="F44" s="44"/>
       <c r="G44" s="35"/>
       <c r="H44" s="35"/>
@@ -3659,10 +3667,10 @@
       <c r="K44" s="39"/>
     </row>
     <row r="45" spans="2:11" s="27" customFormat="1" ht="33" customHeight="1" thickBot="1">
-      <c r="B45" s="100"/>
-      <c r="C45" s="93"/>
+      <c r="B45" s="94"/>
+      <c r="C45" s="97"/>
       <c r="D45" s="43"/>
-      <c r="E45" s="93"/>
+      <c r="E45" s="97"/>
       <c r="F45" s="44"/>
       <c r="G45" s="35"/>
       <c r="H45" s="35"/>
@@ -3671,10 +3679,10 @@
       <c r="K45" s="39"/>
     </row>
     <row r="46" spans="2:11" s="27" customFormat="1" ht="33" customHeight="1" thickBot="1">
-      <c r="B46" s="99"/>
-      <c r="C46" s="92"/>
+      <c r="B46" s="93"/>
+      <c r="C46" s="96"/>
       <c r="D46" s="43"/>
-      <c r="E46" s="94"/>
+      <c r="E46" s="103"/>
       <c r="F46" s="44"/>
       <c r="G46" s="35"/>
       <c r="H46" s="35"/>
@@ -3683,10 +3691,10 @@
       <c r="K46" s="39"/>
     </row>
     <row r="47" spans="2:11" s="27" customFormat="1" ht="33" customHeight="1" thickBot="1">
-      <c r="B47" s="100"/>
-      <c r="C47" s="93"/>
+      <c r="B47" s="94"/>
+      <c r="C47" s="97"/>
       <c r="D47" s="43"/>
-      <c r="E47" s="93"/>
+      <c r="E47" s="97"/>
       <c r="F47" s="44"/>
       <c r="G47" s="35"/>
       <c r="H47" s="35"/>
@@ -3695,10 +3703,10 @@
       <c r="K47" s="39"/>
     </row>
     <row r="48" spans="2:11" s="79" customFormat="1" ht="33" customHeight="1" thickBot="1">
-      <c r="B48" s="99"/>
-      <c r="C48" s="98"/>
+      <c r="B48" s="93"/>
+      <c r="C48" s="101"/>
       <c r="D48" s="73"/>
-      <c r="E48" s="95"/>
+      <c r="E48" s="105"/>
       <c r="F48" s="74"/>
       <c r="G48" s="75"/>
       <c r="H48" s="75"/>
@@ -3707,10 +3715,10 @@
       <c r="K48" s="78"/>
     </row>
     <row r="49" spans="2:11" s="79" customFormat="1" ht="33" customHeight="1" thickBot="1">
-      <c r="B49" s="101"/>
-      <c r="C49" s="96"/>
+      <c r="B49" s="95"/>
+      <c r="C49" s="102"/>
       <c r="D49" s="73"/>
-      <c r="E49" s="96"/>
+      <c r="E49" s="102"/>
       <c r="F49" s="74"/>
       <c r="G49" s="75"/>
       <c r="H49" s="75"/>
@@ -3719,10 +3727,10 @@
       <c r="K49" s="78"/>
     </row>
     <row r="50" spans="2:11" s="27" customFormat="1" ht="33" customHeight="1" thickBot="1">
-      <c r="B50" s="99"/>
-      <c r="C50" s="92"/>
+      <c r="B50" s="93"/>
+      <c r="C50" s="96"/>
       <c r="D50" s="43"/>
-      <c r="E50" s="94"/>
+      <c r="E50" s="103"/>
       <c r="F50" s="44"/>
       <c r="G50" s="35"/>
       <c r="H50" s="35"/>
@@ -3731,10 +3739,10 @@
       <c r="K50" s="39"/>
     </row>
     <row r="51" spans="2:11" s="27" customFormat="1" ht="33" customHeight="1" thickBot="1">
-      <c r="B51" s="100"/>
-      <c r="C51" s="93"/>
+      <c r="B51" s="94"/>
+      <c r="C51" s="97"/>
       <c r="D51" s="43"/>
-      <c r="E51" s="93"/>
+      <c r="E51" s="97"/>
       <c r="F51" s="44"/>
       <c r="G51" s="35"/>
       <c r="H51" s="35"/>
@@ -3743,10 +3751,10 @@
       <c r="K51" s="39"/>
     </row>
     <row r="52" spans="2:11" s="27" customFormat="1" ht="33" customHeight="1" thickBot="1">
-      <c r="B52" s="99"/>
-      <c r="C52" s="92"/>
+      <c r="B52" s="93"/>
+      <c r="C52" s="96"/>
       <c r="D52" s="43"/>
-      <c r="E52" s="94"/>
+      <c r="E52" s="103"/>
       <c r="F52" s="44"/>
       <c r="G52" s="35"/>
       <c r="H52" s="35"/>
@@ -3755,10 +3763,10 @@
       <c r="K52" s="39"/>
     </row>
     <row r="53" spans="2:11" s="27" customFormat="1" ht="33" customHeight="1" thickBot="1">
-      <c r="B53" s="100"/>
-      <c r="C53" s="93"/>
+      <c r="B53" s="94"/>
+      <c r="C53" s="97"/>
       <c r="D53" s="43"/>
-      <c r="E53" s="93"/>
+      <c r="E53" s="97"/>
       <c r="F53" s="44"/>
       <c r="G53" s="35"/>
       <c r="H53" s="35"/>
@@ -3767,10 +3775,10 @@
       <c r="K53" s="39"/>
     </row>
     <row r="54" spans="2:11" s="27" customFormat="1" ht="33" customHeight="1" thickBot="1">
-      <c r="B54" s="99"/>
-      <c r="C54" s="92"/>
+      <c r="B54" s="93"/>
+      <c r="C54" s="96"/>
       <c r="D54" s="43"/>
-      <c r="E54" s="94"/>
+      <c r="E54" s="103"/>
       <c r="F54" s="44"/>
       <c r="G54" s="35"/>
       <c r="H54" s="35"/>
@@ -3779,10 +3787,10 @@
       <c r="K54" s="39"/>
     </row>
     <row r="55" spans="2:11" s="27" customFormat="1" ht="33" customHeight="1" thickBot="1">
-      <c r="B55" s="100"/>
-      <c r="C55" s="93"/>
+      <c r="B55" s="94"/>
+      <c r="C55" s="97"/>
       <c r="D55" s="43"/>
-      <c r="E55" s="93"/>
+      <c r="E55" s="97"/>
       <c r="F55" s="44"/>
       <c r="G55" s="35"/>
       <c r="H55" s="35"/>
@@ -3791,10 +3799,10 @@
       <c r="K55" s="39"/>
     </row>
     <row r="56" spans="2:11" s="27" customFormat="1" ht="33" customHeight="1" thickBot="1">
-      <c r="B56" s="99"/>
-      <c r="C56" s="92"/>
+      <c r="B56" s="93"/>
+      <c r="C56" s="96"/>
       <c r="D56" s="43"/>
-      <c r="E56" s="94"/>
+      <c r="E56" s="103"/>
       <c r="F56" s="44"/>
       <c r="G56" s="35"/>
       <c r="H56" s="35"/>
@@ -3803,10 +3811,10 @@
       <c r="K56" s="39"/>
     </row>
     <row r="57" spans="2:11" s="68" customFormat="1" ht="33" customHeight="1" thickBot="1">
-      <c r="B57" s="100"/>
-      <c r="C57" s="93"/>
+      <c r="B57" s="94"/>
+      <c r="C57" s="97"/>
       <c r="D57" s="63"/>
-      <c r="E57" s="93"/>
+      <c r="E57" s="97"/>
       <c r="F57" s="64"/>
       <c r="G57" s="62"/>
       <c r="H57" s="62"/>
@@ -3815,10 +3823,10 @@
       <c r="K57" s="67"/>
     </row>
     <row r="58" spans="2:11" s="27" customFormat="1" ht="33" customHeight="1" thickBot="1">
-      <c r="B58" s="99"/>
-      <c r="C58" s="92"/>
+      <c r="B58" s="93"/>
+      <c r="C58" s="96"/>
       <c r="D58" s="69"/>
-      <c r="E58" s="94"/>
+      <c r="E58" s="103"/>
       <c r="F58" s="70"/>
       <c r="G58" s="35"/>
       <c r="H58" s="35"/>
@@ -3827,10 +3835,10 @@
       <c r="K58" s="39"/>
     </row>
     <row r="59" spans="2:11" s="27" customFormat="1" ht="37.5" customHeight="1" thickBot="1">
-      <c r="B59" s="100"/>
-      <c r="C59" s="93"/>
+      <c r="B59" s="94"/>
+      <c r="C59" s="97"/>
       <c r="D59" s="43"/>
-      <c r="E59" s="93"/>
+      <c r="E59" s="97"/>
       <c r="F59" s="44"/>
       <c r="G59" s="35"/>
       <c r="H59" s="35"/>
@@ -3839,10 +3847,10 @@
       <c r="K59" s="39"/>
     </row>
     <row r="60" spans="2:11" s="79" customFormat="1" ht="33" customHeight="1" thickBot="1">
-      <c r="B60" s="99"/>
-      <c r="C60" s="92"/>
+      <c r="B60" s="93"/>
+      <c r="C60" s="96"/>
       <c r="D60" s="73"/>
-      <c r="E60" s="94"/>
+      <c r="E60" s="103"/>
       <c r="F60" s="74"/>
       <c r="G60" s="75"/>
       <c r="H60" s="75"/>
@@ -3851,10 +3859,10 @@
       <c r="K60" s="78"/>
     </row>
     <row r="61" spans="2:11" s="27" customFormat="1" ht="33" customHeight="1" thickBot="1">
-      <c r="B61" s="100"/>
-      <c r="C61" s="93"/>
+      <c r="B61" s="94"/>
+      <c r="C61" s="97"/>
       <c r="D61" s="43"/>
-      <c r="E61" s="93"/>
+      <c r="E61" s="97"/>
       <c r="F61" s="44"/>
       <c r="G61" s="35"/>
       <c r="H61" s="35"/>
@@ -3863,10 +3871,10 @@
       <c r="K61" s="39"/>
     </row>
     <row r="62" spans="2:11" s="27" customFormat="1" ht="33" customHeight="1" thickBot="1">
-      <c r="B62" s="99"/>
-      <c r="C62" s="92"/>
+      <c r="B62" s="93"/>
+      <c r="C62" s="96"/>
       <c r="D62" s="43"/>
-      <c r="E62" s="94"/>
+      <c r="E62" s="103"/>
       <c r="F62" s="44"/>
       <c r="G62" s="35"/>
       <c r="H62" s="35"/>
@@ -3875,10 +3883,10 @@
       <c r="K62" s="39"/>
     </row>
     <row r="63" spans="2:11" s="27" customFormat="1" ht="33" customHeight="1" thickBot="1">
-      <c r="B63" s="100"/>
-      <c r="C63" s="93"/>
+      <c r="B63" s="94"/>
+      <c r="C63" s="97"/>
       <c r="D63" s="43"/>
-      <c r="E63" s="93"/>
+      <c r="E63" s="97"/>
       <c r="F63" s="44"/>
       <c r="G63" s="35"/>
       <c r="H63" s="35"/>
@@ -3887,10 +3895,10 @@
       <c r="K63" s="39"/>
     </row>
     <row r="64" spans="2:11" s="27" customFormat="1" ht="33" customHeight="1" thickBot="1">
-      <c r="B64" s="99"/>
-      <c r="C64" s="92"/>
+      <c r="B64" s="93"/>
+      <c r="C64" s="96"/>
       <c r="D64" s="43"/>
-      <c r="E64" s="94"/>
+      <c r="E64" s="103"/>
       <c r="F64" s="44"/>
       <c r="G64" s="35"/>
       <c r="H64" s="35"/>
@@ -3899,10 +3907,10 @@
       <c r="K64" s="39"/>
     </row>
     <row r="65" spans="1:11" s="27" customFormat="1" ht="33" customHeight="1" thickBot="1">
-      <c r="B65" s="100"/>
-      <c r="C65" s="93"/>
+      <c r="B65" s="94"/>
+      <c r="C65" s="97"/>
       <c r="D65" s="43"/>
-      <c r="E65" s="93"/>
+      <c r="E65" s="97"/>
       <c r="F65" s="44"/>
       <c r="G65" s="35"/>
       <c r="H65" s="35"/>
@@ -3911,7 +3919,7 @@
       <c r="K65" s="39"/>
     </row>
     <row r="66" spans="1:11" s="27" customFormat="1" ht="33" customHeight="1" thickBot="1">
-      <c r="B66" s="99"/>
+      <c r="B66" s="93"/>
       <c r="C66" s="60"/>
       <c r="D66" s="43"/>
       <c r="E66" s="61"/>
@@ -3923,7 +3931,7 @@
       <c r="K66" s="39"/>
     </row>
     <row r="67" spans="1:11" s="27" customFormat="1" ht="33" customHeight="1" thickBot="1">
-      <c r="B67" s="100"/>
+      <c r="B67" s="94"/>
       <c r="C67" s="71"/>
       <c r="D67" s="43"/>
       <c r="E67" s="72"/>
@@ -3935,10 +3943,10 @@
       <c r="K67" s="39"/>
     </row>
     <row r="68" spans="1:11" s="27" customFormat="1" ht="33" customHeight="1" thickBot="1">
-      <c r="B68" s="99"/>
-      <c r="C68" s="92"/>
+      <c r="B68" s="93"/>
+      <c r="C68" s="96"/>
       <c r="D68" s="43"/>
-      <c r="E68" s="94"/>
+      <c r="E68" s="103"/>
       <c r="F68" s="44"/>
       <c r="G68" s="35"/>
       <c r="H68" s="35"/>
@@ -3948,10 +3956,10 @@
     </row>
     <row r="69" spans="1:11" ht="13.5" thickBot="1">
       <c r="A69" s="27"/>
-      <c r="B69" s="100"/>
-      <c r="C69" s="93"/>
+      <c r="B69" s="94"/>
+      <c r="C69" s="97"/>
       <c r="D69" s="43"/>
-      <c r="E69" s="93"/>
+      <c r="E69" s="97"/>
       <c r="F69" s="44"/>
       <c r="G69" s="35"/>
       <c r="H69" s="35"/>
@@ -3961,10 +3969,10 @@
     </row>
     <row r="70" spans="1:11" ht="13.5" thickBot="1">
       <c r="A70" s="27"/>
-      <c r="B70" s="99"/>
-      <c r="C70" s="92"/>
+      <c r="B70" s="93"/>
+      <c r="C70" s="96"/>
       <c r="D70" s="43"/>
-      <c r="E70" s="94"/>
+      <c r="E70" s="103"/>
       <c r="F70" s="44"/>
       <c r="G70" s="35"/>
       <c r="H70" s="35"/>
@@ -3974,10 +3982,10 @@
     </row>
     <row r="71" spans="1:11" ht="13.5" thickBot="1">
       <c r="A71" s="27"/>
-      <c r="B71" s="100"/>
-      <c r="C71" s="93"/>
+      <c r="B71" s="94"/>
+      <c r="C71" s="97"/>
       <c r="D71" s="43"/>
-      <c r="E71" s="93"/>
+      <c r="E71" s="97"/>
       <c r="F71" s="44"/>
       <c r="G71" s="35"/>
       <c r="H71" s="35"/>
@@ -3986,10 +3994,10 @@
       <c r="K71" s="39"/>
     </row>
     <row r="72" spans="1:11" ht="13.5" thickBot="1">
-      <c r="B72" s="99"/>
-      <c r="C72" s="92"/>
+      <c r="B72" s="93"/>
+      <c r="C72" s="96"/>
       <c r="D72" s="43"/>
-      <c r="E72" s="94"/>
+      <c r="E72" s="103"/>
       <c r="F72" s="44"/>
       <c r="G72" s="35"/>
       <c r="H72" s="35"/>
@@ -3998,10 +4006,10 @@
       <c r="K72" s="39"/>
     </row>
     <row r="73" spans="1:11" ht="13.5" thickBot="1">
-      <c r="B73" s="100"/>
-      <c r="C73" s="93"/>
+      <c r="B73" s="94"/>
+      <c r="C73" s="97"/>
       <c r="D73" s="43"/>
-      <c r="E73" s="93"/>
+      <c r="E73" s="97"/>
       <c r="F73" s="44"/>
       <c r="G73" s="35"/>
       <c r="H73" s="35"/>
@@ -4010,10 +4018,10 @@
       <c r="K73" s="39"/>
     </row>
     <row r="74" spans="1:11" ht="25.5" customHeight="1" thickBot="1">
-      <c r="B74" s="99"/>
-      <c r="C74" s="92"/>
+      <c r="B74" s="93"/>
+      <c r="C74" s="96"/>
       <c r="D74" s="43"/>
-      <c r="E74" s="94"/>
+      <c r="E74" s="103"/>
       <c r="F74" s="44"/>
       <c r="G74" s="35"/>
       <c r="H74" s="35"/>
@@ -4022,10 +4030,10 @@
       <c r="K74" s="39"/>
     </row>
     <row r="75" spans="1:11" ht="13.5" thickBot="1">
-      <c r="B75" s="100"/>
-      <c r="C75" s="93"/>
+      <c r="B75" s="94"/>
+      <c r="C75" s="97"/>
       <c r="D75" s="43"/>
-      <c r="E75" s="93"/>
+      <c r="E75" s="97"/>
       <c r="F75" s="44"/>
       <c r="G75" s="35"/>
       <c r="H75" s="35"/>
@@ -4034,10 +4042,10 @@
       <c r="K75" s="39"/>
     </row>
     <row r="76" spans="1:11" ht="13.5" thickBot="1">
-      <c r="B76" s="99"/>
-      <c r="C76" s="92"/>
+      <c r="B76" s="93"/>
+      <c r="C76" s="96"/>
       <c r="D76" s="43"/>
-      <c r="E76" s="94"/>
+      <c r="E76" s="103"/>
       <c r="F76" s="44"/>
       <c r="G76" s="35"/>
       <c r="H76" s="35"/>
@@ -4046,10 +4054,10 @@
       <c r="K76" s="39"/>
     </row>
     <row r="77" spans="1:11" ht="13.5" thickBot="1">
-      <c r="B77" s="100"/>
-      <c r="C77" s="93"/>
+      <c r="B77" s="94"/>
+      <c r="C77" s="97"/>
       <c r="D77" s="43"/>
-      <c r="E77" s="93"/>
+      <c r="E77" s="97"/>
       <c r="F77" s="44"/>
       <c r="G77" s="35"/>
       <c r="H77" s="35"/>
@@ -4058,10 +4066,10 @@
       <c r="K77" s="39"/>
     </row>
     <row r="78" spans="1:11" ht="25.5" customHeight="1" thickBot="1">
-      <c r="B78" s="99"/>
-      <c r="C78" s="92"/>
+      <c r="B78" s="93"/>
+      <c r="C78" s="96"/>
       <c r="D78" s="43"/>
-      <c r="E78" s="94"/>
+      <c r="E78" s="103"/>
       <c r="F78" s="44"/>
       <c r="G78" s="35"/>
       <c r="H78" s="35"/>
@@ -4070,10 +4078,10 @@
       <c r="K78" s="39"/>
     </row>
     <row r="79" spans="1:11" ht="13.5" thickBot="1">
-      <c r="B79" s="100"/>
-      <c r="C79" s="93"/>
+      <c r="B79" s="94"/>
+      <c r="C79" s="97"/>
       <c r="D79" s="43"/>
-      <c r="E79" s="93"/>
+      <c r="E79" s="97"/>
       <c r="F79" s="44"/>
       <c r="G79" s="80"/>
       <c r="H79" s="35"/>
@@ -4082,10 +4090,10 @@
       <c r="K79" s="39"/>
     </row>
     <row r="80" spans="1:11" ht="36" customHeight="1" thickBot="1">
-      <c r="B80" s="99"/>
-      <c r="C80" s="92"/>
+      <c r="B80" s="93"/>
+      <c r="C80" s="96"/>
       <c r="D80" s="43"/>
-      <c r="E80" s="94"/>
+      <c r="E80" s="103"/>
       <c r="F80" s="44"/>
       <c r="G80" s="80"/>
       <c r="H80" s="35"/>
@@ -4094,10 +4102,10 @@
       <c r="K80" s="39"/>
     </row>
     <row r="81" spans="2:11" ht="30" customHeight="1" thickBot="1">
-      <c r="B81" s="100"/>
-      <c r="C81" s="93"/>
+      <c r="B81" s="94"/>
+      <c r="C81" s="97"/>
       <c r="D81" s="43"/>
-      <c r="E81" s="93"/>
+      <c r="E81" s="97"/>
       <c r="F81" s="44"/>
       <c r="G81" s="35"/>
       <c r="H81" s="35"/>
@@ -4106,10 +4114,10 @@
       <c r="K81" s="39"/>
     </row>
     <row r="82" spans="2:11" ht="39" customHeight="1" thickBot="1">
-      <c r="B82" s="99"/>
-      <c r="C82" s="92"/>
+      <c r="B82" s="93"/>
+      <c r="C82" s="96"/>
       <c r="D82" s="43"/>
-      <c r="E82" s="94"/>
+      <c r="E82" s="103"/>
       <c r="F82" s="44"/>
       <c r="G82" s="35"/>
       <c r="H82" s="35"/>
@@ -4118,10 +4126,10 @@
       <c r="K82" s="39"/>
     </row>
     <row r="83" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B83" s="100"/>
-      <c r="C83" s="93"/>
+      <c r="B83" s="94"/>
+      <c r="C83" s="97"/>
       <c r="D83" s="43"/>
-      <c r="E83" s="93"/>
+      <c r="E83" s="97"/>
       <c r="F83" s="44"/>
       <c r="G83" s="35"/>
       <c r="H83" s="35"/>
@@ -4130,10 +4138,10 @@
       <c r="K83" s="39"/>
     </row>
     <row r="84" spans="2:11" ht="25.5" customHeight="1" thickBot="1">
-      <c r="B84" s="99"/>
-      <c r="C84" s="92"/>
+      <c r="B84" s="93"/>
+      <c r="C84" s="96"/>
       <c r="D84" s="43"/>
-      <c r="E84" s="94"/>
+      <c r="E84" s="103"/>
       <c r="F84" s="44"/>
       <c r="G84" s="35"/>
       <c r="H84" s="35"/>
@@ -4142,10 +4150,10 @@
       <c r="K84" s="39"/>
     </row>
     <row r="85" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B85" s="100"/>
-      <c r="C85" s="93"/>
+      <c r="B85" s="94"/>
+      <c r="C85" s="97"/>
       <c r="D85" s="43"/>
-      <c r="E85" s="93"/>
+      <c r="E85" s="97"/>
       <c r="F85" s="44"/>
       <c r="G85" s="35"/>
       <c r="H85" s="35"/>
@@ -4154,10 +4162,10 @@
       <c r="K85" s="39"/>
     </row>
     <row r="86" spans="2:11" ht="25.5" customHeight="1" thickBot="1">
-      <c r="B86" s="99"/>
-      <c r="C86" s="92"/>
+      <c r="B86" s="93"/>
+      <c r="C86" s="96"/>
       <c r="D86" s="43"/>
-      <c r="E86" s="94"/>
+      <c r="E86" s="103"/>
       <c r="F86" s="44"/>
       <c r="G86" s="35"/>
       <c r="H86" s="35"/>
@@ -4166,10 +4174,10 @@
       <c r="K86" s="39"/>
     </row>
     <row r="87" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B87" s="100"/>
-      <c r="C87" s="93"/>
+      <c r="B87" s="94"/>
+      <c r="C87" s="97"/>
       <c r="D87" s="43"/>
-      <c r="E87" s="93"/>
+      <c r="E87" s="97"/>
       <c r="F87" s="44"/>
       <c r="G87" s="35"/>
       <c r="H87" s="35"/>
@@ -4178,10 +4186,10 @@
       <c r="K87" s="39"/>
     </row>
     <row r="88" spans="2:11" ht="25.5" customHeight="1" thickBot="1">
-      <c r="B88" s="99"/>
-      <c r="C88" s="92"/>
+      <c r="B88" s="93"/>
+      <c r="C88" s="96"/>
       <c r="D88" s="43"/>
-      <c r="E88" s="94"/>
+      <c r="E88" s="103"/>
       <c r="F88" s="44"/>
       <c r="G88" s="35"/>
       <c r="H88" s="35"/>
@@ -4190,10 +4198,10 @@
       <c r="K88" s="39"/>
     </row>
     <row r="89" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B89" s="100"/>
-      <c r="C89" s="93"/>
+      <c r="B89" s="94"/>
+      <c r="C89" s="97"/>
       <c r="D89" s="43"/>
-      <c r="E89" s="93"/>
+      <c r="E89" s="97"/>
       <c r="F89" s="44"/>
       <c r="G89" s="35"/>
       <c r="H89" s="35"/>
@@ -4202,10 +4210,10 @@
       <c r="K89" s="39"/>
     </row>
     <row r="90" spans="2:11" ht="25.5" customHeight="1" thickBot="1">
-      <c r="B90" s="99"/>
-      <c r="C90" s="92"/>
+      <c r="B90" s="93"/>
+      <c r="C90" s="96"/>
       <c r="D90" s="43"/>
-      <c r="E90" s="94"/>
+      <c r="E90" s="103"/>
       <c r="F90" s="44"/>
       <c r="G90" s="35"/>
       <c r="H90" s="35"/>
@@ -4214,10 +4222,10 @@
       <c r="K90" s="39"/>
     </row>
     <row r="91" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B91" s="100"/>
-      <c r="C91" s="93"/>
+      <c r="B91" s="94"/>
+      <c r="C91" s="97"/>
       <c r="D91" s="43"/>
-      <c r="E91" s="93"/>
+      <c r="E91" s="97"/>
       <c r="F91" s="44"/>
       <c r="G91" s="35"/>
       <c r="H91" s="35"/>
@@ -4226,10 +4234,10 @@
       <c r="K91" s="39"/>
     </row>
     <row r="92" spans="2:11" ht="25.5" customHeight="1" thickBot="1">
-      <c r="B92" s="99"/>
-      <c r="C92" s="92"/>
+      <c r="B92" s="93"/>
+      <c r="C92" s="96"/>
       <c r="D92" s="43"/>
-      <c r="E92" s="94"/>
+      <c r="E92" s="103"/>
       <c r="F92" s="44"/>
       <c r="G92" s="35"/>
       <c r="H92" s="35"/>
@@ -4238,10 +4246,10 @@
       <c r="K92" s="39"/>
     </row>
     <row r="93" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B93" s="100"/>
-      <c r="C93" s="93"/>
+      <c r="B93" s="94"/>
+      <c r="C93" s="97"/>
       <c r="D93" s="43"/>
-      <c r="E93" s="93"/>
+      <c r="E93" s="97"/>
       <c r="F93" s="44"/>
       <c r="G93" s="35"/>
       <c r="H93" s="35"/>
@@ -4250,10 +4258,10 @@
       <c r="K93" s="39"/>
     </row>
     <row r="94" spans="2:11" ht="25.5" customHeight="1" thickBot="1">
-      <c r="B94" s="99"/>
-      <c r="C94" s="92"/>
+      <c r="B94" s="93"/>
+      <c r="C94" s="96"/>
       <c r="D94" s="43"/>
-      <c r="E94" s="94"/>
+      <c r="E94" s="103"/>
       <c r="F94" s="44"/>
       <c r="G94" s="35"/>
       <c r="H94" s="35"/>
@@ -4262,10 +4270,10 @@
       <c r="K94" s="39"/>
     </row>
     <row r="95" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B95" s="100"/>
-      <c r="C95" s="93"/>
+      <c r="B95" s="94"/>
+      <c r="C95" s="97"/>
       <c r="D95" s="43"/>
-      <c r="E95" s="93"/>
+      <c r="E95" s="97"/>
       <c r="F95" s="44"/>
       <c r="G95" s="35"/>
       <c r="H95" s="35"/>
@@ -4274,10 +4282,10 @@
       <c r="K95" s="39"/>
     </row>
     <row r="96" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B96" s="99"/>
-      <c r="C96" s="92"/>
+      <c r="B96" s="93"/>
+      <c r="C96" s="96"/>
       <c r="D96" s="43"/>
-      <c r="E96" s="94"/>
+      <c r="E96" s="103"/>
       <c r="F96" s="44"/>
       <c r="G96" s="35"/>
       <c r="H96" s="35"/>
@@ -4286,10 +4294,10 @@
       <c r="K96" s="39"/>
     </row>
     <row r="97" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B97" s="100"/>
-      <c r="C97" s="93"/>
+      <c r="B97" s="94"/>
+      <c r="C97" s="97"/>
       <c r="D97" s="43"/>
-      <c r="E97" s="93"/>
+      <c r="E97" s="97"/>
       <c r="F97" s="44"/>
       <c r="G97" s="35"/>
       <c r="H97" s="35"/>
@@ -4298,10 +4306,10 @@
       <c r="K97" s="39"/>
     </row>
     <row r="98" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B98" s="99"/>
-      <c r="C98" s="92"/>
+      <c r="B98" s="93"/>
+      <c r="C98" s="96"/>
       <c r="D98" s="43"/>
-      <c r="E98" s="94"/>
+      <c r="E98" s="103"/>
       <c r="F98" s="44"/>
       <c r="G98" s="35"/>
       <c r="H98" s="35"/>
@@ -4310,10 +4318,10 @@
       <c r="K98" s="39"/>
     </row>
     <row r="99" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B99" s="100"/>
-      <c r="C99" s="93"/>
+      <c r="B99" s="94"/>
+      <c r="C99" s="97"/>
       <c r="D99" s="43"/>
-      <c r="E99" s="93"/>
+      <c r="E99" s="97"/>
       <c r="F99" s="44"/>
       <c r="G99" s="35"/>
       <c r="H99" s="35"/>
@@ -4322,10 +4330,10 @@
       <c r="K99" s="39"/>
     </row>
     <row r="100" spans="2:11" ht="25.5" customHeight="1" thickBot="1">
-      <c r="B100" s="99"/>
-      <c r="C100" s="92"/>
+      <c r="B100" s="93"/>
+      <c r="C100" s="96"/>
       <c r="D100" s="43"/>
-      <c r="E100" s="94"/>
+      <c r="E100" s="103"/>
       <c r="F100" s="44"/>
       <c r="G100" s="35"/>
       <c r="H100" s="35"/>
@@ -4334,10 +4342,10 @@
       <c r="K100" s="39"/>
     </row>
     <row r="101" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B101" s="100"/>
-      <c r="C101" s="93"/>
+      <c r="B101" s="94"/>
+      <c r="C101" s="97"/>
       <c r="D101" s="43"/>
-      <c r="E101" s="93"/>
+      <c r="E101" s="97"/>
       <c r="F101" s="44"/>
       <c r="G101" s="35"/>
       <c r="H101" s="35"/>
@@ -4346,10 +4354,10 @@
       <c r="K101" s="39"/>
     </row>
     <row r="102" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B102" s="99"/>
-      <c r="C102" s="92"/>
+      <c r="B102" s="93"/>
+      <c r="C102" s="96"/>
       <c r="D102" s="43"/>
-      <c r="E102" s="94"/>
+      <c r="E102" s="103"/>
       <c r="F102" s="44"/>
       <c r="G102" s="35"/>
       <c r="H102" s="35"/>
@@ -4358,10 +4366,10 @@
       <c r="K102" s="39"/>
     </row>
     <row r="103" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B103" s="100"/>
-      <c r="C103" s="93"/>
+      <c r="B103" s="94"/>
+      <c r="C103" s="97"/>
       <c r="D103" s="43"/>
-      <c r="E103" s="93"/>
+      <c r="E103" s="97"/>
       <c r="F103" s="44"/>
       <c r="G103" s="35"/>
       <c r="H103" s="35"/>
@@ -4370,10 +4378,10 @@
       <c r="K103" s="39"/>
     </row>
     <row r="104" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B104" s="99"/>
-      <c r="C104" s="92"/>
+      <c r="B104" s="93"/>
+      <c r="C104" s="96"/>
       <c r="D104" s="43"/>
-      <c r="E104" s="94"/>
+      <c r="E104" s="103"/>
       <c r="F104" s="44"/>
       <c r="G104" s="35"/>
       <c r="H104" s="35"/>
@@ -4382,10 +4390,10 @@
       <c r="K104" s="39"/>
     </row>
     <row r="105" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B105" s="100"/>
-      <c r="C105" s="93"/>
+      <c r="B105" s="94"/>
+      <c r="C105" s="97"/>
       <c r="D105" s="43"/>
-      <c r="E105" s="93"/>
+      <c r="E105" s="97"/>
       <c r="F105" s="44"/>
       <c r="G105" s="35"/>
       <c r="H105" s="35"/>
@@ -4394,10 +4402,10 @@
       <c r="K105" s="39"/>
     </row>
     <row r="106" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B106" s="99"/>
-      <c r="C106" s="92"/>
+      <c r="B106" s="93"/>
+      <c r="C106" s="96"/>
       <c r="D106" s="43"/>
-      <c r="E106" s="94"/>
+      <c r="E106" s="103"/>
       <c r="F106" s="44"/>
       <c r="G106" s="35"/>
       <c r="H106" s="35"/>
@@ -4406,10 +4414,10 @@
       <c r="K106" s="39"/>
     </row>
     <row r="107" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B107" s="100"/>
-      <c r="C107" s="93"/>
+      <c r="B107" s="94"/>
+      <c r="C107" s="97"/>
       <c r="D107" s="43"/>
-      <c r="E107" s="93"/>
+      <c r="E107" s="97"/>
       <c r="F107" s="44"/>
       <c r="G107" s="35"/>
       <c r="H107" s="35"/>
@@ -4418,10 +4426,10 @@
       <c r="K107" s="39"/>
     </row>
     <row r="108" spans="2:11" ht="25.5" customHeight="1" thickBot="1">
-      <c r="B108" s="99"/>
-      <c r="C108" s="92"/>
+      <c r="B108" s="93"/>
+      <c r="C108" s="96"/>
       <c r="D108" s="43"/>
-      <c r="E108" s="94"/>
+      <c r="E108" s="103"/>
       <c r="F108" s="44"/>
       <c r="G108" s="35"/>
       <c r="H108" s="35"/>
@@ -4430,10 +4438,10 @@
       <c r="K108" s="39"/>
     </row>
     <row r="109" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B109" s="100"/>
-      <c r="C109" s="93"/>
+      <c r="B109" s="94"/>
+      <c r="C109" s="97"/>
       <c r="D109" s="43"/>
-      <c r="E109" s="93"/>
+      <c r="E109" s="97"/>
       <c r="F109" s="44"/>
       <c r="G109" s="35"/>
       <c r="H109" s="35"/>
@@ -4442,10 +4450,10 @@
       <c r="K109" s="39"/>
     </row>
     <row r="110" spans="2:11" ht="25.5" customHeight="1" thickBot="1">
-      <c r="B110" s="99"/>
-      <c r="C110" s="92"/>
+      <c r="B110" s="93"/>
+      <c r="C110" s="96"/>
       <c r="D110" s="43"/>
-      <c r="E110" s="94"/>
+      <c r="E110" s="103"/>
       <c r="F110" s="44"/>
       <c r="G110" s="35"/>
       <c r="H110" s="35"/>
@@ -4454,10 +4462,10 @@
       <c r="K110" s="39"/>
     </row>
     <row r="111" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B111" s="100"/>
-      <c r="C111" s="93"/>
+      <c r="B111" s="94"/>
+      <c r="C111" s="97"/>
       <c r="D111" s="43"/>
-      <c r="E111" s="93"/>
+      <c r="E111" s="97"/>
       <c r="F111" s="44"/>
       <c r="G111" s="35"/>
       <c r="H111" s="35"/>
@@ -4466,10 +4474,10 @@
       <c r="K111" s="39"/>
     </row>
     <row r="112" spans="2:11" ht="25.5" customHeight="1" thickBot="1">
-      <c r="B112" s="99"/>
-      <c r="C112" s="92"/>
+      <c r="B112" s="93"/>
+      <c r="C112" s="96"/>
       <c r="D112" s="43"/>
-      <c r="E112" s="94"/>
+      <c r="E112" s="103"/>
       <c r="F112" s="44"/>
       <c r="G112" s="35"/>
       <c r="H112" s="35"/>
@@ -4478,10 +4486,10 @@
       <c r="K112" s="39"/>
     </row>
     <row r="113" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B113" s="100"/>
-      <c r="C113" s="93"/>
+      <c r="B113" s="94"/>
+      <c r="C113" s="97"/>
       <c r="D113" s="43"/>
-      <c r="E113" s="93"/>
+      <c r="E113" s="97"/>
       <c r="F113" s="44"/>
       <c r="G113" s="35"/>
       <c r="H113" s="35"/>
@@ -4490,10 +4498,10 @@
       <c r="K113" s="39"/>
     </row>
     <row r="114" spans="2:11" ht="25.5" customHeight="1" thickBot="1">
-      <c r="B114" s="99"/>
-      <c r="C114" s="92"/>
+      <c r="B114" s="93"/>
+      <c r="C114" s="96"/>
       <c r="D114" s="43"/>
-      <c r="E114" s="94"/>
+      <c r="E114" s="103"/>
       <c r="F114" s="44"/>
       <c r="G114" s="35"/>
       <c r="H114" s="35"/>
@@ -4502,10 +4510,10 @@
       <c r="K114" s="39"/>
     </row>
     <row r="115" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B115" s="100"/>
-      <c r="C115" s="93"/>
+      <c r="B115" s="94"/>
+      <c r="C115" s="97"/>
       <c r="D115" s="43"/>
-      <c r="E115" s="93"/>
+      <c r="E115" s="97"/>
       <c r="F115" s="44"/>
       <c r="G115" s="35"/>
       <c r="H115" s="35"/>
@@ -4514,10 +4522,10 @@
       <c r="K115" s="39"/>
     </row>
     <row r="116" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B116" s="99"/>
-      <c r="C116" s="92"/>
+      <c r="B116" s="93"/>
+      <c r="C116" s="96"/>
       <c r="D116" s="43"/>
-      <c r="E116" s="94"/>
+      <c r="E116" s="103"/>
       <c r="F116" s="44"/>
       <c r="G116" s="35"/>
       <c r="H116" s="35"/>
@@ -4526,10 +4534,10 @@
       <c r="K116" s="39"/>
     </row>
     <row r="117" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B117" s="100"/>
-      <c r="C117" s="93"/>
+      <c r="B117" s="94"/>
+      <c r="C117" s="97"/>
       <c r="D117" s="43"/>
-      <c r="E117" s="93"/>
+      <c r="E117" s="97"/>
       <c r="F117" s="44"/>
       <c r="G117" s="35"/>
       <c r="H117" s="35"/>
@@ -4538,10 +4546,10 @@
       <c r="K117" s="39"/>
     </row>
     <row r="118" spans="2:11" ht="25.5" customHeight="1" thickBot="1">
-      <c r="B118" s="99"/>
-      <c r="C118" s="92"/>
+      <c r="B118" s="93"/>
+      <c r="C118" s="96"/>
       <c r="D118" s="43"/>
-      <c r="E118" s="94"/>
+      <c r="E118" s="103"/>
       <c r="F118" s="44"/>
       <c r="G118" s="35"/>
       <c r="H118" s="35"/>
@@ -4550,10 +4558,10 @@
       <c r="K118" s="39"/>
     </row>
     <row r="119" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B119" s="100"/>
-      <c r="C119" s="93"/>
+      <c r="B119" s="94"/>
+      <c r="C119" s="97"/>
       <c r="D119" s="43"/>
-      <c r="E119" s="93"/>
+      <c r="E119" s="97"/>
       <c r="F119" s="44"/>
       <c r="G119" s="35"/>
       <c r="H119" s="35"/>
@@ -4562,10 +4570,10 @@
       <c r="K119" s="39"/>
     </row>
     <row r="120" spans="2:11" ht="25.5" customHeight="1" thickBot="1">
-      <c r="B120" s="99"/>
-      <c r="C120" s="92"/>
+      <c r="B120" s="93"/>
+      <c r="C120" s="96"/>
       <c r="D120" s="43"/>
-      <c r="E120" s="94"/>
+      <c r="E120" s="103"/>
       <c r="F120" s="44"/>
       <c r="G120" s="35"/>
       <c r="H120" s="35"/>
@@ -4574,10 +4582,10 @@
       <c r="K120" s="39"/>
     </row>
     <row r="121" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B121" s="100"/>
-      <c r="C121" s="93"/>
+      <c r="B121" s="94"/>
+      <c r="C121" s="97"/>
       <c r="D121" s="43"/>
-      <c r="E121" s="93"/>
+      <c r="E121" s="97"/>
       <c r="F121" s="44"/>
       <c r="G121" s="35"/>
       <c r="H121" s="35"/>
@@ -4586,10 +4594,10 @@
       <c r="K121" s="39"/>
     </row>
     <row r="122" spans="2:11" ht="25.5" customHeight="1" thickBot="1">
-      <c r="B122" s="99"/>
-      <c r="C122" s="92"/>
+      <c r="B122" s="93"/>
+      <c r="C122" s="96"/>
       <c r="D122" s="43"/>
-      <c r="E122" s="94"/>
+      <c r="E122" s="103"/>
       <c r="F122" s="44"/>
       <c r="G122" s="35"/>
       <c r="H122" s="35"/>
@@ -4598,10 +4606,10 @@
       <c r="K122" s="39"/>
     </row>
     <row r="123" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B123" s="100"/>
-      <c r="C123" s="93"/>
+      <c r="B123" s="94"/>
+      <c r="C123" s="97"/>
       <c r="D123" s="43"/>
-      <c r="E123" s="93"/>
+      <c r="E123" s="97"/>
       <c r="F123" s="44"/>
       <c r="G123" s="35"/>
       <c r="H123" s="35"/>
@@ -4610,10 +4618,10 @@
       <c r="K123" s="39"/>
     </row>
     <row r="124" spans="2:11" ht="27.75" customHeight="1" thickBot="1">
-      <c r="B124" s="99"/>
-      <c r="C124" s="92"/>
+      <c r="B124" s="93"/>
+      <c r="C124" s="96"/>
       <c r="D124" s="43"/>
-      <c r="E124" s="94"/>
+      <c r="E124" s="103"/>
       <c r="F124" s="44"/>
       <c r="G124" s="35"/>
       <c r="H124" s="35"/>
@@ -4622,10 +4630,10 @@
       <c r="K124" s="39"/>
     </row>
     <row r="125" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B125" s="100"/>
-      <c r="C125" s="93"/>
+      <c r="B125" s="94"/>
+      <c r="C125" s="97"/>
       <c r="D125" s="43"/>
-      <c r="E125" s="93"/>
+      <c r="E125" s="97"/>
       <c r="F125" s="44"/>
       <c r="G125" s="35"/>
       <c r="H125" s="35"/>
@@ -4634,10 +4642,10 @@
       <c r="K125" s="39"/>
     </row>
     <row r="126" spans="2:11" ht="25.5" customHeight="1" thickBot="1">
-      <c r="B126" s="99"/>
-      <c r="C126" s="92"/>
+      <c r="B126" s="93"/>
+      <c r="C126" s="96"/>
       <c r="D126" s="43"/>
-      <c r="E126" s="94"/>
+      <c r="E126" s="103"/>
       <c r="F126" s="44"/>
       <c r="G126" s="35"/>
       <c r="H126" s="35"/>
@@ -4646,10 +4654,10 @@
       <c r="K126" s="39"/>
     </row>
     <row r="127" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B127" s="100"/>
-      <c r="C127" s="93"/>
+      <c r="B127" s="94"/>
+      <c r="C127" s="97"/>
       <c r="D127" s="43"/>
-      <c r="E127" s="93"/>
+      <c r="E127" s="97"/>
       <c r="F127" s="44"/>
       <c r="G127" s="35"/>
       <c r="H127" s="35"/>
@@ -4658,10 +4666,10 @@
       <c r="K127" s="39"/>
     </row>
     <row r="128" spans="2:11" ht="39.75" customHeight="1" thickBot="1">
-      <c r="B128" s="99"/>
-      <c r="C128" s="92"/>
+      <c r="B128" s="93"/>
+      <c r="C128" s="96"/>
       <c r="D128" s="43"/>
-      <c r="E128" s="94"/>
+      <c r="E128" s="103"/>
       <c r="F128" s="44"/>
       <c r="G128" s="35"/>
       <c r="H128" s="35"/>
@@ -4670,10 +4678,10 @@
       <c r="K128" s="39"/>
     </row>
     <row r="129" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B129" s="100"/>
-      <c r="C129" s="93"/>
+      <c r="B129" s="94"/>
+      <c r="C129" s="97"/>
       <c r="D129" s="43"/>
-      <c r="E129" s="93"/>
+      <c r="E129" s="97"/>
       <c r="F129" s="44"/>
       <c r="G129" s="35"/>
       <c r="H129" s="35"/>
@@ -4682,10 +4690,10 @@
       <c r="K129" s="39"/>
     </row>
     <row r="130" spans="2:11" ht="25.5" customHeight="1" thickBot="1">
-      <c r="B130" s="99"/>
-      <c r="C130" s="92"/>
+      <c r="B130" s="93"/>
+      <c r="C130" s="96"/>
       <c r="D130" s="43"/>
-      <c r="E130" s="94"/>
+      <c r="E130" s="103"/>
       <c r="F130" s="44"/>
       <c r="G130" s="35"/>
       <c r="H130" s="35"/>
@@ -4694,10 +4702,10 @@
       <c r="K130" s="39"/>
     </row>
     <row r="131" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B131" s="100"/>
-      <c r="C131" s="93"/>
+      <c r="B131" s="94"/>
+      <c r="C131" s="97"/>
       <c r="D131" s="43"/>
-      <c r="E131" s="93"/>
+      <c r="E131" s="97"/>
       <c r="F131" s="44"/>
       <c r="G131" s="35"/>
       <c r="H131" s="35"/>
@@ -4706,10 +4714,10 @@
       <c r="K131" s="39"/>
     </row>
     <row r="132" spans="2:11" ht="25.5" customHeight="1" thickBot="1">
-      <c r="B132" s="99"/>
-      <c r="C132" s="92"/>
+      <c r="B132" s="93"/>
+      <c r="C132" s="96"/>
       <c r="D132" s="43"/>
-      <c r="E132" s="94"/>
+      <c r="E132" s="103"/>
       <c r="F132" s="44"/>
       <c r="G132" s="35"/>
       <c r="H132" s="35"/>
@@ -4718,10 +4726,10 @@
       <c r="K132" s="39"/>
     </row>
     <row r="133" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B133" s="100"/>
-      <c r="C133" s="93"/>
+      <c r="B133" s="94"/>
+      <c r="C133" s="97"/>
       <c r="D133" s="43"/>
-      <c r="E133" s="93"/>
+      <c r="E133" s="97"/>
       <c r="F133" s="44"/>
       <c r="G133" s="35"/>
       <c r="H133" s="35"/>
@@ -4730,10 +4738,10 @@
       <c r="K133" s="39"/>
     </row>
     <row r="134" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B134" s="99"/>
-      <c r="C134" s="92"/>
+      <c r="B134" s="93"/>
+      <c r="C134" s="96"/>
       <c r="D134" s="43"/>
-      <c r="E134" s="94"/>
+      <c r="E134" s="103"/>
       <c r="F134" s="44"/>
       <c r="G134" s="35"/>
       <c r="H134" s="35"/>
@@ -4742,10 +4750,10 @@
       <c r="K134" s="39"/>
     </row>
     <row r="135" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B135" s="100"/>
-      <c r="C135" s="93"/>
+      <c r="B135" s="94"/>
+      <c r="C135" s="97"/>
       <c r="D135" s="43"/>
-      <c r="E135" s="93"/>
+      <c r="E135" s="97"/>
       <c r="F135" s="44"/>
       <c r="G135" s="35"/>
       <c r="H135" s="35"/>
@@ -4754,10 +4762,10 @@
       <c r="K135" s="39"/>
     </row>
     <row r="136" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B136" s="99"/>
-      <c r="C136" s="92"/>
+      <c r="B136" s="93"/>
+      <c r="C136" s="96"/>
       <c r="D136" s="43"/>
-      <c r="E136" s="94"/>
+      <c r="E136" s="103"/>
       <c r="F136" s="44"/>
       <c r="G136" s="35"/>
       <c r="H136" s="35"/>
@@ -4766,10 +4774,10 @@
       <c r="K136" s="39"/>
     </row>
     <row r="137" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B137" s="100"/>
-      <c r="C137" s="93"/>
+      <c r="B137" s="94"/>
+      <c r="C137" s="97"/>
       <c r="D137" s="43"/>
-      <c r="E137" s="93"/>
+      <c r="E137" s="97"/>
       <c r="F137" s="44"/>
       <c r="G137" s="35"/>
       <c r="H137" s="35"/>
@@ -4778,10 +4786,10 @@
       <c r="K137" s="39"/>
     </row>
     <row r="138" spans="2:11" ht="25.5" customHeight="1" thickBot="1">
-      <c r="B138" s="99"/>
-      <c r="C138" s="92"/>
+      <c r="B138" s="93"/>
+      <c r="C138" s="96"/>
       <c r="D138" s="43"/>
-      <c r="E138" s="94"/>
+      <c r="E138" s="103"/>
       <c r="F138" s="44"/>
       <c r="G138" s="35"/>
       <c r="H138" s="35"/>
@@ -4790,10 +4798,10 @@
       <c r="K138" s="39"/>
     </row>
     <row r="139" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B139" s="100"/>
-      <c r="C139" s="93"/>
+      <c r="B139" s="94"/>
+      <c r="C139" s="97"/>
       <c r="D139" s="43"/>
-      <c r="E139" s="93"/>
+      <c r="E139" s="97"/>
       <c r="F139" s="44"/>
       <c r="G139" s="35"/>
       <c r="H139" s="35"/>
@@ -4802,10 +4810,10 @@
       <c r="K139" s="39"/>
     </row>
     <row r="140" spans="2:11" ht="25.5" customHeight="1" thickBot="1">
-      <c r="B140" s="99"/>
-      <c r="C140" s="92"/>
+      <c r="B140" s="93"/>
+      <c r="C140" s="96"/>
       <c r="D140" s="43"/>
-      <c r="E140" s="94"/>
+      <c r="E140" s="103"/>
       <c r="F140" s="44"/>
       <c r="G140" s="35"/>
       <c r="H140" s="35"/>
@@ -4814,10 +4822,10 @@
       <c r="K140" s="39"/>
     </row>
     <row r="141" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B141" s="100"/>
-      <c r="C141" s="93"/>
+      <c r="B141" s="94"/>
+      <c r="C141" s="97"/>
       <c r="D141" s="43"/>
-      <c r="E141" s="93"/>
+      <c r="E141" s="97"/>
       <c r="F141" s="44"/>
       <c r="G141" s="35"/>
       <c r="H141" s="35"/>
@@ -4826,10 +4834,10 @@
       <c r="K141" s="39"/>
     </row>
     <row r="142" spans="2:11" ht="25.5" customHeight="1" thickBot="1">
-      <c r="B142" s="99"/>
-      <c r="C142" s="92"/>
+      <c r="B142" s="93"/>
+      <c r="C142" s="96"/>
       <c r="D142" s="43"/>
-      <c r="E142" s="94"/>
+      <c r="E142" s="103"/>
       <c r="F142" s="44"/>
       <c r="G142" s="35"/>
       <c r="H142" s="35"/>
@@ -4838,10 +4846,10 @@
       <c r="K142" s="39"/>
     </row>
     <row r="143" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B143" s="100"/>
-      <c r="C143" s="93"/>
+      <c r="B143" s="94"/>
+      <c r="C143" s="97"/>
       <c r="D143" s="43"/>
-      <c r="E143" s="93"/>
+      <c r="E143" s="97"/>
       <c r="F143" s="44"/>
       <c r="G143" s="35"/>
       <c r="H143" s="35"/>
@@ -4850,10 +4858,10 @@
       <c r="K143" s="39"/>
     </row>
     <row r="144" spans="2:11" ht="25.5" customHeight="1" thickBot="1">
-      <c r="B144" s="99"/>
-      <c r="C144" s="92"/>
+      <c r="B144" s="93"/>
+      <c r="C144" s="96"/>
       <c r="D144" s="43"/>
-      <c r="E144" s="94"/>
+      <c r="E144" s="103"/>
       <c r="F144" s="44"/>
       <c r="G144" s="35"/>
       <c r="H144" s="35"/>
@@ -4862,10 +4870,10 @@
       <c r="K144" s="39"/>
     </row>
     <row r="145" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B145" s="100"/>
-      <c r="C145" s="93"/>
+      <c r="B145" s="94"/>
+      <c r="C145" s="97"/>
       <c r="D145" s="43"/>
-      <c r="E145" s="93"/>
+      <c r="E145" s="97"/>
       <c r="F145" s="44"/>
       <c r="G145" s="35"/>
       <c r="H145" s="35"/>
@@ -4874,10 +4882,10 @@
       <c r="K145" s="39"/>
     </row>
     <row r="146" spans="2:11" ht="25.5" customHeight="1" thickBot="1">
-      <c r="B146" s="99"/>
-      <c r="C146" s="92"/>
+      <c r="B146" s="93"/>
+      <c r="C146" s="96"/>
       <c r="D146" s="43"/>
-      <c r="E146" s="94"/>
+      <c r="E146" s="103"/>
       <c r="F146" s="44"/>
       <c r="G146" s="35"/>
       <c r="H146" s="35"/>
@@ -4886,10 +4894,10 @@
       <c r="K146" s="39"/>
     </row>
     <row r="147" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B147" s="100"/>
-      <c r="C147" s="93"/>
+      <c r="B147" s="94"/>
+      <c r="C147" s="97"/>
       <c r="D147" s="43"/>
-      <c r="E147" s="93"/>
+      <c r="E147" s="97"/>
       <c r="F147" s="44"/>
       <c r="G147" s="35"/>
       <c r="H147" s="35"/>
@@ -4898,10 +4906,10 @@
       <c r="K147" s="39"/>
     </row>
     <row r="148" spans="2:11" ht="25.5" customHeight="1" thickBot="1">
-      <c r="B148" s="99"/>
-      <c r="C148" s="92"/>
+      <c r="B148" s="93"/>
+      <c r="C148" s="96"/>
       <c r="D148" s="43"/>
-      <c r="E148" s="94"/>
+      <c r="E148" s="103"/>
       <c r="F148" s="44"/>
       <c r="G148" s="35"/>
       <c r="H148" s="35"/>
@@ -4910,10 +4918,10 @@
       <c r="K148" s="39"/>
     </row>
     <row r="149" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B149" s="100"/>
-      <c r="C149" s="93"/>
+      <c r="B149" s="94"/>
+      <c r="C149" s="97"/>
       <c r="D149" s="43"/>
-      <c r="E149" s="93"/>
+      <c r="E149" s="97"/>
       <c r="F149" s="44"/>
       <c r="G149" s="35"/>
       <c r="H149" s="35"/>
@@ -4922,10 +4930,10 @@
       <c r="K149" s="39"/>
     </row>
     <row r="150" spans="2:11" ht="25.5" customHeight="1" thickBot="1">
-      <c r="B150" s="99"/>
-      <c r="C150" s="92"/>
+      <c r="B150" s="93"/>
+      <c r="C150" s="96"/>
       <c r="D150" s="43"/>
-      <c r="E150" s="94"/>
+      <c r="E150" s="103"/>
       <c r="F150" s="44"/>
       <c r="G150" s="35"/>
       <c r="H150" s="35"/>
@@ -4934,10 +4942,10 @@
       <c r="K150" s="39"/>
     </row>
     <row r="151" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B151" s="100"/>
-      <c r="C151" s="93"/>
+      <c r="B151" s="94"/>
+      <c r="C151" s="97"/>
       <c r="D151" s="43"/>
-      <c r="E151" s="93"/>
+      <c r="E151" s="97"/>
       <c r="F151" s="44"/>
       <c r="G151" s="35"/>
       <c r="H151" s="35"/>
@@ -4946,8 +4954,8 @@
       <c r="K151" s="39"/>
     </row>
     <row r="152" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B152" s="99"/>
-      <c r="C152" s="92"/>
+      <c r="B152" s="93"/>
+      <c r="C152" s="96"/>
       <c r="D152" s="43"/>
       <c r="E152" s="41"/>
       <c r="F152" s="44"/>
@@ -4958,8 +4966,8 @@
       <c r="K152" s="39"/>
     </row>
     <row r="153" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B153" s="100"/>
-      <c r="C153" s="93"/>
+      <c r="B153" s="94"/>
+      <c r="C153" s="97"/>
       <c r="D153" s="43"/>
       <c r="E153" s="41"/>
       <c r="F153" s="44"/>
@@ -4970,8 +4978,8 @@
       <c r="K153" s="39"/>
     </row>
     <row r="154" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B154" s="99"/>
-      <c r="C154" s="92"/>
+      <c r="B154" s="93"/>
+      <c r="C154" s="96"/>
       <c r="D154" s="43"/>
       <c r="E154" s="41"/>
       <c r="F154" s="44"/>
@@ -4982,8 +4990,8 @@
       <c r="K154" s="39"/>
     </row>
     <row r="155" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B155" s="100"/>
-      <c r="C155" s="93"/>
+      <c r="B155" s="94"/>
+      <c r="C155" s="97"/>
       <c r="D155" s="43"/>
       <c r="E155" s="41"/>
       <c r="F155" s="44"/>
@@ -4994,8 +5002,8 @@
       <c r="K155" s="39"/>
     </row>
     <row r="156" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B156" s="99"/>
-      <c r="C156" s="92"/>
+      <c r="B156" s="93"/>
+      <c r="C156" s="96"/>
       <c r="D156" s="43"/>
       <c r="E156" s="41"/>
       <c r="F156" s="44"/>
@@ -5006,8 +5014,8 @@
       <c r="K156" s="39"/>
     </row>
     <row r="157" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B157" s="100"/>
-      <c r="C157" s="93"/>
+      <c r="B157" s="94"/>
+      <c r="C157" s="97"/>
       <c r="D157" s="43"/>
       <c r="E157" s="41"/>
       <c r="F157" s="44"/>
@@ -5018,8 +5026,8 @@
       <c r="K157" s="39"/>
     </row>
     <row r="158" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B158" s="99"/>
-      <c r="C158" s="92"/>
+      <c r="B158" s="93"/>
+      <c r="C158" s="96"/>
       <c r="D158" s="43"/>
       <c r="E158" s="41"/>
       <c r="F158" s="44"/>
@@ -5030,8 +5038,8 @@
       <c r="K158" s="39"/>
     </row>
     <row r="159" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B159" s="100"/>
-      <c r="C159" s="93"/>
+      <c r="B159" s="94"/>
+      <c r="C159" s="97"/>
       <c r="D159" s="43"/>
       <c r="E159" s="41"/>
       <c r="F159" s="44"/>
@@ -5042,8 +5050,8 @@
       <c r="K159" s="39"/>
     </row>
     <row r="160" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B160" s="99"/>
-      <c r="C160" s="92"/>
+      <c r="B160" s="93"/>
+      <c r="C160" s="96"/>
       <c r="D160" s="43"/>
       <c r="E160" s="41"/>
       <c r="F160" s="44"/>
@@ -5054,8 +5062,8 @@
       <c r="K160" s="39"/>
     </row>
     <row r="161" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B161" s="100"/>
-      <c r="C161" s="93"/>
+      <c r="B161" s="94"/>
+      <c r="C161" s="97"/>
       <c r="D161" s="43"/>
       <c r="E161" s="41"/>
       <c r="F161" s="44"/>
@@ -5066,8 +5074,8 @@
       <c r="K161" s="39"/>
     </row>
     <row r="162" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B162" s="99"/>
-      <c r="C162" s="92"/>
+      <c r="B162" s="93"/>
+      <c r="C162" s="96"/>
       <c r="D162" s="43"/>
       <c r="E162" s="41"/>
       <c r="F162" s="44"/>
@@ -5078,8 +5086,8 @@
       <c r="K162" s="39"/>
     </row>
     <row r="163" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B163" s="100"/>
-      <c r="C163" s="93"/>
+      <c r="B163" s="94"/>
+      <c r="C163" s="97"/>
       <c r="D163" s="43"/>
       <c r="E163" s="41"/>
       <c r="F163" s="44"/>
@@ -5090,8 +5098,8 @@
       <c r="K163" s="39"/>
     </row>
     <row r="164" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B164" s="99"/>
-      <c r="C164" s="92"/>
+      <c r="B164" s="93"/>
+      <c r="C164" s="96"/>
       <c r="D164" s="43"/>
       <c r="E164" s="41"/>
       <c r="F164" s="44"/>
@@ -5102,8 +5110,8 @@
       <c r="K164" s="39"/>
     </row>
     <row r="165" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B165" s="100"/>
-      <c r="C165" s="93"/>
+      <c r="B165" s="94"/>
+      <c r="C165" s="97"/>
       <c r="D165" s="43"/>
       <c r="E165" s="41"/>
       <c r="F165" s="44"/>
@@ -5114,8 +5122,8 @@
       <c r="K165" s="39"/>
     </row>
     <row r="166" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B166" s="99"/>
-      <c r="C166" s="92"/>
+      <c r="B166" s="93"/>
+      <c r="C166" s="96"/>
       <c r="D166" s="43"/>
       <c r="E166" s="41"/>
       <c r="F166" s="44"/>
@@ -5126,8 +5134,8 @@
       <c r="K166" s="39"/>
     </row>
     <row r="167" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B167" s="100"/>
-      <c r="C167" s="93"/>
+      <c r="B167" s="94"/>
+      <c r="C167" s="97"/>
       <c r="D167" s="43"/>
       <c r="E167" s="41"/>
       <c r="F167" s="44"/>
@@ -5138,8 +5146,8 @@
       <c r="K167" s="39"/>
     </row>
     <row r="168" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B168" s="99"/>
-      <c r="C168" s="92"/>
+      <c r="B168" s="93"/>
+      <c r="C168" s="96"/>
       <c r="D168" s="43"/>
       <c r="E168" s="41"/>
       <c r="F168" s="44"/>
@@ -5150,8 +5158,8 @@
       <c r="K168" s="39"/>
     </row>
     <row r="169" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B169" s="100"/>
-      <c r="C169" s="93"/>
+      <c r="B169" s="94"/>
+      <c r="C169" s="97"/>
       <c r="D169" s="43"/>
       <c r="E169" s="41"/>
       <c r="F169" s="44"/>
@@ -5162,8 +5170,8 @@
       <c r="K169" s="39"/>
     </row>
     <row r="170" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B170" s="99"/>
-      <c r="C170" s="92"/>
+      <c r="B170" s="93"/>
+      <c r="C170" s="96"/>
       <c r="D170" s="43"/>
       <c r="E170" s="41"/>
       <c r="F170" s="44"/>
@@ -5174,8 +5182,8 @@
       <c r="K170" s="39"/>
     </row>
     <row r="171" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B171" s="100"/>
-      <c r="C171" s="93"/>
+      <c r="B171" s="94"/>
+      <c r="C171" s="97"/>
       <c r="D171" s="43"/>
       <c r="E171" s="41"/>
       <c r="F171" s="44"/>
@@ -5186,8 +5194,8 @@
       <c r="K171" s="39"/>
     </row>
     <row r="172" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B172" s="99"/>
-      <c r="C172" s="92"/>
+      <c r="B172" s="93"/>
+      <c r="C172" s="96"/>
       <c r="D172" s="43"/>
       <c r="E172" s="41"/>
       <c r="F172" s="44"/>
@@ -5198,8 +5206,8 @@
       <c r="K172" s="39"/>
     </row>
     <row r="173" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B173" s="100"/>
-      <c r="C173" s="93"/>
+      <c r="B173" s="94"/>
+      <c r="C173" s="97"/>
       <c r="D173" s="43"/>
       <c r="E173" s="41"/>
       <c r="F173" s="44"/>
@@ -5210,8 +5218,8 @@
       <c r="K173" s="39"/>
     </row>
     <row r="174" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B174" s="99"/>
-      <c r="C174" s="92"/>
+      <c r="B174" s="93"/>
+      <c r="C174" s="96"/>
       <c r="D174" s="43"/>
       <c r="E174" s="41"/>
       <c r="F174" s="44"/>
@@ -5222,8 +5230,8 @@
       <c r="K174" s="39"/>
     </row>
     <row r="175" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B175" s="100"/>
-      <c r="C175" s="93"/>
+      <c r="B175" s="94"/>
+      <c r="C175" s="97"/>
       <c r="D175" s="43"/>
       <c r="E175" s="41"/>
       <c r="F175" s="44"/>
@@ -5234,8 +5242,8 @@
       <c r="K175" s="39"/>
     </row>
     <row r="176" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B176" s="99"/>
-      <c r="C176" s="92"/>
+      <c r="B176" s="93"/>
+      <c r="C176" s="96"/>
       <c r="D176" s="43"/>
       <c r="E176" s="41"/>
       <c r="F176" s="44"/>
@@ -5246,8 +5254,8 @@
       <c r="K176" s="39"/>
     </row>
     <row r="177" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B177" s="100"/>
-      <c r="C177" s="93"/>
+      <c r="B177" s="94"/>
+      <c r="C177" s="97"/>
       <c r="D177" s="43"/>
       <c r="E177" s="41"/>
       <c r="F177" s="44"/>
@@ -5258,8 +5266,8 @@
       <c r="K177" s="39"/>
     </row>
     <row r="178" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B178" s="99"/>
-      <c r="C178" s="92"/>
+      <c r="B178" s="93"/>
+      <c r="C178" s="96"/>
       <c r="D178" s="43"/>
       <c r="E178" s="41"/>
       <c r="F178" s="44"/>
@@ -5270,8 +5278,8 @@
       <c r="K178" s="39"/>
     </row>
     <row r="179" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B179" s="100"/>
-      <c r="C179" s="93"/>
+      <c r="B179" s="94"/>
+      <c r="C179" s="97"/>
       <c r="D179" s="43"/>
       <c r="E179" s="41"/>
       <c r="F179" s="44"/>
@@ -5282,8 +5290,8 @@
       <c r="K179" s="39"/>
     </row>
     <row r="180" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B180" s="99"/>
-      <c r="C180" s="92"/>
+      <c r="B180" s="93"/>
+      <c r="C180" s="96"/>
       <c r="D180" s="43"/>
       <c r="E180" s="41"/>
       <c r="F180" s="44"/>
@@ -5294,8 +5302,8 @@
       <c r="K180" s="39"/>
     </row>
     <row r="181" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B181" s="100"/>
-      <c r="C181" s="93"/>
+      <c r="B181" s="94"/>
+      <c r="C181" s="97"/>
       <c r="D181" s="43"/>
       <c r="E181" s="41"/>
       <c r="F181" s="44"/>
@@ -5306,8 +5314,8 @@
       <c r="K181" s="39"/>
     </row>
     <row r="182" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B182" s="99"/>
-      <c r="C182" s="92"/>
+      <c r="B182" s="93"/>
+      <c r="C182" s="96"/>
       <c r="D182" s="43"/>
       <c r="E182" s="41"/>
       <c r="F182" s="44"/>
@@ -5318,8 +5326,8 @@
       <c r="K182" s="39"/>
     </row>
     <row r="183" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B183" s="100"/>
-      <c r="C183" s="93"/>
+      <c r="B183" s="94"/>
+      <c r="C183" s="97"/>
       <c r="D183" s="43"/>
       <c r="E183" s="41"/>
       <c r="F183" s="44"/>
@@ -5330,8 +5338,8 @@
       <c r="K183" s="39"/>
     </row>
     <row r="184" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B184" s="99"/>
-      <c r="C184" s="92"/>
+      <c r="B184" s="93"/>
+      <c r="C184" s="96"/>
       <c r="D184" s="43"/>
       <c r="E184" s="41"/>
       <c r="F184" s="44"/>
@@ -5342,8 +5350,8 @@
       <c r="K184" s="39"/>
     </row>
     <row r="185" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B185" s="100"/>
-      <c r="C185" s="93"/>
+      <c r="B185" s="94"/>
+      <c r="C185" s="97"/>
       <c r="D185" s="43"/>
       <c r="E185" s="41"/>
       <c r="F185" s="44"/>
@@ -5354,8 +5362,8 @@
       <c r="K185" s="39"/>
     </row>
     <row r="186" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B186" s="99"/>
-      <c r="C186" s="92"/>
+      <c r="B186" s="93"/>
+      <c r="C186" s="96"/>
       <c r="D186" s="43"/>
       <c r="E186" s="41"/>
       <c r="F186" s="44"/>
@@ -5366,8 +5374,8 @@
       <c r="K186" s="39"/>
     </row>
     <row r="187" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B187" s="100"/>
-      <c r="C187" s="93"/>
+      <c r="B187" s="94"/>
+      <c r="C187" s="97"/>
       <c r="D187" s="43"/>
       <c r="E187" s="41"/>
       <c r="F187" s="44"/>
@@ -5378,8 +5386,8 @@
       <c r="K187" s="39"/>
     </row>
     <row r="188" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B188" s="99"/>
-      <c r="C188" s="92"/>
+      <c r="B188" s="93"/>
+      <c r="C188" s="96"/>
       <c r="D188" s="43"/>
       <c r="E188" s="41"/>
       <c r="F188" s="44"/>
@@ -5390,8 +5398,8 @@
       <c r="K188" s="39"/>
     </row>
     <row r="189" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B189" s="100"/>
-      <c r="C189" s="93"/>
+      <c r="B189" s="94"/>
+      <c r="C189" s="97"/>
       <c r="D189" s="43"/>
       <c r="E189" s="41"/>
       <c r="F189" s="44"/>
@@ -5402,8 +5410,8 @@
       <c r="K189" s="39"/>
     </row>
     <row r="190" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B190" s="99"/>
-      <c r="C190" s="92"/>
+      <c r="B190" s="93"/>
+      <c r="C190" s="96"/>
       <c r="D190" s="43"/>
       <c r="E190" s="41"/>
       <c r="F190" s="44"/>
@@ -5414,8 +5422,8 @@
       <c r="K190" s="39"/>
     </row>
     <row r="191" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B191" s="100"/>
-      <c r="C191" s="93"/>
+      <c r="B191" s="94"/>
+      <c r="C191" s="97"/>
       <c r="D191" s="43"/>
       <c r="E191" s="41"/>
       <c r="F191" s="44"/>
@@ -5426,8 +5434,8 @@
       <c r="K191" s="39"/>
     </row>
     <row r="192" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B192" s="99"/>
-      <c r="C192" s="92"/>
+      <c r="B192" s="93"/>
+      <c r="C192" s="96"/>
       <c r="D192" s="43"/>
       <c r="E192" s="41"/>
       <c r="F192" s="44"/>
@@ -5438,8 +5446,8 @@
       <c r="K192" s="39"/>
     </row>
     <row r="193" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B193" s="100"/>
-      <c r="C193" s="93"/>
+      <c r="B193" s="94"/>
+      <c r="C193" s="97"/>
       <c r="D193" s="43"/>
       <c r="E193" s="41"/>
       <c r="F193" s="44"/>
@@ -5450,8 +5458,8 @@
       <c r="K193" s="39"/>
     </row>
     <row r="194" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B194" s="99"/>
-      <c r="C194" s="92"/>
+      <c r="B194" s="93"/>
+      <c r="C194" s="96"/>
       <c r="D194" s="43"/>
       <c r="E194" s="41"/>
       <c r="F194" s="44"/>
@@ -5462,8 +5470,8 @@
       <c r="K194" s="39"/>
     </row>
     <row r="195" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B195" s="100"/>
-      <c r="C195" s="93"/>
+      <c r="B195" s="94"/>
+      <c r="C195" s="97"/>
       <c r="D195" s="43"/>
       <c r="E195" s="41"/>
       <c r="F195" s="44"/>
@@ -5474,8 +5482,8 @@
       <c r="K195" s="39"/>
     </row>
     <row r="196" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B196" s="99"/>
-      <c r="C196" s="92"/>
+      <c r="B196" s="93"/>
+      <c r="C196" s="96"/>
       <c r="D196" s="43"/>
       <c r="E196" s="41"/>
       <c r="F196" s="44"/>
@@ -5486,8 +5494,8 @@
       <c r="K196" s="39"/>
     </row>
     <row r="197" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B197" s="100"/>
-      <c r="C197" s="93"/>
+      <c r="B197" s="94"/>
+      <c r="C197" s="97"/>
       <c r="D197" s="43"/>
       <c r="E197" s="41"/>
       <c r="F197" s="44"/>
@@ -5498,8 +5506,8 @@
       <c r="K197" s="39"/>
     </row>
     <row r="198" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B198" s="99"/>
-      <c r="C198" s="92"/>
+      <c r="B198" s="93"/>
+      <c r="C198" s="96"/>
       <c r="D198" s="43"/>
       <c r="E198" s="41"/>
       <c r="F198" s="44"/>
@@ -5510,8 +5518,8 @@
       <c r="K198" s="39"/>
     </row>
     <row r="199" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B199" s="100"/>
-      <c r="C199" s="93"/>
+      <c r="B199" s="94"/>
+      <c r="C199" s="97"/>
       <c r="D199" s="43"/>
       <c r="E199" s="41"/>
       <c r="F199" s="44"/>
@@ -5522,8 +5530,8 @@
       <c r="K199" s="39"/>
     </row>
     <row r="200" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B200" s="99"/>
-      <c r="C200" s="92"/>
+      <c r="B200" s="93"/>
+      <c r="C200" s="96"/>
       <c r="D200" s="43"/>
       <c r="E200" s="41"/>
       <c r="F200" s="44"/>
@@ -5534,8 +5542,8 @@
       <c r="K200" s="39"/>
     </row>
     <row r="201" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B201" s="100"/>
-      <c r="C201" s="93"/>
+      <c r="B201" s="94"/>
+      <c r="C201" s="97"/>
       <c r="D201" s="43"/>
       <c r="E201" s="41"/>
       <c r="F201" s="44"/>
@@ -5546,8 +5554,8 @@
       <c r="K201" s="39"/>
     </row>
     <row r="202" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B202" s="99"/>
-      <c r="C202" s="92"/>
+      <c r="B202" s="93"/>
+      <c r="C202" s="96"/>
       <c r="D202" s="43"/>
       <c r="E202" s="41"/>
       <c r="F202" s="44"/>
@@ -5558,8 +5566,8 @@
       <c r="K202" s="39"/>
     </row>
     <row r="203" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B203" s="100"/>
-      <c r="C203" s="93"/>
+      <c r="B203" s="94"/>
+      <c r="C203" s="97"/>
       <c r="D203" s="43"/>
       <c r="E203" s="41"/>
       <c r="F203" s="44"/>
@@ -5570,8 +5578,8 @@
       <c r="K203" s="39"/>
     </row>
     <row r="204" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B204" s="99"/>
-      <c r="C204" s="92"/>
+      <c r="B204" s="93"/>
+      <c r="C204" s="96"/>
       <c r="D204" s="43"/>
       <c r="E204" s="41"/>
       <c r="F204" s="44"/>
@@ -5582,8 +5590,8 @@
       <c r="K204" s="39"/>
     </row>
     <row r="205" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B205" s="100"/>
-      <c r="C205" s="93"/>
+      <c r="B205" s="94"/>
+      <c r="C205" s="97"/>
       <c r="D205" s="43"/>
       <c r="E205" s="41"/>
       <c r="F205" s="44"/>
@@ -5594,8 +5602,8 @@
       <c r="K205" s="39"/>
     </row>
     <row r="206" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B206" s="99"/>
-      <c r="C206" s="92"/>
+      <c r="B206" s="93"/>
+      <c r="C206" s="96"/>
       <c r="D206" s="43"/>
       <c r="E206" s="41"/>
       <c r="F206" s="44"/>
@@ -5606,8 +5614,8 @@
       <c r="K206" s="39"/>
     </row>
     <row r="207" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B207" s="100"/>
-      <c r="C207" s="93"/>
+      <c r="B207" s="94"/>
+      <c r="C207" s="97"/>
       <c r="D207" s="43"/>
       <c r="E207" s="41"/>
       <c r="F207" s="44"/>
@@ -5618,8 +5626,8 @@
       <c r="K207" s="39"/>
     </row>
     <row r="208" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B208" s="99"/>
-      <c r="C208" s="92"/>
+      <c r="B208" s="93"/>
+      <c r="C208" s="96"/>
       <c r="D208" s="43"/>
       <c r="E208" s="41"/>
       <c r="F208" s="44"/>
@@ -5630,8 +5638,8 @@
       <c r="K208" s="39"/>
     </row>
     <row r="209" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B209" s="100"/>
-      <c r="C209" s="93"/>
+      <c r="B209" s="94"/>
+      <c r="C209" s="97"/>
       <c r="D209" s="43"/>
       <c r="E209" s="41"/>
       <c r="F209" s="44"/>
@@ -5642,8 +5650,8 @@
       <c r="K209" s="39"/>
     </row>
     <row r="210" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B210" s="99"/>
-      <c r="C210" s="92"/>
+      <c r="B210" s="93"/>
+      <c r="C210" s="96"/>
       <c r="D210" s="43"/>
       <c r="E210" s="41"/>
       <c r="F210" s="44"/>
@@ -5654,8 +5662,8 @@
       <c r="K210" s="39"/>
     </row>
     <row r="211" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B211" s="100"/>
-      <c r="C211" s="93"/>
+      <c r="B211" s="94"/>
+      <c r="C211" s="97"/>
       <c r="D211" s="43"/>
       <c r="E211" s="41"/>
       <c r="F211" s="44"/>
@@ -5666,8 +5674,8 @@
       <c r="K211" s="39"/>
     </row>
     <row r="212" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B212" s="99"/>
-      <c r="C212" s="92"/>
+      <c r="B212" s="93"/>
+      <c r="C212" s="96"/>
       <c r="D212" s="43"/>
       <c r="E212" s="41"/>
       <c r="F212" s="44"/>
@@ -5678,8 +5686,8 @@
       <c r="K212" s="39"/>
     </row>
     <row r="213" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B213" s="100"/>
-      <c r="C213" s="93"/>
+      <c r="B213" s="94"/>
+      <c r="C213" s="97"/>
       <c r="D213" s="43"/>
       <c r="E213" s="41"/>
       <c r="F213" s="44"/>
@@ -5690,8 +5698,8 @@
       <c r="K213" s="39"/>
     </row>
     <row r="214" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B214" s="99"/>
-      <c r="C214" s="92"/>
+      <c r="B214" s="93"/>
+      <c r="C214" s="96"/>
       <c r="D214" s="43"/>
       <c r="E214" s="41"/>
       <c r="F214" s="44"/>
@@ -5702,8 +5710,8 @@
       <c r="K214" s="39"/>
     </row>
     <row r="215" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B215" s="100"/>
-      <c r="C215" s="93"/>
+      <c r="B215" s="94"/>
+      <c r="C215" s="97"/>
       <c r="D215" s="43"/>
       <c r="E215" s="41"/>
       <c r="F215" s="44"/>
@@ -5714,8 +5722,8 @@
       <c r="K215" s="39"/>
     </row>
     <row r="216" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B216" s="99"/>
-      <c r="C216" s="92"/>
+      <c r="B216" s="93"/>
+      <c r="C216" s="96"/>
       <c r="D216" s="43"/>
       <c r="E216" s="41"/>
       <c r="F216" s="44"/>
@@ -5726,8 +5734,8 @@
       <c r="K216" s="39"/>
     </row>
     <row r="217" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B217" s="100"/>
-      <c r="C217" s="93"/>
+      <c r="B217" s="94"/>
+      <c r="C217" s="97"/>
       <c r="D217" s="43"/>
       <c r="E217" s="41"/>
       <c r="F217" s="44"/>
@@ -5738,8 +5746,8 @@
       <c r="K217" s="39"/>
     </row>
     <row r="218" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B218" s="99"/>
-      <c r="C218" s="92"/>
+      <c r="B218" s="93"/>
+      <c r="C218" s="96"/>
       <c r="D218" s="43"/>
       <c r="E218" s="41"/>
       <c r="F218" s="44"/>
@@ -5750,8 +5758,8 @@
       <c r="K218" s="39"/>
     </row>
     <row r="219" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B219" s="100"/>
-      <c r="C219" s="93"/>
+      <c r="B219" s="94"/>
+      <c r="C219" s="97"/>
       <c r="D219" s="43"/>
       <c r="E219" s="41"/>
       <c r="F219" s="44"/>
@@ -5762,8 +5770,8 @@
       <c r="K219" s="39"/>
     </row>
     <row r="220" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B220" s="99"/>
-      <c r="C220" s="92"/>
+      <c r="B220" s="93"/>
+      <c r="C220" s="96"/>
       <c r="D220" s="43"/>
       <c r="E220" s="41"/>
       <c r="F220" s="44"/>
@@ -5774,8 +5782,8 @@
       <c r="K220" s="39"/>
     </row>
     <row r="221" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B221" s="100"/>
-      <c r="C221" s="93"/>
+      <c r="B221" s="94"/>
+      <c r="C221" s="97"/>
       <c r="D221" s="43"/>
       <c r="E221" s="41"/>
       <c r="F221" s="44"/>
@@ -5786,8 +5794,8 @@
       <c r="K221" s="39"/>
     </row>
     <row r="222" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B222" s="99"/>
-      <c r="C222" s="92"/>
+      <c r="B222" s="93"/>
+      <c r="C222" s="96"/>
       <c r="D222" s="43"/>
       <c r="E222" s="41"/>
       <c r="F222" s="44"/>
@@ -5798,8 +5806,8 @@
       <c r="K222" s="39"/>
     </row>
     <row r="223" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B223" s="100"/>
-      <c r="C223" s="93"/>
+      <c r="B223" s="94"/>
+      <c r="C223" s="97"/>
       <c r="D223" s="43"/>
       <c r="E223" s="41"/>
       <c r="F223" s="44"/>
@@ -5810,8 +5818,8 @@
       <c r="K223" s="39"/>
     </row>
     <row r="224" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B224" s="99"/>
-      <c r="C224" s="92"/>
+      <c r="B224" s="93"/>
+      <c r="C224" s="96"/>
       <c r="D224" s="43"/>
       <c r="E224" s="41"/>
       <c r="F224" s="44"/>
@@ -5822,8 +5830,8 @@
       <c r="K224" s="39"/>
     </row>
     <row r="225" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B225" s="100"/>
-      <c r="C225" s="93"/>
+      <c r="B225" s="94"/>
+      <c r="C225" s="97"/>
       <c r="D225" s="43"/>
       <c r="E225" s="41"/>
       <c r="F225" s="44"/>
@@ -5834,8 +5842,8 @@
       <c r="K225" s="39"/>
     </row>
     <row r="226" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B226" s="99"/>
-      <c r="C226" s="92"/>
+      <c r="B226" s="93"/>
+      <c r="C226" s="96"/>
       <c r="D226" s="43"/>
       <c r="E226" s="41"/>
       <c r="F226" s="44"/>
@@ -5846,8 +5854,8 @@
       <c r="K226" s="39"/>
     </row>
     <row r="227" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B227" s="100"/>
-      <c r="C227" s="93"/>
+      <c r="B227" s="94"/>
+      <c r="C227" s="97"/>
       <c r="D227" s="43"/>
       <c r="E227" s="41"/>
       <c r="F227" s="44"/>
@@ -5858,8 +5866,8 @@
       <c r="K227" s="39"/>
     </row>
     <row r="228" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B228" s="99"/>
-      <c r="C228" s="92"/>
+      <c r="B228" s="93"/>
+      <c r="C228" s="96"/>
       <c r="D228" s="43"/>
       <c r="E228" s="41"/>
       <c r="F228" s="44"/>
@@ -5870,8 +5878,8 @@
       <c r="K228" s="39"/>
     </row>
     <row r="229" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B229" s="100"/>
-      <c r="C229" s="93"/>
+      <c r="B229" s="94"/>
+      <c r="C229" s="97"/>
       <c r="D229" s="43"/>
       <c r="E229" s="41"/>
       <c r="F229" s="44"/>
@@ -5882,8 +5890,8 @@
       <c r="K229" s="39"/>
     </row>
     <row r="230" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B230" s="99"/>
-      <c r="C230" s="92"/>
+      <c r="B230" s="93"/>
+      <c r="C230" s="96"/>
       <c r="D230" s="43"/>
       <c r="E230" s="41"/>
       <c r="F230" s="44"/>
@@ -5894,8 +5902,8 @@
       <c r="K230" s="39"/>
     </row>
     <row r="231" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B231" s="100"/>
-      <c r="C231" s="93"/>
+      <c r="B231" s="94"/>
+      <c r="C231" s="97"/>
       <c r="D231" s="43"/>
       <c r="E231" s="41"/>
       <c r="F231" s="44"/>
@@ -5906,8 +5914,8 @@
       <c r="K231" s="39"/>
     </row>
     <row r="232" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B232" s="99"/>
-      <c r="C232" s="92"/>
+      <c r="B232" s="93"/>
+      <c r="C232" s="96"/>
       <c r="D232" s="43"/>
       <c r="E232" s="41"/>
       <c r="F232" s="44"/>
@@ -5918,8 +5926,8 @@
       <c r="K232" s="39"/>
     </row>
     <row r="233" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B233" s="100"/>
-      <c r="C233" s="93"/>
+      <c r="B233" s="94"/>
+      <c r="C233" s="97"/>
       <c r="D233" s="43"/>
       <c r="E233" s="41"/>
       <c r="F233" s="44"/>
@@ -5930,8 +5938,8 @@
       <c r="K233" s="39"/>
     </row>
     <row r="234" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B234" s="99"/>
-      <c r="C234" s="92"/>
+      <c r="B234" s="93"/>
+      <c r="C234" s="96"/>
       <c r="D234" s="43"/>
       <c r="E234" s="41"/>
       <c r="F234" s="44"/>
@@ -5942,8 +5950,8 @@
       <c r="K234" s="39"/>
     </row>
     <row r="235" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B235" s="100"/>
-      <c r="C235" s="93"/>
+      <c r="B235" s="94"/>
+      <c r="C235" s="97"/>
       <c r="D235" s="43"/>
       <c r="E235" s="41"/>
       <c r="F235" s="44"/>
@@ -5954,8 +5962,8 @@
       <c r="K235" s="39"/>
     </row>
     <row r="236" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B236" s="99"/>
-      <c r="C236" s="92"/>
+      <c r="B236" s="93"/>
+      <c r="C236" s="96"/>
       <c r="D236" s="43"/>
       <c r="E236" s="41"/>
       <c r="F236" s="44"/>
@@ -5966,8 +5974,8 @@
       <c r="K236" s="39"/>
     </row>
     <row r="237" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B237" s="100"/>
-      <c r="C237" s="93"/>
+      <c r="B237" s="94"/>
+      <c r="C237" s="97"/>
       <c r="D237" s="43"/>
       <c r="E237" s="41"/>
       <c r="F237" s="44"/>
@@ -5978,8 +5986,8 @@
       <c r="K237" s="39"/>
     </row>
     <row r="238" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B238" s="99"/>
-      <c r="C238" s="92"/>
+      <c r="B238" s="93"/>
+      <c r="C238" s="96"/>
       <c r="D238" s="43"/>
       <c r="E238" s="41"/>
       <c r="F238" s="44"/>
@@ -5990,8 +5998,8 @@
       <c r="K238" s="39"/>
     </row>
     <row r="239" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B239" s="100"/>
-      <c r="C239" s="93"/>
+      <c r="B239" s="94"/>
+      <c r="C239" s="97"/>
       <c r="D239" s="43"/>
       <c r="E239" s="41"/>
       <c r="F239" s="44"/>
@@ -6002,8 +6010,8 @@
       <c r="K239" s="39"/>
     </row>
     <row r="240" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B240" s="99"/>
-      <c r="C240" s="92"/>
+      <c r="B240" s="93"/>
+      <c r="C240" s="96"/>
       <c r="D240" s="43"/>
       <c r="E240" s="41"/>
       <c r="F240" s="44"/>
@@ -6014,8 +6022,8 @@
       <c r="K240" s="39"/>
     </row>
     <row r="241" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B241" s="100"/>
-      <c r="C241" s="93"/>
+      <c r="B241" s="94"/>
+      <c r="C241" s="97"/>
       <c r="D241" s="43"/>
       <c r="E241" s="41"/>
       <c r="F241" s="44"/>
@@ -6026,8 +6034,8 @@
       <c r="K241" s="39"/>
     </row>
     <row r="242" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B242" s="99"/>
-      <c r="C242" s="92"/>
+      <c r="B242" s="93"/>
+      <c r="C242" s="96"/>
       <c r="D242" s="43"/>
       <c r="E242" s="41"/>
       <c r="F242" s="44"/>
@@ -6038,8 +6046,8 @@
       <c r="K242" s="39"/>
     </row>
     <row r="243" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B243" s="100"/>
-      <c r="C243" s="93"/>
+      <c r="B243" s="94"/>
+      <c r="C243" s="97"/>
       <c r="D243" s="43"/>
       <c r="E243" s="41"/>
       <c r="F243" s="44"/>
@@ -6050,8 +6058,8 @@
       <c r="K243" s="39"/>
     </row>
     <row r="244" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B244" s="99"/>
-      <c r="C244" s="92"/>
+      <c r="B244" s="93"/>
+      <c r="C244" s="96"/>
       <c r="D244" s="43"/>
       <c r="E244" s="41"/>
       <c r="F244" s="44"/>
@@ -6062,8 +6070,8 @@
       <c r="K244" s="39"/>
     </row>
     <row r="245" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B245" s="100"/>
-      <c r="C245" s="93"/>
+      <c r="B245" s="94"/>
+      <c r="C245" s="97"/>
       <c r="D245" s="43"/>
       <c r="E245" s="41"/>
       <c r="F245" s="44"/>
@@ -6074,8 +6082,8 @@
       <c r="K245" s="39"/>
     </row>
     <row r="246" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B246" s="99"/>
-      <c r="C246" s="92"/>
+      <c r="B246" s="93"/>
+      <c r="C246" s="96"/>
       <c r="D246" s="43"/>
       <c r="E246" s="41"/>
       <c r="F246" s="44"/>
@@ -6086,8 +6094,8 @@
       <c r="K246" s="39"/>
     </row>
     <row r="247" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B247" s="100"/>
-      <c r="C247" s="93"/>
+      <c r="B247" s="94"/>
+      <c r="C247" s="97"/>
       <c r="D247" s="43"/>
       <c r="E247" s="41"/>
       <c r="F247" s="44"/>
@@ -6098,8 +6106,8 @@
       <c r="K247" s="39"/>
     </row>
     <row r="248" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B248" s="99"/>
-      <c r="C248" s="92"/>
+      <c r="B248" s="93"/>
+      <c r="C248" s="96"/>
       <c r="D248" s="43"/>
       <c r="E248" s="41"/>
       <c r="F248" s="44"/>
@@ -6110,8 +6118,8 @@
       <c r="K248" s="39"/>
     </row>
     <row r="249" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B249" s="100"/>
-      <c r="C249" s="93"/>
+      <c r="B249" s="94"/>
+      <c r="C249" s="97"/>
       <c r="D249" s="43"/>
       <c r="E249" s="41"/>
       <c r="F249" s="44"/>
@@ -6122,8 +6130,8 @@
       <c r="K249" s="39"/>
     </row>
     <row r="250" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B250" s="99"/>
-      <c r="C250" s="92"/>
+      <c r="B250" s="93"/>
+      <c r="C250" s="96"/>
       <c r="D250" s="43"/>
       <c r="E250" s="41"/>
       <c r="F250" s="44"/>
@@ -6134,8 +6142,8 @@
       <c r="K250" s="39"/>
     </row>
     <row r="251" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B251" s="100"/>
-      <c r="C251" s="93"/>
+      <c r="B251" s="94"/>
+      <c r="C251" s="97"/>
       <c r="D251" s="43"/>
       <c r="E251" s="41"/>
       <c r="F251" s="44"/>
@@ -6146,8 +6154,8 @@
       <c r="K251" s="39"/>
     </row>
     <row r="252" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B252" s="99"/>
-      <c r="C252" s="92"/>
+      <c r="B252" s="93"/>
+      <c r="C252" s="96"/>
       <c r="D252" s="43"/>
       <c r="E252" s="41"/>
       <c r="F252" s="44"/>
@@ -6158,8 +6166,8 @@
       <c r="K252" s="39"/>
     </row>
     <row r="253" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B253" s="100"/>
-      <c r="C253" s="93"/>
+      <c r="B253" s="94"/>
+      <c r="C253" s="97"/>
       <c r="D253" s="43"/>
       <c r="E253" s="41"/>
       <c r="F253" s="44"/>
@@ -6170,8 +6178,8 @@
       <c r="K253" s="39"/>
     </row>
     <row r="254" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B254" s="99"/>
-      <c r="C254" s="92"/>
+      <c r="B254" s="93"/>
+      <c r="C254" s="96"/>
       <c r="D254" s="43"/>
       <c r="E254" s="41"/>
       <c r="F254" s="44"/>
@@ -6182,8 +6190,8 @@
       <c r="K254" s="39"/>
     </row>
     <row r="255" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B255" s="100"/>
-      <c r="C255" s="93"/>
+      <c r="B255" s="94"/>
+      <c r="C255" s="97"/>
       <c r="D255" s="43"/>
       <c r="E255" s="41"/>
       <c r="F255" s="44"/>
@@ -6194,8 +6202,8 @@
       <c r="K255" s="39"/>
     </row>
     <row r="256" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B256" s="99"/>
-      <c r="C256" s="92"/>
+      <c r="B256" s="93"/>
+      <c r="C256" s="96"/>
       <c r="D256" s="43"/>
       <c r="E256" s="41"/>
       <c r="F256" s="44"/>
@@ -6206,8 +6214,8 @@
       <c r="K256" s="39"/>
     </row>
     <row r="257" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B257" s="100"/>
-      <c r="C257" s="93"/>
+      <c r="B257" s="94"/>
+      <c r="C257" s="97"/>
       <c r="D257" s="43"/>
       <c r="E257" s="41"/>
       <c r="F257" s="44"/>
@@ -6218,8 +6226,8 @@
       <c r="K257" s="39"/>
     </row>
     <row r="258" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B258" s="99"/>
-      <c r="C258" s="92"/>
+      <c r="B258" s="93"/>
+      <c r="C258" s="96"/>
       <c r="D258" s="43"/>
       <c r="E258" s="41"/>
       <c r="F258" s="44"/>
@@ -6230,8 +6238,8 @@
       <c r="K258" s="39"/>
     </row>
     <row r="259" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B259" s="100"/>
-      <c r="C259" s="93"/>
+      <c r="B259" s="94"/>
+      <c r="C259" s="97"/>
       <c r="D259" s="43"/>
       <c r="E259" s="41"/>
       <c r="F259" s="44"/>
@@ -6242,8 +6250,8 @@
       <c r="K259" s="39"/>
     </row>
     <row r="260" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B260" s="99"/>
-      <c r="C260" s="92"/>
+      <c r="B260" s="93"/>
+      <c r="C260" s="96"/>
       <c r="D260" s="43"/>
       <c r="E260" s="41"/>
       <c r="F260" s="44"/>
@@ -6254,8 +6262,8 @@
       <c r="K260" s="39"/>
     </row>
     <row r="261" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B261" s="100"/>
-      <c r="C261" s="93"/>
+      <c r="B261" s="94"/>
+      <c r="C261" s="97"/>
       <c r="D261" s="43"/>
       <c r="E261" s="41"/>
       <c r="F261" s="44"/>
@@ -6266,8 +6274,8 @@
       <c r="K261" s="39"/>
     </row>
     <row r="262" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B262" s="99"/>
-      <c r="C262" s="92"/>
+      <c r="B262" s="93"/>
+      <c r="C262" s="96"/>
       <c r="D262" s="43"/>
       <c r="E262" s="41"/>
       <c r="F262" s="44"/>
@@ -6278,8 +6286,8 @@
       <c r="K262" s="39"/>
     </row>
     <row r="263" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B263" s="100"/>
-      <c r="C263" s="93"/>
+      <c r="B263" s="94"/>
+      <c r="C263" s="97"/>
       <c r="D263" s="43"/>
       <c r="E263" s="41"/>
       <c r="F263" s="44"/>
@@ -6290,8 +6298,8 @@
       <c r="K263" s="39"/>
     </row>
     <row r="264" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B264" s="99"/>
-      <c r="C264" s="92"/>
+      <c r="B264" s="93"/>
+      <c r="C264" s="96"/>
       <c r="D264" s="43"/>
       <c r="E264" s="41"/>
       <c r="F264" s="44"/>
@@ -6302,8 +6310,8 @@
       <c r="K264" s="39"/>
     </row>
     <row r="265" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B265" s="100"/>
-      <c r="C265" s="93"/>
+      <c r="B265" s="94"/>
+      <c r="C265" s="97"/>
       <c r="D265" s="43"/>
       <c r="E265" s="41"/>
       <c r="F265" s="44"/>
@@ -6314,8 +6322,8 @@
       <c r="K265" s="39"/>
     </row>
     <row r="266" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B266" s="99"/>
-      <c r="C266" s="92"/>
+      <c r="B266" s="93"/>
+      <c r="C266" s="96"/>
       <c r="D266" s="43"/>
       <c r="E266" s="41"/>
       <c r="F266" s="44"/>
@@ -6326,8 +6334,8 @@
       <c r="K266" s="39"/>
     </row>
     <row r="267" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B267" s="100"/>
-      <c r="C267" s="93"/>
+      <c r="B267" s="94"/>
+      <c r="C267" s="97"/>
       <c r="D267" s="43"/>
       <c r="E267" s="41"/>
       <c r="F267" s="44"/>
@@ -6338,8 +6346,8 @@
       <c r="K267" s="39"/>
     </row>
     <row r="268" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B268" s="99"/>
-      <c r="C268" s="92"/>
+      <c r="B268" s="93"/>
+      <c r="C268" s="96"/>
       <c r="D268" s="43"/>
       <c r="E268" s="41"/>
       <c r="F268" s="44"/>
@@ -6350,8 +6358,8 @@
       <c r="K268" s="39"/>
     </row>
     <row r="269" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B269" s="100"/>
-      <c r="C269" s="93"/>
+      <c r="B269" s="94"/>
+      <c r="C269" s="97"/>
       <c r="D269" s="43"/>
       <c r="E269" s="41"/>
       <c r="F269" s="44"/>
@@ -6362,8 +6370,8 @@
       <c r="K269" s="39"/>
     </row>
     <row r="270" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B270" s="99"/>
-      <c r="C270" s="92"/>
+      <c r="B270" s="93"/>
+      <c r="C270" s="96"/>
       <c r="D270" s="43"/>
       <c r="E270" s="41"/>
       <c r="F270" s="44"/>
@@ -6374,8 +6382,8 @@
       <c r="K270" s="39"/>
     </row>
     <row r="271" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B271" s="100"/>
-      <c r="C271" s="93"/>
+      <c r="B271" s="94"/>
+      <c r="C271" s="97"/>
       <c r="D271" s="43"/>
       <c r="E271" s="41"/>
       <c r="F271" s="44"/>
@@ -6386,8 +6394,8 @@
       <c r="K271" s="39"/>
     </row>
     <row r="272" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B272" s="99"/>
-      <c r="C272" s="92"/>
+      <c r="B272" s="93"/>
+      <c r="C272" s="96"/>
       <c r="D272" s="43"/>
       <c r="E272" s="41"/>
       <c r="F272" s="44"/>
@@ -6398,8 +6406,8 @@
       <c r="K272" s="39"/>
     </row>
     <row r="273" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B273" s="100"/>
-      <c r="C273" s="93"/>
+      <c r="B273" s="94"/>
+      <c r="C273" s="97"/>
       <c r="D273" s="43"/>
       <c r="E273" s="41"/>
       <c r="F273" s="44"/>
@@ -6410,8 +6418,8 @@
       <c r="K273" s="39"/>
     </row>
     <row r="274" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B274" s="99"/>
-      <c r="C274" s="92"/>
+      <c r="B274" s="93"/>
+      <c r="C274" s="96"/>
       <c r="D274" s="43"/>
       <c r="E274" s="41"/>
       <c r="F274" s="44"/>
@@ -6422,8 +6430,8 @@
       <c r="K274" s="39"/>
     </row>
     <row r="275" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B275" s="100"/>
-      <c r="C275" s="93"/>
+      <c r="B275" s="94"/>
+      <c r="C275" s="97"/>
       <c r="D275" s="43"/>
       <c r="E275" s="41"/>
       <c r="F275" s="44"/>
@@ -6434,8 +6442,8 @@
       <c r="K275" s="39"/>
     </row>
     <row r="276" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B276" s="99"/>
-      <c r="C276" s="92"/>
+      <c r="B276" s="93"/>
+      <c r="C276" s="96"/>
       <c r="D276" s="43"/>
       <c r="E276" s="41"/>
       <c r="F276" s="44"/>
@@ -6446,8 +6454,8 @@
       <c r="K276" s="39"/>
     </row>
     <row r="277" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B277" s="100"/>
-      <c r="C277" s="93"/>
+      <c r="B277" s="94"/>
+      <c r="C277" s="97"/>
       <c r="D277" s="43"/>
       <c r="E277" s="41"/>
       <c r="F277" s="44"/>
@@ -6458,8 +6466,8 @@
       <c r="K277" s="39"/>
     </row>
     <row r="278" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B278" s="99"/>
-      <c r="C278" s="92"/>
+      <c r="B278" s="93"/>
+      <c r="C278" s="96"/>
       <c r="D278" s="43"/>
       <c r="E278" s="41"/>
       <c r="F278" s="44"/>
@@ -6470,8 +6478,8 @@
       <c r="K278" s="39"/>
     </row>
     <row r="279" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B279" s="100"/>
-      <c r="C279" s="93"/>
+      <c r="B279" s="94"/>
+      <c r="C279" s="97"/>
       <c r="D279" s="43"/>
       <c r="E279" s="41"/>
       <c r="F279" s="44"/>
@@ -6482,8 +6490,8 @@
       <c r="K279" s="39"/>
     </row>
     <row r="280" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B280" s="99"/>
-      <c r="C280" s="92"/>
+      <c r="B280" s="93"/>
+      <c r="C280" s="96"/>
       <c r="D280" s="43"/>
       <c r="E280" s="41"/>
       <c r="F280" s="44"/>
@@ -6494,8 +6502,8 @@
       <c r="K280" s="39"/>
     </row>
     <row r="281" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B281" s="100"/>
-      <c r="C281" s="93"/>
+      <c r="B281" s="94"/>
+      <c r="C281" s="97"/>
       <c r="D281" s="43"/>
       <c r="E281" s="41"/>
       <c r="F281" s="44"/>
@@ -6506,8 +6514,8 @@
       <c r="K281" s="39"/>
     </row>
     <row r="282" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B282" s="99"/>
-      <c r="C282" s="92"/>
+      <c r="B282" s="93"/>
+      <c r="C282" s="96"/>
       <c r="D282" s="43"/>
       <c r="E282" s="41"/>
       <c r="F282" s="44"/>
@@ -6518,8 +6526,8 @@
       <c r="K282" s="39"/>
     </row>
     <row r="283" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B283" s="100"/>
-      <c r="C283" s="93"/>
+      <c r="B283" s="94"/>
+      <c r="C283" s="97"/>
       <c r="D283" s="43"/>
       <c r="E283" s="41"/>
       <c r="F283" s="44"/>
@@ -6530,8 +6538,8 @@
       <c r="K283" s="39"/>
     </row>
     <row r="284" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B284" s="99"/>
-      <c r="C284" s="92"/>
+      <c r="B284" s="93"/>
+      <c r="C284" s="96"/>
       <c r="D284" s="43"/>
       <c r="E284" s="41"/>
       <c r="F284" s="44"/>
@@ -6542,8 +6550,8 @@
       <c r="K284" s="39"/>
     </row>
     <row r="285" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B285" s="100"/>
-      <c r="C285" s="93"/>
+      <c r="B285" s="94"/>
+      <c r="C285" s="97"/>
       <c r="D285" s="43"/>
       <c r="E285" s="41"/>
       <c r="F285" s="44"/>
@@ -6554,8 +6562,8 @@
       <c r="K285" s="39"/>
     </row>
     <row r="286" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B286" s="99"/>
-      <c r="C286" s="92"/>
+      <c r="B286" s="93"/>
+      <c r="C286" s="96"/>
       <c r="D286" s="43"/>
       <c r="E286" s="41"/>
       <c r="F286" s="44"/>
@@ -6566,8 +6574,8 @@
       <c r="K286" s="39"/>
     </row>
     <row r="287" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B287" s="100"/>
-      <c r="C287" s="93"/>
+      <c r="B287" s="94"/>
+      <c r="C287" s="97"/>
       <c r="D287" s="43"/>
       <c r="E287" s="41"/>
       <c r="F287" s="44"/>
@@ -6578,8 +6586,8 @@
       <c r="K287" s="39"/>
     </row>
     <row r="288" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B288" s="99"/>
-      <c r="C288" s="92"/>
+      <c r="B288" s="93"/>
+      <c r="C288" s="96"/>
       <c r="D288" s="43"/>
       <c r="E288" s="41"/>
       <c r="F288" s="44"/>
@@ -6590,8 +6598,8 @@
       <c r="K288" s="39"/>
     </row>
     <row r="289" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B289" s="100"/>
-      <c r="C289" s="93"/>
+      <c r="B289" s="94"/>
+      <c r="C289" s="97"/>
       <c r="D289" s="43"/>
       <c r="E289" s="41"/>
       <c r="F289" s="44"/>
@@ -6602,8 +6610,8 @@
       <c r="K289" s="39"/>
     </row>
     <row r="290" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B290" s="99"/>
-      <c r="C290" s="92"/>
+      <c r="B290" s="93"/>
+      <c r="C290" s="96"/>
       <c r="D290" s="43"/>
       <c r="E290" s="41"/>
       <c r="F290" s="44"/>
@@ -6614,8 +6622,8 @@
       <c r="K290" s="39"/>
     </row>
     <row r="291" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B291" s="100"/>
-      <c r="C291" s="93"/>
+      <c r="B291" s="94"/>
+      <c r="C291" s="97"/>
       <c r="D291" s="43"/>
       <c r="E291" s="41"/>
       <c r="F291" s="44"/>
@@ -6626,8 +6634,8 @@
       <c r="K291" s="39"/>
     </row>
     <row r="292" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B292" s="99"/>
-      <c r="C292" s="92"/>
+      <c r="B292" s="93"/>
+      <c r="C292" s="96"/>
       <c r="D292" s="43"/>
       <c r="E292" s="41"/>
       <c r="F292" s="44"/>
@@ -6638,8 +6646,8 @@
       <c r="K292" s="39"/>
     </row>
     <row r="293" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B293" s="100"/>
-      <c r="C293" s="93"/>
+      <c r="B293" s="94"/>
+      <c r="C293" s="97"/>
       <c r="D293" s="43"/>
       <c r="E293" s="41"/>
       <c r="F293" s="44"/>
@@ -6650,8 +6658,8 @@
       <c r="K293" s="39"/>
     </row>
     <row r="294" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B294" s="99"/>
-      <c r="C294" s="92"/>
+      <c r="B294" s="93"/>
+      <c r="C294" s="96"/>
       <c r="D294" s="43"/>
       <c r="E294" s="41"/>
       <c r="F294" s="44"/>
@@ -6662,8 +6670,8 @@
       <c r="K294" s="39"/>
     </row>
     <row r="295" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B295" s="100"/>
-      <c r="C295" s="93"/>
+      <c r="B295" s="94"/>
+      <c r="C295" s="97"/>
       <c r="D295" s="43"/>
       <c r="E295" s="41"/>
       <c r="F295" s="44"/>
@@ -6674,8 +6682,8 @@
       <c r="K295" s="39"/>
     </row>
     <row r="296" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B296" s="99"/>
-      <c r="C296" s="92"/>
+      <c r="B296" s="93"/>
+      <c r="C296" s="96"/>
       <c r="D296" s="43"/>
       <c r="E296" s="41"/>
       <c r="F296" s="44"/>
@@ -6686,8 +6694,8 @@
       <c r="K296" s="39"/>
     </row>
     <row r="297" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B297" s="100"/>
-      <c r="C297" s="93"/>
+      <c r="B297" s="94"/>
+      <c r="C297" s="97"/>
       <c r="D297" s="43"/>
       <c r="E297" s="41"/>
       <c r="F297" s="44"/>
@@ -6698,8 +6706,8 @@
       <c r="K297" s="39"/>
     </row>
     <row r="298" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B298" s="99"/>
-      <c r="C298" s="92"/>
+      <c r="B298" s="93"/>
+      <c r="C298" s="96"/>
       <c r="D298" s="43"/>
       <c r="E298" s="41"/>
       <c r="F298" s="44"/>
@@ -6710,8 +6718,8 @@
       <c r="K298" s="39"/>
     </row>
     <row r="299" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B299" s="100"/>
-      <c r="C299" s="93"/>
+      <c r="B299" s="94"/>
+      <c r="C299" s="97"/>
       <c r="D299" s="43"/>
       <c r="E299" s="41"/>
       <c r="F299" s="44"/>
@@ -6722,8 +6730,8 @@
       <c r="K299" s="39"/>
     </row>
     <row r="300" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B300" s="99"/>
-      <c r="C300" s="92"/>
+      <c r="B300" s="93"/>
+      <c r="C300" s="96"/>
       <c r="D300" s="43"/>
       <c r="E300" s="41"/>
       <c r="F300" s="44"/>
@@ -6734,8 +6742,8 @@
       <c r="K300" s="39"/>
     </row>
     <row r="301" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B301" s="100"/>
-      <c r="C301" s="93"/>
+      <c r="B301" s="94"/>
+      <c r="C301" s="97"/>
       <c r="D301" s="43"/>
       <c r="E301" s="41"/>
       <c r="F301" s="44"/>
@@ -6746,8 +6754,8 @@
       <c r="K301" s="39"/>
     </row>
     <row r="302" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B302" s="99"/>
-      <c r="C302" s="92"/>
+      <c r="B302" s="93"/>
+      <c r="C302" s="96"/>
       <c r="D302" s="43"/>
       <c r="E302" s="41"/>
       <c r="F302" s="44"/>
@@ -6758,8 +6766,8 @@
       <c r="K302" s="39"/>
     </row>
     <row r="303" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B303" s="100"/>
-      <c r="C303" s="93"/>
+      <c r="B303" s="94"/>
+      <c r="C303" s="97"/>
       <c r="D303" s="43"/>
       <c r="E303" s="41"/>
       <c r="F303" s="44"/>
@@ -6770,8 +6778,8 @@
       <c r="K303" s="39"/>
     </row>
     <row r="304" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B304" s="99"/>
-      <c r="C304" s="92"/>
+      <c r="B304" s="93"/>
+      <c r="C304" s="96"/>
       <c r="D304" s="43"/>
       <c r="E304" s="41"/>
       <c r="F304" s="44"/>
@@ -6782,8 +6790,8 @@
       <c r="K304" s="39"/>
     </row>
     <row r="305" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B305" s="100"/>
-      <c r="C305" s="93"/>
+      <c r="B305" s="94"/>
+      <c r="C305" s="97"/>
       <c r="D305" s="43"/>
       <c r="E305" s="41"/>
       <c r="F305" s="44"/>
@@ -6794,8 +6802,8 @@
       <c r="K305" s="39"/>
     </row>
     <row r="306" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B306" s="99"/>
-      <c r="C306" s="92"/>
+      <c r="B306" s="93"/>
+      <c r="C306" s="96"/>
       <c r="D306" s="43"/>
       <c r="E306" s="41"/>
       <c r="F306" s="44"/>
@@ -6806,8 +6814,8 @@
       <c r="K306" s="39"/>
     </row>
     <row r="307" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B307" s="100"/>
-      <c r="C307" s="93"/>
+      <c r="B307" s="94"/>
+      <c r="C307" s="97"/>
       <c r="D307" s="43"/>
       <c r="E307" s="41"/>
       <c r="F307" s="44"/>
@@ -6818,8 +6826,8 @@
       <c r="K307" s="39"/>
     </row>
     <row r="308" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B308" s="99"/>
-      <c r="C308" s="92"/>
+      <c r="B308" s="93"/>
+      <c r="C308" s="96"/>
       <c r="D308" s="43"/>
       <c r="E308" s="41"/>
       <c r="F308" s="44"/>
@@ -6830,8 +6838,8 @@
       <c r="K308" s="39"/>
     </row>
     <row r="309" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B309" s="100"/>
-      <c r="C309" s="93"/>
+      <c r="B309" s="94"/>
+      <c r="C309" s="97"/>
       <c r="D309" s="43"/>
       <c r="E309" s="41"/>
       <c r="F309" s="44"/>
@@ -6842,8 +6850,8 @@
       <c r="K309" s="39"/>
     </row>
     <row r="310" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B310" s="99"/>
-      <c r="C310" s="92"/>
+      <c r="B310" s="93"/>
+      <c r="C310" s="96"/>
       <c r="D310" s="43"/>
       <c r="E310" s="41"/>
       <c r="F310" s="44"/>
@@ -6854,8 +6862,8 @@
       <c r="K310" s="39"/>
     </row>
     <row r="311" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B311" s="100"/>
-      <c r="C311" s="93"/>
+      <c r="B311" s="94"/>
+      <c r="C311" s="97"/>
       <c r="D311" s="43"/>
       <c r="E311" s="41"/>
       <c r="F311" s="44"/>
@@ -6866,8 +6874,8 @@
       <c r="K311" s="39"/>
     </row>
     <row r="312" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B312" s="99"/>
-      <c r="C312" s="92"/>
+      <c r="B312" s="93"/>
+      <c r="C312" s="96"/>
       <c r="D312" s="43"/>
       <c r="E312" s="41"/>
       <c r="F312" s="44"/>
@@ -6878,8 +6886,8 @@
       <c r="K312" s="39"/>
     </row>
     <row r="313" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B313" s="100"/>
-      <c r="C313" s="93"/>
+      <c r="B313" s="94"/>
+      <c r="C313" s="97"/>
       <c r="D313" s="43"/>
       <c r="E313" s="41"/>
       <c r="F313" s="44"/>
@@ -6890,8 +6898,8 @@
       <c r="K313" s="39"/>
     </row>
     <row r="314" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B314" s="99"/>
-      <c r="C314" s="92"/>
+      <c r="B314" s="93"/>
+      <c r="C314" s="96"/>
       <c r="D314" s="43"/>
       <c r="E314" s="41"/>
       <c r="F314" s="44"/>
@@ -6902,8 +6910,8 @@
       <c r="K314" s="39"/>
     </row>
     <row r="315" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B315" s="100"/>
-      <c r="C315" s="93"/>
+      <c r="B315" s="94"/>
+      <c r="C315" s="97"/>
       <c r="D315" s="43"/>
       <c r="E315" s="41"/>
       <c r="F315" s="44"/>
@@ -6914,8 +6922,8 @@
       <c r="K315" s="39"/>
     </row>
     <row r="316" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B316" s="99"/>
-      <c r="C316" s="92"/>
+      <c r="B316" s="93"/>
+      <c r="C316" s="96"/>
       <c r="D316" s="43"/>
       <c r="E316" s="41"/>
       <c r="F316" s="44"/>
@@ -6926,8 +6934,8 @@
       <c r="K316" s="39"/>
     </row>
     <row r="317" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B317" s="100"/>
-      <c r="C317" s="93"/>
+      <c r="B317" s="94"/>
+      <c r="C317" s="97"/>
       <c r="D317" s="43"/>
       <c r="E317" s="41"/>
       <c r="F317" s="44"/>
@@ -6938,8 +6946,8 @@
       <c r="K317" s="39"/>
     </row>
     <row r="318" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B318" s="99"/>
-      <c r="C318" s="92"/>
+      <c r="B318" s="93"/>
+      <c r="C318" s="96"/>
       <c r="D318" s="43"/>
       <c r="E318" s="41"/>
       <c r="F318" s="44"/>
@@ -6950,8 +6958,8 @@
       <c r="K318" s="39"/>
     </row>
     <row r="319" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B319" s="100"/>
-      <c r="C319" s="93"/>
+      <c r="B319" s="94"/>
+      <c r="C319" s="97"/>
       <c r="D319" s="43"/>
       <c r="E319" s="41"/>
       <c r="F319" s="44"/>
@@ -6962,8 +6970,8 @@
       <c r="K319" s="39"/>
     </row>
     <row r="320" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B320" s="99"/>
-      <c r="C320" s="92"/>
+      <c r="B320" s="93"/>
+      <c r="C320" s="96"/>
       <c r="D320" s="43"/>
       <c r="E320" s="41"/>
       <c r="F320" s="44"/>
@@ -6974,8 +6982,8 @@
       <c r="K320" s="39"/>
     </row>
     <row r="321" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B321" s="100"/>
-      <c r="C321" s="93"/>
+      <c r="B321" s="94"/>
+      <c r="C321" s="97"/>
       <c r="D321" s="43"/>
       <c r="E321" s="41"/>
       <c r="F321" s="44"/>
@@ -6986,8 +6994,8 @@
       <c r="K321" s="39"/>
     </row>
     <row r="322" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B322" s="99"/>
-      <c r="C322" s="92"/>
+      <c r="B322" s="93"/>
+      <c r="C322" s="96"/>
       <c r="D322" s="43"/>
       <c r="E322" s="41"/>
       <c r="F322" s="44"/>
@@ -6998,8 +7006,8 @@
       <c r="K322" s="39"/>
     </row>
     <row r="323" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B323" s="100"/>
-      <c r="C323" s="93"/>
+      <c r="B323" s="94"/>
+      <c r="C323" s="97"/>
       <c r="D323" s="43"/>
       <c r="E323" s="41"/>
       <c r="F323" s="44"/>
@@ -7010,8 +7018,8 @@
       <c r="K323" s="39"/>
     </row>
     <row r="324" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B324" s="99"/>
-      <c r="C324" s="92"/>
+      <c r="B324" s="93"/>
+      <c r="C324" s="96"/>
       <c r="D324" s="43"/>
       <c r="E324" s="41"/>
       <c r="F324" s="44"/>
@@ -7022,8 +7030,8 @@
       <c r="K324" s="39"/>
     </row>
     <row r="325" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B325" s="100"/>
-      <c r="C325" s="93"/>
+      <c r="B325" s="94"/>
+      <c r="C325" s="97"/>
       <c r="D325" s="43"/>
       <c r="E325" s="41"/>
       <c r="F325" s="44"/>
@@ -7034,8 +7042,8 @@
       <c r="K325" s="39"/>
     </row>
     <row r="326" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B326" s="99"/>
-      <c r="C326" s="92"/>
+      <c r="B326" s="93"/>
+      <c r="C326" s="96"/>
       <c r="D326" s="43"/>
       <c r="E326" s="41"/>
       <c r="F326" s="44"/>
@@ -7046,8 +7054,8 @@
       <c r="K326" s="39"/>
     </row>
     <row r="327" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B327" s="100"/>
-      <c r="C327" s="93"/>
+      <c r="B327" s="94"/>
+      <c r="C327" s="97"/>
       <c r="D327" s="43"/>
       <c r="E327" s="41"/>
       <c r="F327" s="44"/>
@@ -7058,8 +7066,8 @@
       <c r="K327" s="39"/>
     </row>
     <row r="328" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B328" s="99"/>
-      <c r="C328" s="92"/>
+      <c r="B328" s="93"/>
+      <c r="C328" s="96"/>
       <c r="D328" s="43"/>
       <c r="E328" s="41"/>
       <c r="F328" s="44"/>
@@ -7070,8 +7078,8 @@
       <c r="K328" s="39"/>
     </row>
     <row r="329" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B329" s="100"/>
-      <c r="C329" s="93"/>
+      <c r="B329" s="94"/>
+      <c r="C329" s="97"/>
       <c r="D329" s="43"/>
       <c r="E329" s="41"/>
       <c r="F329" s="44"/>
@@ -7082,8 +7090,8 @@
       <c r="K329" s="39"/>
     </row>
     <row r="330" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B330" s="99"/>
-      <c r="C330" s="92"/>
+      <c r="B330" s="93"/>
+      <c r="C330" s="96"/>
       <c r="D330" s="43"/>
       <c r="E330" s="41"/>
       <c r="F330" s="44"/>
@@ -7094,8 +7102,8 @@
       <c r="K330" s="39"/>
     </row>
     <row r="331" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B331" s="100"/>
-      <c r="C331" s="93"/>
+      <c r="B331" s="94"/>
+      <c r="C331" s="97"/>
       <c r="D331" s="43"/>
       <c r="E331" s="41"/>
       <c r="F331" s="44"/>
@@ -7106,8 +7114,8 @@
       <c r="K331" s="39"/>
     </row>
     <row r="332" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B332" s="99"/>
-      <c r="C332" s="92"/>
+      <c r="B332" s="93"/>
+      <c r="C332" s="96"/>
       <c r="D332" s="43"/>
       <c r="E332" s="41"/>
       <c r="F332" s="44"/>
@@ -7118,8 +7126,8 @@
       <c r="K332" s="39"/>
     </row>
     <row r="333" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B333" s="100"/>
-      <c r="C333" s="93"/>
+      <c r="B333" s="94"/>
+      <c r="C333" s="97"/>
       <c r="D333" s="43"/>
       <c r="E333" s="41"/>
       <c r="F333" s="44"/>
@@ -7130,8 +7138,8 @@
       <c r="K333" s="39"/>
     </row>
     <row r="334" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B334" s="99"/>
-      <c r="C334" s="92"/>
+      <c r="B334" s="93"/>
+      <c r="C334" s="96"/>
       <c r="D334" s="43"/>
       <c r="E334" s="41"/>
       <c r="F334" s="44"/>
@@ -7142,8 +7150,8 @@
       <c r="K334" s="39"/>
     </row>
     <row r="335" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B335" s="100"/>
-      <c r="C335" s="93"/>
+      <c r="B335" s="94"/>
+      <c r="C335" s="97"/>
       <c r="D335" s="43"/>
       <c r="E335" s="41"/>
       <c r="F335" s="44"/>
@@ -7154,8 +7162,8 @@
       <c r="K335" s="39"/>
     </row>
     <row r="336" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B336" s="99"/>
-      <c r="C336" s="92"/>
+      <c r="B336" s="93"/>
+      <c r="C336" s="96"/>
       <c r="D336" s="43"/>
       <c r="E336" s="41"/>
       <c r="F336" s="44"/>
@@ -7166,8 +7174,8 @@
       <c r="K336" s="39"/>
     </row>
     <row r="337" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B337" s="100"/>
-      <c r="C337" s="93"/>
+      <c r="B337" s="94"/>
+      <c r="C337" s="97"/>
       <c r="D337" s="43"/>
       <c r="E337" s="41"/>
       <c r="F337" s="44"/>
@@ -7178,8 +7186,8 @@
       <c r="K337" s="39"/>
     </row>
     <row r="338" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B338" s="99"/>
-      <c r="C338" s="92"/>
+      <c r="B338" s="93"/>
+      <c r="C338" s="96"/>
       <c r="D338" s="43"/>
       <c r="E338" s="41"/>
       <c r="F338" s="44"/>
@@ -7190,8 +7198,8 @@
       <c r="K338" s="39"/>
     </row>
     <row r="339" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B339" s="100"/>
-      <c r="C339" s="93"/>
+      <c r="B339" s="94"/>
+      <c r="C339" s="97"/>
       <c r="D339" s="43"/>
       <c r="E339" s="41"/>
       <c r="F339" s="44"/>
@@ -7202,8 +7210,8 @@
       <c r="K339" s="39"/>
     </row>
     <row r="340" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B340" s="99"/>
-      <c r="C340" s="92"/>
+      <c r="B340" s="93"/>
+      <c r="C340" s="96"/>
       <c r="D340" s="43"/>
       <c r="E340" s="41"/>
       <c r="F340" s="44"/>
@@ -7214,8 +7222,8 @@
       <c r="K340" s="39"/>
     </row>
     <row r="341" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B341" s="100"/>
-      <c r="C341" s="93"/>
+      <c r="B341" s="94"/>
+      <c r="C341" s="97"/>
       <c r="D341" s="43"/>
       <c r="E341" s="41"/>
       <c r="F341" s="44"/>
@@ -7226,8 +7234,8 @@
       <c r="K341" s="39"/>
     </row>
     <row r="342" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B342" s="99"/>
-      <c r="C342" s="92"/>
+      <c r="B342" s="93"/>
+      <c r="C342" s="96"/>
       <c r="D342" s="43"/>
       <c r="E342" s="41"/>
       <c r="F342" s="44"/>
@@ -7238,8 +7246,8 @@
       <c r="K342" s="39"/>
     </row>
     <row r="343" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B343" s="100"/>
-      <c r="C343" s="93"/>
+      <c r="B343" s="94"/>
+      <c r="C343" s="97"/>
       <c r="D343" s="43"/>
       <c r="E343" s="41"/>
       <c r="F343" s="44"/>
@@ -7250,8 +7258,8 @@
       <c r="K343" s="39"/>
     </row>
     <row r="344" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B344" s="99"/>
-      <c r="C344" s="92"/>
+      <c r="B344" s="93"/>
+      <c r="C344" s="96"/>
       <c r="D344" s="43"/>
       <c r="E344" s="41"/>
       <c r="F344" s="44"/>
@@ -7262,8 +7270,8 @@
       <c r="K344" s="39"/>
     </row>
     <row r="345" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B345" s="100"/>
-      <c r="C345" s="93"/>
+      <c r="B345" s="94"/>
+      <c r="C345" s="97"/>
       <c r="D345" s="43"/>
       <c r="E345" s="41"/>
       <c r="F345" s="44"/>
@@ -7274,8 +7282,8 @@
       <c r="K345" s="39"/>
     </row>
     <row r="346" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B346" s="99"/>
-      <c r="C346" s="92"/>
+      <c r="B346" s="93"/>
+      <c r="C346" s="96"/>
       <c r="D346" s="43"/>
       <c r="E346" s="41"/>
       <c r="F346" s="44"/>
@@ -7286,8 +7294,8 @@
       <c r="K346" s="39"/>
     </row>
     <row r="347" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B347" s="100"/>
-      <c r="C347" s="93"/>
+      <c r="B347" s="94"/>
+      <c r="C347" s="97"/>
       <c r="D347" s="43"/>
       <c r="E347" s="41"/>
       <c r="F347" s="44"/>
@@ -7298,8 +7306,8 @@
       <c r="K347" s="39"/>
     </row>
     <row r="348" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B348" s="99"/>
-      <c r="C348" s="92"/>
+      <c r="B348" s="93"/>
+      <c r="C348" s="96"/>
       <c r="D348" s="43"/>
       <c r="E348" s="41"/>
       <c r="F348" s="44"/>
@@ -7310,8 +7318,8 @@
       <c r="K348" s="39"/>
     </row>
     <row r="349" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B349" s="100"/>
-      <c r="C349" s="93"/>
+      <c r="B349" s="94"/>
+      <c r="C349" s="97"/>
       <c r="D349" s="43"/>
       <c r="E349" s="41"/>
       <c r="F349" s="44"/>
@@ -7322,8 +7330,8 @@
       <c r="K349" s="39"/>
     </row>
     <row r="350" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B350" s="99"/>
-      <c r="C350" s="92"/>
+      <c r="B350" s="93"/>
+      <c r="C350" s="96"/>
       <c r="D350" s="43"/>
       <c r="E350" s="41"/>
       <c r="F350" s="44"/>
@@ -7334,8 +7342,8 @@
       <c r="K350" s="39"/>
     </row>
     <row r="351" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B351" s="100"/>
-      <c r="C351" s="93"/>
+      <c r="B351" s="94"/>
+      <c r="C351" s="97"/>
       <c r="D351" s="43"/>
       <c r="E351" s="41"/>
       <c r="F351" s="44"/>
@@ -7346,8 +7354,8 @@
       <c r="K351" s="39"/>
     </row>
     <row r="352" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B352" s="99"/>
-      <c r="C352" s="92"/>
+      <c r="B352" s="93"/>
+      <c r="C352" s="96"/>
       <c r="D352" s="43"/>
       <c r="E352" s="41"/>
       <c r="F352" s="44"/>
@@ -7358,8 +7366,8 @@
       <c r="K352" s="39"/>
     </row>
     <row r="353" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B353" s="100"/>
-      <c r="C353" s="93"/>
+      <c r="B353" s="94"/>
+      <c r="C353" s="97"/>
       <c r="D353" s="43"/>
       <c r="E353" s="41"/>
       <c r="F353" s="44"/>
@@ -7370,8 +7378,8 @@
       <c r="K353" s="39"/>
     </row>
     <row r="354" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B354" s="99"/>
-      <c r="C354" s="92"/>
+      <c r="B354" s="93"/>
+      <c r="C354" s="96"/>
       <c r="D354" s="43"/>
       <c r="E354" s="41"/>
       <c r="F354" s="44"/>
@@ -7382,8 +7390,8 @@
       <c r="K354" s="39"/>
     </row>
     <row r="355" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B355" s="100"/>
-      <c r="C355" s="93"/>
+      <c r="B355" s="94"/>
+      <c r="C355" s="97"/>
       <c r="D355" s="43"/>
       <c r="E355" s="41"/>
       <c r="F355" s="44"/>
@@ -7394,8 +7402,8 @@
       <c r="K355" s="39"/>
     </row>
     <row r="356" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B356" s="99"/>
-      <c r="C356" s="92"/>
+      <c r="B356" s="93"/>
+      <c r="C356" s="96"/>
       <c r="D356" s="43"/>
       <c r="E356" s="41"/>
       <c r="F356" s="44"/>
@@ -7406,8 +7414,8 @@
       <c r="K356" s="39"/>
     </row>
     <row r="357" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B357" s="100"/>
-      <c r="C357" s="93"/>
+      <c r="B357" s="94"/>
+      <c r="C357" s="97"/>
       <c r="D357" s="43"/>
       <c r="E357" s="41"/>
       <c r="F357" s="44"/>
@@ -7418,8 +7426,8 @@
       <c r="K357" s="39"/>
     </row>
     <row r="358" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B358" s="99"/>
-      <c r="C358" s="92"/>
+      <c r="B358" s="93"/>
+      <c r="C358" s="96"/>
       <c r="D358" s="43"/>
       <c r="E358" s="41"/>
       <c r="F358" s="44"/>
@@ -7430,8 +7438,8 @@
       <c r="K358" s="39"/>
     </row>
     <row r="359" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B359" s="100"/>
-      <c r="C359" s="93"/>
+      <c r="B359" s="94"/>
+      <c r="C359" s="97"/>
       <c r="D359" s="43"/>
       <c r="E359" s="41"/>
       <c r="F359" s="44"/>
@@ -7442,8 +7450,8 @@
       <c r="K359" s="39"/>
     </row>
     <row r="360" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B360" s="99"/>
-      <c r="C360" s="92"/>
+      <c r="B360" s="93"/>
+      <c r="C360" s="96"/>
       <c r="D360" s="43"/>
       <c r="E360" s="41"/>
       <c r="F360" s="44"/>
@@ -7454,8 +7462,8 @@
       <c r="K360" s="39"/>
     </row>
     <row r="361" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B361" s="100"/>
-      <c r="C361" s="93"/>
+      <c r="B361" s="94"/>
+      <c r="C361" s="97"/>
       <c r="D361" s="43"/>
       <c r="E361" s="41"/>
       <c r="F361" s="44"/>
@@ -7466,8 +7474,8 @@
       <c r="K361" s="39"/>
     </row>
     <row r="362" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B362" s="99"/>
-      <c r="C362" s="92"/>
+      <c r="B362" s="93"/>
+      <c r="C362" s="96"/>
       <c r="D362" s="43"/>
       <c r="E362" s="41"/>
       <c r="F362" s="44"/>
@@ -7478,8 +7486,8 @@
       <c r="K362" s="39"/>
     </row>
     <row r="363" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B363" s="100"/>
-      <c r="C363" s="93"/>
+      <c r="B363" s="94"/>
+      <c r="C363" s="97"/>
       <c r="D363" s="43"/>
       <c r="E363" s="41"/>
       <c r="F363" s="44"/>
@@ -7490,8 +7498,8 @@
       <c r="K363" s="39"/>
     </row>
     <row r="364" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B364" s="99"/>
-      <c r="C364" s="92"/>
+      <c r="B364" s="93"/>
+      <c r="C364" s="96"/>
       <c r="D364" s="43"/>
       <c r="E364" s="41"/>
       <c r="F364" s="44"/>
@@ -7502,8 +7510,8 @@
       <c r="K364" s="39"/>
     </row>
     <row r="365" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B365" s="100"/>
-      <c r="C365" s="93"/>
+      <c r="B365" s="94"/>
+      <c r="C365" s="97"/>
       <c r="D365" s="43"/>
       <c r="E365" s="41"/>
       <c r="F365" s="44"/>
@@ -7514,8 +7522,8 @@
       <c r="K365" s="39"/>
     </row>
     <row r="366" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B366" s="99"/>
-      <c r="C366" s="92"/>
+      <c r="B366" s="93"/>
+      <c r="C366" s="96"/>
       <c r="D366" s="43"/>
       <c r="E366" s="41"/>
       <c r="F366" s="44"/>
@@ -7526,8 +7534,8 @@
       <c r="K366" s="39"/>
     </row>
     <row r="367" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B367" s="100"/>
-      <c r="C367" s="93"/>
+      <c r="B367" s="94"/>
+      <c r="C367" s="97"/>
       <c r="D367" s="43"/>
       <c r="E367" s="41"/>
       <c r="F367" s="44"/>
@@ -7538,8 +7546,8 @@
       <c r="K367" s="39"/>
     </row>
     <row r="368" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B368" s="99"/>
-      <c r="C368" s="92"/>
+      <c r="B368" s="93"/>
+      <c r="C368" s="96"/>
       <c r="D368" s="43"/>
       <c r="E368" s="41"/>
       <c r="F368" s="44"/>
@@ -7550,8 +7558,8 @@
       <c r="K368" s="39"/>
     </row>
     <row r="369" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B369" s="100"/>
-      <c r="C369" s="93"/>
+      <c r="B369" s="94"/>
+      <c r="C369" s="97"/>
       <c r="D369" s="43"/>
       <c r="E369" s="41"/>
       <c r="F369" s="44"/>
@@ -7562,8 +7570,8 @@
       <c r="K369" s="39"/>
     </row>
     <row r="370" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B370" s="99"/>
-      <c r="C370" s="92"/>
+      <c r="B370" s="93"/>
+      <c r="C370" s="96"/>
       <c r="D370" s="43"/>
       <c r="E370" s="41"/>
       <c r="F370" s="44"/>
@@ -7574,8 +7582,8 @@
       <c r="K370" s="39"/>
     </row>
     <row r="371" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B371" s="100"/>
-      <c r="C371" s="93"/>
+      <c r="B371" s="94"/>
+      <c r="C371" s="97"/>
       <c r="D371" s="43"/>
       <c r="E371" s="41"/>
       <c r="F371" s="44"/>
@@ -7586,8 +7594,8 @@
       <c r="K371" s="39"/>
     </row>
     <row r="372" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B372" s="99"/>
-      <c r="C372" s="92"/>
+      <c r="B372" s="93"/>
+      <c r="C372" s="96"/>
       <c r="D372" s="43"/>
       <c r="E372" s="41"/>
       <c r="F372" s="44"/>
@@ -7598,8 +7606,8 @@
       <c r="K372" s="39"/>
     </row>
     <row r="373" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B373" s="100"/>
-      <c r="C373" s="93"/>
+      <c r="B373" s="94"/>
+      <c r="C373" s="97"/>
       <c r="D373" s="43"/>
       <c r="E373" s="41"/>
       <c r="F373" s="44"/>
@@ -7610,8 +7618,8 @@
       <c r="K373" s="39"/>
     </row>
     <row r="374" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B374" s="99"/>
-      <c r="C374" s="92"/>
+      <c r="B374" s="93"/>
+      <c r="C374" s="96"/>
       <c r="D374" s="43"/>
       <c r="E374" s="41"/>
       <c r="F374" s="44"/>
@@ -7622,8 +7630,8 @@
       <c r="K374" s="39"/>
     </row>
     <row r="375" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B375" s="100"/>
-      <c r="C375" s="93"/>
+      <c r="B375" s="94"/>
+      <c r="C375" s="97"/>
       <c r="D375" s="43"/>
       <c r="E375" s="41"/>
       <c r="F375" s="44"/>
@@ -7634,8 +7642,8 @@
       <c r="K375" s="39"/>
     </row>
     <row r="376" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B376" s="99"/>
-      <c r="C376" s="92"/>
+      <c r="B376" s="93"/>
+      <c r="C376" s="96"/>
       <c r="D376" s="43"/>
       <c r="E376" s="41"/>
       <c r="F376" s="44"/>
@@ -7646,8 +7654,8 @@
       <c r="K376" s="39"/>
     </row>
     <row r="377" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B377" s="100"/>
-      <c r="C377" s="93"/>
+      <c r="B377" s="94"/>
+      <c r="C377" s="97"/>
       <c r="D377" s="43"/>
       <c r="E377" s="41"/>
       <c r="F377" s="44"/>
@@ -7658,8 +7666,8 @@
       <c r="K377" s="39"/>
     </row>
     <row r="378" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B378" s="99"/>
-      <c r="C378" s="92"/>
+      <c r="B378" s="93"/>
+      <c r="C378" s="96"/>
       <c r="D378" s="43"/>
       <c r="E378" s="41"/>
       <c r="F378" s="44"/>
@@ -7670,8 +7678,8 @@
       <c r="K378" s="39"/>
     </row>
     <row r="379" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B379" s="100"/>
-      <c r="C379" s="93"/>
+      <c r="B379" s="94"/>
+      <c r="C379" s="97"/>
       <c r="D379" s="43"/>
       <c r="E379" s="41"/>
       <c r="F379" s="44"/>
@@ -7682,8 +7690,8 @@
       <c r="K379" s="39"/>
     </row>
     <row r="380" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B380" s="99"/>
-      <c r="C380" s="92"/>
+      <c r="B380" s="93"/>
+      <c r="C380" s="96"/>
       <c r="D380" s="43"/>
       <c r="E380" s="41"/>
       <c r="F380" s="44"/>
@@ -7694,8 +7702,8 @@
       <c r="K380" s="39"/>
     </row>
     <row r="381" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B381" s="100"/>
-      <c r="C381" s="93"/>
+      <c r="B381" s="94"/>
+      <c r="C381" s="97"/>
       <c r="D381" s="43"/>
       <c r="E381" s="41"/>
       <c r="F381" s="44"/>
@@ -7706,8 +7714,8 @@
       <c r="K381" s="39"/>
     </row>
     <row r="382" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B382" s="99"/>
-      <c r="C382" s="92"/>
+      <c r="B382" s="93"/>
+      <c r="C382" s="96"/>
       <c r="D382" s="43"/>
       <c r="E382" s="41"/>
       <c r="F382" s="44"/>
@@ -7718,8 +7726,8 @@
       <c r="K382" s="39"/>
     </row>
     <row r="383" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B383" s="100"/>
-      <c r="C383" s="93"/>
+      <c r="B383" s="94"/>
+      <c r="C383" s="97"/>
       <c r="D383" s="43"/>
       <c r="E383" s="41"/>
       <c r="F383" s="44"/>
@@ -7730,8 +7738,8 @@
       <c r="K383" s="39"/>
     </row>
     <row r="384" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B384" s="99"/>
-      <c r="C384" s="92"/>
+      <c r="B384" s="93"/>
+      <c r="C384" s="96"/>
       <c r="D384" s="43"/>
       <c r="E384" s="41"/>
       <c r="F384" s="44"/>
@@ -7742,8 +7750,8 @@
       <c r="K384" s="39"/>
     </row>
     <row r="385" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B385" s="100"/>
-      <c r="C385" s="93"/>
+      <c r="B385" s="94"/>
+      <c r="C385" s="97"/>
       <c r="D385" s="43"/>
       <c r="E385" s="41"/>
       <c r="F385" s="44"/>
@@ -7754,8 +7762,8 @@
       <c r="K385" s="39"/>
     </row>
     <row r="386" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B386" s="99"/>
-      <c r="C386" s="92"/>
+      <c r="B386" s="93"/>
+      <c r="C386" s="96"/>
       <c r="D386" s="43"/>
       <c r="E386" s="41"/>
       <c r="F386" s="44"/>
@@ -7766,8 +7774,8 @@
       <c r="K386" s="39"/>
     </row>
     <row r="387" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B387" s="100"/>
-      <c r="C387" s="93"/>
+      <c r="B387" s="94"/>
+      <c r="C387" s="97"/>
       <c r="D387" s="43"/>
       <c r="E387" s="41"/>
       <c r="F387" s="44"/>
@@ -7778,8 +7786,8 @@
       <c r="K387" s="39"/>
     </row>
     <row r="388" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B388" s="99"/>
-      <c r="C388" s="92"/>
+      <c r="B388" s="93"/>
+      <c r="C388" s="96"/>
       <c r="D388" s="43"/>
       <c r="E388" s="41"/>
       <c r="F388" s="44"/>
@@ -7790,8 +7798,8 @@
       <c r="K388" s="39"/>
     </row>
     <row r="389" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B389" s="100"/>
-      <c r="C389" s="93"/>
+      <c r="B389" s="94"/>
+      <c r="C389" s="97"/>
       <c r="D389" s="43"/>
       <c r="E389" s="41"/>
       <c r="F389" s="44"/>
@@ -7802,8 +7810,8 @@
       <c r="K389" s="39"/>
     </row>
     <row r="390" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B390" s="99"/>
-      <c r="C390" s="92"/>
+      <c r="B390" s="93"/>
+      <c r="C390" s="96"/>
       <c r="D390" s="43"/>
       <c r="E390" s="41"/>
       <c r="F390" s="44"/>
@@ -7814,8 +7822,8 @@
       <c r="K390" s="39"/>
     </row>
     <row r="391" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B391" s="100"/>
-      <c r="C391" s="93"/>
+      <c r="B391" s="94"/>
+      <c r="C391" s="97"/>
       <c r="D391" s="43"/>
       <c r="E391" s="41"/>
       <c r="F391" s="44"/>
@@ -7826,8 +7834,8 @@
       <c r="K391" s="39"/>
     </row>
     <row r="392" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B392" s="99"/>
-      <c r="C392" s="92"/>
+      <c r="B392" s="93"/>
+      <c r="C392" s="96"/>
       <c r="D392" s="43"/>
       <c r="E392" s="41"/>
       <c r="F392" s="44"/>
@@ -7838,8 +7846,8 @@
       <c r="K392" s="39"/>
     </row>
     <row r="393" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B393" s="100"/>
-      <c r="C393" s="93"/>
+      <c r="B393" s="94"/>
+      <c r="C393" s="97"/>
       <c r="D393" s="43"/>
       <c r="E393" s="41"/>
       <c r="F393" s="44"/>
@@ -7850,8 +7858,8 @@
       <c r="K393" s="39"/>
     </row>
     <row r="394" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B394" s="99"/>
-      <c r="C394" s="92"/>
+      <c r="B394" s="93"/>
+      <c r="C394" s="96"/>
       <c r="D394" s="43"/>
       <c r="E394" s="41"/>
       <c r="F394" s="44"/>
@@ -7862,8 +7870,8 @@
       <c r="K394" s="39"/>
     </row>
     <row r="395" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B395" s="100"/>
-      <c r="C395" s="93"/>
+      <c r="B395" s="94"/>
+      <c r="C395" s="97"/>
       <c r="D395" s="43"/>
       <c r="E395" s="41"/>
       <c r="F395" s="44"/>
@@ -7874,8 +7882,8 @@
       <c r="K395" s="39"/>
     </row>
     <row r="396" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B396" s="99"/>
-      <c r="C396" s="92"/>
+      <c r="B396" s="93"/>
+      <c r="C396" s="96"/>
       <c r="D396" s="43"/>
       <c r="E396" s="41"/>
       <c r="F396" s="44"/>
@@ -7886,8 +7894,8 @@
       <c r="K396" s="39"/>
     </row>
     <row r="397" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B397" s="100"/>
-      <c r="C397" s="93"/>
+      <c r="B397" s="94"/>
+      <c r="C397" s="97"/>
       <c r="D397" s="43"/>
       <c r="E397" s="41"/>
       <c r="F397" s="44"/>
@@ -7898,8 +7906,8 @@
       <c r="K397" s="39"/>
     </row>
     <row r="398" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B398" s="99"/>
-      <c r="C398" s="92"/>
+      <c r="B398" s="93"/>
+      <c r="C398" s="96"/>
       <c r="D398" s="43"/>
       <c r="E398" s="41"/>
       <c r="F398" s="44"/>
@@ -7910,8 +7918,8 @@
       <c r="K398" s="39"/>
     </row>
     <row r="399" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B399" s="100"/>
-      <c r="C399" s="93"/>
+      <c r="B399" s="94"/>
+      <c r="C399" s="97"/>
       <c r="D399" s="43"/>
       <c r="E399" s="41"/>
       <c r="F399" s="44"/>
@@ -7922,8 +7930,8 @@
       <c r="K399" s="39"/>
     </row>
     <row r="400" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B400" s="99"/>
-      <c r="C400" s="92"/>
+      <c r="B400" s="93"/>
+      <c r="C400" s="96"/>
       <c r="D400" s="43"/>
       <c r="E400" s="41"/>
       <c r="F400" s="44"/>
@@ -7934,8 +7942,8 @@
       <c r="K400" s="39"/>
     </row>
     <row r="401" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B401" s="100"/>
-      <c r="C401" s="93"/>
+      <c r="B401" s="94"/>
+      <c r="C401" s="97"/>
       <c r="D401" s="43"/>
       <c r="E401" s="41"/>
       <c r="F401" s="44"/>
@@ -7946,8 +7954,8 @@
       <c r="K401" s="39"/>
     </row>
     <row r="402" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B402" s="99"/>
-      <c r="C402" s="92"/>
+      <c r="B402" s="93"/>
+      <c r="C402" s="96"/>
       <c r="D402" s="43"/>
       <c r="E402" s="41"/>
       <c r="F402" s="44"/>
@@ -7958,8 +7966,8 @@
       <c r="K402" s="39"/>
     </row>
     <row r="403" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B403" s="100"/>
-      <c r="C403" s="93"/>
+      <c r="B403" s="94"/>
+      <c r="C403" s="97"/>
       <c r="D403" s="43"/>
       <c r="E403" s="41"/>
       <c r="F403" s="44"/>
@@ -7970,8 +7978,8 @@
       <c r="K403" s="39"/>
     </row>
     <row r="404" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B404" s="99"/>
-      <c r="C404" s="92"/>
+      <c r="B404" s="93"/>
+      <c r="C404" s="96"/>
       <c r="D404" s="43"/>
       <c r="E404" s="41"/>
       <c r="F404" s="44"/>
@@ -7982,8 +7990,8 @@
       <c r="K404" s="39"/>
     </row>
     <row r="405" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B405" s="100"/>
-      <c r="C405" s="93"/>
+      <c r="B405" s="94"/>
+      <c r="C405" s="97"/>
       <c r="D405" s="43"/>
       <c r="E405" s="41"/>
       <c r="F405" s="44"/>
@@ -7994,8 +8002,8 @@
       <c r="K405" s="39"/>
     </row>
     <row r="406" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B406" s="99"/>
-      <c r="C406" s="92"/>
+      <c r="B406" s="93"/>
+      <c r="C406" s="96"/>
       <c r="D406" s="43"/>
       <c r="E406" s="41"/>
       <c r="F406" s="44"/>
@@ -8006,8 +8014,8 @@
       <c r="K406" s="39"/>
     </row>
     <row r="407" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B407" s="100"/>
-      <c r="C407" s="93"/>
+      <c r="B407" s="94"/>
+      <c r="C407" s="97"/>
       <c r="D407" s="43"/>
       <c r="E407" s="41"/>
       <c r="F407" s="44"/>
@@ -8018,8 +8026,8 @@
       <c r="K407" s="39"/>
     </row>
     <row r="408" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B408" s="99"/>
-      <c r="C408" s="92"/>
+      <c r="B408" s="93"/>
+      <c r="C408" s="96"/>
       <c r="D408" s="43"/>
       <c r="E408" s="41"/>
       <c r="F408" s="44"/>
@@ -8030,8 +8038,8 @@
       <c r="K408" s="39"/>
     </row>
     <row r="409" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B409" s="100"/>
-      <c r="C409" s="93"/>
+      <c r="B409" s="94"/>
+      <c r="C409" s="97"/>
       <c r="D409" s="43"/>
       <c r="E409" s="41"/>
       <c r="F409" s="44"/>
@@ -8042,8 +8050,8 @@
       <c r="K409" s="39"/>
     </row>
     <row r="410" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B410" s="99"/>
-      <c r="C410" s="92"/>
+      <c r="B410" s="93"/>
+      <c r="C410" s="96"/>
       <c r="D410" s="43"/>
       <c r="E410" s="41"/>
       <c r="F410" s="44"/>
@@ -8054,8 +8062,8 @@
       <c r="K410" s="39"/>
     </row>
     <row r="411" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B411" s="100"/>
-      <c r="C411" s="93"/>
+      <c r="B411" s="94"/>
+      <c r="C411" s="97"/>
       <c r="D411" s="43"/>
       <c r="E411" s="41"/>
       <c r="F411" s="44"/>
@@ -8066,8 +8074,8 @@
       <c r="K411" s="39"/>
     </row>
     <row r="412" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B412" s="99"/>
-      <c r="C412" s="92"/>
+      <c r="B412" s="93"/>
+      <c r="C412" s="96"/>
       <c r="D412" s="43"/>
       <c r="E412" s="41"/>
       <c r="F412" s="44"/>
@@ -8078,8 +8086,8 @@
       <c r="K412" s="39"/>
     </row>
     <row r="413" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B413" s="100"/>
-      <c r="C413" s="93"/>
+      <c r="B413" s="94"/>
+      <c r="C413" s="97"/>
       <c r="D413" s="43"/>
       <c r="E413" s="41"/>
       <c r="F413" s="44"/>
@@ -8090,8 +8098,8 @@
       <c r="K413" s="39"/>
     </row>
     <row r="414" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B414" s="99"/>
-      <c r="C414" s="92"/>
+      <c r="B414" s="93"/>
+      <c r="C414" s="96"/>
       <c r="D414" s="43"/>
       <c r="E414" s="41"/>
       <c r="F414" s="44"/>
@@ -8102,8 +8110,8 @@
       <c r="K414" s="39"/>
     </row>
     <row r="415" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B415" s="100"/>
-      <c r="C415" s="93"/>
+      <c r="B415" s="94"/>
+      <c r="C415" s="97"/>
       <c r="D415" s="43"/>
       <c r="E415" s="41"/>
       <c r="F415" s="44"/>
@@ -8114,8 +8122,8 @@
       <c r="K415" s="39"/>
     </row>
     <row r="416" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B416" s="99"/>
-      <c r="C416" s="92"/>
+      <c r="B416" s="93"/>
+      <c r="C416" s="96"/>
       <c r="D416" s="43"/>
       <c r="E416" s="41"/>
       <c r="F416" s="44"/>
@@ -8126,8 +8134,8 @@
       <c r="K416" s="39"/>
     </row>
     <row r="417" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B417" s="100"/>
-      <c r="C417" s="93"/>
+      <c r="B417" s="94"/>
+      <c r="C417" s="97"/>
       <c r="D417" s="43"/>
       <c r="E417" s="41"/>
       <c r="F417" s="44"/>
@@ -8138,8 +8146,8 @@
       <c r="K417" s="39"/>
     </row>
     <row r="418" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B418" s="99"/>
-      <c r="C418" s="92"/>
+      <c r="B418" s="93"/>
+      <c r="C418" s="96"/>
       <c r="D418" s="43"/>
       <c r="E418" s="41"/>
       <c r="F418" s="44"/>
@@ -8150,8 +8158,8 @@
       <c r="K418" s="39"/>
     </row>
     <row r="419" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B419" s="100"/>
-      <c r="C419" s="93"/>
+      <c r="B419" s="94"/>
+      <c r="C419" s="97"/>
       <c r="D419" s="43"/>
       <c r="E419" s="41"/>
       <c r="F419" s="44"/>
@@ -8162,8 +8170,8 @@
       <c r="K419" s="39"/>
     </row>
     <row r="420" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B420" s="99"/>
-      <c r="C420" s="92"/>
+      <c r="B420" s="93"/>
+      <c r="C420" s="96"/>
       <c r="D420" s="43"/>
       <c r="E420" s="41"/>
       <c r="F420" s="44"/>
@@ -8174,8 +8182,8 @@
       <c r="K420" s="39"/>
     </row>
     <row r="421" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B421" s="100"/>
-      <c r="C421" s="93"/>
+      <c r="B421" s="94"/>
+      <c r="C421" s="97"/>
       <c r="D421" s="43"/>
       <c r="E421" s="41"/>
       <c r="F421" s="44"/>
@@ -8186,8 +8194,8 @@
       <c r="K421" s="39"/>
     </row>
     <row r="422" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B422" s="99"/>
-      <c r="C422" s="92"/>
+      <c r="B422" s="93"/>
+      <c r="C422" s="96"/>
       <c r="D422" s="43"/>
       <c r="E422" s="41"/>
       <c r="F422" s="44"/>
@@ -8198,8 +8206,8 @@
       <c r="K422" s="39"/>
     </row>
     <row r="423" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B423" s="100"/>
-      <c r="C423" s="93"/>
+      <c r="B423" s="94"/>
+      <c r="C423" s="97"/>
       <c r="D423" s="43"/>
       <c r="E423" s="41"/>
       <c r="F423" s="44"/>
@@ -8210,8 +8218,8 @@
       <c r="K423" s="39"/>
     </row>
     <row r="424" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B424" s="99"/>
-      <c r="C424" s="92"/>
+      <c r="B424" s="93"/>
+      <c r="C424" s="96"/>
       <c r="D424" s="43"/>
       <c r="E424" s="41"/>
       <c r="F424" s="44"/>
@@ -8222,8 +8230,8 @@
       <c r="K424" s="39"/>
     </row>
     <row r="425" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B425" s="100"/>
-      <c r="C425" s="93"/>
+      <c r="B425" s="94"/>
+      <c r="C425" s="97"/>
       <c r="D425" s="43"/>
       <c r="E425" s="41"/>
       <c r="F425" s="44"/>
@@ -8234,8 +8242,8 @@
       <c r="K425" s="39"/>
     </row>
     <row r="426" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B426" s="99"/>
-      <c r="C426" s="92"/>
+      <c r="B426" s="93"/>
+      <c r="C426" s="96"/>
       <c r="D426" s="43"/>
       <c r="E426" s="41"/>
       <c r="F426" s="44"/>
@@ -8246,8 +8254,8 @@
       <c r="K426" s="39"/>
     </row>
     <row r="427" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B427" s="100"/>
-      <c r="C427" s="93"/>
+      <c r="B427" s="94"/>
+      <c r="C427" s="97"/>
       <c r="D427" s="43"/>
       <c r="E427" s="41"/>
       <c r="F427" s="44"/>
@@ -8258,8 +8266,8 @@
       <c r="K427" s="39"/>
     </row>
     <row r="428" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B428" s="99"/>
-      <c r="C428" s="92"/>
+      <c r="B428" s="93"/>
+      <c r="C428" s="96"/>
       <c r="D428" s="43"/>
       <c r="E428" s="41"/>
       <c r="F428" s="44"/>
@@ -8270,8 +8278,8 @@
       <c r="K428" s="39"/>
     </row>
     <row r="429" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B429" s="100"/>
-      <c r="C429" s="93"/>
+      <c r="B429" s="94"/>
+      <c r="C429" s="97"/>
       <c r="D429" s="43"/>
       <c r="E429" s="41"/>
       <c r="F429" s="44"/>
@@ -8282,8 +8290,8 @@
       <c r="K429" s="39"/>
     </row>
     <row r="430" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B430" s="99"/>
-      <c r="C430" s="92"/>
+      <c r="B430" s="93"/>
+      <c r="C430" s="96"/>
       <c r="D430" s="43"/>
       <c r="E430" s="41"/>
       <c r="F430" s="44"/>
@@ -8294,8 +8302,8 @@
       <c r="K430" s="39"/>
     </row>
     <row r="431" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B431" s="100"/>
-      <c r="C431" s="93"/>
+      <c r="B431" s="94"/>
+      <c r="C431" s="97"/>
       <c r="D431" s="43"/>
       <c r="E431" s="41"/>
       <c r="F431" s="44"/>
@@ -8306,8 +8314,8 @@
       <c r="K431" s="39"/>
     </row>
     <row r="432" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B432" s="99"/>
-      <c r="C432" s="92"/>
+      <c r="B432" s="93"/>
+      <c r="C432" s="96"/>
       <c r="D432" s="43"/>
       <c r="E432" s="41"/>
       <c r="F432" s="44"/>
@@ -8318,8 +8326,8 @@
       <c r="K432" s="39"/>
     </row>
     <row r="433" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B433" s="100"/>
-      <c r="C433" s="93"/>
+      <c r="B433" s="94"/>
+      <c r="C433" s="97"/>
       <c r="D433" s="43"/>
       <c r="E433" s="41"/>
       <c r="F433" s="44"/>
@@ -8330,8 +8338,8 @@
       <c r="K433" s="39"/>
     </row>
     <row r="434" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B434" s="99"/>
-      <c r="C434" s="92"/>
+      <c r="B434" s="93"/>
+      <c r="C434" s="96"/>
       <c r="D434" s="43"/>
       <c r="E434" s="41"/>
       <c r="F434" s="44"/>
@@ -8342,8 +8350,8 @@
       <c r="K434" s="39"/>
     </row>
     <row r="435" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B435" s="100"/>
-      <c r="C435" s="93"/>
+      <c r="B435" s="94"/>
+      <c r="C435" s="97"/>
       <c r="D435" s="43"/>
       <c r="E435" s="41"/>
       <c r="F435" s="44"/>
@@ -8354,8 +8362,8 @@
       <c r="K435" s="39"/>
     </row>
     <row r="436" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B436" s="99"/>
-      <c r="C436" s="92"/>
+      <c r="B436" s="93"/>
+      <c r="C436" s="96"/>
       <c r="D436" s="43"/>
       <c r="E436" s="41"/>
       <c r="F436" s="44"/>
@@ -8366,8 +8374,8 @@
       <c r="K436" s="39"/>
     </row>
     <row r="437" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B437" s="100"/>
-      <c r="C437" s="93"/>
+      <c r="B437" s="94"/>
+      <c r="C437" s="97"/>
       <c r="D437" s="43"/>
       <c r="E437" s="41"/>
       <c r="F437" s="44"/>
@@ -8378,8 +8386,8 @@
       <c r="K437" s="39"/>
     </row>
     <row r="438" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B438" s="99"/>
-      <c r="C438" s="92"/>
+      <c r="B438" s="93"/>
+      <c r="C438" s="96"/>
       <c r="D438" s="43"/>
       <c r="E438" s="41"/>
       <c r="F438" s="44"/>
@@ -8390,8 +8398,8 @@
       <c r="K438" s="39"/>
     </row>
     <row r="439" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B439" s="100"/>
-      <c r="C439" s="93"/>
+      <c r="B439" s="94"/>
+      <c r="C439" s="97"/>
       <c r="D439" s="43"/>
       <c r="E439" s="41"/>
       <c r="F439" s="44"/>
@@ -8402,8 +8410,8 @@
       <c r="K439" s="39"/>
     </row>
     <row r="440" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B440" s="99"/>
-      <c r="C440" s="92"/>
+      <c r="B440" s="93"/>
+      <c r="C440" s="96"/>
       <c r="D440" s="43"/>
       <c r="E440" s="41"/>
       <c r="F440" s="44"/>
@@ -8414,8 +8422,8 @@
       <c r="K440" s="39"/>
     </row>
     <row r="441" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B441" s="100"/>
-      <c r="C441" s="93"/>
+      <c r="B441" s="94"/>
+      <c r="C441" s="97"/>
       <c r="D441" s="43"/>
       <c r="E441" s="41"/>
       <c r="F441" s="44"/>
@@ -8426,8 +8434,8 @@
       <c r="K441" s="39"/>
     </row>
     <row r="442" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B442" s="99"/>
-      <c r="C442" s="92"/>
+      <c r="B442" s="93"/>
+      <c r="C442" s="96"/>
       <c r="D442" s="43"/>
       <c r="E442" s="41"/>
       <c r="F442" s="44"/>
@@ -8438,8 +8446,8 @@
       <c r="K442" s="39"/>
     </row>
     <row r="443" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B443" s="100"/>
-      <c r="C443" s="93"/>
+      <c r="B443" s="94"/>
+      <c r="C443" s="97"/>
       <c r="D443" s="43"/>
       <c r="E443" s="41"/>
       <c r="F443" s="44"/>
@@ -8450,8 +8458,8 @@
       <c r="K443" s="39"/>
     </row>
     <row r="444" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B444" s="99"/>
-      <c r="C444" s="92"/>
+      <c r="B444" s="93"/>
+      <c r="C444" s="96"/>
       <c r="D444" s="43"/>
       <c r="E444" s="41"/>
       <c r="F444" s="44"/>
@@ -8462,8 +8470,8 @@
       <c r="K444" s="39"/>
     </row>
     <row r="445" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B445" s="100"/>
-      <c r="C445" s="93"/>
+      <c r="B445" s="94"/>
+      <c r="C445" s="97"/>
       <c r="D445" s="43"/>
       <c r="E445" s="41"/>
       <c r="F445" s="44"/>
@@ -8474,8 +8482,8 @@
       <c r="K445" s="39"/>
     </row>
     <row r="446" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B446" s="99"/>
-      <c r="C446" s="92"/>
+      <c r="B446" s="93"/>
+      <c r="C446" s="96"/>
       <c r="D446" s="43"/>
       <c r="E446" s="41"/>
       <c r="F446" s="44"/>
@@ -8486,8 +8494,8 @@
       <c r="K446" s="39"/>
     </row>
     <row r="447" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B447" s="100"/>
-      <c r="C447" s="93"/>
+      <c r="B447" s="94"/>
+      <c r="C447" s="97"/>
       <c r="D447" s="43"/>
       <c r="E447" s="41"/>
       <c r="F447" s="44"/>
@@ -8498,8 +8506,8 @@
       <c r="K447" s="39"/>
     </row>
     <row r="448" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B448" s="99"/>
-      <c r="C448" s="92"/>
+      <c r="B448" s="93"/>
+      <c r="C448" s="96"/>
       <c r="D448" s="43"/>
       <c r="E448" s="41"/>
       <c r="F448" s="44"/>
@@ -8510,8 +8518,8 @@
       <c r="K448" s="39"/>
     </row>
     <row r="449" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B449" s="100"/>
-      <c r="C449" s="93"/>
+      <c r="B449" s="94"/>
+      <c r="C449" s="97"/>
       <c r="D449" s="43"/>
       <c r="E449" s="41"/>
       <c r="F449" s="44"/>
@@ -8522,8 +8530,8 @@
       <c r="K449" s="39"/>
     </row>
     <row r="450" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B450" s="99"/>
-      <c r="C450" s="92"/>
+      <c r="B450" s="93"/>
+      <c r="C450" s="96"/>
       <c r="D450" s="43"/>
       <c r="E450" s="41"/>
       <c r="F450" s="44"/>
@@ -8534,8 +8542,8 @@
       <c r="K450" s="39"/>
     </row>
     <row r="451" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B451" s="100"/>
-      <c r="C451" s="93"/>
+      <c r="B451" s="94"/>
+      <c r="C451" s="97"/>
       <c r="D451" s="43"/>
       <c r="E451" s="41"/>
       <c r="F451" s="44"/>
@@ -8546,8 +8554,8 @@
       <c r="K451" s="39"/>
     </row>
     <row r="452" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B452" s="99"/>
-      <c r="C452" s="92"/>
+      <c r="B452" s="93"/>
+      <c r="C452" s="96"/>
       <c r="D452" s="43"/>
       <c r="E452" s="41"/>
       <c r="F452" s="44"/>
@@ -8558,8 +8566,8 @@
       <c r="K452" s="39"/>
     </row>
     <row r="453" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B453" s="100"/>
-      <c r="C453" s="93"/>
+      <c r="B453" s="94"/>
+      <c r="C453" s="97"/>
       <c r="D453" s="43"/>
       <c r="E453" s="41"/>
       <c r="F453" s="44"/>
@@ -8570,8 +8578,8 @@
       <c r="K453" s="39"/>
     </row>
     <row r="454" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B454" s="99"/>
-      <c r="C454" s="92"/>
+      <c r="B454" s="93"/>
+      <c r="C454" s="96"/>
       <c r="D454" s="43"/>
       <c r="E454" s="41"/>
       <c r="F454" s="44"/>
@@ -8582,8 +8590,8 @@
       <c r="K454" s="39"/>
     </row>
     <row r="455" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B455" s="100"/>
-      <c r="C455" s="93"/>
+      <c r="B455" s="94"/>
+      <c r="C455" s="97"/>
       <c r="D455" s="43"/>
       <c r="E455" s="41"/>
       <c r="F455" s="44"/>
@@ -8594,8 +8602,8 @@
       <c r="K455" s="39"/>
     </row>
     <row r="456" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B456" s="99"/>
-      <c r="C456" s="92"/>
+      <c r="B456" s="93"/>
+      <c r="C456" s="96"/>
       <c r="D456" s="43"/>
       <c r="E456" s="41"/>
       <c r="F456" s="44"/>
@@ -8606,8 +8614,8 @@
       <c r="K456" s="39"/>
     </row>
     <row r="457" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B457" s="100"/>
-      <c r="C457" s="93"/>
+      <c r="B457" s="94"/>
+      <c r="C457" s="97"/>
       <c r="D457" s="43"/>
       <c r="E457" s="41"/>
       <c r="F457" s="44"/>
@@ -8618,8 +8626,8 @@
       <c r="K457" s="39"/>
     </row>
     <row r="458" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B458" s="99"/>
-      <c r="C458" s="92"/>
+      <c r="B458" s="93"/>
+      <c r="C458" s="96"/>
       <c r="D458" s="43"/>
       <c r="E458" s="41"/>
       <c r="F458" s="44"/>
@@ -8630,8 +8638,8 @@
       <c r="K458" s="39"/>
     </row>
     <row r="459" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B459" s="100"/>
-      <c r="C459" s="93"/>
+      <c r="B459" s="94"/>
+      <c r="C459" s="97"/>
       <c r="D459" s="43"/>
       <c r="E459" s="41"/>
       <c r="F459" s="44"/>
@@ -8642,8 +8650,8 @@
       <c r="K459" s="39"/>
     </row>
     <row r="460" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B460" s="99"/>
-      <c r="C460" s="92"/>
+      <c r="B460" s="93"/>
+      <c r="C460" s="96"/>
       <c r="D460" s="43"/>
       <c r="E460" s="41"/>
       <c r="F460" s="44"/>
@@ -8654,8 +8662,8 @@
       <c r="K460" s="39"/>
     </row>
     <row r="461" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B461" s="100"/>
-      <c r="C461" s="93"/>
+      <c r="B461" s="94"/>
+      <c r="C461" s="97"/>
       <c r="D461" s="43"/>
       <c r="E461" s="41"/>
       <c r="F461" s="44"/>
@@ -8666,8 +8674,8 @@
       <c r="K461" s="39"/>
     </row>
     <row r="462" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B462" s="99"/>
-      <c r="C462" s="92"/>
+      <c r="B462" s="93"/>
+      <c r="C462" s="96"/>
       <c r="D462" s="43"/>
       <c r="E462" s="41"/>
       <c r="F462" s="44"/>
@@ -8678,8 +8686,8 @@
       <c r="K462" s="39"/>
     </row>
     <row r="463" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B463" s="100"/>
-      <c r="C463" s="93"/>
+      <c r="B463" s="94"/>
+      <c r="C463" s="97"/>
       <c r="D463" s="43"/>
       <c r="E463" s="41"/>
       <c r="F463" s="44"/>
@@ -8690,8 +8698,8 @@
       <c r="K463" s="39"/>
     </row>
     <row r="464" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B464" s="99"/>
-      <c r="C464" s="92"/>
+      <c r="B464" s="93"/>
+      <c r="C464" s="96"/>
       <c r="D464" s="43"/>
       <c r="E464" s="41"/>
       <c r="F464" s="44"/>
@@ -8702,8 +8710,8 @@
       <c r="K464" s="39"/>
     </row>
     <row r="465" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B465" s="100"/>
-      <c r="C465" s="93"/>
+      <c r="B465" s="94"/>
+      <c r="C465" s="97"/>
       <c r="D465" s="43"/>
       <c r="E465" s="41"/>
       <c r="F465" s="44"/>
@@ -8714,8 +8722,8 @@
       <c r="K465" s="39"/>
     </row>
     <row r="466" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B466" s="99"/>
-      <c r="C466" s="92"/>
+      <c r="B466" s="93"/>
+      <c r="C466" s="96"/>
       <c r="D466" s="43"/>
       <c r="E466" s="41"/>
       <c r="F466" s="44"/>
@@ -8726,8 +8734,8 @@
       <c r="K466" s="39"/>
     </row>
     <row r="467" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B467" s="100"/>
-      <c r="C467" s="93"/>
+      <c r="B467" s="94"/>
+      <c r="C467" s="97"/>
       <c r="D467" s="43"/>
       <c r="E467" s="41"/>
       <c r="F467" s="44"/>
@@ -8740,18 +8748,494 @@
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" selectLockedCells="1" sort="0" autoFilter="0" pivotTables="0"/>
   <mergeCells count="524">
-    <mergeCell ref="B10:B11"/>
-    <mergeCell ref="B34:B35"/>
-    <mergeCell ref="B36:B37"/>
-    <mergeCell ref="B38:B39"/>
-    <mergeCell ref="B40:B41"/>
-    <mergeCell ref="B42:B43"/>
-    <mergeCell ref="B44:B45"/>
-    <mergeCell ref="B24:B25"/>
-    <mergeCell ref="B26:B27"/>
-    <mergeCell ref="B28:B29"/>
-    <mergeCell ref="B30:B31"/>
-    <mergeCell ref="B32:B33"/>
+    <mergeCell ref="C456:C457"/>
+    <mergeCell ref="C458:C459"/>
+    <mergeCell ref="C460:C461"/>
+    <mergeCell ref="C462:C463"/>
+    <mergeCell ref="C464:C465"/>
+    <mergeCell ref="C466:C467"/>
+    <mergeCell ref="C444:C445"/>
+    <mergeCell ref="C446:C447"/>
+    <mergeCell ref="C448:C449"/>
+    <mergeCell ref="C450:C451"/>
+    <mergeCell ref="C452:C453"/>
+    <mergeCell ref="C454:C455"/>
+    <mergeCell ref="C432:C433"/>
+    <mergeCell ref="C434:C435"/>
+    <mergeCell ref="C436:C437"/>
+    <mergeCell ref="C438:C439"/>
+    <mergeCell ref="C440:C441"/>
+    <mergeCell ref="C442:C443"/>
+    <mergeCell ref="C420:C421"/>
+    <mergeCell ref="C422:C423"/>
+    <mergeCell ref="C424:C425"/>
+    <mergeCell ref="C426:C427"/>
+    <mergeCell ref="C428:C429"/>
+    <mergeCell ref="C430:C431"/>
+    <mergeCell ref="C408:C409"/>
+    <mergeCell ref="C410:C411"/>
+    <mergeCell ref="C412:C413"/>
+    <mergeCell ref="C414:C415"/>
+    <mergeCell ref="C416:C417"/>
+    <mergeCell ref="C418:C419"/>
+    <mergeCell ref="C396:C397"/>
+    <mergeCell ref="C398:C399"/>
+    <mergeCell ref="C400:C401"/>
+    <mergeCell ref="C402:C403"/>
+    <mergeCell ref="C404:C405"/>
+    <mergeCell ref="C406:C407"/>
+    <mergeCell ref="C384:C385"/>
+    <mergeCell ref="C386:C387"/>
+    <mergeCell ref="C388:C389"/>
+    <mergeCell ref="C390:C391"/>
+    <mergeCell ref="C392:C393"/>
+    <mergeCell ref="C394:C395"/>
+    <mergeCell ref="C372:C373"/>
+    <mergeCell ref="C374:C375"/>
+    <mergeCell ref="C376:C377"/>
+    <mergeCell ref="C378:C379"/>
+    <mergeCell ref="C380:C381"/>
+    <mergeCell ref="C382:C383"/>
+    <mergeCell ref="C360:C361"/>
+    <mergeCell ref="C362:C363"/>
+    <mergeCell ref="C364:C365"/>
+    <mergeCell ref="C366:C367"/>
+    <mergeCell ref="C368:C369"/>
+    <mergeCell ref="C370:C371"/>
+    <mergeCell ref="C348:C349"/>
+    <mergeCell ref="C350:C351"/>
+    <mergeCell ref="C352:C353"/>
+    <mergeCell ref="C354:C355"/>
+    <mergeCell ref="C356:C357"/>
+    <mergeCell ref="C358:C359"/>
+    <mergeCell ref="C336:C337"/>
+    <mergeCell ref="C338:C339"/>
+    <mergeCell ref="C340:C341"/>
+    <mergeCell ref="C342:C343"/>
+    <mergeCell ref="C344:C345"/>
+    <mergeCell ref="C346:C347"/>
+    <mergeCell ref="C324:C325"/>
+    <mergeCell ref="C326:C327"/>
+    <mergeCell ref="C328:C329"/>
+    <mergeCell ref="C330:C331"/>
+    <mergeCell ref="C332:C333"/>
+    <mergeCell ref="C334:C335"/>
+    <mergeCell ref="C312:C313"/>
+    <mergeCell ref="C314:C315"/>
+    <mergeCell ref="C316:C317"/>
+    <mergeCell ref="C318:C319"/>
+    <mergeCell ref="C320:C321"/>
+    <mergeCell ref="C322:C323"/>
+    <mergeCell ref="C300:C301"/>
+    <mergeCell ref="C302:C303"/>
+    <mergeCell ref="C304:C305"/>
+    <mergeCell ref="C306:C307"/>
+    <mergeCell ref="C308:C309"/>
+    <mergeCell ref="C310:C311"/>
+    <mergeCell ref="C288:C289"/>
+    <mergeCell ref="C290:C291"/>
+    <mergeCell ref="C292:C293"/>
+    <mergeCell ref="C294:C295"/>
+    <mergeCell ref="C296:C297"/>
+    <mergeCell ref="C298:C299"/>
+    <mergeCell ref="C276:C277"/>
+    <mergeCell ref="C278:C279"/>
+    <mergeCell ref="C280:C281"/>
+    <mergeCell ref="C282:C283"/>
+    <mergeCell ref="C284:C285"/>
+    <mergeCell ref="C286:C287"/>
+    <mergeCell ref="C264:C265"/>
+    <mergeCell ref="C266:C267"/>
+    <mergeCell ref="C268:C269"/>
+    <mergeCell ref="C270:C271"/>
+    <mergeCell ref="C272:C273"/>
+    <mergeCell ref="C274:C275"/>
+    <mergeCell ref="C252:C253"/>
+    <mergeCell ref="C254:C255"/>
+    <mergeCell ref="C256:C257"/>
+    <mergeCell ref="C258:C259"/>
+    <mergeCell ref="C260:C261"/>
+    <mergeCell ref="C262:C263"/>
+    <mergeCell ref="C240:C241"/>
+    <mergeCell ref="C242:C243"/>
+    <mergeCell ref="C244:C245"/>
+    <mergeCell ref="C246:C247"/>
+    <mergeCell ref="C248:C249"/>
+    <mergeCell ref="C250:C251"/>
+    <mergeCell ref="C228:C229"/>
+    <mergeCell ref="C230:C231"/>
+    <mergeCell ref="C232:C233"/>
+    <mergeCell ref="C234:C235"/>
+    <mergeCell ref="C236:C237"/>
+    <mergeCell ref="C238:C239"/>
+    <mergeCell ref="C216:C217"/>
+    <mergeCell ref="C218:C219"/>
+    <mergeCell ref="C220:C221"/>
+    <mergeCell ref="C222:C223"/>
+    <mergeCell ref="C224:C225"/>
+    <mergeCell ref="C226:C227"/>
+    <mergeCell ref="C204:C205"/>
+    <mergeCell ref="C206:C207"/>
+    <mergeCell ref="C208:C209"/>
+    <mergeCell ref="C210:C211"/>
+    <mergeCell ref="C212:C213"/>
+    <mergeCell ref="C214:C215"/>
+    <mergeCell ref="C192:C193"/>
+    <mergeCell ref="C194:C195"/>
+    <mergeCell ref="C196:C197"/>
+    <mergeCell ref="C198:C199"/>
+    <mergeCell ref="C200:C201"/>
+    <mergeCell ref="C202:C203"/>
+    <mergeCell ref="C180:C181"/>
+    <mergeCell ref="C182:C183"/>
+    <mergeCell ref="C184:C185"/>
+    <mergeCell ref="C186:C187"/>
+    <mergeCell ref="C188:C189"/>
+    <mergeCell ref="C190:C191"/>
+    <mergeCell ref="E148:E149"/>
+    <mergeCell ref="E150:E151"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="C12:C13"/>
+    <mergeCell ref="C17:C18"/>
+    <mergeCell ref="E136:E137"/>
+    <mergeCell ref="E138:E139"/>
+    <mergeCell ref="E140:E141"/>
+    <mergeCell ref="E142:E143"/>
+    <mergeCell ref="E144:E145"/>
+    <mergeCell ref="E146:E147"/>
+    <mergeCell ref="E124:E125"/>
+    <mergeCell ref="E126:E127"/>
+    <mergeCell ref="E128:E129"/>
+    <mergeCell ref="E130:E131"/>
+    <mergeCell ref="E132:E133"/>
+    <mergeCell ref="E134:E135"/>
+    <mergeCell ref="E112:E113"/>
+    <mergeCell ref="E114:E115"/>
+    <mergeCell ref="E116:E117"/>
+    <mergeCell ref="E118:E119"/>
+    <mergeCell ref="E120:E121"/>
+    <mergeCell ref="E122:E123"/>
+    <mergeCell ref="E100:E101"/>
+    <mergeCell ref="E102:E103"/>
+    <mergeCell ref="E104:E105"/>
+    <mergeCell ref="E106:E107"/>
+    <mergeCell ref="E108:E109"/>
+    <mergeCell ref="E110:E111"/>
+    <mergeCell ref="E88:E89"/>
+    <mergeCell ref="E90:E91"/>
+    <mergeCell ref="E92:E93"/>
+    <mergeCell ref="E94:E95"/>
+    <mergeCell ref="E96:E97"/>
+    <mergeCell ref="E98:E99"/>
+    <mergeCell ref="E76:E77"/>
+    <mergeCell ref="E78:E79"/>
+    <mergeCell ref="E80:E81"/>
+    <mergeCell ref="E82:E83"/>
+    <mergeCell ref="E84:E85"/>
+    <mergeCell ref="E86:E87"/>
+    <mergeCell ref="E64:E65"/>
+    <mergeCell ref="E68:E69"/>
+    <mergeCell ref="E70:E71"/>
+    <mergeCell ref="E72:E73"/>
+    <mergeCell ref="E74:E75"/>
+    <mergeCell ref="E52:E53"/>
+    <mergeCell ref="E54:E55"/>
+    <mergeCell ref="E56:E57"/>
+    <mergeCell ref="E58:E59"/>
+    <mergeCell ref="E60:E61"/>
+    <mergeCell ref="E62:E63"/>
+    <mergeCell ref="E40:E41"/>
+    <mergeCell ref="E42:E43"/>
+    <mergeCell ref="E44:E45"/>
+    <mergeCell ref="E46:E47"/>
+    <mergeCell ref="E48:E49"/>
+    <mergeCell ref="E50:E51"/>
+    <mergeCell ref="E30:E31"/>
+    <mergeCell ref="E32:E33"/>
+    <mergeCell ref="E34:E35"/>
+    <mergeCell ref="E36:E37"/>
+    <mergeCell ref="E38:E39"/>
+    <mergeCell ref="E20:E21"/>
+    <mergeCell ref="E22:E23"/>
+    <mergeCell ref="E24:E25"/>
+    <mergeCell ref="E26:E27"/>
+    <mergeCell ref="E10:E11"/>
+    <mergeCell ref="E12:E13"/>
+    <mergeCell ref="E14:E16"/>
+    <mergeCell ref="E17:E18"/>
+    <mergeCell ref="C20:C21"/>
+    <mergeCell ref="C22:C23"/>
+    <mergeCell ref="C24:C25"/>
+    <mergeCell ref="C26:C27"/>
+    <mergeCell ref="C28:C29"/>
+    <mergeCell ref="E28:E29"/>
+    <mergeCell ref="C30:C31"/>
+    <mergeCell ref="C32:C33"/>
+    <mergeCell ref="C34:C35"/>
+    <mergeCell ref="C36:C37"/>
+    <mergeCell ref="C38:C39"/>
+    <mergeCell ref="C40:C41"/>
+    <mergeCell ref="C42:C43"/>
+    <mergeCell ref="C44:C45"/>
+    <mergeCell ref="C46:C47"/>
+    <mergeCell ref="C48:C49"/>
+    <mergeCell ref="C50:C51"/>
+    <mergeCell ref="C52:C53"/>
+    <mergeCell ref="C54:C55"/>
+    <mergeCell ref="C56:C57"/>
+    <mergeCell ref="C58:C59"/>
+    <mergeCell ref="C60:C61"/>
+    <mergeCell ref="C62:C63"/>
+    <mergeCell ref="C64:C65"/>
+    <mergeCell ref="C68:C69"/>
+    <mergeCell ref="C70:C71"/>
+    <mergeCell ref="C72:C73"/>
+    <mergeCell ref="C74:C75"/>
+    <mergeCell ref="C76:C77"/>
+    <mergeCell ref="C78:C79"/>
+    <mergeCell ref="C80:C81"/>
+    <mergeCell ref="C82:C83"/>
+    <mergeCell ref="C84:C85"/>
+    <mergeCell ref="C86:C87"/>
+    <mergeCell ref="C88:C89"/>
+    <mergeCell ref="C90:C91"/>
+    <mergeCell ref="C92:C93"/>
+    <mergeCell ref="C94:C95"/>
+    <mergeCell ref="C96:C97"/>
+    <mergeCell ref="C98:C99"/>
+    <mergeCell ref="C100:C101"/>
+    <mergeCell ref="C102:C103"/>
+    <mergeCell ref="C104:C105"/>
+    <mergeCell ref="C106:C107"/>
+    <mergeCell ref="C108:C109"/>
+    <mergeCell ref="C110:C111"/>
+    <mergeCell ref="C112:C113"/>
+    <mergeCell ref="C114:C115"/>
+    <mergeCell ref="C116:C117"/>
+    <mergeCell ref="C118:C119"/>
+    <mergeCell ref="C120:C121"/>
+    <mergeCell ref="C122:C123"/>
+    <mergeCell ref="C124:C125"/>
+    <mergeCell ref="C126:C127"/>
+    <mergeCell ref="C128:C129"/>
+    <mergeCell ref="C130:C131"/>
+    <mergeCell ref="C132:C133"/>
+    <mergeCell ref="C134:C135"/>
+    <mergeCell ref="C136:C137"/>
+    <mergeCell ref="C138:C139"/>
+    <mergeCell ref="C140:C141"/>
+    <mergeCell ref="C142:C143"/>
+    <mergeCell ref="C144:C145"/>
+    <mergeCell ref="C146:C147"/>
+    <mergeCell ref="C148:C149"/>
+    <mergeCell ref="C150:C151"/>
+    <mergeCell ref="C152:C153"/>
+    <mergeCell ref="C154:C155"/>
+    <mergeCell ref="C156:C157"/>
+    <mergeCell ref="C158:C159"/>
+    <mergeCell ref="B466:B467"/>
+    <mergeCell ref="C160:C161"/>
+    <mergeCell ref="C162:C163"/>
+    <mergeCell ref="C164:C165"/>
+    <mergeCell ref="C166:C167"/>
+    <mergeCell ref="C168:C169"/>
+    <mergeCell ref="C170:C171"/>
+    <mergeCell ref="C172:C173"/>
+    <mergeCell ref="C174:C175"/>
+    <mergeCell ref="C176:C177"/>
+    <mergeCell ref="B454:B455"/>
+    <mergeCell ref="B456:B457"/>
+    <mergeCell ref="B458:B459"/>
+    <mergeCell ref="B460:B461"/>
+    <mergeCell ref="B462:B463"/>
+    <mergeCell ref="B464:B465"/>
+    <mergeCell ref="B442:B443"/>
+    <mergeCell ref="B444:B445"/>
+    <mergeCell ref="B446:B447"/>
+    <mergeCell ref="B448:B449"/>
+    <mergeCell ref="B450:B451"/>
+    <mergeCell ref="B452:B453"/>
+    <mergeCell ref="B430:B431"/>
+    <mergeCell ref="B432:B433"/>
+    <mergeCell ref="B434:B435"/>
+    <mergeCell ref="B436:B437"/>
+    <mergeCell ref="B438:B439"/>
+    <mergeCell ref="B440:B441"/>
+    <mergeCell ref="B418:B419"/>
+    <mergeCell ref="B420:B421"/>
+    <mergeCell ref="B422:B423"/>
+    <mergeCell ref="B424:B425"/>
+    <mergeCell ref="B426:B427"/>
+    <mergeCell ref="B428:B429"/>
+    <mergeCell ref="B406:B407"/>
+    <mergeCell ref="B408:B409"/>
+    <mergeCell ref="B410:B411"/>
+    <mergeCell ref="B412:B413"/>
+    <mergeCell ref="B414:B415"/>
+    <mergeCell ref="B416:B417"/>
+    <mergeCell ref="B394:B395"/>
+    <mergeCell ref="B396:B397"/>
+    <mergeCell ref="B398:B399"/>
+    <mergeCell ref="B400:B401"/>
+    <mergeCell ref="B402:B403"/>
+    <mergeCell ref="B404:B405"/>
+    <mergeCell ref="B382:B383"/>
+    <mergeCell ref="B384:B385"/>
+    <mergeCell ref="B386:B387"/>
+    <mergeCell ref="B388:B389"/>
+    <mergeCell ref="B390:B391"/>
+    <mergeCell ref="B392:B393"/>
+    <mergeCell ref="B370:B371"/>
+    <mergeCell ref="B372:B373"/>
+    <mergeCell ref="B374:B375"/>
+    <mergeCell ref="B376:B377"/>
+    <mergeCell ref="B378:B379"/>
+    <mergeCell ref="B380:B381"/>
+    <mergeCell ref="B358:B359"/>
+    <mergeCell ref="B360:B361"/>
+    <mergeCell ref="B362:B363"/>
+    <mergeCell ref="B364:B365"/>
+    <mergeCell ref="B366:B367"/>
+    <mergeCell ref="B368:B369"/>
+    <mergeCell ref="B346:B347"/>
+    <mergeCell ref="B348:B349"/>
+    <mergeCell ref="B350:B351"/>
+    <mergeCell ref="B352:B353"/>
+    <mergeCell ref="B354:B355"/>
+    <mergeCell ref="B356:B357"/>
+    <mergeCell ref="B334:B335"/>
+    <mergeCell ref="B336:B337"/>
+    <mergeCell ref="B338:B339"/>
+    <mergeCell ref="B340:B341"/>
+    <mergeCell ref="B342:B343"/>
+    <mergeCell ref="B344:B345"/>
+    <mergeCell ref="B322:B323"/>
+    <mergeCell ref="B324:B325"/>
+    <mergeCell ref="B326:B327"/>
+    <mergeCell ref="B328:B329"/>
+    <mergeCell ref="B330:B331"/>
+    <mergeCell ref="B332:B333"/>
+    <mergeCell ref="B310:B311"/>
+    <mergeCell ref="B312:B313"/>
+    <mergeCell ref="B314:B315"/>
+    <mergeCell ref="B316:B317"/>
+    <mergeCell ref="B318:B319"/>
+    <mergeCell ref="B320:B321"/>
+    <mergeCell ref="B298:B299"/>
+    <mergeCell ref="B300:B301"/>
+    <mergeCell ref="B302:B303"/>
+    <mergeCell ref="B304:B305"/>
+    <mergeCell ref="B306:B307"/>
+    <mergeCell ref="B308:B309"/>
+    <mergeCell ref="B286:B287"/>
+    <mergeCell ref="B288:B289"/>
+    <mergeCell ref="B290:B291"/>
+    <mergeCell ref="B292:B293"/>
+    <mergeCell ref="B294:B295"/>
+    <mergeCell ref="B296:B297"/>
+    <mergeCell ref="B274:B275"/>
+    <mergeCell ref="B276:B277"/>
+    <mergeCell ref="B278:B279"/>
+    <mergeCell ref="B280:B281"/>
+    <mergeCell ref="B282:B283"/>
+    <mergeCell ref="B284:B285"/>
+    <mergeCell ref="B262:B263"/>
+    <mergeCell ref="B264:B265"/>
+    <mergeCell ref="B266:B267"/>
+    <mergeCell ref="B268:B269"/>
+    <mergeCell ref="B270:B271"/>
+    <mergeCell ref="B272:B273"/>
+    <mergeCell ref="B250:B251"/>
+    <mergeCell ref="B252:B253"/>
+    <mergeCell ref="B254:B255"/>
+    <mergeCell ref="B256:B257"/>
+    <mergeCell ref="B258:B259"/>
+    <mergeCell ref="B260:B261"/>
+    <mergeCell ref="B238:B239"/>
+    <mergeCell ref="B240:B241"/>
+    <mergeCell ref="B242:B243"/>
+    <mergeCell ref="B244:B245"/>
+    <mergeCell ref="B246:B247"/>
+    <mergeCell ref="B248:B249"/>
+    <mergeCell ref="B226:B227"/>
+    <mergeCell ref="B228:B229"/>
+    <mergeCell ref="B230:B231"/>
+    <mergeCell ref="B232:B233"/>
+    <mergeCell ref="B234:B235"/>
+    <mergeCell ref="B236:B237"/>
+    <mergeCell ref="B214:B215"/>
+    <mergeCell ref="B216:B217"/>
+    <mergeCell ref="B218:B219"/>
+    <mergeCell ref="B220:B221"/>
+    <mergeCell ref="B222:B223"/>
+    <mergeCell ref="B224:B225"/>
+    <mergeCell ref="B202:B203"/>
+    <mergeCell ref="B204:B205"/>
+    <mergeCell ref="B206:B207"/>
+    <mergeCell ref="B208:B209"/>
+    <mergeCell ref="B210:B211"/>
+    <mergeCell ref="B212:B213"/>
+    <mergeCell ref="B190:B191"/>
+    <mergeCell ref="B192:B193"/>
+    <mergeCell ref="B194:B195"/>
+    <mergeCell ref="B196:B197"/>
+    <mergeCell ref="B198:B199"/>
+    <mergeCell ref="B200:B201"/>
+    <mergeCell ref="B178:B179"/>
+    <mergeCell ref="B180:B181"/>
+    <mergeCell ref="B182:B183"/>
+    <mergeCell ref="B184:B185"/>
+    <mergeCell ref="B186:B187"/>
+    <mergeCell ref="B188:B189"/>
+    <mergeCell ref="B166:B167"/>
+    <mergeCell ref="B168:B169"/>
+    <mergeCell ref="B170:B171"/>
+    <mergeCell ref="B172:B173"/>
+    <mergeCell ref="B174:B175"/>
+    <mergeCell ref="B176:B177"/>
+    <mergeCell ref="B154:B155"/>
+    <mergeCell ref="B156:B157"/>
+    <mergeCell ref="B158:B159"/>
+    <mergeCell ref="B160:B161"/>
+    <mergeCell ref="B162:B163"/>
+    <mergeCell ref="B164:B165"/>
+    <mergeCell ref="B142:B143"/>
+    <mergeCell ref="B144:B145"/>
+    <mergeCell ref="B146:B147"/>
+    <mergeCell ref="B148:B149"/>
+    <mergeCell ref="B150:B151"/>
+    <mergeCell ref="B152:B153"/>
+    <mergeCell ref="B130:B131"/>
+    <mergeCell ref="B132:B133"/>
+    <mergeCell ref="B134:B135"/>
+    <mergeCell ref="B136:B137"/>
+    <mergeCell ref="B138:B139"/>
+    <mergeCell ref="B140:B141"/>
+    <mergeCell ref="B118:B119"/>
+    <mergeCell ref="B120:B121"/>
+    <mergeCell ref="B122:B123"/>
+    <mergeCell ref="B124:B125"/>
+    <mergeCell ref="B126:B127"/>
+    <mergeCell ref="B128:B129"/>
+    <mergeCell ref="B106:B107"/>
+    <mergeCell ref="B108:B109"/>
+    <mergeCell ref="B110:B111"/>
+    <mergeCell ref="B112:B113"/>
+    <mergeCell ref="B114:B115"/>
+    <mergeCell ref="B116:B117"/>
+    <mergeCell ref="B68:B69"/>
+    <mergeCell ref="B94:B95"/>
+    <mergeCell ref="B96:B97"/>
+    <mergeCell ref="B98:B99"/>
+    <mergeCell ref="B100:B101"/>
+    <mergeCell ref="B102:B103"/>
+    <mergeCell ref="B104:B105"/>
+    <mergeCell ref="B82:B83"/>
+    <mergeCell ref="B84:B85"/>
+    <mergeCell ref="B86:B87"/>
+    <mergeCell ref="B88:B89"/>
+    <mergeCell ref="B90:B91"/>
+    <mergeCell ref="B92:B93"/>
     <mergeCell ref="B46:B47"/>
     <mergeCell ref="B48:B49"/>
     <mergeCell ref="B50:B51"/>
@@ -8776,494 +9260,18 @@
     <mergeCell ref="B80:B81"/>
     <mergeCell ref="B64:B65"/>
     <mergeCell ref="B66:B67"/>
-    <mergeCell ref="B68:B69"/>
-    <mergeCell ref="B94:B95"/>
-    <mergeCell ref="B96:B97"/>
-    <mergeCell ref="B98:B99"/>
-    <mergeCell ref="B100:B101"/>
-    <mergeCell ref="B102:B103"/>
-    <mergeCell ref="B104:B105"/>
-    <mergeCell ref="B82:B83"/>
-    <mergeCell ref="B84:B85"/>
-    <mergeCell ref="B86:B87"/>
-    <mergeCell ref="B88:B89"/>
-    <mergeCell ref="B90:B91"/>
-    <mergeCell ref="B92:B93"/>
-    <mergeCell ref="B118:B119"/>
-    <mergeCell ref="B120:B121"/>
-    <mergeCell ref="B122:B123"/>
-    <mergeCell ref="B124:B125"/>
-    <mergeCell ref="B126:B127"/>
-    <mergeCell ref="B128:B129"/>
-    <mergeCell ref="B106:B107"/>
-    <mergeCell ref="B108:B109"/>
-    <mergeCell ref="B110:B111"/>
-    <mergeCell ref="B112:B113"/>
-    <mergeCell ref="B114:B115"/>
-    <mergeCell ref="B116:B117"/>
-    <mergeCell ref="B142:B143"/>
-    <mergeCell ref="B144:B145"/>
-    <mergeCell ref="B146:B147"/>
-    <mergeCell ref="B148:B149"/>
-    <mergeCell ref="B150:B151"/>
-    <mergeCell ref="B152:B153"/>
-    <mergeCell ref="B130:B131"/>
-    <mergeCell ref="B132:B133"/>
-    <mergeCell ref="B134:B135"/>
-    <mergeCell ref="B136:B137"/>
-    <mergeCell ref="B138:B139"/>
-    <mergeCell ref="B140:B141"/>
-    <mergeCell ref="B166:B167"/>
-    <mergeCell ref="B168:B169"/>
-    <mergeCell ref="B170:B171"/>
-    <mergeCell ref="B172:B173"/>
-    <mergeCell ref="B174:B175"/>
-    <mergeCell ref="B176:B177"/>
-    <mergeCell ref="B154:B155"/>
-    <mergeCell ref="B156:B157"/>
-    <mergeCell ref="B158:B159"/>
-    <mergeCell ref="B160:B161"/>
-    <mergeCell ref="B162:B163"/>
-    <mergeCell ref="B164:B165"/>
-    <mergeCell ref="B190:B191"/>
-    <mergeCell ref="B192:B193"/>
-    <mergeCell ref="B194:B195"/>
-    <mergeCell ref="B196:B197"/>
-    <mergeCell ref="B198:B199"/>
-    <mergeCell ref="B200:B201"/>
-    <mergeCell ref="B178:B179"/>
-    <mergeCell ref="B180:B181"/>
-    <mergeCell ref="B182:B183"/>
-    <mergeCell ref="B184:B185"/>
-    <mergeCell ref="B186:B187"/>
-    <mergeCell ref="B188:B189"/>
-    <mergeCell ref="B214:B215"/>
-    <mergeCell ref="B216:B217"/>
-    <mergeCell ref="B218:B219"/>
-    <mergeCell ref="B220:B221"/>
-    <mergeCell ref="B222:B223"/>
-    <mergeCell ref="B224:B225"/>
-    <mergeCell ref="B202:B203"/>
-    <mergeCell ref="B204:B205"/>
-    <mergeCell ref="B206:B207"/>
-    <mergeCell ref="B208:B209"/>
-    <mergeCell ref="B210:B211"/>
-    <mergeCell ref="B212:B213"/>
-    <mergeCell ref="B238:B239"/>
-    <mergeCell ref="B240:B241"/>
-    <mergeCell ref="B242:B243"/>
-    <mergeCell ref="B244:B245"/>
-    <mergeCell ref="B246:B247"/>
-    <mergeCell ref="B248:B249"/>
-    <mergeCell ref="B226:B227"/>
-    <mergeCell ref="B228:B229"/>
-    <mergeCell ref="B230:B231"/>
-    <mergeCell ref="B232:B233"/>
-    <mergeCell ref="B234:B235"/>
-    <mergeCell ref="B236:B237"/>
-    <mergeCell ref="B262:B263"/>
-    <mergeCell ref="B264:B265"/>
-    <mergeCell ref="B266:B267"/>
-    <mergeCell ref="B268:B269"/>
-    <mergeCell ref="B270:B271"/>
-    <mergeCell ref="B272:B273"/>
-    <mergeCell ref="B250:B251"/>
-    <mergeCell ref="B252:B253"/>
-    <mergeCell ref="B254:B255"/>
-    <mergeCell ref="B256:B257"/>
-    <mergeCell ref="B258:B259"/>
-    <mergeCell ref="B260:B261"/>
-    <mergeCell ref="B286:B287"/>
-    <mergeCell ref="B288:B289"/>
-    <mergeCell ref="B290:B291"/>
-    <mergeCell ref="B292:B293"/>
-    <mergeCell ref="B294:B295"/>
-    <mergeCell ref="B296:B297"/>
-    <mergeCell ref="B274:B275"/>
-    <mergeCell ref="B276:B277"/>
-    <mergeCell ref="B278:B279"/>
-    <mergeCell ref="B280:B281"/>
-    <mergeCell ref="B282:B283"/>
-    <mergeCell ref="B284:B285"/>
-    <mergeCell ref="B310:B311"/>
-    <mergeCell ref="B312:B313"/>
-    <mergeCell ref="B314:B315"/>
-    <mergeCell ref="B316:B317"/>
-    <mergeCell ref="B318:B319"/>
-    <mergeCell ref="B320:B321"/>
-    <mergeCell ref="B298:B299"/>
-    <mergeCell ref="B300:B301"/>
-    <mergeCell ref="B302:B303"/>
-    <mergeCell ref="B304:B305"/>
-    <mergeCell ref="B306:B307"/>
-    <mergeCell ref="B308:B309"/>
-    <mergeCell ref="B334:B335"/>
-    <mergeCell ref="B336:B337"/>
-    <mergeCell ref="B338:B339"/>
-    <mergeCell ref="B340:B341"/>
-    <mergeCell ref="B342:B343"/>
-    <mergeCell ref="B344:B345"/>
-    <mergeCell ref="B322:B323"/>
-    <mergeCell ref="B324:B325"/>
-    <mergeCell ref="B326:B327"/>
-    <mergeCell ref="B328:B329"/>
-    <mergeCell ref="B330:B331"/>
-    <mergeCell ref="B332:B333"/>
-    <mergeCell ref="B358:B359"/>
-    <mergeCell ref="B360:B361"/>
-    <mergeCell ref="B362:B363"/>
-    <mergeCell ref="B364:B365"/>
-    <mergeCell ref="B366:B367"/>
-    <mergeCell ref="B368:B369"/>
-    <mergeCell ref="B346:B347"/>
-    <mergeCell ref="B348:B349"/>
-    <mergeCell ref="B350:B351"/>
-    <mergeCell ref="B352:B353"/>
-    <mergeCell ref="B354:B355"/>
-    <mergeCell ref="B356:B357"/>
-    <mergeCell ref="B382:B383"/>
-    <mergeCell ref="B384:B385"/>
-    <mergeCell ref="B386:B387"/>
-    <mergeCell ref="B388:B389"/>
-    <mergeCell ref="B390:B391"/>
-    <mergeCell ref="B392:B393"/>
-    <mergeCell ref="B370:B371"/>
-    <mergeCell ref="B372:B373"/>
-    <mergeCell ref="B374:B375"/>
-    <mergeCell ref="B376:B377"/>
-    <mergeCell ref="B378:B379"/>
-    <mergeCell ref="B380:B381"/>
-    <mergeCell ref="B406:B407"/>
-    <mergeCell ref="B408:B409"/>
-    <mergeCell ref="B410:B411"/>
-    <mergeCell ref="B412:B413"/>
-    <mergeCell ref="B414:B415"/>
-    <mergeCell ref="B416:B417"/>
-    <mergeCell ref="B394:B395"/>
-    <mergeCell ref="B396:B397"/>
-    <mergeCell ref="B398:B399"/>
-    <mergeCell ref="B400:B401"/>
-    <mergeCell ref="B402:B403"/>
-    <mergeCell ref="B404:B405"/>
-    <mergeCell ref="B432:B433"/>
-    <mergeCell ref="B434:B435"/>
-    <mergeCell ref="B436:B437"/>
-    <mergeCell ref="B438:B439"/>
-    <mergeCell ref="B440:B441"/>
-    <mergeCell ref="B418:B419"/>
-    <mergeCell ref="B420:B421"/>
-    <mergeCell ref="B422:B423"/>
-    <mergeCell ref="B424:B425"/>
-    <mergeCell ref="B426:B427"/>
-    <mergeCell ref="B428:B429"/>
-    <mergeCell ref="C158:C159"/>
-    <mergeCell ref="B466:B467"/>
-    <mergeCell ref="C160:C161"/>
-    <mergeCell ref="C162:C163"/>
-    <mergeCell ref="C164:C165"/>
-    <mergeCell ref="C166:C167"/>
-    <mergeCell ref="C168:C169"/>
-    <mergeCell ref="C170:C171"/>
-    <mergeCell ref="C172:C173"/>
-    <mergeCell ref="C174:C175"/>
-    <mergeCell ref="C176:C177"/>
-    <mergeCell ref="B454:B455"/>
-    <mergeCell ref="B456:B457"/>
-    <mergeCell ref="B458:B459"/>
-    <mergeCell ref="B460:B461"/>
-    <mergeCell ref="B462:B463"/>
-    <mergeCell ref="B464:B465"/>
-    <mergeCell ref="B442:B443"/>
-    <mergeCell ref="B444:B445"/>
-    <mergeCell ref="B446:B447"/>
-    <mergeCell ref="B448:B449"/>
-    <mergeCell ref="B450:B451"/>
-    <mergeCell ref="B452:B453"/>
-    <mergeCell ref="B430:B431"/>
-    <mergeCell ref="C140:C141"/>
-    <mergeCell ref="C142:C143"/>
-    <mergeCell ref="C144:C145"/>
-    <mergeCell ref="C146:C147"/>
-    <mergeCell ref="C148:C149"/>
-    <mergeCell ref="C150:C151"/>
-    <mergeCell ref="C152:C153"/>
-    <mergeCell ref="C154:C155"/>
-    <mergeCell ref="C156:C157"/>
-    <mergeCell ref="C122:C123"/>
-    <mergeCell ref="C124:C125"/>
-    <mergeCell ref="C126:C127"/>
-    <mergeCell ref="C128:C129"/>
-    <mergeCell ref="C130:C131"/>
-    <mergeCell ref="C132:C133"/>
-    <mergeCell ref="C134:C135"/>
-    <mergeCell ref="C136:C137"/>
-    <mergeCell ref="C138:C139"/>
-    <mergeCell ref="C104:C105"/>
-    <mergeCell ref="C106:C107"/>
-    <mergeCell ref="C108:C109"/>
-    <mergeCell ref="C110:C111"/>
-    <mergeCell ref="C112:C113"/>
-    <mergeCell ref="C114:C115"/>
-    <mergeCell ref="C116:C117"/>
-    <mergeCell ref="C118:C119"/>
-    <mergeCell ref="C120:C121"/>
-    <mergeCell ref="C86:C87"/>
-    <mergeCell ref="C88:C89"/>
-    <mergeCell ref="C90:C91"/>
-    <mergeCell ref="C92:C93"/>
-    <mergeCell ref="C94:C95"/>
-    <mergeCell ref="C96:C97"/>
-    <mergeCell ref="C98:C99"/>
-    <mergeCell ref="C100:C101"/>
-    <mergeCell ref="C102:C103"/>
-    <mergeCell ref="C68:C69"/>
-    <mergeCell ref="C70:C71"/>
-    <mergeCell ref="C72:C73"/>
-    <mergeCell ref="C74:C75"/>
-    <mergeCell ref="C76:C77"/>
-    <mergeCell ref="C78:C79"/>
-    <mergeCell ref="C80:C81"/>
-    <mergeCell ref="C82:C83"/>
-    <mergeCell ref="C84:C85"/>
-    <mergeCell ref="C48:C49"/>
-    <mergeCell ref="C50:C51"/>
-    <mergeCell ref="C52:C53"/>
-    <mergeCell ref="C54:C55"/>
-    <mergeCell ref="C56:C57"/>
-    <mergeCell ref="C58:C59"/>
-    <mergeCell ref="C60:C61"/>
-    <mergeCell ref="C62:C63"/>
-    <mergeCell ref="C64:C65"/>
-    <mergeCell ref="C30:C31"/>
-    <mergeCell ref="C32:C33"/>
-    <mergeCell ref="C34:C35"/>
-    <mergeCell ref="C36:C37"/>
-    <mergeCell ref="C38:C39"/>
-    <mergeCell ref="C40:C41"/>
-    <mergeCell ref="C42:C43"/>
-    <mergeCell ref="C44:C45"/>
-    <mergeCell ref="C46:C47"/>
-    <mergeCell ref="E10:E11"/>
-    <mergeCell ref="E12:E13"/>
-    <mergeCell ref="E14:E16"/>
-    <mergeCell ref="E17:E18"/>
-    <mergeCell ref="C20:C21"/>
-    <mergeCell ref="C22:C23"/>
-    <mergeCell ref="C24:C25"/>
-    <mergeCell ref="C26:C27"/>
-    <mergeCell ref="C28:C29"/>
-    <mergeCell ref="E28:E29"/>
-    <mergeCell ref="E30:E31"/>
-    <mergeCell ref="E32:E33"/>
-    <mergeCell ref="E34:E35"/>
-    <mergeCell ref="E36:E37"/>
-    <mergeCell ref="E38:E39"/>
-    <mergeCell ref="E20:E21"/>
-    <mergeCell ref="E22:E23"/>
-    <mergeCell ref="E24:E25"/>
-    <mergeCell ref="E26:E27"/>
-    <mergeCell ref="E52:E53"/>
-    <mergeCell ref="E54:E55"/>
-    <mergeCell ref="E56:E57"/>
-    <mergeCell ref="E58:E59"/>
-    <mergeCell ref="E60:E61"/>
-    <mergeCell ref="E62:E63"/>
-    <mergeCell ref="E40:E41"/>
-    <mergeCell ref="E42:E43"/>
-    <mergeCell ref="E44:E45"/>
-    <mergeCell ref="E46:E47"/>
-    <mergeCell ref="E48:E49"/>
-    <mergeCell ref="E50:E51"/>
-    <mergeCell ref="E76:E77"/>
-    <mergeCell ref="E78:E79"/>
-    <mergeCell ref="E80:E81"/>
-    <mergeCell ref="E82:E83"/>
-    <mergeCell ref="E84:E85"/>
-    <mergeCell ref="E86:E87"/>
-    <mergeCell ref="E64:E65"/>
-    <mergeCell ref="E68:E69"/>
-    <mergeCell ref="E70:E71"/>
-    <mergeCell ref="E72:E73"/>
-    <mergeCell ref="E74:E75"/>
-    <mergeCell ref="E100:E101"/>
-    <mergeCell ref="E102:E103"/>
-    <mergeCell ref="E104:E105"/>
-    <mergeCell ref="E106:E107"/>
-    <mergeCell ref="E108:E109"/>
-    <mergeCell ref="E110:E111"/>
-    <mergeCell ref="E88:E89"/>
-    <mergeCell ref="E90:E91"/>
-    <mergeCell ref="E92:E93"/>
-    <mergeCell ref="E94:E95"/>
-    <mergeCell ref="E96:E97"/>
-    <mergeCell ref="E98:E99"/>
-    <mergeCell ref="E148:E149"/>
-    <mergeCell ref="E150:E151"/>
-    <mergeCell ref="C10:C11"/>
-    <mergeCell ref="C12:C13"/>
-    <mergeCell ref="C17:C18"/>
-    <mergeCell ref="E136:E137"/>
-    <mergeCell ref="E138:E139"/>
-    <mergeCell ref="E140:E141"/>
-    <mergeCell ref="E142:E143"/>
-    <mergeCell ref="E144:E145"/>
-    <mergeCell ref="E146:E147"/>
-    <mergeCell ref="E124:E125"/>
-    <mergeCell ref="E126:E127"/>
-    <mergeCell ref="E128:E129"/>
-    <mergeCell ref="E130:E131"/>
-    <mergeCell ref="E132:E133"/>
-    <mergeCell ref="E134:E135"/>
-    <mergeCell ref="E112:E113"/>
-    <mergeCell ref="E114:E115"/>
-    <mergeCell ref="E116:E117"/>
-    <mergeCell ref="E118:E119"/>
-    <mergeCell ref="E120:E121"/>
-    <mergeCell ref="E122:E123"/>
-    <mergeCell ref="C192:C193"/>
-    <mergeCell ref="C194:C195"/>
-    <mergeCell ref="C196:C197"/>
-    <mergeCell ref="C198:C199"/>
-    <mergeCell ref="C200:C201"/>
-    <mergeCell ref="C202:C203"/>
-    <mergeCell ref="C180:C181"/>
-    <mergeCell ref="C182:C183"/>
-    <mergeCell ref="C184:C185"/>
-    <mergeCell ref="C186:C187"/>
-    <mergeCell ref="C188:C189"/>
-    <mergeCell ref="C190:C191"/>
-    <mergeCell ref="C216:C217"/>
-    <mergeCell ref="C218:C219"/>
-    <mergeCell ref="C220:C221"/>
-    <mergeCell ref="C222:C223"/>
-    <mergeCell ref="C224:C225"/>
-    <mergeCell ref="C226:C227"/>
-    <mergeCell ref="C204:C205"/>
-    <mergeCell ref="C206:C207"/>
-    <mergeCell ref="C208:C209"/>
-    <mergeCell ref="C210:C211"/>
-    <mergeCell ref="C212:C213"/>
-    <mergeCell ref="C214:C215"/>
-    <mergeCell ref="C240:C241"/>
-    <mergeCell ref="C242:C243"/>
-    <mergeCell ref="C244:C245"/>
-    <mergeCell ref="C246:C247"/>
-    <mergeCell ref="C248:C249"/>
-    <mergeCell ref="C250:C251"/>
-    <mergeCell ref="C228:C229"/>
-    <mergeCell ref="C230:C231"/>
-    <mergeCell ref="C232:C233"/>
-    <mergeCell ref="C234:C235"/>
-    <mergeCell ref="C236:C237"/>
-    <mergeCell ref="C238:C239"/>
-    <mergeCell ref="C264:C265"/>
-    <mergeCell ref="C266:C267"/>
-    <mergeCell ref="C268:C269"/>
-    <mergeCell ref="C270:C271"/>
-    <mergeCell ref="C272:C273"/>
-    <mergeCell ref="C274:C275"/>
-    <mergeCell ref="C252:C253"/>
-    <mergeCell ref="C254:C255"/>
-    <mergeCell ref="C256:C257"/>
-    <mergeCell ref="C258:C259"/>
-    <mergeCell ref="C260:C261"/>
-    <mergeCell ref="C262:C263"/>
-    <mergeCell ref="C288:C289"/>
-    <mergeCell ref="C290:C291"/>
-    <mergeCell ref="C292:C293"/>
-    <mergeCell ref="C294:C295"/>
-    <mergeCell ref="C296:C297"/>
-    <mergeCell ref="C298:C299"/>
-    <mergeCell ref="C276:C277"/>
-    <mergeCell ref="C278:C279"/>
-    <mergeCell ref="C280:C281"/>
-    <mergeCell ref="C282:C283"/>
-    <mergeCell ref="C284:C285"/>
-    <mergeCell ref="C286:C287"/>
-    <mergeCell ref="C312:C313"/>
-    <mergeCell ref="C314:C315"/>
-    <mergeCell ref="C316:C317"/>
-    <mergeCell ref="C318:C319"/>
-    <mergeCell ref="C320:C321"/>
-    <mergeCell ref="C322:C323"/>
-    <mergeCell ref="C300:C301"/>
-    <mergeCell ref="C302:C303"/>
-    <mergeCell ref="C304:C305"/>
-    <mergeCell ref="C306:C307"/>
-    <mergeCell ref="C308:C309"/>
-    <mergeCell ref="C310:C311"/>
-    <mergeCell ref="C336:C337"/>
-    <mergeCell ref="C338:C339"/>
-    <mergeCell ref="C340:C341"/>
-    <mergeCell ref="C342:C343"/>
-    <mergeCell ref="C344:C345"/>
-    <mergeCell ref="C346:C347"/>
-    <mergeCell ref="C324:C325"/>
-    <mergeCell ref="C326:C327"/>
-    <mergeCell ref="C328:C329"/>
-    <mergeCell ref="C330:C331"/>
-    <mergeCell ref="C332:C333"/>
-    <mergeCell ref="C334:C335"/>
-    <mergeCell ref="C360:C361"/>
-    <mergeCell ref="C362:C363"/>
-    <mergeCell ref="C364:C365"/>
-    <mergeCell ref="C366:C367"/>
-    <mergeCell ref="C368:C369"/>
-    <mergeCell ref="C370:C371"/>
-    <mergeCell ref="C348:C349"/>
-    <mergeCell ref="C350:C351"/>
-    <mergeCell ref="C352:C353"/>
-    <mergeCell ref="C354:C355"/>
-    <mergeCell ref="C356:C357"/>
-    <mergeCell ref="C358:C359"/>
-    <mergeCell ref="C384:C385"/>
-    <mergeCell ref="C386:C387"/>
-    <mergeCell ref="C388:C389"/>
-    <mergeCell ref="C390:C391"/>
-    <mergeCell ref="C392:C393"/>
-    <mergeCell ref="C394:C395"/>
-    <mergeCell ref="C372:C373"/>
-    <mergeCell ref="C374:C375"/>
-    <mergeCell ref="C376:C377"/>
-    <mergeCell ref="C378:C379"/>
-    <mergeCell ref="C380:C381"/>
-    <mergeCell ref="C382:C383"/>
-    <mergeCell ref="C408:C409"/>
-    <mergeCell ref="C410:C411"/>
-    <mergeCell ref="C412:C413"/>
-    <mergeCell ref="C414:C415"/>
-    <mergeCell ref="C416:C417"/>
-    <mergeCell ref="C418:C419"/>
-    <mergeCell ref="C396:C397"/>
-    <mergeCell ref="C398:C399"/>
-    <mergeCell ref="C400:C401"/>
-    <mergeCell ref="C402:C403"/>
-    <mergeCell ref="C404:C405"/>
-    <mergeCell ref="C406:C407"/>
-    <mergeCell ref="C432:C433"/>
-    <mergeCell ref="C434:C435"/>
-    <mergeCell ref="C436:C437"/>
-    <mergeCell ref="C438:C439"/>
-    <mergeCell ref="C440:C441"/>
-    <mergeCell ref="C442:C443"/>
-    <mergeCell ref="C420:C421"/>
-    <mergeCell ref="C422:C423"/>
-    <mergeCell ref="C424:C425"/>
-    <mergeCell ref="C426:C427"/>
-    <mergeCell ref="C428:C429"/>
-    <mergeCell ref="C430:C431"/>
-    <mergeCell ref="C456:C457"/>
-    <mergeCell ref="C458:C459"/>
-    <mergeCell ref="C460:C461"/>
-    <mergeCell ref="C462:C463"/>
-    <mergeCell ref="C464:C465"/>
-    <mergeCell ref="C466:C467"/>
-    <mergeCell ref="C444:C445"/>
-    <mergeCell ref="C446:C447"/>
-    <mergeCell ref="C448:C449"/>
-    <mergeCell ref="C450:C451"/>
-    <mergeCell ref="C452:C453"/>
-    <mergeCell ref="C454:C455"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="B34:B35"/>
+    <mergeCell ref="B36:B37"/>
+    <mergeCell ref="B38:B39"/>
+    <mergeCell ref="B40:B41"/>
+    <mergeCell ref="B42:B43"/>
+    <mergeCell ref="B44:B45"/>
+    <mergeCell ref="B24:B25"/>
+    <mergeCell ref="B26:B27"/>
+    <mergeCell ref="B28:B29"/>
+    <mergeCell ref="B30:B31"/>
+    <mergeCell ref="B32:B33"/>
   </mergeCells>
   <phoneticPr fontId="11"/>
   <dataValidations count="1">

--- a/Standard_Library_TestCaseUserUtil.xlsx
+++ b/Standard_Library_TestCaseUserUtil.xlsx
@@ -1,13 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\11\-\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="-15" yWindow="4455" windowWidth="12510" windowHeight="4395" tabRatio="884" activeTab="1"/>
   </bookViews>
@@ -199,6 +194,10 @@
     <phoneticPr fontId="11"/>
   </si>
   <si>
+    <t>getCurrentUser()</t>
+    <phoneticPr fontId="11"/>
+  </si>
+  <si>
     <t>When execute this method,the method will use other method of getCurrentUser().
 Please make sure that the method "getCurrentUser()" is correct.</t>
     <phoneticPr fontId="11"/>
@@ -980,10 +979,6 @@
   </si>
   <si>
     <t>addPrincipal(NmCommandBean cb)</t>
-    <phoneticPr fontId="11"/>
-  </si>
-  <si>
-    <t>getCurrentUser()</t>
     <phoneticPr fontId="11"/>
   </si>
 </sst>
@@ -2089,55 +2084,55 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="176" fontId="8" fillId="18" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="20" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="10" fillId="20" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="35" fillId="22" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="34" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="22" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="22" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="35" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="35" fillId="22" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="35" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="22" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="34" fillId="22" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="22" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="22" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="44">
@@ -2264,15 +2259,12 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -2314,7 +2306,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2349,7 +2341,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2572,14 +2564,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="15">
-      <c r="A1" s="90"/>
-      <c r="B1" s="90"/>
-      <c r="C1" s="90"/>
-      <c r="D1" s="90"/>
-      <c r="E1" s="90"/>
-      <c r="F1" s="90"/>
-      <c r="G1" s="90"/>
-      <c r="H1" s="90"/>
+      <c r="A1" s="89"/>
+      <c r="B1" s="89"/>
+      <c r="C1" s="89"/>
+      <c r="D1" s="89"/>
+      <c r="E1" s="89"/>
+      <c r="F1" s="89"/>
+      <c r="G1" s="89"/>
+      <c r="H1" s="89"/>
     </row>
     <row r="2" spans="1:8" ht="27.75">
       <c r="A2" s="4"/>
@@ -2633,10 +2625,10 @@
     </row>
     <row r="7" spans="1:8">
       <c r="A7" s="6"/>
-      <c r="B7" s="91" t="s">
+      <c r="B7" s="90" t="s">
         <v>0</v>
       </c>
-      <c r="C7" s="92"/>
+      <c r="C7" s="91"/>
       <c r="D7" s="6"/>
       <c r="E7" s="6"/>
       <c r="F7" s="6"/>
@@ -2728,8 +2720,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K467"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="87" zoomScaleNormal="87" workbookViewId="0">
-      <selection activeCell="F24" sqref="F24"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="87" zoomScaleNormal="87" workbookViewId="0">
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75"/>
@@ -2847,16 +2839,16 @@
         <v>1</v>
       </c>
       <c r="C7" s="82" t="s">
-        <v>149</v>
+        <v>31</v>
       </c>
       <c r="D7" s="58" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E7" s="83" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F7" s="55" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G7" s="56" t="s">
         <v>23</v>
@@ -2882,13 +2874,13 @@
         <v>25</v>
       </c>
       <c r="D8" s="43" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E8" s="84" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="F8" s="44" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G8" s="45" t="s">
         <v>28</v>
@@ -2903,7 +2895,7 @@
         <v>20160906</v>
       </c>
       <c r="K8" s="37" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="9" spans="1:11" s="27" customFormat="1" ht="22.5" customHeight="1">
@@ -2911,16 +2903,16 @@
         <v>3</v>
       </c>
       <c r="C9" s="85" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D9" s="43" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E9" s="84" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F9" s="44" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G9" s="35" t="s">
         <v>29</v>
@@ -2935,30 +2927,30 @@
         <v>20160906</v>
       </c>
       <c r="K9" s="37" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="10" spans="1:11" s="27" customFormat="1" ht="26.25" customHeight="1" thickBot="1">
-      <c r="B10" s="93">
+      <c r="B10" s="99">
         <v>4</v>
       </c>
-      <c r="C10" s="96" t="s">
+      <c r="C10" s="92" t="s">
         <v>30</v>
       </c>
       <c r="D10" s="43" t="s">
-        <v>48</v>
-      </c>
-      <c r="E10" s="103" t="s">
-        <v>31</v>
+        <v>49</v>
+      </c>
+      <c r="E10" s="94" t="s">
+        <v>32</v>
       </c>
       <c r="F10" s="44" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="G10" s="35" t="s">
+        <v>45</v>
+      </c>
+      <c r="H10" s="35" t="s">
         <v>44</v>
-      </c>
-      <c r="H10" s="35" t="s">
-        <v>43</v>
       </c>
       <c r="I10" s="38" t="s">
         <v>13</v>
@@ -2967,24 +2959,24 @@
         <v>20160906</v>
       </c>
       <c r="K10" s="39" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="11" spans="1:11" s="27" customFormat="1" ht="23.25" customHeight="1" thickBot="1">
-      <c r="B11" s="94"/>
-      <c r="C11" s="97"/>
+      <c r="B11" s="100"/>
+      <c r="C11" s="93"/>
       <c r="D11" s="43" t="s">
-        <v>47</v>
-      </c>
-      <c r="E11" s="97"/>
+        <v>48</v>
+      </c>
+      <c r="E11" s="93"/>
       <c r="F11" s="44" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="G11" s="35" t="s">
+        <v>43</v>
+      </c>
+      <c r="H11" s="35" t="s">
         <v>42</v>
-      </c>
-      <c r="H11" s="35" t="s">
-        <v>41</v>
       </c>
       <c r="I11" s="38" t="s">
         <v>13</v>
@@ -2993,157 +2985,157 @@
         <v>20160906</v>
       </c>
       <c r="K11" s="39" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="12" spans="1:11" s="47" customFormat="1" ht="30" customHeight="1" thickBot="1">
-      <c r="B12" s="93">
+      <c r="B12" s="99">
         <v>5</v>
       </c>
-      <c r="C12" s="96" t="s">
-        <v>46</v>
+      <c r="C12" s="92" t="s">
+        <v>47</v>
       </c>
       <c r="D12" s="48" t="s">
-        <v>63</v>
-      </c>
-      <c r="E12" s="103" t="s">
-        <v>60</v>
+        <v>64</v>
+      </c>
+      <c r="E12" s="94" t="s">
+        <v>61</v>
       </c>
       <c r="F12" s="49" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="G12" s="50" t="s">
+        <v>57</v>
+      </c>
+      <c r="H12" s="50" t="s">
+        <v>58</v>
+      </c>
+      <c r="I12" s="51" t="s">
         <v>56</v>
-      </c>
-      <c r="H12" s="50" t="s">
-        <v>57</v>
-      </c>
-      <c r="I12" s="51" t="s">
-        <v>55</v>
       </c>
       <c r="J12" s="52"/>
       <c r="K12" s="53" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" s="27" customFormat="1" ht="26.25" customHeight="1" thickBot="1">
+      <c r="B13" s="100"/>
+      <c r="C13" s="93"/>
+      <c r="D13" s="43" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="13" spans="1:11" s="27" customFormat="1" ht="26.25" customHeight="1" thickBot="1">
-      <c r="B13" s="94"/>
-      <c r="C13" s="97"/>
-      <c r="D13" s="43" t="s">
-        <v>49</v>
-      </c>
-      <c r="E13" s="97"/>
+      <c r="E13" s="93"/>
       <c r="F13" s="44" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="G13" s="35" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="H13" s="35" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="I13" s="38" t="s">
         <v>13</v>
       </c>
       <c r="J13" s="40"/>
       <c r="K13" s="39" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="14" spans="1:11" s="27" customFormat="1" ht="29.25" customHeight="1" thickBot="1">
-      <c r="B14" s="93">
+      <c r="B14" s="99">
         <v>6</v>
       </c>
-      <c r="C14" s="98" t="s">
-        <v>69</v>
+      <c r="C14" s="102" t="s">
+        <v>70</v>
       </c>
       <c r="D14" s="43" t="s">
+        <v>64</v>
+      </c>
+      <c r="E14" s="94" t="s">
+        <v>76</v>
+      </c>
+      <c r="F14" s="44" t="s">
         <v>63</v>
       </c>
-      <c r="E14" s="103" t="s">
+      <c r="G14" s="35" t="s">
+        <v>67</v>
+      </c>
+      <c r="H14" s="56" t="s">
         <v>75</v>
       </c>
-      <c r="F14" s="44" t="s">
-        <v>62</v>
-      </c>
-      <c r="G14" s="35" t="s">
-        <v>66</v>
-      </c>
-      <c r="H14" s="56" t="s">
-        <v>74</v>
-      </c>
       <c r="I14" s="38" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="J14" s="40"/>
       <c r="K14" s="39" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
     </row>
     <row r="15" spans="1:11" s="27" customFormat="1" ht="29.25" customHeight="1" thickBot="1">
-      <c r="B15" s="100"/>
-      <c r="C15" s="99"/>
+      <c r="B15" s="104"/>
+      <c r="C15" s="103"/>
       <c r="D15" s="43" t="s">
-        <v>64</v>
-      </c>
-      <c r="E15" s="104"/>
+        <v>65</v>
+      </c>
+      <c r="E15" s="97"/>
       <c r="F15" s="44" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="G15" s="35" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="H15" s="56" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="I15" s="38" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="J15" s="40"/>
       <c r="K15" s="39" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="16" spans="1:11" s="27" customFormat="1" ht="27.75" customHeight="1" thickBot="1">
-      <c r="B16" s="94"/>
-      <c r="C16" s="97"/>
+      <c r="B16" s="100"/>
+      <c r="C16" s="93"/>
       <c r="D16" s="43" t="s">
-        <v>65</v>
-      </c>
-      <c r="E16" s="97"/>
+        <v>66</v>
+      </c>
+      <c r="E16" s="93"/>
       <c r="F16" s="44" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="G16" s="35" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H16" s="35" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I16" s="38" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="J16" s="40"/>
       <c r="K16" s="39" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="17" spans="2:11" s="27" customFormat="1" ht="30.75" customHeight="1" thickBot="1">
-      <c r="B17" s="93">
+      <c r="B17" s="99">
         <v>7</v>
       </c>
-      <c r="C17" s="96" t="s">
-        <v>77</v>
+      <c r="C17" s="92" t="s">
+        <v>78</v>
       </c>
       <c r="D17" s="43" t="s">
-        <v>63</v>
-      </c>
-      <c r="E17" s="103"/>
+        <v>64</v>
+      </c>
+      <c r="E17" s="94"/>
       <c r="F17" s="86" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G17" s="35" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="H17" s="35" t="b">
         <v>1</v>
@@ -3153,138 +3145,138 @@
       </c>
       <c r="J17" s="40"/>
       <c r="K17" s="39" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="18" spans="2:11" s="27" customFormat="1" ht="33.75" customHeight="1" thickBot="1">
-      <c r="B18" s="94"/>
-      <c r="C18" s="97"/>
+      <c r="B18" s="100"/>
+      <c r="C18" s="93"/>
       <c r="D18" s="43" t="s">
-        <v>49</v>
-      </c>
-      <c r="E18" s="97"/>
+        <v>50</v>
+      </c>
+      <c r="E18" s="93"/>
       <c r="F18" s="87" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="G18" s="35" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="H18" s="35" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="I18" s="38" t="s">
         <v>13</v>
       </c>
       <c r="J18" s="40"/>
       <c r="K18" s="39" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="19" spans="2:11" s="27" customFormat="1" ht="31.5" customHeight="1" thickBot="1">
       <c r="B19" s="88">
         <v>8</v>
       </c>
-      <c r="C19" s="89" t="s">
-        <v>148</v>
+      <c r="C19" s="105" t="s">
+        <v>149</v>
       </c>
       <c r="D19" s="43" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E19" s="72"/>
       <c r="F19" s="44"/>
       <c r="G19" s="35" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="H19" s="35" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="I19" s="38" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="J19" s="40"/>
       <c r="K19" s="39" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
     </row>
     <row r="20" spans="2:11" s="27" customFormat="1" ht="32.25" customHeight="1" thickBot="1">
-      <c r="B20" s="93">
+      <c r="B20" s="99">
         <v>9</v>
       </c>
-      <c r="C20" s="96" t="s">
+      <c r="C20" s="92" t="s">
+        <v>89</v>
+      </c>
+      <c r="D20" s="43" t="s">
+        <v>64</v>
+      </c>
+      <c r="E20" s="94"/>
+      <c r="F20" s="44" t="s">
         <v>88</v>
       </c>
-      <c r="D20" s="43" t="s">
-        <v>63</v>
-      </c>
-      <c r="E20" s="103"/>
-      <c r="F20" s="44" t="s">
+      <c r="G20" s="35" t="s">
         <v>87</v>
       </c>
-      <c r="G20" s="35" t="s">
+      <c r="H20" s="35" t="s">
         <v>86</v>
-      </c>
-      <c r="H20" s="35" t="s">
-        <v>85</v>
       </c>
       <c r="I20" s="38" t="s">
         <v>13</v>
       </c>
       <c r="J20" s="40"/>
       <c r="K20" s="39" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
     </row>
     <row r="21" spans="2:11" s="27" customFormat="1" ht="32.25" customHeight="1" thickBot="1">
-      <c r="B21" s="94"/>
-      <c r="C21" s="97"/>
+      <c r="B21" s="100"/>
+      <c r="C21" s="93"/>
       <c r="D21" s="43" t="s">
-        <v>49</v>
-      </c>
-      <c r="E21" s="97"/>
+        <v>50</v>
+      </c>
+      <c r="E21" s="93"/>
       <c r="F21" s="44" t="b">
         <v>0</v>
       </c>
       <c r="G21" s="35" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="H21" s="35" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="I21" s="38" t="s">
         <v>13</v>
       </c>
       <c r="J21" s="40"/>
       <c r="K21" s="39" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="22" spans="2:11" s="27" customFormat="1" ht="33" customHeight="1" thickBot="1">
-      <c r="B22" s="93">
+      <c r="B22" s="99">
         <v>10</v>
       </c>
-      <c r="C22" s="96" t="s">
-        <v>89</v>
+      <c r="C22" s="92" t="s">
+        <v>90</v>
       </c>
       <c r="D22" s="43" t="s">
-        <v>99</v>
-      </c>
-      <c r="E22" s="103"/>
+        <v>100</v>
+      </c>
+      <c r="E22" s="94"/>
       <c r="F22" s="44"/>
       <c r="G22" s="35"/>
       <c r="H22" s="35"/>
       <c r="I22" s="38"/>
       <c r="J22" s="40"/>
       <c r="K22" s="39" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="23" spans="2:11" s="27" customFormat="1" ht="33" customHeight="1" thickBot="1">
-      <c r="B23" s="94"/>
-      <c r="C23" s="97"/>
+      <c r="B23" s="100"/>
+      <c r="C23" s="93"/>
       <c r="D23" s="43" t="s">
-        <v>100</v>
-      </c>
-      <c r="E23" s="97"/>
+        <v>101</v>
+      </c>
+      <c r="E23" s="93"/>
       <c r="F23" s="44"/>
       <c r="G23" s="35"/>
       <c r="H23" s="35" t="b">
@@ -3295,122 +3287,122 @@
       </c>
       <c r="J23" s="40"/>
       <c r="K23" s="39" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
     <row r="24" spans="2:11" s="27" customFormat="1" ht="33" customHeight="1" thickBot="1">
-      <c r="B24" s="93">
+      <c r="B24" s="99">
         <v>11</v>
       </c>
-      <c r="C24" s="96" t="s">
-        <v>98</v>
+      <c r="C24" s="92" t="s">
+        <v>99</v>
       </c>
       <c r="D24" s="43" t="s">
-        <v>113</v>
-      </c>
-      <c r="E24" s="103"/>
+        <v>114</v>
+      </c>
+      <c r="E24" s="94"/>
       <c r="F24" s="59" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="G24" s="80" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="H24" s="80" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="I24" s="38" t="s">
         <v>13</v>
       </c>
       <c r="J24" s="40"/>
       <c r="K24" s="39" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="25" spans="2:11" s="27" customFormat="1" ht="33" customHeight="1" thickBot="1">
-      <c r="B25" s="94"/>
-      <c r="C25" s="97"/>
+      <c r="B25" s="100"/>
+      <c r="C25" s="93"/>
       <c r="D25" s="43" t="s">
-        <v>101</v>
-      </c>
-      <c r="E25" s="97"/>
+        <v>102</v>
+      </c>
+      <c r="E25" s="93"/>
       <c r="F25" s="44" t="b">
         <v>0</v>
       </c>
       <c r="G25" s="80" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="H25" s="80" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="I25" s="38" t="s">
         <v>13</v>
       </c>
       <c r="J25" s="40"/>
       <c r="K25" s="39" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
     </row>
     <row r="26" spans="2:11" s="27" customFormat="1" ht="33" customHeight="1" thickBot="1">
-      <c r="B26" s="93">
+      <c r="B26" s="99">
         <v>12</v>
       </c>
-      <c r="C26" s="96" t="s">
-        <v>112</v>
+      <c r="C26" s="92" t="s">
+        <v>113</v>
       </c>
       <c r="D26" s="43" t="s">
-        <v>124</v>
-      </c>
-      <c r="E26" s="103"/>
+        <v>125</v>
+      </c>
+      <c r="E26" s="94"/>
       <c r="F26" s="44" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="G26" s="35" t="s">
+        <v>116</v>
+      </c>
+      <c r="H26" s="35" t="s">
         <v>115</v>
-      </c>
-      <c r="H26" s="35" t="s">
-        <v>114</v>
       </c>
       <c r="I26" s="38" t="s">
         <v>13</v>
       </c>
       <c r="J26" s="40"/>
       <c r="K26" s="39" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="27" spans="2:11" s="27" customFormat="1" ht="33" customHeight="1" thickBot="1">
+      <c r="B27" s="100"/>
+      <c r="C27" s="93"/>
+      <c r="D27" s="43" t="s">
+        <v>126</v>
+      </c>
+      <c r="E27" s="93"/>
+      <c r="F27" s="44" t="s">
+        <v>146</v>
+      </c>
+      <c r="G27" s="35" t="s">
+        <v>117</v>
+      </c>
+      <c r="H27" s="35" t="s">
         <v>118</v>
-      </c>
-    </row>
-    <row r="27" spans="2:11" s="27" customFormat="1" ht="33" customHeight="1" thickBot="1">
-      <c r="B27" s="94"/>
-      <c r="C27" s="97"/>
-      <c r="D27" s="43" t="s">
-        <v>125</v>
-      </c>
-      <c r="E27" s="97"/>
-      <c r="F27" s="44" t="s">
-        <v>145</v>
-      </c>
-      <c r="G27" s="35" t="s">
-        <v>116</v>
-      </c>
-      <c r="H27" s="35" t="s">
-        <v>117</v>
       </c>
       <c r="I27" s="38" t="s">
         <v>13</v>
       </c>
       <c r="J27" s="40"/>
       <c r="K27" s="39" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="28" spans="2:11" s="27" customFormat="1" ht="33" customHeight="1" thickBot="1">
-      <c r="B28" s="93">
+      <c r="B28" s="99">
         <v>13</v>
       </c>
-      <c r="C28" s="96" t="s">
-        <v>121</v>
+      <c r="C28" s="92" t="s">
+        <v>122</v>
       </c>
       <c r="D28" s="43"/>
-      <c r="E28" s="103"/>
+      <c r="E28" s="94"/>
       <c r="F28" s="44"/>
       <c r="G28" s="35"/>
       <c r="H28" s="35"/>
@@ -3419,10 +3411,10 @@
       <c r="K28" s="39"/>
     </row>
     <row r="29" spans="2:11" s="27" customFormat="1" ht="33" customHeight="1" thickBot="1">
-      <c r="B29" s="94"/>
-      <c r="C29" s="97"/>
+      <c r="B29" s="100"/>
+      <c r="C29" s="93"/>
       <c r="D29" s="43"/>
-      <c r="E29" s="97"/>
+      <c r="E29" s="93"/>
       <c r="F29" s="44"/>
       <c r="G29" s="35"/>
       <c r="H29" s="35"/>
@@ -3431,114 +3423,114 @@
       <c r="K29" s="39"/>
     </row>
     <row r="30" spans="2:11" s="27" customFormat="1" ht="33" customHeight="1" thickBot="1">
-      <c r="B30" s="93">
+      <c r="B30" s="99">
         <v>14</v>
       </c>
-      <c r="C30" s="96" t="s">
-        <v>123</v>
+      <c r="C30" s="92" t="s">
+        <v>124</v>
       </c>
       <c r="D30" s="43" t="s">
-        <v>133</v>
-      </c>
-      <c r="E30" s="103"/>
+        <v>134</v>
+      </c>
+      <c r="E30" s="94"/>
       <c r="F30" s="44" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="G30" s="35" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="H30" s="35" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="I30" s="38" t="s">
         <v>13</v>
       </c>
       <c r="J30" s="40"/>
       <c r="K30" s="39" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="31" spans="2:11" s="27" customFormat="1" ht="33" customHeight="1" thickBot="1">
+      <c r="B31" s="100"/>
+      <c r="C31" s="93"/>
+      <c r="D31" s="43" t="s">
+        <v>127</v>
+      </c>
+      <c r="E31" s="93"/>
+      <c r="F31" s="44" t="s">
+        <v>145</v>
+      </c>
+      <c r="G31" s="35" t="s">
+        <v>138</v>
+      </c>
+      <c r="H31" s="35" t="s">
         <v>131</v>
-      </c>
-    </row>
-    <row r="31" spans="2:11" s="27" customFormat="1" ht="33" customHeight="1" thickBot="1">
-      <c r="B31" s="94"/>
-      <c r="C31" s="97"/>
-      <c r="D31" s="43" t="s">
-        <v>126</v>
-      </c>
-      <c r="E31" s="97"/>
-      <c r="F31" s="44" t="s">
-        <v>144</v>
-      </c>
-      <c r="G31" s="35" t="s">
-        <v>137</v>
-      </c>
-      <c r="H31" s="35" t="s">
-        <v>130</v>
       </c>
       <c r="I31" s="38" t="s">
         <v>13</v>
       </c>
       <c r="J31" s="40"/>
       <c r="K31" s="39" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
     </row>
     <row r="32" spans="2:11" s="27" customFormat="1" ht="33" customHeight="1" thickBot="1">
-      <c r="B32" s="93">
+      <c r="B32" s="99">
         <v>15</v>
       </c>
-      <c r="C32" s="96" t="s">
-        <v>132</v>
+      <c r="C32" s="92" t="s">
+        <v>133</v>
       </c>
       <c r="D32" s="43" t="s">
-        <v>133</v>
-      </c>
-      <c r="E32" s="103"/>
+        <v>134</v>
+      </c>
+      <c r="E32" s="94"/>
       <c r="F32" s="59" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="G32" s="35" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="H32" s="35" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="I32" s="38" t="s">
         <v>13</v>
       </c>
       <c r="J32" s="40"/>
       <c r="K32" s="39" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
     </row>
     <row r="33" spans="2:11" s="27" customFormat="1" ht="33" customHeight="1" thickBot="1">
-      <c r="B33" s="94"/>
-      <c r="C33" s="97"/>
+      <c r="B33" s="100"/>
+      <c r="C33" s="93"/>
       <c r="D33" s="43" t="s">
-        <v>134</v>
-      </c>
-      <c r="E33" s="97"/>
+        <v>135</v>
+      </c>
+      <c r="E33" s="93"/>
       <c r="F33" s="44" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="G33" s="35" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="H33" s="35" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="I33" s="38" t="s">
         <v>13</v>
       </c>
       <c r="J33" s="40"/>
       <c r="K33" s="39" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
     </row>
     <row r="34" spans="2:11" s="27" customFormat="1" ht="33" customHeight="1" thickBot="1">
-      <c r="B34" s="93"/>
-      <c r="C34" s="96"/>
+      <c r="B34" s="99"/>
+      <c r="C34" s="92"/>
       <c r="D34" s="43"/>
-      <c r="E34" s="103"/>
+      <c r="E34" s="94"/>
       <c r="F34" s="44"/>
       <c r="G34" s="35"/>
       <c r="H34" s="35"/>
@@ -3547,10 +3539,10 @@
       <c r="K34" s="39"/>
     </row>
     <row r="35" spans="2:11" s="27" customFormat="1" ht="33" customHeight="1" thickBot="1">
-      <c r="B35" s="94"/>
-      <c r="C35" s="97"/>
+      <c r="B35" s="100"/>
+      <c r="C35" s="93"/>
       <c r="D35" s="43"/>
-      <c r="E35" s="97"/>
+      <c r="E35" s="93"/>
       <c r="F35" s="44"/>
       <c r="G35" s="35"/>
       <c r="H35" s="35"/>
@@ -3559,10 +3551,10 @@
       <c r="K35" s="39"/>
     </row>
     <row r="36" spans="2:11" s="27" customFormat="1" ht="33" customHeight="1" thickBot="1">
-      <c r="B36" s="93"/>
-      <c r="C36" s="96"/>
+      <c r="B36" s="99"/>
+      <c r="C36" s="92"/>
       <c r="D36" s="43"/>
-      <c r="E36" s="103"/>
+      <c r="E36" s="94"/>
       <c r="F36" s="44"/>
       <c r="G36" s="35"/>
       <c r="H36" s="35"/>
@@ -3571,10 +3563,10 @@
       <c r="K36" s="39"/>
     </row>
     <row r="37" spans="2:11" s="27" customFormat="1" ht="33" customHeight="1" thickBot="1">
-      <c r="B37" s="94"/>
-      <c r="C37" s="97"/>
+      <c r="B37" s="100"/>
+      <c r="C37" s="93"/>
       <c r="D37" s="43"/>
-      <c r="E37" s="97"/>
+      <c r="E37" s="93"/>
       <c r="F37" s="44"/>
       <c r="G37" s="35"/>
       <c r="H37" s="35"/>
@@ -3583,10 +3575,10 @@
       <c r="K37" s="39"/>
     </row>
     <row r="38" spans="2:11" s="27" customFormat="1" ht="33" customHeight="1" thickBot="1">
-      <c r="B38" s="93"/>
-      <c r="C38" s="96"/>
+      <c r="B38" s="99"/>
+      <c r="C38" s="92"/>
       <c r="D38" s="43"/>
-      <c r="E38" s="103"/>
+      <c r="E38" s="94"/>
       <c r="F38" s="44"/>
       <c r="G38" s="35"/>
       <c r="H38" s="35"/>
@@ -3595,10 +3587,10 @@
       <c r="K38" s="39"/>
     </row>
     <row r="39" spans="2:11" s="27" customFormat="1" ht="33" customHeight="1" thickBot="1">
-      <c r="B39" s="94"/>
-      <c r="C39" s="97"/>
+      <c r="B39" s="100"/>
+      <c r="C39" s="93"/>
       <c r="D39" s="43"/>
-      <c r="E39" s="97"/>
+      <c r="E39" s="93"/>
       <c r="F39" s="44"/>
       <c r="G39" s="35"/>
       <c r="H39" s="35"/>
@@ -3607,10 +3599,10 @@
       <c r="K39" s="39"/>
     </row>
     <row r="40" spans="2:11" s="27" customFormat="1" ht="33" customHeight="1" thickBot="1">
-      <c r="B40" s="93"/>
-      <c r="C40" s="96"/>
+      <c r="B40" s="99"/>
+      <c r="C40" s="92"/>
       <c r="D40" s="43"/>
-      <c r="E40" s="103"/>
+      <c r="E40" s="94"/>
       <c r="F40" s="44"/>
       <c r="G40" s="35"/>
       <c r="H40" s="35"/>
@@ -3619,10 +3611,10 @@
       <c r="K40" s="39"/>
     </row>
     <row r="41" spans="2:11" s="27" customFormat="1" ht="33" customHeight="1" thickBot="1">
-      <c r="B41" s="94"/>
-      <c r="C41" s="97"/>
+      <c r="B41" s="100"/>
+      <c r="C41" s="93"/>
       <c r="D41" s="43"/>
-      <c r="E41" s="97"/>
+      <c r="E41" s="93"/>
       <c r="F41" s="44"/>
       <c r="G41" s="35"/>
       <c r="H41" s="35"/>
@@ -3631,10 +3623,10 @@
       <c r="K41" s="39"/>
     </row>
     <row r="42" spans="2:11" s="27" customFormat="1" ht="33" customHeight="1" thickBot="1">
-      <c r="B42" s="93"/>
-      <c r="C42" s="96"/>
+      <c r="B42" s="99"/>
+      <c r="C42" s="92"/>
       <c r="D42" s="43"/>
-      <c r="E42" s="103"/>
+      <c r="E42" s="94"/>
       <c r="F42" s="44"/>
       <c r="G42" s="35"/>
       <c r="H42" s="35"/>
@@ -3643,10 +3635,10 @@
       <c r="K42" s="39"/>
     </row>
     <row r="43" spans="2:11" s="27" customFormat="1" ht="33" customHeight="1" thickBot="1">
-      <c r="B43" s="94"/>
-      <c r="C43" s="97"/>
+      <c r="B43" s="100"/>
+      <c r="C43" s="93"/>
       <c r="D43" s="43"/>
-      <c r="E43" s="97"/>
+      <c r="E43" s="93"/>
       <c r="F43" s="44"/>
       <c r="G43" s="35"/>
       <c r="H43" s="35"/>
@@ -3655,10 +3647,10 @@
       <c r="K43" s="39"/>
     </row>
     <row r="44" spans="2:11" s="27" customFormat="1" ht="33" customHeight="1" thickBot="1">
-      <c r="B44" s="93"/>
-      <c r="C44" s="96"/>
+      <c r="B44" s="99"/>
+      <c r="C44" s="92"/>
       <c r="D44" s="43"/>
-      <c r="E44" s="103"/>
+      <c r="E44" s="94"/>
       <c r="F44" s="44"/>
       <c r="G44" s="35"/>
       <c r="H44" s="35"/>
@@ -3667,10 +3659,10 @@
       <c r="K44" s="39"/>
     </row>
     <row r="45" spans="2:11" s="27" customFormat="1" ht="33" customHeight="1" thickBot="1">
-      <c r="B45" s="94"/>
-      <c r="C45" s="97"/>
+      <c r="B45" s="100"/>
+      <c r="C45" s="93"/>
       <c r="D45" s="43"/>
-      <c r="E45" s="97"/>
+      <c r="E45" s="93"/>
       <c r="F45" s="44"/>
       <c r="G45" s="35"/>
       <c r="H45" s="35"/>
@@ -3679,10 +3671,10 @@
       <c r="K45" s="39"/>
     </row>
     <row r="46" spans="2:11" s="27" customFormat="1" ht="33" customHeight="1" thickBot="1">
-      <c r="B46" s="93"/>
-      <c r="C46" s="96"/>
+      <c r="B46" s="99"/>
+      <c r="C46" s="92"/>
       <c r="D46" s="43"/>
-      <c r="E46" s="103"/>
+      <c r="E46" s="94"/>
       <c r="F46" s="44"/>
       <c r="G46" s="35"/>
       <c r="H46" s="35"/>
@@ -3691,10 +3683,10 @@
       <c r="K46" s="39"/>
     </row>
     <row r="47" spans="2:11" s="27" customFormat="1" ht="33" customHeight="1" thickBot="1">
-      <c r="B47" s="94"/>
-      <c r="C47" s="97"/>
+      <c r="B47" s="100"/>
+      <c r="C47" s="93"/>
       <c r="D47" s="43"/>
-      <c r="E47" s="97"/>
+      <c r="E47" s="93"/>
       <c r="F47" s="44"/>
       <c r="G47" s="35"/>
       <c r="H47" s="35"/>
@@ -3703,10 +3695,10 @@
       <c r="K47" s="39"/>
     </row>
     <row r="48" spans="2:11" s="79" customFormat="1" ht="33" customHeight="1" thickBot="1">
-      <c r="B48" s="93"/>
-      <c r="C48" s="101"/>
+      <c r="B48" s="99"/>
+      <c r="C48" s="98"/>
       <c r="D48" s="73"/>
-      <c r="E48" s="105"/>
+      <c r="E48" s="95"/>
       <c r="F48" s="74"/>
       <c r="G48" s="75"/>
       <c r="H48" s="75"/>
@@ -3715,10 +3707,10 @@
       <c r="K48" s="78"/>
     </row>
     <row r="49" spans="2:11" s="79" customFormat="1" ht="33" customHeight="1" thickBot="1">
-      <c r="B49" s="95"/>
-      <c r="C49" s="102"/>
+      <c r="B49" s="101"/>
+      <c r="C49" s="96"/>
       <c r="D49" s="73"/>
-      <c r="E49" s="102"/>
+      <c r="E49" s="96"/>
       <c r="F49" s="74"/>
       <c r="G49" s="75"/>
       <c r="H49" s="75"/>
@@ -3727,10 +3719,10 @@
       <c r="K49" s="78"/>
     </row>
     <row r="50" spans="2:11" s="27" customFormat="1" ht="33" customHeight="1" thickBot="1">
-      <c r="B50" s="93"/>
-      <c r="C50" s="96"/>
+      <c r="B50" s="99"/>
+      <c r="C50" s="92"/>
       <c r="D50" s="43"/>
-      <c r="E50" s="103"/>
+      <c r="E50" s="94"/>
       <c r="F50" s="44"/>
       <c r="G50" s="35"/>
       <c r="H50" s="35"/>
@@ -3739,10 +3731,10 @@
       <c r="K50" s="39"/>
     </row>
     <row r="51" spans="2:11" s="27" customFormat="1" ht="33" customHeight="1" thickBot="1">
-      <c r="B51" s="94"/>
-      <c r="C51" s="97"/>
+      <c r="B51" s="100"/>
+      <c r="C51" s="93"/>
       <c r="D51" s="43"/>
-      <c r="E51" s="97"/>
+      <c r="E51" s="93"/>
       <c r="F51" s="44"/>
       <c r="G51" s="35"/>
       <c r="H51" s="35"/>
@@ -3751,10 +3743,10 @@
       <c r="K51" s="39"/>
     </row>
     <row r="52" spans="2:11" s="27" customFormat="1" ht="33" customHeight="1" thickBot="1">
-      <c r="B52" s="93"/>
-      <c r="C52" s="96"/>
+      <c r="B52" s="99"/>
+      <c r="C52" s="92"/>
       <c r="D52" s="43"/>
-      <c r="E52" s="103"/>
+      <c r="E52" s="94"/>
       <c r="F52" s="44"/>
       <c r="G52" s="35"/>
       <c r="H52" s="35"/>
@@ -3763,10 +3755,10 @@
       <c r="K52" s="39"/>
     </row>
     <row r="53" spans="2:11" s="27" customFormat="1" ht="33" customHeight="1" thickBot="1">
-      <c r="B53" s="94"/>
-      <c r="C53" s="97"/>
+      <c r="B53" s="100"/>
+      <c r="C53" s="93"/>
       <c r="D53" s="43"/>
-      <c r="E53" s="97"/>
+      <c r="E53" s="93"/>
       <c r="F53" s="44"/>
       <c r="G53" s="35"/>
       <c r="H53" s="35"/>
@@ -3775,10 +3767,10 @@
       <c r="K53" s="39"/>
     </row>
     <row r="54" spans="2:11" s="27" customFormat="1" ht="33" customHeight="1" thickBot="1">
-      <c r="B54" s="93"/>
-      <c r="C54" s="96"/>
+      <c r="B54" s="99"/>
+      <c r="C54" s="92"/>
       <c r="D54" s="43"/>
-      <c r="E54" s="103"/>
+      <c r="E54" s="94"/>
       <c r="F54" s="44"/>
       <c r="G54" s="35"/>
       <c r="H54" s="35"/>
@@ -3787,10 +3779,10 @@
       <c r="K54" s="39"/>
     </row>
     <row r="55" spans="2:11" s="27" customFormat="1" ht="33" customHeight="1" thickBot="1">
-      <c r="B55" s="94"/>
-      <c r="C55" s="97"/>
+      <c r="B55" s="100"/>
+      <c r="C55" s="93"/>
       <c r="D55" s="43"/>
-      <c r="E55" s="97"/>
+      <c r="E55" s="93"/>
       <c r="F55" s="44"/>
       <c r="G55" s="35"/>
       <c r="H55" s="35"/>
@@ -3799,10 +3791,10 @@
       <c r="K55" s="39"/>
     </row>
     <row r="56" spans="2:11" s="27" customFormat="1" ht="33" customHeight="1" thickBot="1">
-      <c r="B56" s="93"/>
-      <c r="C56" s="96"/>
+      <c r="B56" s="99"/>
+      <c r="C56" s="92"/>
       <c r="D56" s="43"/>
-      <c r="E56" s="103"/>
+      <c r="E56" s="94"/>
       <c r="F56" s="44"/>
       <c r="G56" s="35"/>
       <c r="H56" s="35"/>
@@ -3811,10 +3803,10 @@
       <c r="K56" s="39"/>
     </row>
     <row r="57" spans="2:11" s="68" customFormat="1" ht="33" customHeight="1" thickBot="1">
-      <c r="B57" s="94"/>
-      <c r="C57" s="97"/>
+      <c r="B57" s="100"/>
+      <c r="C57" s="93"/>
       <c r="D57" s="63"/>
-      <c r="E57" s="97"/>
+      <c r="E57" s="93"/>
       <c r="F57" s="64"/>
       <c r="G57" s="62"/>
       <c r="H57" s="62"/>
@@ -3823,10 +3815,10 @@
       <c r="K57" s="67"/>
     </row>
     <row r="58" spans="2:11" s="27" customFormat="1" ht="33" customHeight="1" thickBot="1">
-      <c r="B58" s="93"/>
-      <c r="C58" s="96"/>
+      <c r="B58" s="99"/>
+      <c r="C58" s="92"/>
       <c r="D58" s="69"/>
-      <c r="E58" s="103"/>
+      <c r="E58" s="94"/>
       <c r="F58" s="70"/>
       <c r="G58" s="35"/>
       <c r="H58" s="35"/>
@@ -3835,10 +3827,10 @@
       <c r="K58" s="39"/>
     </row>
     <row r="59" spans="2:11" s="27" customFormat="1" ht="37.5" customHeight="1" thickBot="1">
-      <c r="B59" s="94"/>
-      <c r="C59" s="97"/>
+      <c r="B59" s="100"/>
+      <c r="C59" s="93"/>
       <c r="D59" s="43"/>
-      <c r="E59" s="97"/>
+      <c r="E59" s="93"/>
       <c r="F59" s="44"/>
       <c r="G59" s="35"/>
       <c r="H59" s="35"/>
@@ -3847,10 +3839,10 @@
       <c r="K59" s="39"/>
     </row>
     <row r="60" spans="2:11" s="79" customFormat="1" ht="33" customHeight="1" thickBot="1">
-      <c r="B60" s="93"/>
-      <c r="C60" s="96"/>
+      <c r="B60" s="99"/>
+      <c r="C60" s="92"/>
       <c r="D60" s="73"/>
-      <c r="E60" s="103"/>
+      <c r="E60" s="94"/>
       <c r="F60" s="74"/>
       <c r="G60" s="75"/>
       <c r="H60" s="75"/>
@@ -3859,10 +3851,10 @@
       <c r="K60" s="78"/>
     </row>
     <row r="61" spans="2:11" s="27" customFormat="1" ht="33" customHeight="1" thickBot="1">
-      <c r="B61" s="94"/>
-      <c r="C61" s="97"/>
+      <c r="B61" s="100"/>
+      <c r="C61" s="93"/>
       <c r="D61" s="43"/>
-      <c r="E61" s="97"/>
+      <c r="E61" s="93"/>
       <c r="F61" s="44"/>
       <c r="G61" s="35"/>
       <c r="H61" s="35"/>
@@ -3871,10 +3863,10 @@
       <c r="K61" s="39"/>
     </row>
     <row r="62" spans="2:11" s="27" customFormat="1" ht="33" customHeight="1" thickBot="1">
-      <c r="B62" s="93"/>
-      <c r="C62" s="96"/>
+      <c r="B62" s="99"/>
+      <c r="C62" s="92"/>
       <c r="D62" s="43"/>
-      <c r="E62" s="103"/>
+      <c r="E62" s="94"/>
       <c r="F62" s="44"/>
       <c r="G62" s="35"/>
       <c r="H62" s="35"/>
@@ -3883,10 +3875,10 @@
       <c r="K62" s="39"/>
     </row>
     <row r="63" spans="2:11" s="27" customFormat="1" ht="33" customHeight="1" thickBot="1">
-      <c r="B63" s="94"/>
-      <c r="C63" s="97"/>
+      <c r="B63" s="100"/>
+      <c r="C63" s="93"/>
       <c r="D63" s="43"/>
-      <c r="E63" s="97"/>
+      <c r="E63" s="93"/>
       <c r="F63" s="44"/>
       <c r="G63" s="35"/>
       <c r="H63" s="35"/>
@@ -3895,10 +3887,10 @@
       <c r="K63" s="39"/>
     </row>
     <row r="64" spans="2:11" s="27" customFormat="1" ht="33" customHeight="1" thickBot="1">
-      <c r="B64" s="93"/>
-      <c r="C64" s="96"/>
+      <c r="B64" s="99"/>
+      <c r="C64" s="92"/>
       <c r="D64" s="43"/>
-      <c r="E64" s="103"/>
+      <c r="E64" s="94"/>
       <c r="F64" s="44"/>
       <c r="G64" s="35"/>
       <c r="H64" s="35"/>
@@ -3907,10 +3899,10 @@
       <c r="K64" s="39"/>
     </row>
     <row r="65" spans="1:11" s="27" customFormat="1" ht="33" customHeight="1" thickBot="1">
-      <c r="B65" s="94"/>
-      <c r="C65" s="97"/>
+      <c r="B65" s="100"/>
+      <c r="C65" s="93"/>
       <c r="D65" s="43"/>
-      <c r="E65" s="97"/>
+      <c r="E65" s="93"/>
       <c r="F65" s="44"/>
       <c r="G65" s="35"/>
       <c r="H65" s="35"/>
@@ -3919,7 +3911,7 @@
       <c r="K65" s="39"/>
     </row>
     <row r="66" spans="1:11" s="27" customFormat="1" ht="33" customHeight="1" thickBot="1">
-      <c r="B66" s="93"/>
+      <c r="B66" s="99"/>
       <c r="C66" s="60"/>
       <c r="D66" s="43"/>
       <c r="E66" s="61"/>
@@ -3931,7 +3923,7 @@
       <c r="K66" s="39"/>
     </row>
     <row r="67" spans="1:11" s="27" customFormat="1" ht="33" customHeight="1" thickBot="1">
-      <c r="B67" s="94"/>
+      <c r="B67" s="100"/>
       <c r="C67" s="71"/>
       <c r="D67" s="43"/>
       <c r="E67" s="72"/>
@@ -3943,10 +3935,10 @@
       <c r="K67" s="39"/>
     </row>
     <row r="68" spans="1:11" s="27" customFormat="1" ht="33" customHeight="1" thickBot="1">
-      <c r="B68" s="93"/>
-      <c r="C68" s="96"/>
+      <c r="B68" s="99"/>
+      <c r="C68" s="92"/>
       <c r="D68" s="43"/>
-      <c r="E68" s="103"/>
+      <c r="E68" s="94"/>
       <c r="F68" s="44"/>
       <c r="G68" s="35"/>
       <c r="H68" s="35"/>
@@ -3956,10 +3948,10 @@
     </row>
     <row r="69" spans="1:11" ht="13.5" thickBot="1">
       <c r="A69" s="27"/>
-      <c r="B69" s="94"/>
-      <c r="C69" s="97"/>
+      <c r="B69" s="100"/>
+      <c r="C69" s="93"/>
       <c r="D69" s="43"/>
-      <c r="E69" s="97"/>
+      <c r="E69" s="93"/>
       <c r="F69" s="44"/>
       <c r="G69" s="35"/>
       <c r="H69" s="35"/>
@@ -3969,10 +3961,10 @@
     </row>
     <row r="70" spans="1:11" ht="13.5" thickBot="1">
       <c r="A70" s="27"/>
-      <c r="B70" s="93"/>
-      <c r="C70" s="96"/>
+      <c r="B70" s="99"/>
+      <c r="C70" s="92"/>
       <c r="D70" s="43"/>
-      <c r="E70" s="103"/>
+      <c r="E70" s="94"/>
       <c r="F70" s="44"/>
       <c r="G70" s="35"/>
       <c r="H70" s="35"/>
@@ -3982,10 +3974,10 @@
     </row>
     <row r="71" spans="1:11" ht="13.5" thickBot="1">
       <c r="A71" s="27"/>
-      <c r="B71" s="94"/>
-      <c r="C71" s="97"/>
+      <c r="B71" s="100"/>
+      <c r="C71" s="93"/>
       <c r="D71" s="43"/>
-      <c r="E71" s="97"/>
+      <c r="E71" s="93"/>
       <c r="F71" s="44"/>
       <c r="G71" s="35"/>
       <c r="H71" s="35"/>
@@ -3994,10 +3986,10 @@
       <c r="K71" s="39"/>
     </row>
     <row r="72" spans="1:11" ht="13.5" thickBot="1">
-      <c r="B72" s="93"/>
-      <c r="C72" s="96"/>
+      <c r="B72" s="99"/>
+      <c r="C72" s="92"/>
       <c r="D72" s="43"/>
-      <c r="E72" s="103"/>
+      <c r="E72" s="94"/>
       <c r="F72" s="44"/>
       <c r="G72" s="35"/>
       <c r="H72" s="35"/>
@@ -4006,10 +3998,10 @@
       <c r="K72" s="39"/>
     </row>
     <row r="73" spans="1:11" ht="13.5" thickBot="1">
-      <c r="B73" s="94"/>
-      <c r="C73" s="97"/>
+      <c r="B73" s="100"/>
+      <c r="C73" s="93"/>
       <c r="D73" s="43"/>
-      <c r="E73" s="97"/>
+      <c r="E73" s="93"/>
       <c r="F73" s="44"/>
       <c r="G73" s="35"/>
       <c r="H73" s="35"/>
@@ -4018,10 +4010,10 @@
       <c r="K73" s="39"/>
     </row>
     <row r="74" spans="1:11" ht="25.5" customHeight="1" thickBot="1">
-      <c r="B74" s="93"/>
-      <c r="C74" s="96"/>
+      <c r="B74" s="99"/>
+      <c r="C74" s="92"/>
       <c r="D74" s="43"/>
-      <c r="E74" s="103"/>
+      <c r="E74" s="94"/>
       <c r="F74" s="44"/>
       <c r="G74" s="35"/>
       <c r="H74" s="35"/>
@@ -4030,10 +4022,10 @@
       <c r="K74" s="39"/>
     </row>
     <row r="75" spans="1:11" ht="13.5" thickBot="1">
-      <c r="B75" s="94"/>
-      <c r="C75" s="97"/>
+      <c r="B75" s="100"/>
+      <c r="C75" s="93"/>
       <c r="D75" s="43"/>
-      <c r="E75" s="97"/>
+      <c r="E75" s="93"/>
       <c r="F75" s="44"/>
       <c r="G75" s="35"/>
       <c r="H75" s="35"/>
@@ -4042,10 +4034,10 @@
       <c r="K75" s="39"/>
     </row>
     <row r="76" spans="1:11" ht="13.5" thickBot="1">
-      <c r="B76" s="93"/>
-      <c r="C76" s="96"/>
+      <c r="B76" s="99"/>
+      <c r="C76" s="92"/>
       <c r="D76" s="43"/>
-      <c r="E76" s="103"/>
+      <c r="E76" s="94"/>
       <c r="F76" s="44"/>
       <c r="G76" s="35"/>
       <c r="H76" s="35"/>
@@ -4054,10 +4046,10 @@
       <c r="K76" s="39"/>
     </row>
     <row r="77" spans="1:11" ht="13.5" thickBot="1">
-      <c r="B77" s="94"/>
-      <c r="C77" s="97"/>
+      <c r="B77" s="100"/>
+      <c r="C77" s="93"/>
       <c r="D77" s="43"/>
-      <c r="E77" s="97"/>
+      <c r="E77" s="93"/>
       <c r="F77" s="44"/>
       <c r="G77" s="35"/>
       <c r="H77" s="35"/>
@@ -4066,10 +4058,10 @@
       <c r="K77" s="39"/>
     </row>
     <row r="78" spans="1:11" ht="25.5" customHeight="1" thickBot="1">
-      <c r="B78" s="93"/>
-      <c r="C78" s="96"/>
+      <c r="B78" s="99"/>
+      <c r="C78" s="92"/>
       <c r="D78" s="43"/>
-      <c r="E78" s="103"/>
+      <c r="E78" s="94"/>
       <c r="F78" s="44"/>
       <c r="G78" s="35"/>
       <c r="H78" s="35"/>
@@ -4078,10 +4070,10 @@
       <c r="K78" s="39"/>
     </row>
     <row r="79" spans="1:11" ht="13.5" thickBot="1">
-      <c r="B79" s="94"/>
-      <c r="C79" s="97"/>
+      <c r="B79" s="100"/>
+      <c r="C79" s="93"/>
       <c r="D79" s="43"/>
-      <c r="E79" s="97"/>
+      <c r="E79" s="93"/>
       <c r="F79" s="44"/>
       <c r="G79" s="80"/>
       <c r="H79" s="35"/>
@@ -4090,10 +4082,10 @@
       <c r="K79" s="39"/>
     </row>
     <row r="80" spans="1:11" ht="36" customHeight="1" thickBot="1">
-      <c r="B80" s="93"/>
-      <c r="C80" s="96"/>
+      <c r="B80" s="99"/>
+      <c r="C80" s="92"/>
       <c r="D80" s="43"/>
-      <c r="E80" s="103"/>
+      <c r="E80" s="94"/>
       <c r="F80" s="44"/>
       <c r="G80" s="80"/>
       <c r="H80" s="35"/>
@@ -4102,10 +4094,10 @@
       <c r="K80" s="39"/>
     </row>
     <row r="81" spans="2:11" ht="30" customHeight="1" thickBot="1">
-      <c r="B81" s="94"/>
-      <c r="C81" s="97"/>
+      <c r="B81" s="100"/>
+      <c r="C81" s="93"/>
       <c r="D81" s="43"/>
-      <c r="E81" s="97"/>
+      <c r="E81" s="93"/>
       <c r="F81" s="44"/>
       <c r="G81" s="35"/>
       <c r="H81" s="35"/>
@@ -4114,10 +4106,10 @@
       <c r="K81" s="39"/>
     </row>
     <row r="82" spans="2:11" ht="39" customHeight="1" thickBot="1">
-      <c r="B82" s="93"/>
-      <c r="C82" s="96"/>
+      <c r="B82" s="99"/>
+      <c r="C82" s="92"/>
       <c r="D82" s="43"/>
-      <c r="E82" s="103"/>
+      <c r="E82" s="94"/>
       <c r="F82" s="44"/>
       <c r="G82" s="35"/>
       <c r="H82" s="35"/>
@@ -4126,10 +4118,10 @@
       <c r="K82" s="39"/>
     </row>
     <row r="83" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B83" s="94"/>
-      <c r="C83" s="97"/>
+      <c r="B83" s="100"/>
+      <c r="C83" s="93"/>
       <c r="D83" s="43"/>
-      <c r="E83" s="97"/>
+      <c r="E83" s="93"/>
       <c r="F83" s="44"/>
       <c r="G83" s="35"/>
       <c r="H83" s="35"/>
@@ -4138,10 +4130,10 @@
       <c r="K83" s="39"/>
     </row>
     <row r="84" spans="2:11" ht="25.5" customHeight="1" thickBot="1">
-      <c r="B84" s="93"/>
-      <c r="C84" s="96"/>
+      <c r="B84" s="99"/>
+      <c r="C84" s="92"/>
       <c r="D84" s="43"/>
-      <c r="E84" s="103"/>
+      <c r="E84" s="94"/>
       <c r="F84" s="44"/>
       <c r="G84" s="35"/>
       <c r="H84" s="35"/>
@@ -4150,10 +4142,10 @@
       <c r="K84" s="39"/>
     </row>
     <row r="85" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B85" s="94"/>
-      <c r="C85" s="97"/>
+      <c r="B85" s="100"/>
+      <c r="C85" s="93"/>
       <c r="D85" s="43"/>
-      <c r="E85" s="97"/>
+      <c r="E85" s="93"/>
       <c r="F85" s="44"/>
       <c r="G85" s="35"/>
       <c r="H85" s="35"/>
@@ -4162,10 +4154,10 @@
       <c r="K85" s="39"/>
     </row>
     <row r="86" spans="2:11" ht="25.5" customHeight="1" thickBot="1">
-      <c r="B86" s="93"/>
-      <c r="C86" s="96"/>
+      <c r="B86" s="99"/>
+      <c r="C86" s="92"/>
       <c r="D86" s="43"/>
-      <c r="E86" s="103"/>
+      <c r="E86" s="94"/>
       <c r="F86" s="44"/>
       <c r="G86" s="35"/>
       <c r="H86" s="35"/>
@@ -4174,10 +4166,10 @@
       <c r="K86" s="39"/>
     </row>
     <row r="87" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B87" s="94"/>
-      <c r="C87" s="97"/>
+      <c r="B87" s="100"/>
+      <c r="C87" s="93"/>
       <c r="D87" s="43"/>
-      <c r="E87" s="97"/>
+      <c r="E87" s="93"/>
       <c r="F87" s="44"/>
       <c r="G87" s="35"/>
       <c r="H87" s="35"/>
@@ -4186,10 +4178,10 @@
       <c r="K87" s="39"/>
     </row>
     <row r="88" spans="2:11" ht="25.5" customHeight="1" thickBot="1">
-      <c r="B88" s="93"/>
-      <c r="C88" s="96"/>
+      <c r="B88" s="99"/>
+      <c r="C88" s="92"/>
       <c r="D88" s="43"/>
-      <c r="E88" s="103"/>
+      <c r="E88" s="94"/>
       <c r="F88" s="44"/>
       <c r="G88" s="35"/>
       <c r="H88" s="35"/>
@@ -4198,10 +4190,10 @@
       <c r="K88" s="39"/>
     </row>
     <row r="89" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B89" s="94"/>
-      <c r="C89" s="97"/>
+      <c r="B89" s="100"/>
+      <c r="C89" s="93"/>
       <c r="D89" s="43"/>
-      <c r="E89" s="97"/>
+      <c r="E89" s="93"/>
       <c r="F89" s="44"/>
       <c r="G89" s="35"/>
       <c r="H89" s="35"/>
@@ -4210,10 +4202,10 @@
       <c r="K89" s="39"/>
     </row>
     <row r="90" spans="2:11" ht="25.5" customHeight="1" thickBot="1">
-      <c r="B90" s="93"/>
-      <c r="C90" s="96"/>
+      <c r="B90" s="99"/>
+      <c r="C90" s="92"/>
       <c r="D90" s="43"/>
-      <c r="E90" s="103"/>
+      <c r="E90" s="94"/>
       <c r="F90" s="44"/>
       <c r="G90" s="35"/>
       <c r="H90" s="35"/>
@@ -4222,10 +4214,10 @@
       <c r="K90" s="39"/>
     </row>
     <row r="91" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B91" s="94"/>
-      <c r="C91" s="97"/>
+      <c r="B91" s="100"/>
+      <c r="C91" s="93"/>
       <c r="D91" s="43"/>
-      <c r="E91" s="97"/>
+      <c r="E91" s="93"/>
       <c r="F91" s="44"/>
       <c r="G91" s="35"/>
       <c r="H91" s="35"/>
@@ -4234,10 +4226,10 @@
       <c r="K91" s="39"/>
     </row>
     <row r="92" spans="2:11" ht="25.5" customHeight="1" thickBot="1">
-      <c r="B92" s="93"/>
-      <c r="C92" s="96"/>
+      <c r="B92" s="99"/>
+      <c r="C92" s="92"/>
       <c r="D92" s="43"/>
-      <c r="E92" s="103"/>
+      <c r="E92" s="94"/>
       <c r="F92" s="44"/>
       <c r="G92" s="35"/>
       <c r="H92" s="35"/>
@@ -4246,10 +4238,10 @@
       <c r="K92" s="39"/>
     </row>
     <row r="93" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B93" s="94"/>
-      <c r="C93" s="97"/>
+      <c r="B93" s="100"/>
+      <c r="C93" s="93"/>
       <c r="D93" s="43"/>
-      <c r="E93" s="97"/>
+      <c r="E93" s="93"/>
       <c r="F93" s="44"/>
       <c r="G93" s="35"/>
       <c r="H93" s="35"/>
@@ -4258,10 +4250,10 @@
       <c r="K93" s="39"/>
     </row>
     <row r="94" spans="2:11" ht="25.5" customHeight="1" thickBot="1">
-      <c r="B94" s="93"/>
-      <c r="C94" s="96"/>
+      <c r="B94" s="99"/>
+      <c r="C94" s="92"/>
       <c r="D94" s="43"/>
-      <c r="E94" s="103"/>
+      <c r="E94" s="94"/>
       <c r="F94" s="44"/>
       <c r="G94" s="35"/>
       <c r="H94" s="35"/>
@@ -4270,10 +4262,10 @@
       <c r="K94" s="39"/>
     </row>
     <row r="95" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B95" s="94"/>
-      <c r="C95" s="97"/>
+      <c r="B95" s="100"/>
+      <c r="C95" s="93"/>
       <c r="D95" s="43"/>
-      <c r="E95" s="97"/>
+      <c r="E95" s="93"/>
       <c r="F95" s="44"/>
       <c r="G95" s="35"/>
       <c r="H95" s="35"/>
@@ -4282,10 +4274,10 @@
       <c r="K95" s="39"/>
     </row>
     <row r="96" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B96" s="93"/>
-      <c r="C96" s="96"/>
+      <c r="B96" s="99"/>
+      <c r="C96" s="92"/>
       <c r="D96" s="43"/>
-      <c r="E96" s="103"/>
+      <c r="E96" s="94"/>
       <c r="F96" s="44"/>
       <c r="G96" s="35"/>
       <c r="H96" s="35"/>
@@ -4294,10 +4286,10 @@
       <c r="K96" s="39"/>
     </row>
     <row r="97" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B97" s="94"/>
-      <c r="C97" s="97"/>
+      <c r="B97" s="100"/>
+      <c r="C97" s="93"/>
       <c r="D97" s="43"/>
-      <c r="E97" s="97"/>
+      <c r="E97" s="93"/>
       <c r="F97" s="44"/>
       <c r="G97" s="35"/>
       <c r="H97" s="35"/>
@@ -4306,10 +4298,10 @@
       <c r="K97" s="39"/>
     </row>
     <row r="98" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B98" s="93"/>
-      <c r="C98" s="96"/>
+      <c r="B98" s="99"/>
+      <c r="C98" s="92"/>
       <c r="D98" s="43"/>
-      <c r="E98" s="103"/>
+      <c r="E98" s="94"/>
       <c r="F98" s="44"/>
       <c r="G98" s="35"/>
       <c r="H98" s="35"/>
@@ -4318,10 +4310,10 @@
       <c r="K98" s="39"/>
     </row>
     <row r="99" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B99" s="94"/>
-      <c r="C99" s="97"/>
+      <c r="B99" s="100"/>
+      <c r="C99" s="93"/>
       <c r="D99" s="43"/>
-      <c r="E99" s="97"/>
+      <c r="E99" s="93"/>
       <c r="F99" s="44"/>
       <c r="G99" s="35"/>
       <c r="H99" s="35"/>
@@ -4330,10 +4322,10 @@
       <c r="K99" s="39"/>
     </row>
     <row r="100" spans="2:11" ht="25.5" customHeight="1" thickBot="1">
-      <c r="B100" s="93"/>
-      <c r="C100" s="96"/>
+      <c r="B100" s="99"/>
+      <c r="C100" s="92"/>
       <c r="D100" s="43"/>
-      <c r="E100" s="103"/>
+      <c r="E100" s="94"/>
       <c r="F100" s="44"/>
       <c r="G100" s="35"/>
       <c r="H100" s="35"/>
@@ -4342,10 +4334,10 @@
       <c r="K100" s="39"/>
     </row>
     <row r="101" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B101" s="94"/>
-      <c r="C101" s="97"/>
+      <c r="B101" s="100"/>
+      <c r="C101" s="93"/>
       <c r="D101" s="43"/>
-      <c r="E101" s="97"/>
+      <c r="E101" s="93"/>
       <c r="F101" s="44"/>
       <c r="G101" s="35"/>
       <c r="H101" s="35"/>
@@ -4354,10 +4346,10 @@
       <c r="K101" s="39"/>
     </row>
     <row r="102" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B102" s="93"/>
-      <c r="C102" s="96"/>
+      <c r="B102" s="99"/>
+      <c r="C102" s="92"/>
       <c r="D102" s="43"/>
-      <c r="E102" s="103"/>
+      <c r="E102" s="94"/>
       <c r="F102" s="44"/>
       <c r="G102" s="35"/>
       <c r="H102" s="35"/>
@@ -4366,10 +4358,10 @@
       <c r="K102" s="39"/>
     </row>
     <row r="103" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B103" s="94"/>
-      <c r="C103" s="97"/>
+      <c r="B103" s="100"/>
+      <c r="C103" s="93"/>
       <c r="D103" s="43"/>
-      <c r="E103" s="97"/>
+      <c r="E103" s="93"/>
       <c r="F103" s="44"/>
       <c r="G103" s="35"/>
       <c r="H103" s="35"/>
@@ -4378,10 +4370,10 @@
       <c r="K103" s="39"/>
     </row>
     <row r="104" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B104" s="93"/>
-      <c r="C104" s="96"/>
+      <c r="B104" s="99"/>
+      <c r="C104" s="92"/>
       <c r="D104" s="43"/>
-      <c r="E104" s="103"/>
+      <c r="E104" s="94"/>
       <c r="F104" s="44"/>
       <c r="G104" s="35"/>
       <c r="H104" s="35"/>
@@ -4390,10 +4382,10 @@
       <c r="K104" s="39"/>
     </row>
     <row r="105" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B105" s="94"/>
-      <c r="C105" s="97"/>
+      <c r="B105" s="100"/>
+      <c r="C105" s="93"/>
       <c r="D105" s="43"/>
-      <c r="E105" s="97"/>
+      <c r="E105" s="93"/>
       <c r="F105" s="44"/>
       <c r="G105" s="35"/>
       <c r="H105" s="35"/>
@@ -4402,10 +4394,10 @@
       <c r="K105" s="39"/>
     </row>
     <row r="106" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B106" s="93"/>
-      <c r="C106" s="96"/>
+      <c r="B106" s="99"/>
+      <c r="C106" s="92"/>
       <c r="D106" s="43"/>
-      <c r="E106" s="103"/>
+      <c r="E106" s="94"/>
       <c r="F106" s="44"/>
       <c r="G106" s="35"/>
       <c r="H106" s="35"/>
@@ -4414,10 +4406,10 @@
       <c r="K106" s="39"/>
     </row>
     <row r="107" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B107" s="94"/>
-      <c r="C107" s="97"/>
+      <c r="B107" s="100"/>
+      <c r="C107" s="93"/>
       <c r="D107" s="43"/>
-      <c r="E107" s="97"/>
+      <c r="E107" s="93"/>
       <c r="F107" s="44"/>
       <c r="G107" s="35"/>
       <c r="H107" s="35"/>
@@ -4426,10 +4418,10 @@
       <c r="K107" s="39"/>
     </row>
     <row r="108" spans="2:11" ht="25.5" customHeight="1" thickBot="1">
-      <c r="B108" s="93"/>
-      <c r="C108" s="96"/>
+      <c r="B108" s="99"/>
+      <c r="C108" s="92"/>
       <c r="D108" s="43"/>
-      <c r="E108" s="103"/>
+      <c r="E108" s="94"/>
       <c r="F108" s="44"/>
       <c r="G108" s="35"/>
       <c r="H108" s="35"/>
@@ -4438,10 +4430,10 @@
       <c r="K108" s="39"/>
     </row>
     <row r="109" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B109" s="94"/>
-      <c r="C109" s="97"/>
+      <c r="B109" s="100"/>
+      <c r="C109" s="93"/>
       <c r="D109" s="43"/>
-      <c r="E109" s="97"/>
+      <c r="E109" s="93"/>
       <c r="F109" s="44"/>
       <c r="G109" s="35"/>
       <c r="H109" s="35"/>
@@ -4450,10 +4442,10 @@
       <c r="K109" s="39"/>
     </row>
     <row r="110" spans="2:11" ht="25.5" customHeight="1" thickBot="1">
-      <c r="B110" s="93"/>
-      <c r="C110" s="96"/>
+      <c r="B110" s="99"/>
+      <c r="C110" s="92"/>
       <c r="D110" s="43"/>
-      <c r="E110" s="103"/>
+      <c r="E110" s="94"/>
       <c r="F110" s="44"/>
       <c r="G110" s="35"/>
       <c r="H110" s="35"/>
@@ -4462,10 +4454,10 @@
       <c r="K110" s="39"/>
     </row>
     <row r="111" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B111" s="94"/>
-      <c r="C111" s="97"/>
+      <c r="B111" s="100"/>
+      <c r="C111" s="93"/>
       <c r="D111" s="43"/>
-      <c r="E111" s="97"/>
+      <c r="E111" s="93"/>
       <c r="F111" s="44"/>
       <c r="G111" s="35"/>
       <c r="H111" s="35"/>
@@ -4474,10 +4466,10 @@
       <c r="K111" s="39"/>
     </row>
     <row r="112" spans="2:11" ht="25.5" customHeight="1" thickBot="1">
-      <c r="B112" s="93"/>
-      <c r="C112" s="96"/>
+      <c r="B112" s="99"/>
+      <c r="C112" s="92"/>
       <c r="D112" s="43"/>
-      <c r="E112" s="103"/>
+      <c r="E112" s="94"/>
       <c r="F112" s="44"/>
       <c r="G112" s="35"/>
       <c r="H112" s="35"/>
@@ -4486,10 +4478,10 @@
       <c r="K112" s="39"/>
     </row>
     <row r="113" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B113" s="94"/>
-      <c r="C113" s="97"/>
+      <c r="B113" s="100"/>
+      <c r="C113" s="93"/>
       <c r="D113" s="43"/>
-      <c r="E113" s="97"/>
+      <c r="E113" s="93"/>
       <c r="F113" s="44"/>
       <c r="G113" s="35"/>
       <c r="H113" s="35"/>
@@ -4498,10 +4490,10 @@
       <c r="K113" s="39"/>
     </row>
     <row r="114" spans="2:11" ht="25.5" customHeight="1" thickBot="1">
-      <c r="B114" s="93"/>
-      <c r="C114" s="96"/>
+      <c r="B114" s="99"/>
+      <c r="C114" s="92"/>
       <c r="D114" s="43"/>
-      <c r="E114" s="103"/>
+      <c r="E114" s="94"/>
       <c r="F114" s="44"/>
       <c r="G114" s="35"/>
       <c r="H114" s="35"/>
@@ -4510,10 +4502,10 @@
       <c r="K114" s="39"/>
     </row>
     <row r="115" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B115" s="94"/>
-      <c r="C115" s="97"/>
+      <c r="B115" s="100"/>
+      <c r="C115" s="93"/>
       <c r="D115" s="43"/>
-      <c r="E115" s="97"/>
+      <c r="E115" s="93"/>
       <c r="F115" s="44"/>
       <c r="G115" s="35"/>
       <c r="H115" s="35"/>
@@ -4522,10 +4514,10 @@
       <c r="K115" s="39"/>
     </row>
     <row r="116" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B116" s="93"/>
-      <c r="C116" s="96"/>
+      <c r="B116" s="99"/>
+      <c r="C116" s="92"/>
       <c r="D116" s="43"/>
-      <c r="E116" s="103"/>
+      <c r="E116" s="94"/>
       <c r="F116" s="44"/>
       <c r="G116" s="35"/>
       <c r="H116" s="35"/>
@@ -4534,10 +4526,10 @@
       <c r="K116" s="39"/>
     </row>
     <row r="117" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B117" s="94"/>
-      <c r="C117" s="97"/>
+      <c r="B117" s="100"/>
+      <c r="C117" s="93"/>
       <c r="D117" s="43"/>
-      <c r="E117" s="97"/>
+      <c r="E117" s="93"/>
       <c r="F117" s="44"/>
       <c r="G117" s="35"/>
       <c r="H117" s="35"/>
@@ -4546,10 +4538,10 @@
       <c r="K117" s="39"/>
     </row>
     <row r="118" spans="2:11" ht="25.5" customHeight="1" thickBot="1">
-      <c r="B118" s="93"/>
-      <c r="C118" s="96"/>
+      <c r="B118" s="99"/>
+      <c r="C118" s="92"/>
       <c r="D118" s="43"/>
-      <c r="E118" s="103"/>
+      <c r="E118" s="94"/>
       <c r="F118" s="44"/>
       <c r="G118" s="35"/>
       <c r="H118" s="35"/>
@@ -4558,10 +4550,10 @@
       <c r="K118" s="39"/>
     </row>
     <row r="119" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B119" s="94"/>
-      <c r="C119" s="97"/>
+      <c r="B119" s="100"/>
+      <c r="C119" s="93"/>
       <c r="D119" s="43"/>
-      <c r="E119" s="97"/>
+      <c r="E119" s="93"/>
       <c r="F119" s="44"/>
       <c r="G119" s="35"/>
       <c r="H119" s="35"/>
@@ -4570,10 +4562,10 @@
       <c r="K119" s="39"/>
     </row>
     <row r="120" spans="2:11" ht="25.5" customHeight="1" thickBot="1">
-      <c r="B120" s="93"/>
-      <c r="C120" s="96"/>
+      <c r="B120" s="99"/>
+      <c r="C120" s="92"/>
       <c r="D120" s="43"/>
-      <c r="E120" s="103"/>
+      <c r="E120" s="94"/>
       <c r="F120" s="44"/>
       <c r="G120" s="35"/>
       <c r="H120" s="35"/>
@@ -4582,10 +4574,10 @@
       <c r="K120" s="39"/>
     </row>
     <row r="121" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B121" s="94"/>
-      <c r="C121" s="97"/>
+      <c r="B121" s="100"/>
+      <c r="C121" s="93"/>
       <c r="D121" s="43"/>
-      <c r="E121" s="97"/>
+      <c r="E121" s="93"/>
       <c r="F121" s="44"/>
       <c r="G121" s="35"/>
       <c r="H121" s="35"/>
@@ -4594,10 +4586,10 @@
       <c r="K121" s="39"/>
     </row>
     <row r="122" spans="2:11" ht="25.5" customHeight="1" thickBot="1">
-      <c r="B122" s="93"/>
-      <c r="C122" s="96"/>
+      <c r="B122" s="99"/>
+      <c r="C122" s="92"/>
       <c r="D122" s="43"/>
-      <c r="E122" s="103"/>
+      <c r="E122" s="94"/>
       <c r="F122" s="44"/>
       <c r="G122" s="35"/>
       <c r="H122" s="35"/>
@@ -4606,10 +4598,10 @@
       <c r="K122" s="39"/>
     </row>
     <row r="123" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B123" s="94"/>
-      <c r="C123" s="97"/>
+      <c r="B123" s="100"/>
+      <c r="C123" s="93"/>
       <c r="D123" s="43"/>
-      <c r="E123" s="97"/>
+      <c r="E123" s="93"/>
       <c r="F123" s="44"/>
       <c r="G123" s="35"/>
       <c r="H123" s="35"/>
@@ -4618,10 +4610,10 @@
       <c r="K123" s="39"/>
     </row>
     <row r="124" spans="2:11" ht="27.75" customHeight="1" thickBot="1">
-      <c r="B124" s="93"/>
-      <c r="C124" s="96"/>
+      <c r="B124" s="99"/>
+      <c r="C124" s="92"/>
       <c r="D124" s="43"/>
-      <c r="E124" s="103"/>
+      <c r="E124" s="94"/>
       <c r="F124" s="44"/>
       <c r="G124" s="35"/>
       <c r="H124" s="35"/>
@@ -4630,10 +4622,10 @@
       <c r="K124" s="39"/>
     </row>
     <row r="125" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B125" s="94"/>
-      <c r="C125" s="97"/>
+      <c r="B125" s="100"/>
+      <c r="C125" s="93"/>
       <c r="D125" s="43"/>
-      <c r="E125" s="97"/>
+      <c r="E125" s="93"/>
       <c r="F125" s="44"/>
       <c r="G125" s="35"/>
       <c r="H125" s="35"/>
@@ -4642,10 +4634,10 @@
       <c r="K125" s="39"/>
     </row>
     <row r="126" spans="2:11" ht="25.5" customHeight="1" thickBot="1">
-      <c r="B126" s="93"/>
-      <c r="C126" s="96"/>
+      <c r="B126" s="99"/>
+      <c r="C126" s="92"/>
       <c r="D126" s="43"/>
-      <c r="E126" s="103"/>
+      <c r="E126" s="94"/>
       <c r="F126" s="44"/>
       <c r="G126" s="35"/>
       <c r="H126" s="35"/>
@@ -4654,10 +4646,10 @@
       <c r="K126" s="39"/>
     </row>
     <row r="127" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B127" s="94"/>
-      <c r="C127" s="97"/>
+      <c r="B127" s="100"/>
+      <c r="C127" s="93"/>
       <c r="D127" s="43"/>
-      <c r="E127" s="97"/>
+      <c r="E127" s="93"/>
       <c r="F127" s="44"/>
       <c r="G127" s="35"/>
       <c r="H127" s="35"/>
@@ -4666,10 +4658,10 @@
       <c r="K127" s="39"/>
     </row>
     <row r="128" spans="2:11" ht="39.75" customHeight="1" thickBot="1">
-      <c r="B128" s="93"/>
-      <c r="C128" s="96"/>
+      <c r="B128" s="99"/>
+      <c r="C128" s="92"/>
       <c r="D128" s="43"/>
-      <c r="E128" s="103"/>
+      <c r="E128" s="94"/>
       <c r="F128" s="44"/>
       <c r="G128" s="35"/>
       <c r="H128" s="35"/>
@@ -4678,10 +4670,10 @@
       <c r="K128" s="39"/>
     </row>
     <row r="129" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B129" s="94"/>
-      <c r="C129" s="97"/>
+      <c r="B129" s="100"/>
+      <c r="C129" s="93"/>
       <c r="D129" s="43"/>
-      <c r="E129" s="97"/>
+      <c r="E129" s="93"/>
       <c r="F129" s="44"/>
       <c r="G129" s="35"/>
       <c r="H129" s="35"/>
@@ -4690,10 +4682,10 @@
       <c r="K129" s="39"/>
     </row>
     <row r="130" spans="2:11" ht="25.5" customHeight="1" thickBot="1">
-      <c r="B130" s="93"/>
-      <c r="C130" s="96"/>
+      <c r="B130" s="99"/>
+      <c r="C130" s="92"/>
       <c r="D130" s="43"/>
-      <c r="E130" s="103"/>
+      <c r="E130" s="94"/>
       <c r="F130" s="44"/>
       <c r="G130" s="35"/>
       <c r="H130" s="35"/>
@@ -4702,10 +4694,10 @@
       <c r="K130" s="39"/>
     </row>
     <row r="131" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B131" s="94"/>
-      <c r="C131" s="97"/>
+      <c r="B131" s="100"/>
+      <c r="C131" s="93"/>
       <c r="D131" s="43"/>
-      <c r="E131" s="97"/>
+      <c r="E131" s="93"/>
       <c r="F131" s="44"/>
       <c r="G131" s="35"/>
       <c r="H131" s="35"/>
@@ -4714,10 +4706,10 @@
       <c r="K131" s="39"/>
     </row>
     <row r="132" spans="2:11" ht="25.5" customHeight="1" thickBot="1">
-      <c r="B132" s="93"/>
-      <c r="C132" s="96"/>
+      <c r="B132" s="99"/>
+      <c r="C132" s="92"/>
       <c r="D132" s="43"/>
-      <c r="E132" s="103"/>
+      <c r="E132" s="94"/>
       <c r="F132" s="44"/>
       <c r="G132" s="35"/>
       <c r="H132" s="35"/>
@@ -4726,10 +4718,10 @@
       <c r="K132" s="39"/>
     </row>
     <row r="133" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B133" s="94"/>
-      <c r="C133" s="97"/>
+      <c r="B133" s="100"/>
+      <c r="C133" s="93"/>
       <c r="D133" s="43"/>
-      <c r="E133" s="97"/>
+      <c r="E133" s="93"/>
       <c r="F133" s="44"/>
       <c r="G133" s="35"/>
       <c r="H133" s="35"/>
@@ -4738,10 +4730,10 @@
       <c r="K133" s="39"/>
     </row>
     <row r="134" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B134" s="93"/>
-      <c r="C134" s="96"/>
+      <c r="B134" s="99"/>
+      <c r="C134" s="92"/>
       <c r="D134" s="43"/>
-      <c r="E134" s="103"/>
+      <c r="E134" s="94"/>
       <c r="F134" s="44"/>
       <c r="G134" s="35"/>
       <c r="H134" s="35"/>
@@ -4750,10 +4742,10 @@
       <c r="K134" s="39"/>
     </row>
     <row r="135" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B135" s="94"/>
-      <c r="C135" s="97"/>
+      <c r="B135" s="100"/>
+      <c r="C135" s="93"/>
       <c r="D135" s="43"/>
-      <c r="E135" s="97"/>
+      <c r="E135" s="93"/>
       <c r="F135" s="44"/>
       <c r="G135" s="35"/>
       <c r="H135" s="35"/>
@@ -4762,10 +4754,10 @@
       <c r="K135" s="39"/>
     </row>
     <row r="136" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B136" s="93"/>
-      <c r="C136" s="96"/>
+      <c r="B136" s="99"/>
+      <c r="C136" s="92"/>
       <c r="D136" s="43"/>
-      <c r="E136" s="103"/>
+      <c r="E136" s="94"/>
       <c r="F136" s="44"/>
       <c r="G136" s="35"/>
       <c r="H136" s="35"/>
@@ -4774,10 +4766,10 @@
       <c r="K136" s="39"/>
     </row>
     <row r="137" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B137" s="94"/>
-      <c r="C137" s="97"/>
+      <c r="B137" s="100"/>
+      <c r="C137" s="93"/>
       <c r="D137" s="43"/>
-      <c r="E137" s="97"/>
+      <c r="E137" s="93"/>
       <c r="F137" s="44"/>
       <c r="G137" s="35"/>
       <c r="H137" s="35"/>
@@ -4786,10 +4778,10 @@
       <c r="K137" s="39"/>
     </row>
     <row r="138" spans="2:11" ht="25.5" customHeight="1" thickBot="1">
-      <c r="B138" s="93"/>
-      <c r="C138" s="96"/>
+      <c r="B138" s="99"/>
+      <c r="C138" s="92"/>
       <c r="D138" s="43"/>
-      <c r="E138" s="103"/>
+      <c r="E138" s="94"/>
       <c r="F138" s="44"/>
       <c r="G138" s="35"/>
       <c r="H138" s="35"/>
@@ -4798,10 +4790,10 @@
       <c r="K138" s="39"/>
     </row>
     <row r="139" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B139" s="94"/>
-      <c r="C139" s="97"/>
+      <c r="B139" s="100"/>
+      <c r="C139" s="93"/>
       <c r="D139" s="43"/>
-      <c r="E139" s="97"/>
+      <c r="E139" s="93"/>
       <c r="F139" s="44"/>
       <c r="G139" s="35"/>
       <c r="H139" s="35"/>
@@ -4810,10 +4802,10 @@
       <c r="K139" s="39"/>
     </row>
     <row r="140" spans="2:11" ht="25.5" customHeight="1" thickBot="1">
-      <c r="B140" s="93"/>
-      <c r="C140" s="96"/>
+      <c r="B140" s="99"/>
+      <c r="C140" s="92"/>
       <c r="D140" s="43"/>
-      <c r="E140" s="103"/>
+      <c r="E140" s="94"/>
       <c r="F140" s="44"/>
       <c r="G140" s="35"/>
       <c r="H140" s="35"/>
@@ -4822,10 +4814,10 @@
       <c r="K140" s="39"/>
     </row>
     <row r="141" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B141" s="94"/>
-      <c r="C141" s="97"/>
+      <c r="B141" s="100"/>
+      <c r="C141" s="93"/>
       <c r="D141" s="43"/>
-      <c r="E141" s="97"/>
+      <c r="E141" s="93"/>
       <c r="F141" s="44"/>
       <c r="G141" s="35"/>
       <c r="H141" s="35"/>
@@ -4834,10 +4826,10 @@
       <c r="K141" s="39"/>
     </row>
     <row r="142" spans="2:11" ht="25.5" customHeight="1" thickBot="1">
-      <c r="B142" s="93"/>
-      <c r="C142" s="96"/>
+      <c r="B142" s="99"/>
+      <c r="C142" s="92"/>
       <c r="D142" s="43"/>
-      <c r="E142" s="103"/>
+      <c r="E142" s="94"/>
       <c r="F142" s="44"/>
       <c r="G142" s="35"/>
       <c r="H142" s="35"/>
@@ -4846,10 +4838,10 @@
       <c r="K142" s="39"/>
     </row>
     <row r="143" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B143" s="94"/>
-      <c r="C143" s="97"/>
+      <c r="B143" s="100"/>
+      <c r="C143" s="93"/>
       <c r="D143" s="43"/>
-      <c r="E143" s="97"/>
+      <c r="E143" s="93"/>
       <c r="F143" s="44"/>
       <c r="G143" s="35"/>
       <c r="H143" s="35"/>
@@ -4858,10 +4850,10 @@
       <c r="K143" s="39"/>
     </row>
     <row r="144" spans="2:11" ht="25.5" customHeight="1" thickBot="1">
-      <c r="B144" s="93"/>
-      <c r="C144" s="96"/>
+      <c r="B144" s="99"/>
+      <c r="C144" s="92"/>
       <c r="D144" s="43"/>
-      <c r="E144" s="103"/>
+      <c r="E144" s="94"/>
       <c r="F144" s="44"/>
       <c r="G144" s="35"/>
       <c r="H144" s="35"/>
@@ -4870,10 +4862,10 @@
       <c r="K144" s="39"/>
     </row>
     <row r="145" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B145" s="94"/>
-      <c r="C145" s="97"/>
+      <c r="B145" s="100"/>
+      <c r="C145" s="93"/>
       <c r="D145" s="43"/>
-      <c r="E145" s="97"/>
+      <c r="E145" s="93"/>
       <c r="F145" s="44"/>
       <c r="G145" s="35"/>
       <c r="H145" s="35"/>
@@ -4882,10 +4874,10 @@
       <c r="K145" s="39"/>
     </row>
     <row r="146" spans="2:11" ht="25.5" customHeight="1" thickBot="1">
-      <c r="B146" s="93"/>
-      <c r="C146" s="96"/>
+      <c r="B146" s="99"/>
+      <c r="C146" s="92"/>
       <c r="D146" s="43"/>
-      <c r="E146" s="103"/>
+      <c r="E146" s="94"/>
       <c r="F146" s="44"/>
       <c r="G146" s="35"/>
       <c r="H146" s="35"/>
@@ -4894,10 +4886,10 @@
       <c r="K146" s="39"/>
     </row>
     <row r="147" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B147" s="94"/>
-      <c r="C147" s="97"/>
+      <c r="B147" s="100"/>
+      <c r="C147" s="93"/>
       <c r="D147" s="43"/>
-      <c r="E147" s="97"/>
+      <c r="E147" s="93"/>
       <c r="F147" s="44"/>
       <c r="G147" s="35"/>
       <c r="H147" s="35"/>
@@ -4906,10 +4898,10 @@
       <c r="K147" s="39"/>
     </row>
     <row r="148" spans="2:11" ht="25.5" customHeight="1" thickBot="1">
-      <c r="B148" s="93"/>
-      <c r="C148" s="96"/>
+      <c r="B148" s="99"/>
+      <c r="C148" s="92"/>
       <c r="D148" s="43"/>
-      <c r="E148" s="103"/>
+      <c r="E148" s="94"/>
       <c r="F148" s="44"/>
       <c r="G148" s="35"/>
       <c r="H148" s="35"/>
@@ -4918,10 +4910,10 @@
       <c r="K148" s="39"/>
     </row>
     <row r="149" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B149" s="94"/>
-      <c r="C149" s="97"/>
+      <c r="B149" s="100"/>
+      <c r="C149" s="93"/>
       <c r="D149" s="43"/>
-      <c r="E149" s="97"/>
+      <c r="E149" s="93"/>
       <c r="F149" s="44"/>
       <c r="G149" s="35"/>
       <c r="H149" s="35"/>
@@ -4930,10 +4922,10 @@
       <c r="K149" s="39"/>
     </row>
     <row r="150" spans="2:11" ht="25.5" customHeight="1" thickBot="1">
-      <c r="B150" s="93"/>
-      <c r="C150" s="96"/>
+      <c r="B150" s="99"/>
+      <c r="C150" s="92"/>
       <c r="D150" s="43"/>
-      <c r="E150" s="103"/>
+      <c r="E150" s="94"/>
       <c r="F150" s="44"/>
       <c r="G150" s="35"/>
       <c r="H150" s="35"/>
@@ -4942,10 +4934,10 @@
       <c r="K150" s="39"/>
     </row>
     <row r="151" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B151" s="94"/>
-      <c r="C151" s="97"/>
+      <c r="B151" s="100"/>
+      <c r="C151" s="93"/>
       <c r="D151" s="43"/>
-      <c r="E151" s="97"/>
+      <c r="E151" s="93"/>
       <c r="F151" s="44"/>
       <c r="G151" s="35"/>
       <c r="H151" s="35"/>
@@ -4954,8 +4946,8 @@
       <c r="K151" s="39"/>
     </row>
     <row r="152" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B152" s="93"/>
-      <c r="C152" s="96"/>
+      <c r="B152" s="99"/>
+      <c r="C152" s="92"/>
       <c r="D152" s="43"/>
       <c r="E152" s="41"/>
       <c r="F152" s="44"/>
@@ -4966,8 +4958,8 @@
       <c r="K152" s="39"/>
     </row>
     <row r="153" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B153" s="94"/>
-      <c r="C153" s="97"/>
+      <c r="B153" s="100"/>
+      <c r="C153" s="93"/>
       <c r="D153" s="43"/>
       <c r="E153" s="41"/>
       <c r="F153" s="44"/>
@@ -4978,8 +4970,8 @@
       <c r="K153" s="39"/>
     </row>
     <row r="154" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B154" s="93"/>
-      <c r="C154" s="96"/>
+      <c r="B154" s="99"/>
+      <c r="C154" s="92"/>
       <c r="D154" s="43"/>
       <c r="E154" s="41"/>
       <c r="F154" s="44"/>
@@ -4990,8 +4982,8 @@
       <c r="K154" s="39"/>
     </row>
     <row r="155" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B155" s="94"/>
-      <c r="C155" s="97"/>
+      <c r="B155" s="100"/>
+      <c r="C155" s="93"/>
       <c r="D155" s="43"/>
       <c r="E155" s="41"/>
       <c r="F155" s="44"/>
@@ -5002,8 +4994,8 @@
       <c r="K155" s="39"/>
     </row>
     <row r="156" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B156" s="93"/>
-      <c r="C156" s="96"/>
+      <c r="B156" s="99"/>
+      <c r="C156" s="92"/>
       <c r="D156" s="43"/>
       <c r="E156" s="41"/>
       <c r="F156" s="44"/>
@@ -5014,8 +5006,8 @@
       <c r="K156" s="39"/>
     </row>
     <row r="157" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B157" s="94"/>
-      <c r="C157" s="97"/>
+      <c r="B157" s="100"/>
+      <c r="C157" s="93"/>
       <c r="D157" s="43"/>
       <c r="E157" s="41"/>
       <c r="F157" s="44"/>
@@ -5026,8 +5018,8 @@
       <c r="K157" s="39"/>
     </row>
     <row r="158" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B158" s="93"/>
-      <c r="C158" s="96"/>
+      <c r="B158" s="99"/>
+      <c r="C158" s="92"/>
       <c r="D158" s="43"/>
       <c r="E158" s="41"/>
       <c r="F158" s="44"/>
@@ -5038,8 +5030,8 @@
       <c r="K158" s="39"/>
     </row>
     <row r="159" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B159" s="94"/>
-      <c r="C159" s="97"/>
+      <c r="B159" s="100"/>
+      <c r="C159" s="93"/>
       <c r="D159" s="43"/>
       <c r="E159" s="41"/>
       <c r="F159" s="44"/>
@@ -5050,8 +5042,8 @@
       <c r="K159" s="39"/>
     </row>
     <row r="160" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B160" s="93"/>
-      <c r="C160" s="96"/>
+      <c r="B160" s="99"/>
+      <c r="C160" s="92"/>
       <c r="D160" s="43"/>
       <c r="E160" s="41"/>
       <c r="F160" s="44"/>
@@ -5062,8 +5054,8 @@
       <c r="K160" s="39"/>
     </row>
     <row r="161" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B161" s="94"/>
-      <c r="C161" s="97"/>
+      <c r="B161" s="100"/>
+      <c r="C161" s="93"/>
       <c r="D161" s="43"/>
       <c r="E161" s="41"/>
       <c r="F161" s="44"/>
@@ -5074,8 +5066,8 @@
       <c r="K161" s="39"/>
     </row>
     <row r="162" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B162" s="93"/>
-      <c r="C162" s="96"/>
+      <c r="B162" s="99"/>
+      <c r="C162" s="92"/>
       <c r="D162" s="43"/>
       <c r="E162" s="41"/>
       <c r="F162" s="44"/>
@@ -5086,8 +5078,8 @@
       <c r="K162" s="39"/>
     </row>
     <row r="163" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B163" s="94"/>
-      <c r="C163" s="97"/>
+      <c r="B163" s="100"/>
+      <c r="C163" s="93"/>
       <c r="D163" s="43"/>
       <c r="E163" s="41"/>
       <c r="F163" s="44"/>
@@ -5098,8 +5090,8 @@
       <c r="K163" s="39"/>
     </row>
     <row r="164" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B164" s="93"/>
-      <c r="C164" s="96"/>
+      <c r="B164" s="99"/>
+      <c r="C164" s="92"/>
       <c r="D164" s="43"/>
       <c r="E164" s="41"/>
       <c r="F164" s="44"/>
@@ -5110,8 +5102,8 @@
       <c r="K164" s="39"/>
     </row>
     <row r="165" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B165" s="94"/>
-      <c r="C165" s="97"/>
+      <c r="B165" s="100"/>
+      <c r="C165" s="93"/>
       <c r="D165" s="43"/>
       <c r="E165" s="41"/>
       <c r="F165" s="44"/>
@@ -5122,8 +5114,8 @@
       <c r="K165" s="39"/>
     </row>
     <row r="166" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B166" s="93"/>
-      <c r="C166" s="96"/>
+      <c r="B166" s="99"/>
+      <c r="C166" s="92"/>
       <c r="D166" s="43"/>
       <c r="E166" s="41"/>
       <c r="F166" s="44"/>
@@ -5134,8 +5126,8 @@
       <c r="K166" s="39"/>
     </row>
     <row r="167" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B167" s="94"/>
-      <c r="C167" s="97"/>
+      <c r="B167" s="100"/>
+      <c r="C167" s="93"/>
       <c r="D167" s="43"/>
       <c r="E167" s="41"/>
       <c r="F167" s="44"/>
@@ -5146,8 +5138,8 @@
       <c r="K167" s="39"/>
     </row>
     <row r="168" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B168" s="93"/>
-      <c r="C168" s="96"/>
+      <c r="B168" s="99"/>
+      <c r="C168" s="92"/>
       <c r="D168" s="43"/>
       <c r="E168" s="41"/>
       <c r="F168" s="44"/>
@@ -5158,8 +5150,8 @@
       <c r="K168" s="39"/>
     </row>
     <row r="169" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B169" s="94"/>
-      <c r="C169" s="97"/>
+      <c r="B169" s="100"/>
+      <c r="C169" s="93"/>
       <c r="D169" s="43"/>
       <c r="E169" s="41"/>
       <c r="F169" s="44"/>
@@ -5170,8 +5162,8 @@
       <c r="K169" s="39"/>
     </row>
     <row r="170" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B170" s="93"/>
-      <c r="C170" s="96"/>
+      <c r="B170" s="99"/>
+      <c r="C170" s="92"/>
       <c r="D170" s="43"/>
       <c r="E170" s="41"/>
       <c r="F170" s="44"/>
@@ -5182,8 +5174,8 @@
       <c r="K170" s="39"/>
     </row>
     <row r="171" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B171" s="94"/>
-      <c r="C171" s="97"/>
+      <c r="B171" s="100"/>
+      <c r="C171" s="93"/>
       <c r="D171" s="43"/>
       <c r="E171" s="41"/>
       <c r="F171" s="44"/>
@@ -5194,8 +5186,8 @@
       <c r="K171" s="39"/>
     </row>
     <row r="172" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B172" s="93"/>
-      <c r="C172" s="96"/>
+      <c r="B172" s="99"/>
+      <c r="C172" s="92"/>
       <c r="D172" s="43"/>
       <c r="E172" s="41"/>
       <c r="F172" s="44"/>
@@ -5206,8 +5198,8 @@
       <c r="K172" s="39"/>
     </row>
     <row r="173" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B173" s="94"/>
-      <c r="C173" s="97"/>
+      <c r="B173" s="100"/>
+      <c r="C173" s="93"/>
       <c r="D173" s="43"/>
       <c r="E173" s="41"/>
       <c r="F173" s="44"/>
@@ -5218,8 +5210,8 @@
       <c r="K173" s="39"/>
     </row>
     <row r="174" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B174" s="93"/>
-      <c r="C174" s="96"/>
+      <c r="B174" s="99"/>
+      <c r="C174" s="92"/>
       <c r="D174" s="43"/>
       <c r="E174" s="41"/>
       <c r="F174" s="44"/>
@@ -5230,8 +5222,8 @@
       <c r="K174" s="39"/>
     </row>
     <row r="175" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B175" s="94"/>
-      <c r="C175" s="97"/>
+      <c r="B175" s="100"/>
+      <c r="C175" s="93"/>
       <c r="D175" s="43"/>
       <c r="E175" s="41"/>
       <c r="F175" s="44"/>
@@ -5242,8 +5234,8 @@
       <c r="K175" s="39"/>
     </row>
     <row r="176" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B176" s="93"/>
-      <c r="C176" s="96"/>
+      <c r="B176" s="99"/>
+      <c r="C176" s="92"/>
       <c r="D176" s="43"/>
       <c r="E176" s="41"/>
       <c r="F176" s="44"/>
@@ -5254,8 +5246,8 @@
       <c r="K176" s="39"/>
     </row>
     <row r="177" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B177" s="94"/>
-      <c r="C177" s="97"/>
+      <c r="B177" s="100"/>
+      <c r="C177" s="93"/>
       <c r="D177" s="43"/>
       <c r="E177" s="41"/>
       <c r="F177" s="44"/>
@@ -5266,8 +5258,8 @@
       <c r="K177" s="39"/>
     </row>
     <row r="178" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B178" s="93"/>
-      <c r="C178" s="96"/>
+      <c r="B178" s="99"/>
+      <c r="C178" s="92"/>
       <c r="D178" s="43"/>
       <c r="E178" s="41"/>
       <c r="F178" s="44"/>
@@ -5278,8 +5270,8 @@
       <c r="K178" s="39"/>
     </row>
     <row r="179" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B179" s="94"/>
-      <c r="C179" s="97"/>
+      <c r="B179" s="100"/>
+      <c r="C179" s="93"/>
       <c r="D179" s="43"/>
       <c r="E179" s="41"/>
       <c r="F179" s="44"/>
@@ -5290,8 +5282,8 @@
       <c r="K179" s="39"/>
     </row>
     <row r="180" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B180" s="93"/>
-      <c r="C180" s="96"/>
+      <c r="B180" s="99"/>
+      <c r="C180" s="92"/>
       <c r="D180" s="43"/>
       <c r="E180" s="41"/>
       <c r="F180" s="44"/>
@@ -5302,8 +5294,8 @@
       <c r="K180" s="39"/>
     </row>
     <row r="181" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B181" s="94"/>
-      <c r="C181" s="97"/>
+      <c r="B181" s="100"/>
+      <c r="C181" s="93"/>
       <c r="D181" s="43"/>
       <c r="E181" s="41"/>
       <c r="F181" s="44"/>
@@ -5314,8 +5306,8 @@
       <c r="K181" s="39"/>
     </row>
     <row r="182" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B182" s="93"/>
-      <c r="C182" s="96"/>
+      <c r="B182" s="99"/>
+      <c r="C182" s="92"/>
       <c r="D182" s="43"/>
       <c r="E182" s="41"/>
       <c r="F182" s="44"/>
@@ -5326,8 +5318,8 @@
       <c r="K182" s="39"/>
     </row>
     <row r="183" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B183" s="94"/>
-      <c r="C183" s="97"/>
+      <c r="B183" s="100"/>
+      <c r="C183" s="93"/>
       <c r="D183" s="43"/>
       <c r="E183" s="41"/>
       <c r="F183" s="44"/>
@@ -5338,8 +5330,8 @@
       <c r="K183" s="39"/>
     </row>
     <row r="184" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B184" s="93"/>
-      <c r="C184" s="96"/>
+      <c r="B184" s="99"/>
+      <c r="C184" s="92"/>
       <c r="D184" s="43"/>
       <c r="E184" s="41"/>
       <c r="F184" s="44"/>
@@ -5350,8 +5342,8 @@
       <c r="K184" s="39"/>
     </row>
     <row r="185" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B185" s="94"/>
-      <c r="C185" s="97"/>
+      <c r="B185" s="100"/>
+      <c r="C185" s="93"/>
       <c r="D185" s="43"/>
       <c r="E185" s="41"/>
       <c r="F185" s="44"/>
@@ -5362,8 +5354,8 @@
       <c r="K185" s="39"/>
     </row>
     <row r="186" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B186" s="93"/>
-      <c r="C186" s="96"/>
+      <c r="B186" s="99"/>
+      <c r="C186" s="92"/>
       <c r="D186" s="43"/>
       <c r="E186" s="41"/>
       <c r="F186" s="44"/>
@@ -5374,8 +5366,8 @@
       <c r="K186" s="39"/>
     </row>
     <row r="187" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B187" s="94"/>
-      <c r="C187" s="97"/>
+      <c r="B187" s="100"/>
+      <c r="C187" s="93"/>
       <c r="D187" s="43"/>
       <c r="E187" s="41"/>
       <c r="F187" s="44"/>
@@ -5386,8 +5378,8 @@
       <c r="K187" s="39"/>
     </row>
     <row r="188" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B188" s="93"/>
-      <c r="C188" s="96"/>
+      <c r="B188" s="99"/>
+      <c r="C188" s="92"/>
       <c r="D188" s="43"/>
       <c r="E188" s="41"/>
       <c r="F188" s="44"/>
@@ -5398,8 +5390,8 @@
       <c r="K188" s="39"/>
     </row>
     <row r="189" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B189" s="94"/>
-      <c r="C189" s="97"/>
+      <c r="B189" s="100"/>
+      <c r="C189" s="93"/>
       <c r="D189" s="43"/>
       <c r="E189" s="41"/>
       <c r="F189" s="44"/>
@@ -5410,8 +5402,8 @@
       <c r="K189" s="39"/>
     </row>
     <row r="190" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B190" s="93"/>
-      <c r="C190" s="96"/>
+      <c r="B190" s="99"/>
+      <c r="C190" s="92"/>
       <c r="D190" s="43"/>
       <c r="E190" s="41"/>
       <c r="F190" s="44"/>
@@ -5422,8 +5414,8 @@
       <c r="K190" s="39"/>
     </row>
     <row r="191" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B191" s="94"/>
-      <c r="C191" s="97"/>
+      <c r="B191" s="100"/>
+      <c r="C191" s="93"/>
       <c r="D191" s="43"/>
       <c r="E191" s="41"/>
       <c r="F191" s="44"/>
@@ -5434,8 +5426,8 @@
       <c r="K191" s="39"/>
     </row>
     <row r="192" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B192" s="93"/>
-      <c r="C192" s="96"/>
+      <c r="B192" s="99"/>
+      <c r="C192" s="92"/>
       <c r="D192" s="43"/>
       <c r="E192" s="41"/>
       <c r="F192" s="44"/>
@@ -5446,8 +5438,8 @@
       <c r="K192" s="39"/>
     </row>
     <row r="193" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B193" s="94"/>
-      <c r="C193" s="97"/>
+      <c r="B193" s="100"/>
+      <c r="C193" s="93"/>
       <c r="D193" s="43"/>
       <c r="E193" s="41"/>
       <c r="F193" s="44"/>
@@ -5458,8 +5450,8 @@
       <c r="K193" s="39"/>
     </row>
     <row r="194" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B194" s="93"/>
-      <c r="C194" s="96"/>
+      <c r="B194" s="99"/>
+      <c r="C194" s="92"/>
       <c r="D194" s="43"/>
       <c r="E194" s="41"/>
       <c r="F194" s="44"/>
@@ -5470,8 +5462,8 @@
       <c r="K194" s="39"/>
     </row>
     <row r="195" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B195" s="94"/>
-      <c r="C195" s="97"/>
+      <c r="B195" s="100"/>
+      <c r="C195" s="93"/>
       <c r="D195" s="43"/>
       <c r="E195" s="41"/>
       <c r="F195" s="44"/>
@@ -5482,8 +5474,8 @@
       <c r="K195" s="39"/>
     </row>
     <row r="196" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B196" s="93"/>
-      <c r="C196" s="96"/>
+      <c r="B196" s="99"/>
+      <c r="C196" s="92"/>
       <c r="D196" s="43"/>
       <c r="E196" s="41"/>
       <c r="F196" s="44"/>
@@ -5494,8 +5486,8 @@
       <c r="K196" s="39"/>
     </row>
     <row r="197" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B197" s="94"/>
-      <c r="C197" s="97"/>
+      <c r="B197" s="100"/>
+      <c r="C197" s="93"/>
       <c r="D197" s="43"/>
       <c r="E197" s="41"/>
       <c r="F197" s="44"/>
@@ -5506,8 +5498,8 @@
       <c r="K197" s="39"/>
     </row>
     <row r="198" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B198" s="93"/>
-      <c r="C198" s="96"/>
+      <c r="B198" s="99"/>
+      <c r="C198" s="92"/>
       <c r="D198" s="43"/>
       <c r="E198" s="41"/>
       <c r="F198" s="44"/>
@@ -5518,8 +5510,8 @@
       <c r="K198" s="39"/>
     </row>
     <row r="199" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B199" s="94"/>
-      <c r="C199" s="97"/>
+      <c r="B199" s="100"/>
+      <c r="C199" s="93"/>
       <c r="D199" s="43"/>
       <c r="E199" s="41"/>
       <c r="F199" s="44"/>
@@ -5530,8 +5522,8 @@
       <c r="K199" s="39"/>
     </row>
     <row r="200" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B200" s="93"/>
-      <c r="C200" s="96"/>
+      <c r="B200" s="99"/>
+      <c r="C200" s="92"/>
       <c r="D200" s="43"/>
       <c r="E200" s="41"/>
       <c r="F200" s="44"/>
@@ -5542,8 +5534,8 @@
       <c r="K200" s="39"/>
     </row>
     <row r="201" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B201" s="94"/>
-      <c r="C201" s="97"/>
+      <c r="B201" s="100"/>
+      <c r="C201" s="93"/>
       <c r="D201" s="43"/>
       <c r="E201" s="41"/>
       <c r="F201" s="44"/>
@@ -5554,8 +5546,8 @@
       <c r="K201" s="39"/>
     </row>
     <row r="202" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B202" s="93"/>
-      <c r="C202" s="96"/>
+      <c r="B202" s="99"/>
+      <c r="C202" s="92"/>
       <c r="D202" s="43"/>
       <c r="E202" s="41"/>
       <c r="F202" s="44"/>
@@ -5566,8 +5558,8 @@
       <c r="K202" s="39"/>
     </row>
     <row r="203" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B203" s="94"/>
-      <c r="C203" s="97"/>
+      <c r="B203" s="100"/>
+      <c r="C203" s="93"/>
       <c r="D203" s="43"/>
       <c r="E203" s="41"/>
       <c r="F203" s="44"/>
@@ -5578,8 +5570,8 @@
       <c r="K203" s="39"/>
     </row>
     <row r="204" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B204" s="93"/>
-      <c r="C204" s="96"/>
+      <c r="B204" s="99"/>
+      <c r="C204" s="92"/>
       <c r="D204" s="43"/>
       <c r="E204" s="41"/>
       <c r="F204" s="44"/>
@@ -5590,8 +5582,8 @@
       <c r="K204" s="39"/>
     </row>
     <row r="205" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B205" s="94"/>
-      <c r="C205" s="97"/>
+      <c r="B205" s="100"/>
+      <c r="C205" s="93"/>
       <c r="D205" s="43"/>
       <c r="E205" s="41"/>
       <c r="F205" s="44"/>
@@ -5602,8 +5594,8 @@
       <c r="K205" s="39"/>
     </row>
     <row r="206" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B206" s="93"/>
-      <c r="C206" s="96"/>
+      <c r="B206" s="99"/>
+      <c r="C206" s="92"/>
       <c r="D206" s="43"/>
       <c r="E206" s="41"/>
       <c r="F206" s="44"/>
@@ -5614,8 +5606,8 @@
       <c r="K206" s="39"/>
     </row>
     <row r="207" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B207" s="94"/>
-      <c r="C207" s="97"/>
+      <c r="B207" s="100"/>
+      <c r="C207" s="93"/>
       <c r="D207" s="43"/>
       <c r="E207" s="41"/>
       <c r="F207" s="44"/>
@@ -5626,8 +5618,8 @@
       <c r="K207" s="39"/>
     </row>
     <row r="208" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B208" s="93"/>
-      <c r="C208" s="96"/>
+      <c r="B208" s="99"/>
+      <c r="C208" s="92"/>
       <c r="D208" s="43"/>
       <c r="E208" s="41"/>
       <c r="F208" s="44"/>
@@ -5638,8 +5630,8 @@
       <c r="K208" s="39"/>
     </row>
     <row r="209" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B209" s="94"/>
-      <c r="C209" s="97"/>
+      <c r="B209" s="100"/>
+      <c r="C209" s="93"/>
       <c r="D209" s="43"/>
       <c r="E209" s="41"/>
       <c r="F209" s="44"/>
@@ -5650,8 +5642,8 @@
       <c r="K209" s="39"/>
     </row>
     <row r="210" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B210" s="93"/>
-      <c r="C210" s="96"/>
+      <c r="B210" s="99"/>
+      <c r="C210" s="92"/>
       <c r="D210" s="43"/>
       <c r="E210" s="41"/>
       <c r="F210" s="44"/>
@@ -5662,8 +5654,8 @@
       <c r="K210" s="39"/>
     </row>
     <row r="211" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B211" s="94"/>
-      <c r="C211" s="97"/>
+      <c r="B211" s="100"/>
+      <c r="C211" s="93"/>
       <c r="D211" s="43"/>
       <c r="E211" s="41"/>
       <c r="F211" s="44"/>
@@ -5674,8 +5666,8 @@
       <c r="K211" s="39"/>
     </row>
     <row r="212" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B212" s="93"/>
-      <c r="C212" s="96"/>
+      <c r="B212" s="99"/>
+      <c r="C212" s="92"/>
       <c r="D212" s="43"/>
       <c r="E212" s="41"/>
       <c r="F212" s="44"/>
@@ -5686,8 +5678,8 @@
       <c r="K212" s="39"/>
     </row>
     <row r="213" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B213" s="94"/>
-      <c r="C213" s="97"/>
+      <c r="B213" s="100"/>
+      <c r="C213" s="93"/>
       <c r="D213" s="43"/>
       <c r="E213" s="41"/>
       <c r="F213" s="44"/>
@@ -5698,8 +5690,8 @@
       <c r="K213" s="39"/>
     </row>
     <row r="214" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B214" s="93"/>
-      <c r="C214" s="96"/>
+      <c r="B214" s="99"/>
+      <c r="C214" s="92"/>
       <c r="D214" s="43"/>
       <c r="E214" s="41"/>
       <c r="F214" s="44"/>
@@ -5710,8 +5702,8 @@
       <c r="K214" s="39"/>
     </row>
     <row r="215" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B215" s="94"/>
-      <c r="C215" s="97"/>
+      <c r="B215" s="100"/>
+      <c r="C215" s="93"/>
       <c r="D215" s="43"/>
       <c r="E215" s="41"/>
       <c r="F215" s="44"/>
@@ -5722,8 +5714,8 @@
       <c r="K215" s="39"/>
     </row>
     <row r="216" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B216" s="93"/>
-      <c r="C216" s="96"/>
+      <c r="B216" s="99"/>
+      <c r="C216" s="92"/>
       <c r="D216" s="43"/>
       <c r="E216" s="41"/>
       <c r="F216" s="44"/>
@@ -5734,8 +5726,8 @@
       <c r="K216" s="39"/>
     </row>
     <row r="217" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B217" s="94"/>
-      <c r="C217" s="97"/>
+      <c r="B217" s="100"/>
+      <c r="C217" s="93"/>
       <c r="D217" s="43"/>
       <c r="E217" s="41"/>
       <c r="F217" s="44"/>
@@ -5746,8 +5738,8 @@
       <c r="K217" s="39"/>
     </row>
     <row r="218" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B218" s="93"/>
-      <c r="C218" s="96"/>
+      <c r="B218" s="99"/>
+      <c r="C218" s="92"/>
       <c r="D218" s="43"/>
       <c r="E218" s="41"/>
       <c r="F218" s="44"/>
@@ -5758,8 +5750,8 @@
       <c r="K218" s="39"/>
     </row>
     <row r="219" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B219" s="94"/>
-      <c r="C219" s="97"/>
+      <c r="B219" s="100"/>
+      <c r="C219" s="93"/>
       <c r="D219" s="43"/>
       <c r="E219" s="41"/>
       <c r="F219" s="44"/>
@@ -5770,8 +5762,8 @@
       <c r="K219" s="39"/>
     </row>
     <row r="220" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B220" s="93"/>
-      <c r="C220" s="96"/>
+      <c r="B220" s="99"/>
+      <c r="C220" s="92"/>
       <c r="D220" s="43"/>
       <c r="E220" s="41"/>
       <c r="F220" s="44"/>
@@ -5782,8 +5774,8 @@
       <c r="K220" s="39"/>
     </row>
     <row r="221" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B221" s="94"/>
-      <c r="C221" s="97"/>
+      <c r="B221" s="100"/>
+      <c r="C221" s="93"/>
       <c r="D221" s="43"/>
       <c r="E221" s="41"/>
       <c r="F221" s="44"/>
@@ -5794,8 +5786,8 @@
       <c r="K221" s="39"/>
     </row>
     <row r="222" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B222" s="93"/>
-      <c r="C222" s="96"/>
+      <c r="B222" s="99"/>
+      <c r="C222" s="92"/>
       <c r="D222" s="43"/>
       <c r="E222" s="41"/>
       <c r="F222" s="44"/>
@@ -5806,8 +5798,8 @@
       <c r="K222" s="39"/>
     </row>
     <row r="223" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B223" s="94"/>
-      <c r="C223" s="97"/>
+      <c r="B223" s="100"/>
+      <c r="C223" s="93"/>
       <c r="D223" s="43"/>
       <c r="E223" s="41"/>
       <c r="F223" s="44"/>
@@ -5818,8 +5810,8 @@
       <c r="K223" s="39"/>
     </row>
     <row r="224" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B224" s="93"/>
-      <c r="C224" s="96"/>
+      <c r="B224" s="99"/>
+      <c r="C224" s="92"/>
       <c r="D224" s="43"/>
       <c r="E224" s="41"/>
       <c r="F224" s="44"/>
@@ -5830,8 +5822,8 @@
       <c r="K224" s="39"/>
     </row>
     <row r="225" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B225" s="94"/>
-      <c r="C225" s="97"/>
+      <c r="B225" s="100"/>
+      <c r="C225" s="93"/>
       <c r="D225" s="43"/>
       <c r="E225" s="41"/>
       <c r="F225" s="44"/>
@@ -5842,8 +5834,8 @@
       <c r="K225" s="39"/>
     </row>
     <row r="226" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B226" s="93"/>
-      <c r="C226" s="96"/>
+      <c r="B226" s="99"/>
+      <c r="C226" s="92"/>
       <c r="D226" s="43"/>
       <c r="E226" s="41"/>
       <c r="F226" s="44"/>
@@ -5854,8 +5846,8 @@
       <c r="K226" s="39"/>
     </row>
     <row r="227" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B227" s="94"/>
-      <c r="C227" s="97"/>
+      <c r="B227" s="100"/>
+      <c r="C227" s="93"/>
       <c r="D227" s="43"/>
       <c r="E227" s="41"/>
       <c r="F227" s="44"/>
@@ -5866,8 +5858,8 @@
       <c r="K227" s="39"/>
     </row>
     <row r="228" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B228" s="93"/>
-      <c r="C228" s="96"/>
+      <c r="B228" s="99"/>
+      <c r="C228" s="92"/>
       <c r="D228" s="43"/>
       <c r="E228" s="41"/>
       <c r="F228" s="44"/>
@@ -5878,8 +5870,8 @@
       <c r="K228" s="39"/>
     </row>
     <row r="229" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B229" s="94"/>
-      <c r="C229" s="97"/>
+      <c r="B229" s="100"/>
+      <c r="C229" s="93"/>
       <c r="D229" s="43"/>
       <c r="E229" s="41"/>
       <c r="F229" s="44"/>
@@ -5890,8 +5882,8 @@
       <c r="K229" s="39"/>
     </row>
     <row r="230" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B230" s="93"/>
-      <c r="C230" s="96"/>
+      <c r="B230" s="99"/>
+      <c r="C230" s="92"/>
       <c r="D230" s="43"/>
       <c r="E230" s="41"/>
       <c r="F230" s="44"/>
@@ -5902,8 +5894,8 @@
       <c r="K230" s="39"/>
     </row>
     <row r="231" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B231" s="94"/>
-      <c r="C231" s="97"/>
+      <c r="B231" s="100"/>
+      <c r="C231" s="93"/>
       <c r="D231" s="43"/>
       <c r="E231" s="41"/>
       <c r="F231" s="44"/>
@@ -5914,8 +5906,8 @@
       <c r="K231" s="39"/>
     </row>
     <row r="232" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B232" s="93"/>
-      <c r="C232" s="96"/>
+      <c r="B232" s="99"/>
+      <c r="C232" s="92"/>
       <c r="D232" s="43"/>
       <c r="E232" s="41"/>
       <c r="F232" s="44"/>
@@ -5926,8 +5918,8 @@
       <c r="K232" s="39"/>
     </row>
     <row r="233" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B233" s="94"/>
-      <c r="C233" s="97"/>
+      <c r="B233" s="100"/>
+      <c r="C233" s="93"/>
       <c r="D233" s="43"/>
       <c r="E233" s="41"/>
       <c r="F233" s="44"/>
@@ -5938,8 +5930,8 @@
       <c r="K233" s="39"/>
     </row>
     <row r="234" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B234" s="93"/>
-      <c r="C234" s="96"/>
+      <c r="B234" s="99"/>
+      <c r="C234" s="92"/>
       <c r="D234" s="43"/>
       <c r="E234" s="41"/>
       <c r="F234" s="44"/>
@@ -5950,8 +5942,8 @@
       <c r="K234" s="39"/>
     </row>
     <row r="235" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B235" s="94"/>
-      <c r="C235" s="97"/>
+      <c r="B235" s="100"/>
+      <c r="C235" s="93"/>
       <c r="D235" s="43"/>
       <c r="E235" s="41"/>
       <c r="F235" s="44"/>
@@ -5962,8 +5954,8 @@
       <c r="K235" s="39"/>
     </row>
     <row r="236" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B236" s="93"/>
-      <c r="C236" s="96"/>
+      <c r="B236" s="99"/>
+      <c r="C236" s="92"/>
       <c r="D236" s="43"/>
       <c r="E236" s="41"/>
       <c r="F236" s="44"/>
@@ -5974,8 +5966,8 @@
       <c r="K236" s="39"/>
     </row>
     <row r="237" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B237" s="94"/>
-      <c r="C237" s="97"/>
+      <c r="B237" s="100"/>
+      <c r="C237" s="93"/>
       <c r="D237" s="43"/>
       <c r="E237" s="41"/>
       <c r="F237" s="44"/>
@@ -5986,8 +5978,8 @@
       <c r="K237" s="39"/>
     </row>
     <row r="238" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B238" s="93"/>
-      <c r="C238" s="96"/>
+      <c r="B238" s="99"/>
+      <c r="C238" s="92"/>
       <c r="D238" s="43"/>
       <c r="E238" s="41"/>
       <c r="F238" s="44"/>
@@ -5998,8 +5990,8 @@
       <c r="K238" s="39"/>
     </row>
     <row r="239" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B239" s="94"/>
-      <c r="C239" s="97"/>
+      <c r="B239" s="100"/>
+      <c r="C239" s="93"/>
       <c r="D239" s="43"/>
       <c r="E239" s="41"/>
       <c r="F239" s="44"/>
@@ -6010,8 +6002,8 @@
       <c r="K239" s="39"/>
     </row>
     <row r="240" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B240" s="93"/>
-      <c r="C240" s="96"/>
+      <c r="B240" s="99"/>
+      <c r="C240" s="92"/>
       <c r="D240" s="43"/>
       <c r="E240" s="41"/>
       <c r="F240" s="44"/>
@@ -6022,8 +6014,8 @@
       <c r="K240" s="39"/>
     </row>
     <row r="241" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B241" s="94"/>
-      <c r="C241" s="97"/>
+      <c r="B241" s="100"/>
+      <c r="C241" s="93"/>
       <c r="D241" s="43"/>
       <c r="E241" s="41"/>
       <c r="F241" s="44"/>
@@ -6034,8 +6026,8 @@
       <c r="K241" s="39"/>
     </row>
     <row r="242" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B242" s="93"/>
-      <c r="C242" s="96"/>
+      <c r="B242" s="99"/>
+      <c r="C242" s="92"/>
       <c r="D242" s="43"/>
       <c r="E242" s="41"/>
       <c r="F242" s="44"/>
@@ -6046,8 +6038,8 @@
       <c r="K242" s="39"/>
     </row>
     <row r="243" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B243" s="94"/>
-      <c r="C243" s="97"/>
+      <c r="B243" s="100"/>
+      <c r="C243" s="93"/>
       <c r="D243" s="43"/>
       <c r="E243" s="41"/>
       <c r="F243" s="44"/>
@@ -6058,8 +6050,8 @@
       <c r="K243" s="39"/>
     </row>
     <row r="244" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B244" s="93"/>
-      <c r="C244" s="96"/>
+      <c r="B244" s="99"/>
+      <c r="C244" s="92"/>
       <c r="D244" s="43"/>
       <c r="E244" s="41"/>
       <c r="F244" s="44"/>
@@ -6070,8 +6062,8 @@
       <c r="K244" s="39"/>
     </row>
     <row r="245" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B245" s="94"/>
-      <c r="C245" s="97"/>
+      <c r="B245" s="100"/>
+      <c r="C245" s="93"/>
       <c r="D245" s="43"/>
       <c r="E245" s="41"/>
       <c r="F245" s="44"/>
@@ -6082,8 +6074,8 @@
       <c r="K245" s="39"/>
     </row>
     <row r="246" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B246" s="93"/>
-      <c r="C246" s="96"/>
+      <c r="B246" s="99"/>
+      <c r="C246" s="92"/>
       <c r="D246" s="43"/>
       <c r="E246" s="41"/>
       <c r="F246" s="44"/>
@@ -6094,8 +6086,8 @@
       <c r="K246" s="39"/>
     </row>
     <row r="247" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B247" s="94"/>
-      <c r="C247" s="97"/>
+      <c r="B247" s="100"/>
+      <c r="C247" s="93"/>
       <c r="D247" s="43"/>
       <c r="E247" s="41"/>
       <c r="F247" s="44"/>
@@ -6106,8 +6098,8 @@
       <c r="K247" s="39"/>
     </row>
     <row r="248" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B248" s="93"/>
-      <c r="C248" s="96"/>
+      <c r="B248" s="99"/>
+      <c r="C248" s="92"/>
       <c r="D248" s="43"/>
       <c r="E248" s="41"/>
       <c r="F248" s="44"/>
@@ -6118,8 +6110,8 @@
       <c r="K248" s="39"/>
     </row>
     <row r="249" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B249" s="94"/>
-      <c r="C249" s="97"/>
+      <c r="B249" s="100"/>
+      <c r="C249" s="93"/>
       <c r="D249" s="43"/>
       <c r="E249" s="41"/>
       <c r="F249" s="44"/>
@@ -6130,8 +6122,8 @@
       <c r="K249" s="39"/>
     </row>
     <row r="250" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B250" s="93"/>
-      <c r="C250" s="96"/>
+      <c r="B250" s="99"/>
+      <c r="C250" s="92"/>
       <c r="D250" s="43"/>
       <c r="E250" s="41"/>
       <c r="F250" s="44"/>
@@ -6142,8 +6134,8 @@
       <c r="K250" s="39"/>
     </row>
     <row r="251" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B251" s="94"/>
-      <c r="C251" s="97"/>
+      <c r="B251" s="100"/>
+      <c r="C251" s="93"/>
       <c r="D251" s="43"/>
       <c r="E251" s="41"/>
       <c r="F251" s="44"/>
@@ -6154,8 +6146,8 @@
       <c r="K251" s="39"/>
     </row>
     <row r="252" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B252" s="93"/>
-      <c r="C252" s="96"/>
+      <c r="B252" s="99"/>
+      <c r="C252" s="92"/>
       <c r="D252" s="43"/>
       <c r="E252" s="41"/>
       <c r="F252" s="44"/>
@@ -6166,8 +6158,8 @@
       <c r="K252" s="39"/>
     </row>
     <row r="253" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B253" s="94"/>
-      <c r="C253" s="97"/>
+      <c r="B253" s="100"/>
+      <c r="C253" s="93"/>
       <c r="D253" s="43"/>
       <c r="E253" s="41"/>
       <c r="F253" s="44"/>
@@ -6178,8 +6170,8 @@
       <c r="K253" s="39"/>
     </row>
     <row r="254" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B254" s="93"/>
-      <c r="C254" s="96"/>
+      <c r="B254" s="99"/>
+      <c r="C254" s="92"/>
       <c r="D254" s="43"/>
       <c r="E254" s="41"/>
       <c r="F254" s="44"/>
@@ -6190,8 +6182,8 @@
       <c r="K254" s="39"/>
     </row>
     <row r="255" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B255" s="94"/>
-      <c r="C255" s="97"/>
+      <c r="B255" s="100"/>
+      <c r="C255" s="93"/>
       <c r="D255" s="43"/>
       <c r="E255" s="41"/>
       <c r="F255" s="44"/>
@@ -6202,8 +6194,8 @@
       <c r="K255" s="39"/>
     </row>
     <row r="256" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B256" s="93"/>
-      <c r="C256" s="96"/>
+      <c r="B256" s="99"/>
+      <c r="C256" s="92"/>
       <c r="D256" s="43"/>
       <c r="E256" s="41"/>
       <c r="F256" s="44"/>
@@ -6214,8 +6206,8 @@
       <c r="K256" s="39"/>
     </row>
     <row r="257" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B257" s="94"/>
-      <c r="C257" s="97"/>
+      <c r="B257" s="100"/>
+      <c r="C257" s="93"/>
       <c r="D257" s="43"/>
       <c r="E257" s="41"/>
       <c r="F257" s="44"/>
@@ -6226,8 +6218,8 @@
       <c r="K257" s="39"/>
     </row>
     <row r="258" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B258" s="93"/>
-      <c r="C258" s="96"/>
+      <c r="B258" s="99"/>
+      <c r="C258" s="92"/>
       <c r="D258" s="43"/>
       <c r="E258" s="41"/>
       <c r="F258" s="44"/>
@@ -6238,8 +6230,8 @@
       <c r="K258" s="39"/>
     </row>
     <row r="259" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B259" s="94"/>
-      <c r="C259" s="97"/>
+      <c r="B259" s="100"/>
+      <c r="C259" s="93"/>
       <c r="D259" s="43"/>
       <c r="E259" s="41"/>
       <c r="F259" s="44"/>
@@ -6250,8 +6242,8 @@
       <c r="K259" s="39"/>
     </row>
     <row r="260" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B260" s="93"/>
-      <c r="C260" s="96"/>
+      <c r="B260" s="99"/>
+      <c r="C260" s="92"/>
       <c r="D260" s="43"/>
       <c r="E260" s="41"/>
       <c r="F260" s="44"/>
@@ -6262,8 +6254,8 @@
       <c r="K260" s="39"/>
     </row>
     <row r="261" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B261" s="94"/>
-      <c r="C261" s="97"/>
+      <c r="B261" s="100"/>
+      <c r="C261" s="93"/>
       <c r="D261" s="43"/>
       <c r="E261" s="41"/>
       <c r="F261" s="44"/>
@@ -6274,8 +6266,8 @@
       <c r="K261" s="39"/>
     </row>
     <row r="262" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B262" s="93"/>
-      <c r="C262" s="96"/>
+      <c r="B262" s="99"/>
+      <c r="C262" s="92"/>
       <c r="D262" s="43"/>
       <c r="E262" s="41"/>
       <c r="F262" s="44"/>
@@ -6286,8 +6278,8 @@
       <c r="K262" s="39"/>
     </row>
     <row r="263" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B263" s="94"/>
-      <c r="C263" s="97"/>
+      <c r="B263" s="100"/>
+      <c r="C263" s="93"/>
       <c r="D263" s="43"/>
       <c r="E263" s="41"/>
       <c r="F263" s="44"/>
@@ -6298,8 +6290,8 @@
       <c r="K263" s="39"/>
     </row>
     <row r="264" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B264" s="93"/>
-      <c r="C264" s="96"/>
+      <c r="B264" s="99"/>
+      <c r="C264" s="92"/>
       <c r="D264" s="43"/>
       <c r="E264" s="41"/>
       <c r="F264" s="44"/>
@@ -6310,8 +6302,8 @@
       <c r="K264" s="39"/>
     </row>
     <row r="265" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B265" s="94"/>
-      <c r="C265" s="97"/>
+      <c r="B265" s="100"/>
+      <c r="C265" s="93"/>
       <c r="D265" s="43"/>
       <c r="E265" s="41"/>
       <c r="F265" s="44"/>
@@ -6322,8 +6314,8 @@
       <c r="K265" s="39"/>
     </row>
     <row r="266" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B266" s="93"/>
-      <c r="C266" s="96"/>
+      <c r="B266" s="99"/>
+      <c r="C266" s="92"/>
       <c r="D266" s="43"/>
       <c r="E266" s="41"/>
       <c r="F266" s="44"/>
@@ -6334,8 +6326,8 @@
       <c r="K266" s="39"/>
     </row>
     <row r="267" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B267" s="94"/>
-      <c r="C267" s="97"/>
+      <c r="B267" s="100"/>
+      <c r="C267" s="93"/>
       <c r="D267" s="43"/>
       <c r="E267" s="41"/>
       <c r="F267" s="44"/>
@@ -6346,8 +6338,8 @@
       <c r="K267" s="39"/>
     </row>
     <row r="268" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B268" s="93"/>
-      <c r="C268" s="96"/>
+      <c r="B268" s="99"/>
+      <c r="C268" s="92"/>
       <c r="D268" s="43"/>
       <c r="E268" s="41"/>
       <c r="F268" s="44"/>
@@ -6358,8 +6350,8 @@
       <c r="K268" s="39"/>
     </row>
     <row r="269" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B269" s="94"/>
-      <c r="C269" s="97"/>
+      <c r="B269" s="100"/>
+      <c r="C269" s="93"/>
       <c r="D269" s="43"/>
       <c r="E269" s="41"/>
       <c r="F269" s="44"/>
@@ -6370,8 +6362,8 @@
       <c r="K269" s="39"/>
     </row>
     <row r="270" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B270" s="93"/>
-      <c r="C270" s="96"/>
+      <c r="B270" s="99"/>
+      <c r="C270" s="92"/>
       <c r="D270" s="43"/>
       <c r="E270" s="41"/>
       <c r="F270" s="44"/>
@@ -6382,8 +6374,8 @@
       <c r="K270" s="39"/>
     </row>
     <row r="271" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B271" s="94"/>
-      <c r="C271" s="97"/>
+      <c r="B271" s="100"/>
+      <c r="C271" s="93"/>
       <c r="D271" s="43"/>
       <c r="E271" s="41"/>
       <c r="F271" s="44"/>
@@ -6394,8 +6386,8 @@
       <c r="K271" s="39"/>
     </row>
     <row r="272" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B272" s="93"/>
-      <c r="C272" s="96"/>
+      <c r="B272" s="99"/>
+      <c r="C272" s="92"/>
       <c r="D272" s="43"/>
       <c r="E272" s="41"/>
       <c r="F272" s="44"/>
@@ -6406,8 +6398,8 @@
       <c r="K272" s="39"/>
     </row>
     <row r="273" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B273" s="94"/>
-      <c r="C273" s="97"/>
+      <c r="B273" s="100"/>
+      <c r="C273" s="93"/>
       <c r="D273" s="43"/>
       <c r="E273" s="41"/>
       <c r="F273" s="44"/>
@@ -6418,8 +6410,8 @@
       <c r="K273" s="39"/>
     </row>
     <row r="274" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B274" s="93"/>
-      <c r="C274" s="96"/>
+      <c r="B274" s="99"/>
+      <c r="C274" s="92"/>
       <c r="D274" s="43"/>
       <c r="E274" s="41"/>
       <c r="F274" s="44"/>
@@ -6430,8 +6422,8 @@
       <c r="K274" s="39"/>
     </row>
     <row r="275" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B275" s="94"/>
-      <c r="C275" s="97"/>
+      <c r="B275" s="100"/>
+      <c r="C275" s="93"/>
       <c r="D275" s="43"/>
       <c r="E275" s="41"/>
       <c r="F275" s="44"/>
@@ -6442,8 +6434,8 @@
       <c r="K275" s="39"/>
     </row>
     <row r="276" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B276" s="93"/>
-      <c r="C276" s="96"/>
+      <c r="B276" s="99"/>
+      <c r="C276" s="92"/>
       <c r="D276" s="43"/>
       <c r="E276" s="41"/>
       <c r="F276" s="44"/>
@@ -6454,8 +6446,8 @@
       <c r="K276" s="39"/>
     </row>
     <row r="277" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B277" s="94"/>
-      <c r="C277" s="97"/>
+      <c r="B277" s="100"/>
+      <c r="C277" s="93"/>
       <c r="D277" s="43"/>
       <c r="E277" s="41"/>
       <c r="F277" s="44"/>
@@ -6466,8 +6458,8 @@
       <c r="K277" s="39"/>
     </row>
     <row r="278" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B278" s="93"/>
-      <c r="C278" s="96"/>
+      <c r="B278" s="99"/>
+      <c r="C278" s="92"/>
       <c r="D278" s="43"/>
       <c r="E278" s="41"/>
       <c r="F278" s="44"/>
@@ -6478,8 +6470,8 @@
       <c r="K278" s="39"/>
     </row>
     <row r="279" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B279" s="94"/>
-      <c r="C279" s="97"/>
+      <c r="B279" s="100"/>
+      <c r="C279" s="93"/>
       <c r="D279" s="43"/>
       <c r="E279" s="41"/>
       <c r="F279" s="44"/>
@@ -6490,8 +6482,8 @@
       <c r="K279" s="39"/>
     </row>
     <row r="280" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B280" s="93"/>
-      <c r="C280" s="96"/>
+      <c r="B280" s="99"/>
+      <c r="C280" s="92"/>
       <c r="D280" s="43"/>
       <c r="E280" s="41"/>
       <c r="F280" s="44"/>
@@ -6502,8 +6494,8 @@
       <c r="K280" s="39"/>
     </row>
     <row r="281" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B281" s="94"/>
-      <c r="C281" s="97"/>
+      <c r="B281" s="100"/>
+      <c r="C281" s="93"/>
       <c r="D281" s="43"/>
       <c r="E281" s="41"/>
       <c r="F281" s="44"/>
@@ -6514,8 +6506,8 @@
       <c r="K281" s="39"/>
     </row>
     <row r="282" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B282" s="93"/>
-      <c r="C282" s="96"/>
+      <c r="B282" s="99"/>
+      <c r="C282" s="92"/>
       <c r="D282" s="43"/>
       <c r="E282" s="41"/>
       <c r="F282" s="44"/>
@@ -6526,8 +6518,8 @@
       <c r="K282" s="39"/>
     </row>
     <row r="283" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B283" s="94"/>
-      <c r="C283" s="97"/>
+      <c r="B283" s="100"/>
+      <c r="C283" s="93"/>
       <c r="D283" s="43"/>
       <c r="E283" s="41"/>
       <c r="F283" s="44"/>
@@ -6538,8 +6530,8 @@
       <c r="K283" s="39"/>
     </row>
     <row r="284" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B284" s="93"/>
-      <c r="C284" s="96"/>
+      <c r="B284" s="99"/>
+      <c r="C284" s="92"/>
       <c r="D284" s="43"/>
       <c r="E284" s="41"/>
       <c r="F284" s="44"/>
@@ -6550,8 +6542,8 @@
       <c r="K284" s="39"/>
     </row>
     <row r="285" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B285" s="94"/>
-      <c r="C285" s="97"/>
+      <c r="B285" s="100"/>
+      <c r="C285" s="93"/>
       <c r="D285" s="43"/>
       <c r="E285" s="41"/>
       <c r="F285" s="44"/>
@@ -6562,8 +6554,8 @@
       <c r="K285" s="39"/>
     </row>
     <row r="286" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B286" s="93"/>
-      <c r="C286" s="96"/>
+      <c r="B286" s="99"/>
+      <c r="C286" s="92"/>
       <c r="D286" s="43"/>
       <c r="E286" s="41"/>
       <c r="F286" s="44"/>
@@ -6574,8 +6566,8 @@
       <c r="K286" s="39"/>
     </row>
     <row r="287" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B287" s="94"/>
-      <c r="C287" s="97"/>
+      <c r="B287" s="100"/>
+      <c r="C287" s="93"/>
       <c r="D287" s="43"/>
       <c r="E287" s="41"/>
       <c r="F287" s="44"/>
@@ -6586,8 +6578,8 @@
       <c r="K287" s="39"/>
     </row>
     <row r="288" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B288" s="93"/>
-      <c r="C288" s="96"/>
+      <c r="B288" s="99"/>
+      <c r="C288" s="92"/>
       <c r="D288" s="43"/>
       <c r="E288" s="41"/>
       <c r="F288" s="44"/>
@@ -6598,8 +6590,8 @@
       <c r="K288" s="39"/>
     </row>
     <row r="289" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B289" s="94"/>
-      <c r="C289" s="97"/>
+      <c r="B289" s="100"/>
+      <c r="C289" s="93"/>
       <c r="D289" s="43"/>
       <c r="E289" s="41"/>
       <c r="F289" s="44"/>
@@ -6610,8 +6602,8 @@
       <c r="K289" s="39"/>
     </row>
     <row r="290" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B290" s="93"/>
-      <c r="C290" s="96"/>
+      <c r="B290" s="99"/>
+      <c r="C290" s="92"/>
       <c r="D290" s="43"/>
       <c r="E290" s="41"/>
       <c r="F290" s="44"/>
@@ -6622,8 +6614,8 @@
       <c r="K290" s="39"/>
     </row>
     <row r="291" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B291" s="94"/>
-      <c r="C291" s="97"/>
+      <c r="B291" s="100"/>
+      <c r="C291" s="93"/>
       <c r="D291" s="43"/>
       <c r="E291" s="41"/>
       <c r="F291" s="44"/>
@@ -6634,8 +6626,8 @@
       <c r="K291" s="39"/>
     </row>
     <row r="292" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B292" s="93"/>
-      <c r="C292" s="96"/>
+      <c r="B292" s="99"/>
+      <c r="C292" s="92"/>
       <c r="D292" s="43"/>
       <c r="E292" s="41"/>
       <c r="F292" s="44"/>
@@ -6646,8 +6638,8 @@
       <c r="K292" s="39"/>
     </row>
     <row r="293" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B293" s="94"/>
-      <c r="C293" s="97"/>
+      <c r="B293" s="100"/>
+      <c r="C293" s="93"/>
       <c r="D293" s="43"/>
       <c r="E293" s="41"/>
       <c r="F293" s="44"/>
@@ -6658,8 +6650,8 @@
       <c r="K293" s="39"/>
     </row>
     <row r="294" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B294" s="93"/>
-      <c r="C294" s="96"/>
+      <c r="B294" s="99"/>
+      <c r="C294" s="92"/>
       <c r="D294" s="43"/>
       <c r="E294" s="41"/>
       <c r="F294" s="44"/>
@@ -6670,8 +6662,8 @@
       <c r="K294" s="39"/>
     </row>
     <row r="295" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B295" s="94"/>
-      <c r="C295" s="97"/>
+      <c r="B295" s="100"/>
+      <c r="C295" s="93"/>
       <c r="D295" s="43"/>
       <c r="E295" s="41"/>
       <c r="F295" s="44"/>
@@ -6682,8 +6674,8 @@
       <c r="K295" s="39"/>
     </row>
     <row r="296" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B296" s="93"/>
-      <c r="C296" s="96"/>
+      <c r="B296" s="99"/>
+      <c r="C296" s="92"/>
       <c r="D296" s="43"/>
       <c r="E296" s="41"/>
       <c r="F296" s="44"/>
@@ -6694,8 +6686,8 @@
       <c r="K296" s="39"/>
     </row>
     <row r="297" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B297" s="94"/>
-      <c r="C297" s="97"/>
+      <c r="B297" s="100"/>
+      <c r="C297" s="93"/>
       <c r="D297" s="43"/>
       <c r="E297" s="41"/>
       <c r="F297" s="44"/>
@@ -6706,8 +6698,8 @@
       <c r="K297" s="39"/>
     </row>
     <row r="298" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B298" s="93"/>
-      <c r="C298" s="96"/>
+      <c r="B298" s="99"/>
+      <c r="C298" s="92"/>
       <c r="D298" s="43"/>
       <c r="E298" s="41"/>
       <c r="F298" s="44"/>
@@ -6718,8 +6710,8 @@
       <c r="K298" s="39"/>
     </row>
     <row r="299" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B299" s="94"/>
-      <c r="C299" s="97"/>
+      <c r="B299" s="100"/>
+      <c r="C299" s="93"/>
       <c r="D299" s="43"/>
       <c r="E299" s="41"/>
       <c r="F299" s="44"/>
@@ -6730,8 +6722,8 @@
       <c r="K299" s="39"/>
     </row>
     <row r="300" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B300" s="93"/>
-      <c r="C300" s="96"/>
+      <c r="B300" s="99"/>
+      <c r="C300" s="92"/>
       <c r="D300" s="43"/>
       <c r="E300" s="41"/>
       <c r="F300" s="44"/>
@@ -6742,8 +6734,8 @@
       <c r="K300" s="39"/>
     </row>
     <row r="301" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B301" s="94"/>
-      <c r="C301" s="97"/>
+      <c r="B301" s="100"/>
+      <c r="C301" s="93"/>
       <c r="D301" s="43"/>
       <c r="E301" s="41"/>
       <c r="F301" s="44"/>
@@ -6754,8 +6746,8 @@
       <c r="K301" s="39"/>
     </row>
     <row r="302" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B302" s="93"/>
-      <c r="C302" s="96"/>
+      <c r="B302" s="99"/>
+      <c r="C302" s="92"/>
       <c r="D302" s="43"/>
       <c r="E302" s="41"/>
       <c r="F302" s="44"/>
@@ -6766,8 +6758,8 @@
       <c r="K302" s="39"/>
     </row>
     <row r="303" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B303" s="94"/>
-      <c r="C303" s="97"/>
+      <c r="B303" s="100"/>
+      <c r="C303" s="93"/>
       <c r="D303" s="43"/>
       <c r="E303" s="41"/>
       <c r="F303" s="44"/>
@@ -6778,8 +6770,8 @@
       <c r="K303" s="39"/>
     </row>
     <row r="304" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B304" s="93"/>
-      <c r="C304" s="96"/>
+      <c r="B304" s="99"/>
+      <c r="C304" s="92"/>
       <c r="D304" s="43"/>
       <c r="E304" s="41"/>
       <c r="F304" s="44"/>
@@ -6790,8 +6782,8 @@
       <c r="K304" s="39"/>
     </row>
     <row r="305" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B305" s="94"/>
-      <c r="C305" s="97"/>
+      <c r="B305" s="100"/>
+      <c r="C305" s="93"/>
       <c r="D305" s="43"/>
       <c r="E305" s="41"/>
       <c r="F305" s="44"/>
@@ -6802,8 +6794,8 @@
       <c r="K305" s="39"/>
     </row>
     <row r="306" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B306" s="93"/>
-      <c r="C306" s="96"/>
+      <c r="B306" s="99"/>
+      <c r="C306" s="92"/>
       <c r="D306" s="43"/>
       <c r="E306" s="41"/>
       <c r="F306" s="44"/>
@@ -6814,8 +6806,8 @@
       <c r="K306" s="39"/>
     </row>
     <row r="307" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B307" s="94"/>
-      <c r="C307" s="97"/>
+      <c r="B307" s="100"/>
+      <c r="C307" s="93"/>
       <c r="D307" s="43"/>
       <c r="E307" s="41"/>
       <c r="F307" s="44"/>
@@ -6826,8 +6818,8 @@
       <c r="K307" s="39"/>
     </row>
     <row r="308" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B308" s="93"/>
-      <c r="C308" s="96"/>
+      <c r="B308" s="99"/>
+      <c r="C308" s="92"/>
       <c r="D308" s="43"/>
       <c r="E308" s="41"/>
       <c r="F308" s="44"/>
@@ -6838,8 +6830,8 @@
       <c r="K308" s="39"/>
     </row>
     <row r="309" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B309" s="94"/>
-      <c r="C309" s="97"/>
+      <c r="B309" s="100"/>
+      <c r="C309" s="93"/>
       <c r="D309" s="43"/>
       <c r="E309" s="41"/>
       <c r="F309" s="44"/>
@@ -6850,8 +6842,8 @@
       <c r="K309" s="39"/>
     </row>
     <row r="310" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B310" s="93"/>
-      <c r="C310" s="96"/>
+      <c r="B310" s="99"/>
+      <c r="C310" s="92"/>
       <c r="D310" s="43"/>
       <c r="E310" s="41"/>
       <c r="F310" s="44"/>
@@ -6862,8 +6854,8 @@
       <c r="K310" s="39"/>
     </row>
     <row r="311" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B311" s="94"/>
-      <c r="C311" s="97"/>
+      <c r="B311" s="100"/>
+      <c r="C311" s="93"/>
       <c r="D311" s="43"/>
       <c r="E311" s="41"/>
       <c r="F311" s="44"/>
@@ -6874,8 +6866,8 @@
       <c r="K311" s="39"/>
     </row>
     <row r="312" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B312" s="93"/>
-      <c r="C312" s="96"/>
+      <c r="B312" s="99"/>
+      <c r="C312" s="92"/>
       <c r="D312" s="43"/>
       <c r="E312" s="41"/>
       <c r="F312" s="44"/>
@@ -6886,8 +6878,8 @@
       <c r="K312" s="39"/>
     </row>
     <row r="313" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B313" s="94"/>
-      <c r="C313" s="97"/>
+      <c r="B313" s="100"/>
+      <c r="C313" s="93"/>
       <c r="D313" s="43"/>
       <c r="E313" s="41"/>
       <c r="F313" s="44"/>
@@ -6898,8 +6890,8 @@
       <c r="K313" s="39"/>
     </row>
     <row r="314" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B314" s="93"/>
-      <c r="C314" s="96"/>
+      <c r="B314" s="99"/>
+      <c r="C314" s="92"/>
       <c r="D314" s="43"/>
       <c r="E314" s="41"/>
       <c r="F314" s="44"/>
@@ -6910,8 +6902,8 @@
       <c r="K314" s="39"/>
     </row>
     <row r="315" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B315" s="94"/>
-      <c r="C315" s="97"/>
+      <c r="B315" s="100"/>
+      <c r="C315" s="93"/>
       <c r="D315" s="43"/>
       <c r="E315" s="41"/>
       <c r="F315" s="44"/>
@@ -6922,8 +6914,8 @@
       <c r="K315" s="39"/>
     </row>
     <row r="316" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B316" s="93"/>
-      <c r="C316" s="96"/>
+      <c r="B316" s="99"/>
+      <c r="C316" s="92"/>
       <c r="D316" s="43"/>
       <c r="E316" s="41"/>
       <c r="F316" s="44"/>
@@ -6934,8 +6926,8 @@
       <c r="K316" s="39"/>
     </row>
     <row r="317" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B317" s="94"/>
-      <c r="C317" s="97"/>
+      <c r="B317" s="100"/>
+      <c r="C317" s="93"/>
       <c r="D317" s="43"/>
       <c r="E317" s="41"/>
       <c r="F317" s="44"/>
@@ -6946,8 +6938,8 @@
       <c r="K317" s="39"/>
     </row>
     <row r="318" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B318" s="93"/>
-      <c r="C318" s="96"/>
+      <c r="B318" s="99"/>
+      <c r="C318" s="92"/>
       <c r="D318" s="43"/>
       <c r="E318" s="41"/>
       <c r="F318" s="44"/>
@@ -6958,8 +6950,8 @@
       <c r="K318" s="39"/>
     </row>
     <row r="319" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B319" s="94"/>
-      <c r="C319" s="97"/>
+      <c r="B319" s="100"/>
+      <c r="C319" s="93"/>
       <c r="D319" s="43"/>
       <c r="E319" s="41"/>
       <c r="F319" s="44"/>
@@ -6970,8 +6962,8 @@
       <c r="K319" s="39"/>
     </row>
     <row r="320" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B320" s="93"/>
-      <c r="C320" s="96"/>
+      <c r="B320" s="99"/>
+      <c r="C320" s="92"/>
       <c r="D320" s="43"/>
       <c r="E320" s="41"/>
       <c r="F320" s="44"/>
@@ -6982,8 +6974,8 @@
       <c r="K320" s="39"/>
     </row>
     <row r="321" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B321" s="94"/>
-      <c r="C321" s="97"/>
+      <c r="B321" s="100"/>
+      <c r="C321" s="93"/>
       <c r="D321" s="43"/>
       <c r="E321" s="41"/>
       <c r="F321" s="44"/>
@@ -6994,8 +6986,8 @@
       <c r="K321" s="39"/>
     </row>
     <row r="322" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B322" s="93"/>
-      <c r="C322" s="96"/>
+      <c r="B322" s="99"/>
+      <c r="C322" s="92"/>
       <c r="D322" s="43"/>
       <c r="E322" s="41"/>
       <c r="F322" s="44"/>
@@ -7006,8 +6998,8 @@
       <c r="K322" s="39"/>
     </row>
     <row r="323" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B323" s="94"/>
-      <c r="C323" s="97"/>
+      <c r="B323" s="100"/>
+      <c r="C323" s="93"/>
       <c r="D323" s="43"/>
       <c r="E323" s="41"/>
       <c r="F323" s="44"/>
@@ -7018,8 +7010,8 @@
       <c r="K323" s="39"/>
     </row>
     <row r="324" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B324" s="93"/>
-      <c r="C324" s="96"/>
+      <c r="B324" s="99"/>
+      <c r="C324" s="92"/>
       <c r="D324" s="43"/>
       <c r="E324" s="41"/>
       <c r="F324" s="44"/>
@@ -7030,8 +7022,8 @@
       <c r="K324" s="39"/>
     </row>
     <row r="325" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B325" s="94"/>
-      <c r="C325" s="97"/>
+      <c r="B325" s="100"/>
+      <c r="C325" s="93"/>
       <c r="D325" s="43"/>
       <c r="E325" s="41"/>
       <c r="F325" s="44"/>
@@ -7042,8 +7034,8 @@
       <c r="K325" s="39"/>
     </row>
     <row r="326" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B326" s="93"/>
-      <c r="C326" s="96"/>
+      <c r="B326" s="99"/>
+      <c r="C326" s="92"/>
       <c r="D326" s="43"/>
       <c r="E326" s="41"/>
       <c r="F326" s="44"/>
@@ -7054,8 +7046,8 @@
       <c r="K326" s="39"/>
     </row>
     <row r="327" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B327" s="94"/>
-      <c r="C327" s="97"/>
+      <c r="B327" s="100"/>
+      <c r="C327" s="93"/>
       <c r="D327" s="43"/>
       <c r="E327" s="41"/>
       <c r="F327" s="44"/>
@@ -7066,8 +7058,8 @@
       <c r="K327" s="39"/>
     </row>
     <row r="328" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B328" s="93"/>
-      <c r="C328" s="96"/>
+      <c r="B328" s="99"/>
+      <c r="C328" s="92"/>
       <c r="D328" s="43"/>
       <c r="E328" s="41"/>
       <c r="F328" s="44"/>
@@ -7078,8 +7070,8 @@
       <c r="K328" s="39"/>
     </row>
     <row r="329" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B329" s="94"/>
-      <c r="C329" s="97"/>
+      <c r="B329" s="100"/>
+      <c r="C329" s="93"/>
       <c r="D329" s="43"/>
       <c r="E329" s="41"/>
       <c r="F329" s="44"/>
@@ -7090,8 +7082,8 @@
       <c r="K329" s="39"/>
     </row>
     <row r="330" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B330" s="93"/>
-      <c r="C330" s="96"/>
+      <c r="B330" s="99"/>
+      <c r="C330" s="92"/>
       <c r="D330" s="43"/>
       <c r="E330" s="41"/>
       <c r="F330" s="44"/>
@@ -7102,8 +7094,8 @@
       <c r="K330" s="39"/>
     </row>
     <row r="331" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B331" s="94"/>
-      <c r="C331" s="97"/>
+      <c r="B331" s="100"/>
+      <c r="C331" s="93"/>
       <c r="D331" s="43"/>
       <c r="E331" s="41"/>
       <c r="F331" s="44"/>
@@ -7114,8 +7106,8 @@
       <c r="K331" s="39"/>
     </row>
     <row r="332" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B332" s="93"/>
-      <c r="C332" s="96"/>
+      <c r="B332" s="99"/>
+      <c r="C332" s="92"/>
       <c r="D332" s="43"/>
       <c r="E332" s="41"/>
       <c r="F332" s="44"/>
@@ -7126,8 +7118,8 @@
       <c r="K332" s="39"/>
     </row>
     <row r="333" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B333" s="94"/>
-      <c r="C333" s="97"/>
+      <c r="B333" s="100"/>
+      <c r="C333" s="93"/>
       <c r="D333" s="43"/>
       <c r="E333" s="41"/>
       <c r="F333" s="44"/>
@@ -7138,8 +7130,8 @@
       <c r="K333" s="39"/>
     </row>
     <row r="334" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B334" s="93"/>
-      <c r="C334" s="96"/>
+      <c r="B334" s="99"/>
+      <c r="C334" s="92"/>
       <c r="D334" s="43"/>
       <c r="E334" s="41"/>
       <c r="F334" s="44"/>
@@ -7150,8 +7142,8 @@
       <c r="K334" s="39"/>
     </row>
     <row r="335" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B335" s="94"/>
-      <c r="C335" s="97"/>
+      <c r="B335" s="100"/>
+      <c r="C335" s="93"/>
       <c r="D335" s="43"/>
       <c r="E335" s="41"/>
       <c r="F335" s="44"/>
@@ -7162,8 +7154,8 @@
       <c r="K335" s="39"/>
     </row>
     <row r="336" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B336" s="93"/>
-      <c r="C336" s="96"/>
+      <c r="B336" s="99"/>
+      <c r="C336" s="92"/>
       <c r="D336" s="43"/>
       <c r="E336" s="41"/>
       <c r="F336" s="44"/>
@@ -7174,8 +7166,8 @@
       <c r="K336" s="39"/>
     </row>
     <row r="337" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B337" s="94"/>
-      <c r="C337" s="97"/>
+      <c r="B337" s="100"/>
+      <c r="C337" s="93"/>
       <c r="D337" s="43"/>
       <c r="E337" s="41"/>
       <c r="F337" s="44"/>
@@ -7186,8 +7178,8 @@
       <c r="K337" s="39"/>
     </row>
     <row r="338" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B338" s="93"/>
-      <c r="C338" s="96"/>
+      <c r="B338" s="99"/>
+      <c r="C338" s="92"/>
       <c r="D338" s="43"/>
       <c r="E338" s="41"/>
       <c r="F338" s="44"/>
@@ -7198,8 +7190,8 @@
       <c r="K338" s="39"/>
     </row>
     <row r="339" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B339" s="94"/>
-      <c r="C339" s="97"/>
+      <c r="B339" s="100"/>
+      <c r="C339" s="93"/>
       <c r="D339" s="43"/>
       <c r="E339" s="41"/>
       <c r="F339" s="44"/>
@@ -7210,8 +7202,8 @@
       <c r="K339" s="39"/>
     </row>
     <row r="340" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B340" s="93"/>
-      <c r="C340" s="96"/>
+      <c r="B340" s="99"/>
+      <c r="C340" s="92"/>
       <c r="D340" s="43"/>
       <c r="E340" s="41"/>
       <c r="F340" s="44"/>
@@ -7222,8 +7214,8 @@
       <c r="K340" s="39"/>
     </row>
     <row r="341" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B341" s="94"/>
-      <c r="C341" s="97"/>
+      <c r="B341" s="100"/>
+      <c r="C341" s="93"/>
       <c r="D341" s="43"/>
       <c r="E341" s="41"/>
       <c r="F341" s="44"/>
@@ -7234,8 +7226,8 @@
       <c r="K341" s="39"/>
     </row>
     <row r="342" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B342" s="93"/>
-      <c r="C342" s="96"/>
+      <c r="B342" s="99"/>
+      <c r="C342" s="92"/>
       <c r="D342" s="43"/>
       <c r="E342" s="41"/>
       <c r="F342" s="44"/>
@@ -7246,8 +7238,8 @@
       <c r="K342" s="39"/>
     </row>
     <row r="343" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B343" s="94"/>
-      <c r="C343" s="97"/>
+      <c r="B343" s="100"/>
+      <c r="C343" s="93"/>
       <c r="D343" s="43"/>
       <c r="E343" s="41"/>
       <c r="F343" s="44"/>
@@ -7258,8 +7250,8 @@
       <c r="K343" s="39"/>
     </row>
     <row r="344" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B344" s="93"/>
-      <c r="C344" s="96"/>
+      <c r="B344" s="99"/>
+      <c r="C344" s="92"/>
       <c r="D344" s="43"/>
       <c r="E344" s="41"/>
       <c r="F344" s="44"/>
@@ -7270,8 +7262,8 @@
       <c r="K344" s="39"/>
     </row>
     <row r="345" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B345" s="94"/>
-      <c r="C345" s="97"/>
+      <c r="B345" s="100"/>
+      <c r="C345" s="93"/>
       <c r="D345" s="43"/>
       <c r="E345" s="41"/>
       <c r="F345" s="44"/>
@@ -7282,8 +7274,8 @@
       <c r="K345" s="39"/>
     </row>
     <row r="346" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B346" s="93"/>
-      <c r="C346" s="96"/>
+      <c r="B346" s="99"/>
+      <c r="C346" s="92"/>
       <c r="D346" s="43"/>
       <c r="E346" s="41"/>
       <c r="F346" s="44"/>
@@ -7294,8 +7286,8 @@
       <c r="K346" s="39"/>
     </row>
     <row r="347" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B347" s="94"/>
-      <c r="C347" s="97"/>
+      <c r="B347" s="100"/>
+      <c r="C347" s="93"/>
       <c r="D347" s="43"/>
       <c r="E347" s="41"/>
       <c r="F347" s="44"/>
@@ -7306,8 +7298,8 @@
       <c r="K347" s="39"/>
     </row>
     <row r="348" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B348" s="93"/>
-      <c r="C348" s="96"/>
+      <c r="B348" s="99"/>
+      <c r="C348" s="92"/>
       <c r="D348" s="43"/>
       <c r="E348" s="41"/>
       <c r="F348" s="44"/>
@@ -7318,8 +7310,8 @@
       <c r="K348" s="39"/>
     </row>
     <row r="349" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B349" s="94"/>
-      <c r="C349" s="97"/>
+      <c r="B349" s="100"/>
+      <c r="C349" s="93"/>
       <c r="D349" s="43"/>
       <c r="E349" s="41"/>
       <c r="F349" s="44"/>
@@ -7330,8 +7322,8 @@
       <c r="K349" s="39"/>
     </row>
     <row r="350" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B350" s="93"/>
-      <c r="C350" s="96"/>
+      <c r="B350" s="99"/>
+      <c r="C350" s="92"/>
       <c r="D350" s="43"/>
       <c r="E350" s="41"/>
       <c r="F350" s="44"/>
@@ -7342,8 +7334,8 @@
       <c r="K350" s="39"/>
     </row>
     <row r="351" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B351" s="94"/>
-      <c r="C351" s="97"/>
+      <c r="B351" s="100"/>
+      <c r="C351" s="93"/>
       <c r="D351" s="43"/>
       <c r="E351" s="41"/>
       <c r="F351" s="44"/>
@@ -7354,8 +7346,8 @@
       <c r="K351" s="39"/>
     </row>
     <row r="352" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B352" s="93"/>
-      <c r="C352" s="96"/>
+      <c r="B352" s="99"/>
+      <c r="C352" s="92"/>
       <c r="D352" s="43"/>
       <c r="E352" s="41"/>
       <c r="F352" s="44"/>
@@ -7366,8 +7358,8 @@
       <c r="K352" s="39"/>
     </row>
     <row r="353" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B353" s="94"/>
-      <c r="C353" s="97"/>
+      <c r="B353" s="100"/>
+      <c r="C353" s="93"/>
       <c r="D353" s="43"/>
       <c r="E353" s="41"/>
       <c r="F353" s="44"/>
@@ -7378,8 +7370,8 @@
       <c r="K353" s="39"/>
     </row>
     <row r="354" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B354" s="93"/>
-      <c r="C354" s="96"/>
+      <c r="B354" s="99"/>
+      <c r="C354" s="92"/>
       <c r="D354" s="43"/>
       <c r="E354" s="41"/>
       <c r="F354" s="44"/>
@@ -7390,8 +7382,8 @@
       <c r="K354" s="39"/>
     </row>
     <row r="355" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B355" s="94"/>
-      <c r="C355" s="97"/>
+      <c r="B355" s="100"/>
+      <c r="C355" s="93"/>
       <c r="D355" s="43"/>
       <c r="E355" s="41"/>
       <c r="F355" s="44"/>
@@ -7402,8 +7394,8 @@
       <c r="K355" s="39"/>
     </row>
     <row r="356" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B356" s="93"/>
-      <c r="C356" s="96"/>
+      <c r="B356" s="99"/>
+      <c r="C356" s="92"/>
       <c r="D356" s="43"/>
       <c r="E356" s="41"/>
       <c r="F356" s="44"/>
@@ -7414,8 +7406,8 @@
       <c r="K356" s="39"/>
     </row>
     <row r="357" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B357" s="94"/>
-      <c r="C357" s="97"/>
+      <c r="B357" s="100"/>
+      <c r="C357" s="93"/>
       <c r="D357" s="43"/>
       <c r="E357" s="41"/>
       <c r="F357" s="44"/>
@@ -7426,8 +7418,8 @@
       <c r="K357" s="39"/>
     </row>
     <row r="358" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B358" s="93"/>
-      <c r="C358" s="96"/>
+      <c r="B358" s="99"/>
+      <c r="C358" s="92"/>
       <c r="D358" s="43"/>
       <c r="E358" s="41"/>
       <c r="F358" s="44"/>
@@ -7438,8 +7430,8 @@
       <c r="K358" s="39"/>
     </row>
     <row r="359" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B359" s="94"/>
-      <c r="C359" s="97"/>
+      <c r="B359" s="100"/>
+      <c r="C359" s="93"/>
       <c r="D359" s="43"/>
       <c r="E359" s="41"/>
       <c r="F359" s="44"/>
@@ -7450,8 +7442,8 @@
       <c r="K359" s="39"/>
     </row>
     <row r="360" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B360" s="93"/>
-      <c r="C360" s="96"/>
+      <c r="B360" s="99"/>
+      <c r="C360" s="92"/>
       <c r="D360" s="43"/>
       <c r="E360" s="41"/>
       <c r="F360" s="44"/>
@@ -7462,8 +7454,8 @@
       <c r="K360" s="39"/>
     </row>
     <row r="361" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B361" s="94"/>
-      <c r="C361" s="97"/>
+      <c r="B361" s="100"/>
+      <c r="C361" s="93"/>
       <c r="D361" s="43"/>
       <c r="E361" s="41"/>
       <c r="F361" s="44"/>
@@ -7474,8 +7466,8 @@
       <c r="K361" s="39"/>
     </row>
     <row r="362" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B362" s="93"/>
-      <c r="C362" s="96"/>
+      <c r="B362" s="99"/>
+      <c r="C362" s="92"/>
       <c r="D362" s="43"/>
       <c r="E362" s="41"/>
       <c r="F362" s="44"/>
@@ -7486,8 +7478,8 @@
       <c r="K362" s="39"/>
     </row>
     <row r="363" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B363" s="94"/>
-      <c r="C363" s="97"/>
+      <c r="B363" s="100"/>
+      <c r="C363" s="93"/>
       <c r="D363" s="43"/>
       <c r="E363" s="41"/>
       <c r="F363" s="44"/>
@@ -7498,8 +7490,8 @@
       <c r="K363" s="39"/>
     </row>
     <row r="364" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B364" s="93"/>
-      <c r="C364" s="96"/>
+      <c r="B364" s="99"/>
+      <c r="C364" s="92"/>
       <c r="D364" s="43"/>
       <c r="E364" s="41"/>
       <c r="F364" s="44"/>
@@ -7510,8 +7502,8 @@
       <c r="K364" s="39"/>
     </row>
     <row r="365" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B365" s="94"/>
-      <c r="C365" s="97"/>
+      <c r="B365" s="100"/>
+      <c r="C365" s="93"/>
       <c r="D365" s="43"/>
       <c r="E365" s="41"/>
       <c r="F365" s="44"/>
@@ -7522,8 +7514,8 @@
       <c r="K365" s="39"/>
     </row>
     <row r="366" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B366" s="93"/>
-      <c r="C366" s="96"/>
+      <c r="B366" s="99"/>
+      <c r="C366" s="92"/>
       <c r="D366" s="43"/>
       <c r="E366" s="41"/>
       <c r="F366" s="44"/>
@@ -7534,8 +7526,8 @@
       <c r="K366" s="39"/>
     </row>
     <row r="367" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B367" s="94"/>
-      <c r="C367" s="97"/>
+      <c r="B367" s="100"/>
+      <c r="C367" s="93"/>
       <c r="D367" s="43"/>
       <c r="E367" s="41"/>
       <c r="F367" s="44"/>
@@ -7546,8 +7538,8 @@
       <c r="K367" s="39"/>
     </row>
     <row r="368" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B368" s="93"/>
-      <c r="C368" s="96"/>
+      <c r="B368" s="99"/>
+      <c r="C368" s="92"/>
       <c r="D368" s="43"/>
       <c r="E368" s="41"/>
       <c r="F368" s="44"/>
@@ -7558,8 +7550,8 @@
       <c r="K368" s="39"/>
     </row>
     <row r="369" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B369" s="94"/>
-      <c r="C369" s="97"/>
+      <c r="B369" s="100"/>
+      <c r="C369" s="93"/>
       <c r="D369" s="43"/>
       <c r="E369" s="41"/>
       <c r="F369" s="44"/>
@@ -7570,8 +7562,8 @@
       <c r="K369" s="39"/>
     </row>
     <row r="370" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B370" s="93"/>
-      <c r="C370" s="96"/>
+      <c r="B370" s="99"/>
+      <c r="C370" s="92"/>
       <c r="D370" s="43"/>
       <c r="E370" s="41"/>
       <c r="F370" s="44"/>
@@ -7582,8 +7574,8 @@
       <c r="K370" s="39"/>
     </row>
     <row r="371" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B371" s="94"/>
-      <c r="C371" s="97"/>
+      <c r="B371" s="100"/>
+      <c r="C371" s="93"/>
       <c r="D371" s="43"/>
       <c r="E371" s="41"/>
       <c r="F371" s="44"/>
@@ -7594,8 +7586,8 @@
       <c r="K371" s="39"/>
     </row>
     <row r="372" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B372" s="93"/>
-      <c r="C372" s="96"/>
+      <c r="B372" s="99"/>
+      <c r="C372" s="92"/>
       <c r="D372" s="43"/>
       <c r="E372" s="41"/>
       <c r="F372" s="44"/>
@@ -7606,8 +7598,8 @@
       <c r="K372" s="39"/>
     </row>
     <row r="373" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B373" s="94"/>
-      <c r="C373" s="97"/>
+      <c r="B373" s="100"/>
+      <c r="C373" s="93"/>
       <c r="D373" s="43"/>
       <c r="E373" s="41"/>
       <c r="F373" s="44"/>
@@ -7618,8 +7610,8 @@
       <c r="K373" s="39"/>
     </row>
     <row r="374" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B374" s="93"/>
-      <c r="C374" s="96"/>
+      <c r="B374" s="99"/>
+      <c r="C374" s="92"/>
       <c r="D374" s="43"/>
       <c r="E374" s="41"/>
       <c r="F374" s="44"/>
@@ -7630,8 +7622,8 @@
       <c r="K374" s="39"/>
     </row>
     <row r="375" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B375" s="94"/>
-      <c r="C375" s="97"/>
+      <c r="B375" s="100"/>
+      <c r="C375" s="93"/>
       <c r="D375" s="43"/>
       <c r="E375" s="41"/>
       <c r="F375" s="44"/>
@@ -7642,8 +7634,8 @@
       <c r="K375" s="39"/>
     </row>
     <row r="376" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B376" s="93"/>
-      <c r="C376" s="96"/>
+      <c r="B376" s="99"/>
+      <c r="C376" s="92"/>
       <c r="D376" s="43"/>
       <c r="E376" s="41"/>
       <c r="F376" s="44"/>
@@ -7654,8 +7646,8 @@
       <c r="K376" s="39"/>
     </row>
     <row r="377" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B377" s="94"/>
-      <c r="C377" s="97"/>
+      <c r="B377" s="100"/>
+      <c r="C377" s="93"/>
       <c r="D377" s="43"/>
       <c r="E377" s="41"/>
       <c r="F377" s="44"/>
@@ -7666,8 +7658,8 @@
       <c r="K377" s="39"/>
     </row>
     <row r="378" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B378" s="93"/>
-      <c r="C378" s="96"/>
+      <c r="B378" s="99"/>
+      <c r="C378" s="92"/>
       <c r="D378" s="43"/>
       <c r="E378" s="41"/>
       <c r="F378" s="44"/>
@@ -7678,8 +7670,8 @@
       <c r="K378" s="39"/>
     </row>
     <row r="379" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B379" s="94"/>
-      <c r="C379" s="97"/>
+      <c r="B379" s="100"/>
+      <c r="C379" s="93"/>
       <c r="D379" s="43"/>
       <c r="E379" s="41"/>
       <c r="F379" s="44"/>
@@ -7690,8 +7682,8 @@
       <c r="K379" s="39"/>
     </row>
     <row r="380" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B380" s="93"/>
-      <c r="C380" s="96"/>
+      <c r="B380" s="99"/>
+      <c r="C380" s="92"/>
       <c r="D380" s="43"/>
       <c r="E380" s="41"/>
       <c r="F380" s="44"/>
@@ -7702,8 +7694,8 @@
       <c r="K380" s="39"/>
     </row>
     <row r="381" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B381" s="94"/>
-      <c r="C381" s="97"/>
+      <c r="B381" s="100"/>
+      <c r="C381" s="93"/>
       <c r="D381" s="43"/>
       <c r="E381" s="41"/>
       <c r="F381" s="44"/>
@@ -7714,8 +7706,8 @@
       <c r="K381" s="39"/>
     </row>
     <row r="382" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B382" s="93"/>
-      <c r="C382" s="96"/>
+      <c r="B382" s="99"/>
+      <c r="C382" s="92"/>
       <c r="D382" s="43"/>
       <c r="E382" s="41"/>
       <c r="F382" s="44"/>
@@ -7726,8 +7718,8 @@
       <c r="K382" s="39"/>
     </row>
     <row r="383" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B383" s="94"/>
-      <c r="C383" s="97"/>
+      <c r="B383" s="100"/>
+      <c r="C383" s="93"/>
       <c r="D383" s="43"/>
       <c r="E383" s="41"/>
       <c r="F383" s="44"/>
@@ -7738,8 +7730,8 @@
       <c r="K383" s="39"/>
     </row>
     <row r="384" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B384" s="93"/>
-      <c r="C384" s="96"/>
+      <c r="B384" s="99"/>
+      <c r="C384" s="92"/>
       <c r="D384" s="43"/>
       <c r="E384" s="41"/>
       <c r="F384" s="44"/>
@@ -7750,8 +7742,8 @@
       <c r="K384" s="39"/>
     </row>
     <row r="385" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B385" s="94"/>
-      <c r="C385" s="97"/>
+      <c r="B385" s="100"/>
+      <c r="C385" s="93"/>
       <c r="D385" s="43"/>
       <c r="E385" s="41"/>
       <c r="F385" s="44"/>
@@ -7762,8 +7754,8 @@
       <c r="K385" s="39"/>
     </row>
     <row r="386" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B386" s="93"/>
-      <c r="C386" s="96"/>
+      <c r="B386" s="99"/>
+      <c r="C386" s="92"/>
       <c r="D386" s="43"/>
       <c r="E386" s="41"/>
       <c r="F386" s="44"/>
@@ -7774,8 +7766,8 @@
       <c r="K386" s="39"/>
     </row>
     <row r="387" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B387" s="94"/>
-      <c r="C387" s="97"/>
+      <c r="B387" s="100"/>
+      <c r="C387" s="93"/>
       <c r="D387" s="43"/>
       <c r="E387" s="41"/>
       <c r="F387" s="44"/>
@@ -7786,8 +7778,8 @@
       <c r="K387" s="39"/>
     </row>
     <row r="388" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B388" s="93"/>
-      <c r="C388" s="96"/>
+      <c r="B388" s="99"/>
+      <c r="C388" s="92"/>
       <c r="D388" s="43"/>
       <c r="E388" s="41"/>
       <c r="F388" s="44"/>
@@ -7798,8 +7790,8 @@
       <c r="K388" s="39"/>
     </row>
     <row r="389" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B389" s="94"/>
-      <c r="C389" s="97"/>
+      <c r="B389" s="100"/>
+      <c r="C389" s="93"/>
       <c r="D389" s="43"/>
       <c r="E389" s="41"/>
       <c r="F389" s="44"/>
@@ -7810,8 +7802,8 @@
       <c r="K389" s="39"/>
     </row>
     <row r="390" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B390" s="93"/>
-      <c r="C390" s="96"/>
+      <c r="B390" s="99"/>
+      <c r="C390" s="92"/>
       <c r="D390" s="43"/>
       <c r="E390" s="41"/>
       <c r="F390" s="44"/>
@@ -7822,8 +7814,8 @@
       <c r="K390" s="39"/>
     </row>
     <row r="391" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B391" s="94"/>
-      <c r="C391" s="97"/>
+      <c r="B391" s="100"/>
+      <c r="C391" s="93"/>
       <c r="D391" s="43"/>
       <c r="E391" s="41"/>
       <c r="F391" s="44"/>
@@ -7834,8 +7826,8 @@
       <c r="K391" s="39"/>
     </row>
     <row r="392" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B392" s="93"/>
-      <c r="C392" s="96"/>
+      <c r="B392" s="99"/>
+      <c r="C392" s="92"/>
       <c r="D392" s="43"/>
       <c r="E392" s="41"/>
       <c r="F392" s="44"/>
@@ -7846,8 +7838,8 @@
       <c r="K392" s="39"/>
     </row>
     <row r="393" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B393" s="94"/>
-      <c r="C393" s="97"/>
+      <c r="B393" s="100"/>
+      <c r="C393" s="93"/>
       <c r="D393" s="43"/>
       <c r="E393" s="41"/>
       <c r="F393" s="44"/>
@@ -7858,8 +7850,8 @@
       <c r="K393" s="39"/>
     </row>
     <row r="394" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B394" s="93"/>
-      <c r="C394" s="96"/>
+      <c r="B394" s="99"/>
+      <c r="C394" s="92"/>
       <c r="D394" s="43"/>
       <c r="E394" s="41"/>
       <c r="F394" s="44"/>
@@ -7870,8 +7862,8 @@
       <c r="K394" s="39"/>
     </row>
     <row r="395" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B395" s="94"/>
-      <c r="C395" s="97"/>
+      <c r="B395" s="100"/>
+      <c r="C395" s="93"/>
       <c r="D395" s="43"/>
       <c r="E395" s="41"/>
       <c r="F395" s="44"/>
@@ -7882,8 +7874,8 @@
       <c r="K395" s="39"/>
     </row>
     <row r="396" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B396" s="93"/>
-      <c r="C396" s="96"/>
+      <c r="B396" s="99"/>
+      <c r="C396" s="92"/>
       <c r="D396" s="43"/>
       <c r="E396" s="41"/>
       <c r="F396" s="44"/>
@@ -7894,8 +7886,8 @@
       <c r="K396" s="39"/>
     </row>
     <row r="397" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B397" s="94"/>
-      <c r="C397" s="97"/>
+      <c r="B397" s="100"/>
+      <c r="C397" s="93"/>
       <c r="D397" s="43"/>
       <c r="E397" s="41"/>
       <c r="F397" s="44"/>
@@ -7906,8 +7898,8 @@
       <c r="K397" s="39"/>
     </row>
     <row r="398" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B398" s="93"/>
-      <c r="C398" s="96"/>
+      <c r="B398" s="99"/>
+      <c r="C398" s="92"/>
       <c r="D398" s="43"/>
       <c r="E398" s="41"/>
       <c r="F398" s="44"/>
@@ -7918,8 +7910,8 @@
       <c r="K398" s="39"/>
     </row>
     <row r="399" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B399" s="94"/>
-      <c r="C399" s="97"/>
+      <c r="B399" s="100"/>
+      <c r="C399" s="93"/>
       <c r="D399" s="43"/>
       <c r="E399" s="41"/>
       <c r="F399" s="44"/>
@@ -7930,8 +7922,8 @@
       <c r="K399" s="39"/>
     </row>
     <row r="400" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B400" s="93"/>
-      <c r="C400" s="96"/>
+      <c r="B400" s="99"/>
+      <c r="C400" s="92"/>
       <c r="D400" s="43"/>
       <c r="E400" s="41"/>
       <c r="F400" s="44"/>
@@ -7942,8 +7934,8 @@
       <c r="K400" s="39"/>
     </row>
     <row r="401" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B401" s="94"/>
-      <c r="C401" s="97"/>
+      <c r="B401" s="100"/>
+      <c r="C401" s="93"/>
       <c r="D401" s="43"/>
       <c r="E401" s="41"/>
       <c r="F401" s="44"/>
@@ -7954,8 +7946,8 @@
       <c r="K401" s="39"/>
     </row>
     <row r="402" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B402" s="93"/>
-      <c r="C402" s="96"/>
+      <c r="B402" s="99"/>
+      <c r="C402" s="92"/>
       <c r="D402" s="43"/>
       <c r="E402" s="41"/>
       <c r="F402" s="44"/>
@@ -7966,8 +7958,8 @@
       <c r="K402" s="39"/>
     </row>
     <row r="403" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B403" s="94"/>
-      <c r="C403" s="97"/>
+      <c r="B403" s="100"/>
+      <c r="C403" s="93"/>
       <c r="D403" s="43"/>
       <c r="E403" s="41"/>
       <c r="F403" s="44"/>
@@ -7978,8 +7970,8 @@
       <c r="K403" s="39"/>
     </row>
     <row r="404" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B404" s="93"/>
-      <c r="C404" s="96"/>
+      <c r="B404" s="99"/>
+      <c r="C404" s="92"/>
       <c r="D404" s="43"/>
       <c r="E404" s="41"/>
       <c r="F404" s="44"/>
@@ -7990,8 +7982,8 @@
       <c r="K404" s="39"/>
     </row>
     <row r="405" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B405" s="94"/>
-      <c r="C405" s="97"/>
+      <c r="B405" s="100"/>
+      <c r="C405" s="93"/>
       <c r="D405" s="43"/>
       <c r="E405" s="41"/>
       <c r="F405" s="44"/>
@@ -8002,8 +7994,8 @@
       <c r="K405" s="39"/>
     </row>
     <row r="406" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B406" s="93"/>
-      <c r="C406" s="96"/>
+      <c r="B406" s="99"/>
+      <c r="C406" s="92"/>
       <c r="D406" s="43"/>
       <c r="E406" s="41"/>
       <c r="F406" s="44"/>
@@ -8014,8 +8006,8 @@
       <c r="K406" s="39"/>
     </row>
     <row r="407" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B407" s="94"/>
-      <c r="C407" s="97"/>
+      <c r="B407" s="100"/>
+      <c r="C407" s="93"/>
       <c r="D407" s="43"/>
       <c r="E407" s="41"/>
       <c r="F407" s="44"/>
@@ -8026,8 +8018,8 @@
       <c r="K407" s="39"/>
     </row>
     <row r="408" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B408" s="93"/>
-      <c r="C408" s="96"/>
+      <c r="B408" s="99"/>
+      <c r="C408" s="92"/>
       <c r="D408" s="43"/>
       <c r="E408" s="41"/>
       <c r="F408" s="44"/>
@@ -8038,8 +8030,8 @@
       <c r="K408" s="39"/>
     </row>
     <row r="409" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B409" s="94"/>
-      <c r="C409" s="97"/>
+      <c r="B409" s="100"/>
+      <c r="C409" s="93"/>
       <c r="D409" s="43"/>
       <c r="E409" s="41"/>
       <c r="F409" s="44"/>
@@ -8050,8 +8042,8 @@
       <c r="K409" s="39"/>
     </row>
     <row r="410" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B410" s="93"/>
-      <c r="C410" s="96"/>
+      <c r="B410" s="99"/>
+      <c r="C410" s="92"/>
       <c r="D410" s="43"/>
       <c r="E410" s="41"/>
       <c r="F410" s="44"/>
@@ -8062,8 +8054,8 @@
       <c r="K410" s="39"/>
     </row>
     <row r="411" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B411" s="94"/>
-      <c r="C411" s="97"/>
+      <c r="B411" s="100"/>
+      <c r="C411" s="93"/>
       <c r="D411" s="43"/>
       <c r="E411" s="41"/>
       <c r="F411" s="44"/>
@@ -8074,8 +8066,8 @@
       <c r="K411" s="39"/>
     </row>
     <row r="412" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B412" s="93"/>
-      <c r="C412" s="96"/>
+      <c r="B412" s="99"/>
+      <c r="C412" s="92"/>
       <c r="D412" s="43"/>
       <c r="E412" s="41"/>
       <c r="F412" s="44"/>
@@ -8086,8 +8078,8 @@
       <c r="K412" s="39"/>
     </row>
     <row r="413" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B413" s="94"/>
-      <c r="C413" s="97"/>
+      <c r="B413" s="100"/>
+      <c r="C413" s="93"/>
       <c r="D413" s="43"/>
       <c r="E413" s="41"/>
       <c r="F413" s="44"/>
@@ -8098,8 +8090,8 @@
       <c r="K413" s="39"/>
     </row>
     <row r="414" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B414" s="93"/>
-      <c r="C414" s="96"/>
+      <c r="B414" s="99"/>
+      <c r="C414" s="92"/>
       <c r="D414" s="43"/>
       <c r="E414" s="41"/>
       <c r="F414" s="44"/>
@@ -8110,8 +8102,8 @@
       <c r="K414" s="39"/>
     </row>
     <row r="415" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B415" s="94"/>
-      <c r="C415" s="97"/>
+      <c r="B415" s="100"/>
+      <c r="C415" s="93"/>
       <c r="D415" s="43"/>
       <c r="E415" s="41"/>
       <c r="F415" s="44"/>
@@ -8122,8 +8114,8 @@
       <c r="K415" s="39"/>
     </row>
     <row r="416" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B416" s="93"/>
-      <c r="C416" s="96"/>
+      <c r="B416" s="99"/>
+      <c r="C416" s="92"/>
       <c r="D416" s="43"/>
       <c r="E416" s="41"/>
       <c r="F416" s="44"/>
@@ -8134,8 +8126,8 @@
       <c r="K416" s="39"/>
     </row>
     <row r="417" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B417" s="94"/>
-      <c r="C417" s="97"/>
+      <c r="B417" s="100"/>
+      <c r="C417" s="93"/>
       <c r="D417" s="43"/>
       <c r="E417" s="41"/>
       <c r="F417" s="44"/>
@@ -8146,8 +8138,8 @@
       <c r="K417" s="39"/>
     </row>
     <row r="418" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B418" s="93"/>
-      <c r="C418" s="96"/>
+      <c r="B418" s="99"/>
+      <c r="C418" s="92"/>
       <c r="D418" s="43"/>
       <c r="E418" s="41"/>
       <c r="F418" s="44"/>
@@ -8158,8 +8150,8 @@
       <c r="K418" s="39"/>
     </row>
     <row r="419" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B419" s="94"/>
-      <c r="C419" s="97"/>
+      <c r="B419" s="100"/>
+      <c r="C419" s="93"/>
       <c r="D419" s="43"/>
       <c r="E419" s="41"/>
       <c r="F419" s="44"/>
@@ -8170,8 +8162,8 @@
       <c r="K419" s="39"/>
     </row>
     <row r="420" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B420" s="93"/>
-      <c r="C420" s="96"/>
+      <c r="B420" s="99"/>
+      <c r="C420" s="92"/>
       <c r="D420" s="43"/>
       <c r="E420" s="41"/>
       <c r="F420" s="44"/>
@@ -8182,8 +8174,8 @@
       <c r="K420" s="39"/>
     </row>
     <row r="421" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B421" s="94"/>
-      <c r="C421" s="97"/>
+      <c r="B421" s="100"/>
+      <c r="C421" s="93"/>
       <c r="D421" s="43"/>
       <c r="E421" s="41"/>
       <c r="F421" s="44"/>
@@ -8194,8 +8186,8 @@
       <c r="K421" s="39"/>
     </row>
     <row r="422" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B422" s="93"/>
-      <c r="C422" s="96"/>
+      <c r="B422" s="99"/>
+      <c r="C422" s="92"/>
       <c r="D422" s="43"/>
       <c r="E422" s="41"/>
       <c r="F422" s="44"/>
@@ -8206,8 +8198,8 @@
       <c r="K422" s="39"/>
     </row>
     <row r="423" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B423" s="94"/>
-      <c r="C423" s="97"/>
+      <c r="B423" s="100"/>
+      <c r="C423" s="93"/>
       <c r="D423" s="43"/>
       <c r="E423" s="41"/>
       <c r="F423" s="44"/>
@@ -8218,8 +8210,8 @@
       <c r="K423" s="39"/>
     </row>
     <row r="424" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B424" s="93"/>
-      <c r="C424" s="96"/>
+      <c r="B424" s="99"/>
+      <c r="C424" s="92"/>
       <c r="D424" s="43"/>
       <c r="E424" s="41"/>
       <c r="F424" s="44"/>
@@ -8230,8 +8222,8 @@
       <c r="K424" s="39"/>
     </row>
     <row r="425" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B425" s="94"/>
-      <c r="C425" s="97"/>
+      <c r="B425" s="100"/>
+      <c r="C425" s="93"/>
       <c r="D425" s="43"/>
       <c r="E425" s="41"/>
       <c r="F425" s="44"/>
@@ -8242,8 +8234,8 @@
       <c r="K425" s="39"/>
     </row>
     <row r="426" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B426" s="93"/>
-      <c r="C426" s="96"/>
+      <c r="B426" s="99"/>
+      <c r="C426" s="92"/>
       <c r="D426" s="43"/>
       <c r="E426" s="41"/>
       <c r="F426" s="44"/>
@@ -8254,8 +8246,8 @@
       <c r="K426" s="39"/>
     </row>
     <row r="427" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B427" s="94"/>
-      <c r="C427" s="97"/>
+      <c r="B427" s="100"/>
+      <c r="C427" s="93"/>
       <c r="D427" s="43"/>
       <c r="E427" s="41"/>
       <c r="F427" s="44"/>
@@ -8266,8 +8258,8 @@
       <c r="K427" s="39"/>
     </row>
     <row r="428" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B428" s="93"/>
-      <c r="C428" s="96"/>
+      <c r="B428" s="99"/>
+      <c r="C428" s="92"/>
       <c r="D428" s="43"/>
       <c r="E428" s="41"/>
       <c r="F428" s="44"/>
@@ -8278,8 +8270,8 @@
       <c r="K428" s="39"/>
     </row>
     <row r="429" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B429" s="94"/>
-      <c r="C429" s="97"/>
+      <c r="B429" s="100"/>
+      <c r="C429" s="93"/>
       <c r="D429" s="43"/>
       <c r="E429" s="41"/>
       <c r="F429" s="44"/>
@@ -8290,8 +8282,8 @@
       <c r="K429" s="39"/>
     </row>
     <row r="430" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B430" s="93"/>
-      <c r="C430" s="96"/>
+      <c r="B430" s="99"/>
+      <c r="C430" s="92"/>
       <c r="D430" s="43"/>
       <c r="E430" s="41"/>
       <c r="F430" s="44"/>
@@ -8302,8 +8294,8 @@
       <c r="K430" s="39"/>
     </row>
     <row r="431" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B431" s="94"/>
-      <c r="C431" s="97"/>
+      <c r="B431" s="100"/>
+      <c r="C431" s="93"/>
       <c r="D431" s="43"/>
       <c r="E431" s="41"/>
       <c r="F431" s="44"/>
@@ -8314,8 +8306,8 @@
       <c r="K431" s="39"/>
     </row>
     <row r="432" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B432" s="93"/>
-      <c r="C432" s="96"/>
+      <c r="B432" s="99"/>
+      <c r="C432" s="92"/>
       <c r="D432" s="43"/>
       <c r="E432" s="41"/>
       <c r="F432" s="44"/>
@@ -8326,8 +8318,8 @@
       <c r="K432" s="39"/>
     </row>
     <row r="433" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B433" s="94"/>
-      <c r="C433" s="97"/>
+      <c r="B433" s="100"/>
+      <c r="C433" s="93"/>
       <c r="D433" s="43"/>
       <c r="E433" s="41"/>
       <c r="F433" s="44"/>
@@ -8338,8 +8330,8 @@
       <c r="K433" s="39"/>
     </row>
     <row r="434" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B434" s="93"/>
-      <c r="C434" s="96"/>
+      <c r="B434" s="99"/>
+      <c r="C434" s="92"/>
       <c r="D434" s="43"/>
       <c r="E434" s="41"/>
       <c r="F434" s="44"/>
@@ -8350,8 +8342,8 @@
       <c r="K434" s="39"/>
     </row>
     <row r="435" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B435" s="94"/>
-      <c r="C435" s="97"/>
+      <c r="B435" s="100"/>
+      <c r="C435" s="93"/>
       <c r="D435" s="43"/>
       <c r="E435" s="41"/>
       <c r="F435" s="44"/>
@@ -8362,8 +8354,8 @@
       <c r="K435" s="39"/>
     </row>
     <row r="436" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B436" s="93"/>
-      <c r="C436" s="96"/>
+      <c r="B436" s="99"/>
+      <c r="C436" s="92"/>
       <c r="D436" s="43"/>
       <c r="E436" s="41"/>
       <c r="F436" s="44"/>
@@ -8374,8 +8366,8 @@
       <c r="K436" s="39"/>
     </row>
     <row r="437" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B437" s="94"/>
-      <c r="C437" s="97"/>
+      <c r="B437" s="100"/>
+      <c r="C437" s="93"/>
       <c r="D437" s="43"/>
       <c r="E437" s="41"/>
       <c r="F437" s="44"/>
@@ -8386,8 +8378,8 @@
       <c r="K437" s="39"/>
     </row>
     <row r="438" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B438" s="93"/>
-      <c r="C438" s="96"/>
+      <c r="B438" s="99"/>
+      <c r="C438" s="92"/>
       <c r="D438" s="43"/>
       <c r="E438" s="41"/>
       <c r="F438" s="44"/>
@@ -8398,8 +8390,8 @@
       <c r="K438" s="39"/>
     </row>
     <row r="439" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B439" s="94"/>
-      <c r="C439" s="97"/>
+      <c r="B439" s="100"/>
+      <c r="C439" s="93"/>
       <c r="D439" s="43"/>
       <c r="E439" s="41"/>
       <c r="F439" s="44"/>
@@ -8410,8 +8402,8 @@
       <c r="K439" s="39"/>
     </row>
     <row r="440" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B440" s="93"/>
-      <c r="C440" s="96"/>
+      <c r="B440" s="99"/>
+      <c r="C440" s="92"/>
       <c r="D440" s="43"/>
       <c r="E440" s="41"/>
       <c r="F440" s="44"/>
@@ -8422,8 +8414,8 @@
       <c r="K440" s="39"/>
     </row>
     <row r="441" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B441" s="94"/>
-      <c r="C441" s="97"/>
+      <c r="B441" s="100"/>
+      <c r="C441" s="93"/>
       <c r="D441" s="43"/>
       <c r="E441" s="41"/>
       <c r="F441" s="44"/>
@@ -8434,8 +8426,8 @@
       <c r="K441" s="39"/>
     </row>
     <row r="442" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B442" s="93"/>
-      <c r="C442" s="96"/>
+      <c r="B442" s="99"/>
+      <c r="C442" s="92"/>
       <c r="D442" s="43"/>
       <c r="E442" s="41"/>
       <c r="F442" s="44"/>
@@ -8446,8 +8438,8 @@
       <c r="K442" s="39"/>
     </row>
     <row r="443" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B443" s="94"/>
-      <c r="C443" s="97"/>
+      <c r="B443" s="100"/>
+      <c r="C443" s="93"/>
       <c r="D443" s="43"/>
       <c r="E443" s="41"/>
       <c r="F443" s="44"/>
@@ -8458,8 +8450,8 @@
       <c r="K443" s="39"/>
     </row>
     <row r="444" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B444" s="93"/>
-      <c r="C444" s="96"/>
+      <c r="B444" s="99"/>
+      <c r="C444" s="92"/>
       <c r="D444" s="43"/>
       <c r="E444" s="41"/>
       <c r="F444" s="44"/>
@@ -8470,8 +8462,8 @@
       <c r="K444" s="39"/>
     </row>
     <row r="445" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B445" s="94"/>
-      <c r="C445" s="97"/>
+      <c r="B445" s="100"/>
+      <c r="C445" s="93"/>
       <c r="D445" s="43"/>
       <c r="E445" s="41"/>
       <c r="F445" s="44"/>
@@ -8482,8 +8474,8 @@
       <c r="K445" s="39"/>
     </row>
     <row r="446" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B446" s="93"/>
-      <c r="C446" s="96"/>
+      <c r="B446" s="99"/>
+      <c r="C446" s="92"/>
       <c r="D446" s="43"/>
       <c r="E446" s="41"/>
       <c r="F446" s="44"/>
@@ -8494,8 +8486,8 @@
       <c r="K446" s="39"/>
     </row>
     <row r="447" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B447" s="94"/>
-      <c r="C447" s="97"/>
+      <c r="B447" s="100"/>
+      <c r="C447" s="93"/>
       <c r="D447" s="43"/>
       <c r="E447" s="41"/>
       <c r="F447" s="44"/>
@@ -8506,8 +8498,8 @@
       <c r="K447" s="39"/>
     </row>
     <row r="448" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B448" s="93"/>
-      <c r="C448" s="96"/>
+      <c r="B448" s="99"/>
+      <c r="C448" s="92"/>
       <c r="D448" s="43"/>
       <c r="E448" s="41"/>
       <c r="F448" s="44"/>
@@ -8518,8 +8510,8 @@
       <c r="K448" s="39"/>
     </row>
     <row r="449" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B449" s="94"/>
-      <c r="C449" s="97"/>
+      <c r="B449" s="100"/>
+      <c r="C449" s="93"/>
       <c r="D449" s="43"/>
       <c r="E449" s="41"/>
       <c r="F449" s="44"/>
@@ -8530,8 +8522,8 @@
       <c r="K449" s="39"/>
     </row>
     <row r="450" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B450" s="93"/>
-      <c r="C450" s="96"/>
+      <c r="B450" s="99"/>
+      <c r="C450" s="92"/>
       <c r="D450" s="43"/>
       <c r="E450" s="41"/>
       <c r="F450" s="44"/>
@@ -8542,8 +8534,8 @@
       <c r="K450" s="39"/>
     </row>
     <row r="451" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B451" s="94"/>
-      <c r="C451" s="97"/>
+      <c r="B451" s="100"/>
+      <c r="C451" s="93"/>
       <c r="D451" s="43"/>
       <c r="E451" s="41"/>
       <c r="F451" s="44"/>
@@ -8554,8 +8546,8 @@
       <c r="K451" s="39"/>
     </row>
     <row r="452" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B452" s="93"/>
-      <c r="C452" s="96"/>
+      <c r="B452" s="99"/>
+      <c r="C452" s="92"/>
       <c r="D452" s="43"/>
       <c r="E452" s="41"/>
       <c r="F452" s="44"/>
@@ -8566,8 +8558,8 @@
       <c r="K452" s="39"/>
     </row>
     <row r="453" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B453" s="94"/>
-      <c r="C453" s="97"/>
+      <c r="B453" s="100"/>
+      <c r="C453" s="93"/>
       <c r="D453" s="43"/>
       <c r="E453" s="41"/>
       <c r="F453" s="44"/>
@@ -8578,8 +8570,8 @@
       <c r="K453" s="39"/>
     </row>
     <row r="454" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B454" s="93"/>
-      <c r="C454" s="96"/>
+      <c r="B454" s="99"/>
+      <c r="C454" s="92"/>
       <c r="D454" s="43"/>
       <c r="E454" s="41"/>
       <c r="F454" s="44"/>
@@ -8590,8 +8582,8 @@
       <c r="K454" s="39"/>
     </row>
     <row r="455" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B455" s="94"/>
-      <c r="C455" s="97"/>
+      <c r="B455" s="100"/>
+      <c r="C455" s="93"/>
       <c r="D455" s="43"/>
       <c r="E455" s="41"/>
       <c r="F455" s="44"/>
@@ -8602,8 +8594,8 @@
       <c r="K455" s="39"/>
     </row>
     <row r="456" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B456" s="93"/>
-      <c r="C456" s="96"/>
+      <c r="B456" s="99"/>
+      <c r="C456" s="92"/>
       <c r="D456" s="43"/>
       <c r="E456" s="41"/>
       <c r="F456" s="44"/>
@@ -8614,8 +8606,8 @@
       <c r="K456" s="39"/>
     </row>
     <row r="457" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B457" s="94"/>
-      <c r="C457" s="97"/>
+      <c r="B457" s="100"/>
+      <c r="C457" s="93"/>
       <c r="D457" s="43"/>
       <c r="E457" s="41"/>
       <c r="F457" s="44"/>
@@ -8626,8 +8618,8 @@
       <c r="K457" s="39"/>
     </row>
     <row r="458" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B458" s="93"/>
-      <c r="C458" s="96"/>
+      <c r="B458" s="99"/>
+      <c r="C458" s="92"/>
       <c r="D458" s="43"/>
       <c r="E458" s="41"/>
       <c r="F458" s="44"/>
@@ -8638,8 +8630,8 @@
       <c r="K458" s="39"/>
     </row>
     <row r="459" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B459" s="94"/>
-      <c r="C459" s="97"/>
+      <c r="B459" s="100"/>
+      <c r="C459" s="93"/>
       <c r="D459" s="43"/>
       <c r="E459" s="41"/>
       <c r="F459" s="44"/>
@@ -8650,8 +8642,8 @@
       <c r="K459" s="39"/>
     </row>
     <row r="460" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B460" s="93"/>
-      <c r="C460" s="96"/>
+      <c r="B460" s="99"/>
+      <c r="C460" s="92"/>
       <c r="D460" s="43"/>
       <c r="E460" s="41"/>
       <c r="F460" s="44"/>
@@ -8662,8 +8654,8 @@
       <c r="K460" s="39"/>
     </row>
     <row r="461" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B461" s="94"/>
-      <c r="C461" s="97"/>
+      <c r="B461" s="100"/>
+      <c r="C461" s="93"/>
       <c r="D461" s="43"/>
       <c r="E461" s="41"/>
       <c r="F461" s="44"/>
@@ -8674,8 +8666,8 @@
       <c r="K461" s="39"/>
     </row>
     <row r="462" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B462" s="93"/>
-      <c r="C462" s="96"/>
+      <c r="B462" s="99"/>
+      <c r="C462" s="92"/>
       <c r="D462" s="43"/>
       <c r="E462" s="41"/>
       <c r="F462" s="44"/>
@@ -8686,8 +8678,8 @@
       <c r="K462" s="39"/>
     </row>
     <row r="463" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B463" s="94"/>
-      <c r="C463" s="97"/>
+      <c r="B463" s="100"/>
+      <c r="C463" s="93"/>
       <c r="D463" s="43"/>
       <c r="E463" s="41"/>
       <c r="F463" s="44"/>
@@ -8698,8 +8690,8 @@
       <c r="K463" s="39"/>
     </row>
     <row r="464" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B464" s="93"/>
-      <c r="C464" s="96"/>
+      <c r="B464" s="99"/>
+      <c r="C464" s="92"/>
       <c r="D464" s="43"/>
       <c r="E464" s="41"/>
       <c r="F464" s="44"/>
@@ -8710,8 +8702,8 @@
       <c r="K464" s="39"/>
     </row>
     <row r="465" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B465" s="94"/>
-      <c r="C465" s="97"/>
+      <c r="B465" s="100"/>
+      <c r="C465" s="93"/>
       <c r="D465" s="43"/>
       <c r="E465" s="41"/>
       <c r="F465" s="44"/>
@@ -8722,8 +8714,8 @@
       <c r="K465" s="39"/>
     </row>
     <row r="466" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B466" s="93"/>
-      <c r="C466" s="96"/>
+      <c r="B466" s="99"/>
+      <c r="C466" s="92"/>
       <c r="D466" s="43"/>
       <c r="E466" s="41"/>
       <c r="F466" s="44"/>
@@ -8734,8 +8726,8 @@
       <c r="K466" s="39"/>
     </row>
     <row r="467" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B467" s="94"/>
-      <c r="C467" s="97"/>
+      <c r="B467" s="100"/>
+      <c r="C467" s="93"/>
       <c r="D467" s="43"/>
       <c r="E467" s="41"/>
       <c r="F467" s="44"/>
@@ -8748,290 +8740,222 @@
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" selectLockedCells="1" sort="0" autoFilter="0" pivotTables="0"/>
   <mergeCells count="524">
-    <mergeCell ref="C456:C457"/>
-    <mergeCell ref="C458:C459"/>
-    <mergeCell ref="C460:C461"/>
-    <mergeCell ref="C462:C463"/>
-    <mergeCell ref="C464:C465"/>
-    <mergeCell ref="C466:C467"/>
-    <mergeCell ref="C444:C445"/>
-    <mergeCell ref="C446:C447"/>
-    <mergeCell ref="C448:C449"/>
-    <mergeCell ref="C450:C451"/>
-    <mergeCell ref="C452:C453"/>
-    <mergeCell ref="C454:C455"/>
-    <mergeCell ref="C432:C433"/>
-    <mergeCell ref="C434:C435"/>
-    <mergeCell ref="C436:C437"/>
-    <mergeCell ref="C438:C439"/>
-    <mergeCell ref="C440:C441"/>
-    <mergeCell ref="C442:C443"/>
-    <mergeCell ref="C420:C421"/>
-    <mergeCell ref="C422:C423"/>
-    <mergeCell ref="C424:C425"/>
-    <mergeCell ref="C426:C427"/>
-    <mergeCell ref="C428:C429"/>
-    <mergeCell ref="C430:C431"/>
-    <mergeCell ref="C408:C409"/>
-    <mergeCell ref="C410:C411"/>
-    <mergeCell ref="C412:C413"/>
-    <mergeCell ref="C414:C415"/>
-    <mergeCell ref="C416:C417"/>
-    <mergeCell ref="C418:C419"/>
-    <mergeCell ref="C396:C397"/>
-    <mergeCell ref="C398:C399"/>
-    <mergeCell ref="C400:C401"/>
-    <mergeCell ref="C402:C403"/>
-    <mergeCell ref="C404:C405"/>
-    <mergeCell ref="C406:C407"/>
-    <mergeCell ref="C384:C385"/>
-    <mergeCell ref="C386:C387"/>
-    <mergeCell ref="C388:C389"/>
-    <mergeCell ref="C390:C391"/>
-    <mergeCell ref="C392:C393"/>
-    <mergeCell ref="C394:C395"/>
-    <mergeCell ref="C372:C373"/>
-    <mergeCell ref="C374:C375"/>
-    <mergeCell ref="C376:C377"/>
-    <mergeCell ref="C378:C379"/>
-    <mergeCell ref="C380:C381"/>
-    <mergeCell ref="C382:C383"/>
-    <mergeCell ref="C360:C361"/>
-    <mergeCell ref="C362:C363"/>
-    <mergeCell ref="C364:C365"/>
-    <mergeCell ref="C366:C367"/>
-    <mergeCell ref="C368:C369"/>
-    <mergeCell ref="C370:C371"/>
-    <mergeCell ref="C348:C349"/>
-    <mergeCell ref="C350:C351"/>
-    <mergeCell ref="C352:C353"/>
-    <mergeCell ref="C354:C355"/>
-    <mergeCell ref="C356:C357"/>
-    <mergeCell ref="C358:C359"/>
-    <mergeCell ref="C336:C337"/>
-    <mergeCell ref="C338:C339"/>
-    <mergeCell ref="C340:C341"/>
-    <mergeCell ref="C342:C343"/>
-    <mergeCell ref="C344:C345"/>
-    <mergeCell ref="C346:C347"/>
-    <mergeCell ref="C324:C325"/>
-    <mergeCell ref="C326:C327"/>
-    <mergeCell ref="C328:C329"/>
-    <mergeCell ref="C330:C331"/>
-    <mergeCell ref="C332:C333"/>
-    <mergeCell ref="C334:C335"/>
-    <mergeCell ref="C312:C313"/>
-    <mergeCell ref="C314:C315"/>
-    <mergeCell ref="C316:C317"/>
-    <mergeCell ref="C318:C319"/>
-    <mergeCell ref="C320:C321"/>
-    <mergeCell ref="C322:C323"/>
-    <mergeCell ref="C300:C301"/>
-    <mergeCell ref="C302:C303"/>
-    <mergeCell ref="C304:C305"/>
-    <mergeCell ref="C306:C307"/>
-    <mergeCell ref="C308:C309"/>
-    <mergeCell ref="C310:C311"/>
-    <mergeCell ref="C288:C289"/>
-    <mergeCell ref="C290:C291"/>
-    <mergeCell ref="C292:C293"/>
-    <mergeCell ref="C294:C295"/>
-    <mergeCell ref="C296:C297"/>
-    <mergeCell ref="C298:C299"/>
-    <mergeCell ref="C276:C277"/>
-    <mergeCell ref="C278:C279"/>
-    <mergeCell ref="C280:C281"/>
-    <mergeCell ref="C282:C283"/>
-    <mergeCell ref="C284:C285"/>
-    <mergeCell ref="C286:C287"/>
-    <mergeCell ref="C264:C265"/>
-    <mergeCell ref="C266:C267"/>
-    <mergeCell ref="C268:C269"/>
-    <mergeCell ref="C270:C271"/>
-    <mergeCell ref="C272:C273"/>
-    <mergeCell ref="C274:C275"/>
-    <mergeCell ref="C252:C253"/>
-    <mergeCell ref="C254:C255"/>
-    <mergeCell ref="C256:C257"/>
-    <mergeCell ref="C258:C259"/>
-    <mergeCell ref="C260:C261"/>
-    <mergeCell ref="C262:C263"/>
-    <mergeCell ref="C240:C241"/>
-    <mergeCell ref="C242:C243"/>
-    <mergeCell ref="C244:C245"/>
-    <mergeCell ref="C246:C247"/>
-    <mergeCell ref="C248:C249"/>
-    <mergeCell ref="C250:C251"/>
-    <mergeCell ref="C228:C229"/>
-    <mergeCell ref="C230:C231"/>
-    <mergeCell ref="C232:C233"/>
-    <mergeCell ref="C234:C235"/>
-    <mergeCell ref="C236:C237"/>
-    <mergeCell ref="C238:C239"/>
-    <mergeCell ref="C216:C217"/>
-    <mergeCell ref="C218:C219"/>
-    <mergeCell ref="C220:C221"/>
-    <mergeCell ref="C222:C223"/>
-    <mergeCell ref="C224:C225"/>
-    <mergeCell ref="C226:C227"/>
-    <mergeCell ref="C204:C205"/>
-    <mergeCell ref="C206:C207"/>
-    <mergeCell ref="C208:C209"/>
-    <mergeCell ref="C210:C211"/>
-    <mergeCell ref="C212:C213"/>
-    <mergeCell ref="C214:C215"/>
-    <mergeCell ref="C192:C193"/>
-    <mergeCell ref="C194:C195"/>
-    <mergeCell ref="C196:C197"/>
-    <mergeCell ref="C198:C199"/>
-    <mergeCell ref="C200:C201"/>
-    <mergeCell ref="C202:C203"/>
-    <mergeCell ref="C180:C181"/>
-    <mergeCell ref="C182:C183"/>
-    <mergeCell ref="C184:C185"/>
-    <mergeCell ref="C186:C187"/>
-    <mergeCell ref="C188:C189"/>
-    <mergeCell ref="C190:C191"/>
-    <mergeCell ref="E148:E149"/>
-    <mergeCell ref="E150:E151"/>
-    <mergeCell ref="C10:C11"/>
-    <mergeCell ref="C12:C13"/>
-    <mergeCell ref="C17:C18"/>
-    <mergeCell ref="E136:E137"/>
-    <mergeCell ref="E138:E139"/>
-    <mergeCell ref="E140:E141"/>
-    <mergeCell ref="E142:E143"/>
-    <mergeCell ref="E144:E145"/>
-    <mergeCell ref="E146:E147"/>
-    <mergeCell ref="E124:E125"/>
-    <mergeCell ref="E126:E127"/>
-    <mergeCell ref="E128:E129"/>
-    <mergeCell ref="E130:E131"/>
-    <mergeCell ref="E132:E133"/>
-    <mergeCell ref="E134:E135"/>
-    <mergeCell ref="E112:E113"/>
-    <mergeCell ref="E114:E115"/>
-    <mergeCell ref="E116:E117"/>
-    <mergeCell ref="E118:E119"/>
-    <mergeCell ref="E120:E121"/>
-    <mergeCell ref="E122:E123"/>
-    <mergeCell ref="E100:E101"/>
-    <mergeCell ref="E102:E103"/>
-    <mergeCell ref="E104:E105"/>
-    <mergeCell ref="E106:E107"/>
-    <mergeCell ref="E108:E109"/>
-    <mergeCell ref="E110:E111"/>
-    <mergeCell ref="E88:E89"/>
-    <mergeCell ref="E90:E91"/>
-    <mergeCell ref="E92:E93"/>
-    <mergeCell ref="E94:E95"/>
-    <mergeCell ref="E96:E97"/>
-    <mergeCell ref="E98:E99"/>
-    <mergeCell ref="E76:E77"/>
-    <mergeCell ref="E78:E79"/>
-    <mergeCell ref="E80:E81"/>
-    <mergeCell ref="E82:E83"/>
-    <mergeCell ref="E84:E85"/>
-    <mergeCell ref="E86:E87"/>
-    <mergeCell ref="E64:E65"/>
-    <mergeCell ref="E68:E69"/>
-    <mergeCell ref="E70:E71"/>
-    <mergeCell ref="E72:E73"/>
-    <mergeCell ref="E74:E75"/>
-    <mergeCell ref="E52:E53"/>
-    <mergeCell ref="E54:E55"/>
-    <mergeCell ref="E56:E57"/>
-    <mergeCell ref="E58:E59"/>
-    <mergeCell ref="E60:E61"/>
-    <mergeCell ref="E62:E63"/>
-    <mergeCell ref="E40:E41"/>
-    <mergeCell ref="E42:E43"/>
-    <mergeCell ref="E44:E45"/>
-    <mergeCell ref="E46:E47"/>
-    <mergeCell ref="E48:E49"/>
-    <mergeCell ref="E50:E51"/>
-    <mergeCell ref="E30:E31"/>
-    <mergeCell ref="E32:E33"/>
-    <mergeCell ref="E34:E35"/>
-    <mergeCell ref="E36:E37"/>
-    <mergeCell ref="E38:E39"/>
-    <mergeCell ref="E20:E21"/>
-    <mergeCell ref="E22:E23"/>
-    <mergeCell ref="E24:E25"/>
-    <mergeCell ref="E26:E27"/>
-    <mergeCell ref="E10:E11"/>
-    <mergeCell ref="E12:E13"/>
-    <mergeCell ref="E14:E16"/>
-    <mergeCell ref="E17:E18"/>
-    <mergeCell ref="C20:C21"/>
-    <mergeCell ref="C22:C23"/>
-    <mergeCell ref="C24:C25"/>
-    <mergeCell ref="C26:C27"/>
-    <mergeCell ref="C28:C29"/>
-    <mergeCell ref="E28:E29"/>
-    <mergeCell ref="C30:C31"/>
-    <mergeCell ref="C32:C33"/>
-    <mergeCell ref="C34:C35"/>
-    <mergeCell ref="C36:C37"/>
-    <mergeCell ref="C38:C39"/>
-    <mergeCell ref="C40:C41"/>
-    <mergeCell ref="C42:C43"/>
-    <mergeCell ref="C44:C45"/>
-    <mergeCell ref="C46:C47"/>
-    <mergeCell ref="C48:C49"/>
-    <mergeCell ref="C50:C51"/>
-    <mergeCell ref="C52:C53"/>
-    <mergeCell ref="C54:C55"/>
-    <mergeCell ref="C56:C57"/>
-    <mergeCell ref="C58:C59"/>
-    <mergeCell ref="C60:C61"/>
-    <mergeCell ref="C62:C63"/>
-    <mergeCell ref="C64:C65"/>
-    <mergeCell ref="C68:C69"/>
-    <mergeCell ref="C70:C71"/>
-    <mergeCell ref="C72:C73"/>
-    <mergeCell ref="C74:C75"/>
-    <mergeCell ref="C76:C77"/>
-    <mergeCell ref="C78:C79"/>
-    <mergeCell ref="C80:C81"/>
-    <mergeCell ref="C82:C83"/>
-    <mergeCell ref="C84:C85"/>
-    <mergeCell ref="C86:C87"/>
-    <mergeCell ref="C88:C89"/>
-    <mergeCell ref="C90:C91"/>
-    <mergeCell ref="C92:C93"/>
-    <mergeCell ref="C94:C95"/>
-    <mergeCell ref="C96:C97"/>
-    <mergeCell ref="C98:C99"/>
-    <mergeCell ref="C100:C101"/>
-    <mergeCell ref="C102:C103"/>
-    <mergeCell ref="C104:C105"/>
-    <mergeCell ref="C106:C107"/>
-    <mergeCell ref="C108:C109"/>
-    <mergeCell ref="C110:C111"/>
-    <mergeCell ref="C112:C113"/>
-    <mergeCell ref="C114:C115"/>
-    <mergeCell ref="C116:C117"/>
-    <mergeCell ref="C118:C119"/>
-    <mergeCell ref="C120:C121"/>
-    <mergeCell ref="C122:C123"/>
-    <mergeCell ref="C124:C125"/>
-    <mergeCell ref="C126:C127"/>
-    <mergeCell ref="C128:C129"/>
-    <mergeCell ref="C130:C131"/>
-    <mergeCell ref="C132:C133"/>
-    <mergeCell ref="C134:C135"/>
-    <mergeCell ref="C136:C137"/>
-    <mergeCell ref="C138:C139"/>
-    <mergeCell ref="C140:C141"/>
-    <mergeCell ref="C142:C143"/>
-    <mergeCell ref="C144:C145"/>
-    <mergeCell ref="C146:C147"/>
-    <mergeCell ref="C148:C149"/>
-    <mergeCell ref="C150:C151"/>
-    <mergeCell ref="C152:C153"/>
-    <mergeCell ref="C154:C155"/>
-    <mergeCell ref="C156:C157"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="B34:B35"/>
+    <mergeCell ref="B36:B37"/>
+    <mergeCell ref="B38:B39"/>
+    <mergeCell ref="B40:B41"/>
+    <mergeCell ref="B42:B43"/>
+    <mergeCell ref="B44:B45"/>
+    <mergeCell ref="B24:B25"/>
+    <mergeCell ref="B26:B27"/>
+    <mergeCell ref="B28:B29"/>
+    <mergeCell ref="B30:B31"/>
+    <mergeCell ref="B32:B33"/>
+    <mergeCell ref="B46:B47"/>
+    <mergeCell ref="B48:B49"/>
+    <mergeCell ref="B50:B51"/>
+    <mergeCell ref="B52:B53"/>
+    <mergeCell ref="B54:B55"/>
+    <mergeCell ref="B56:B57"/>
+    <mergeCell ref="C178:C179"/>
+    <mergeCell ref="C14:C16"/>
+    <mergeCell ref="B12:B13"/>
+    <mergeCell ref="B14:B16"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="B20:B21"/>
+    <mergeCell ref="B22:B23"/>
+    <mergeCell ref="B58:B59"/>
+    <mergeCell ref="B60:B61"/>
+    <mergeCell ref="B62:B63"/>
+    <mergeCell ref="B70:B71"/>
+    <mergeCell ref="B72:B73"/>
+    <mergeCell ref="B74:B75"/>
+    <mergeCell ref="B76:B77"/>
+    <mergeCell ref="B78:B79"/>
+    <mergeCell ref="B80:B81"/>
+    <mergeCell ref="B64:B65"/>
+    <mergeCell ref="B66:B67"/>
+    <mergeCell ref="B68:B69"/>
+    <mergeCell ref="B94:B95"/>
+    <mergeCell ref="B96:B97"/>
+    <mergeCell ref="B98:B99"/>
+    <mergeCell ref="B100:B101"/>
+    <mergeCell ref="B102:B103"/>
+    <mergeCell ref="B104:B105"/>
+    <mergeCell ref="B82:B83"/>
+    <mergeCell ref="B84:B85"/>
+    <mergeCell ref="B86:B87"/>
+    <mergeCell ref="B88:B89"/>
+    <mergeCell ref="B90:B91"/>
+    <mergeCell ref="B92:B93"/>
+    <mergeCell ref="B118:B119"/>
+    <mergeCell ref="B120:B121"/>
+    <mergeCell ref="B122:B123"/>
+    <mergeCell ref="B124:B125"/>
+    <mergeCell ref="B126:B127"/>
+    <mergeCell ref="B128:B129"/>
+    <mergeCell ref="B106:B107"/>
+    <mergeCell ref="B108:B109"/>
+    <mergeCell ref="B110:B111"/>
+    <mergeCell ref="B112:B113"/>
+    <mergeCell ref="B114:B115"/>
+    <mergeCell ref="B116:B117"/>
+    <mergeCell ref="B142:B143"/>
+    <mergeCell ref="B144:B145"/>
+    <mergeCell ref="B146:B147"/>
+    <mergeCell ref="B148:B149"/>
+    <mergeCell ref="B150:B151"/>
+    <mergeCell ref="B152:B153"/>
+    <mergeCell ref="B130:B131"/>
+    <mergeCell ref="B132:B133"/>
+    <mergeCell ref="B134:B135"/>
+    <mergeCell ref="B136:B137"/>
+    <mergeCell ref="B138:B139"/>
+    <mergeCell ref="B140:B141"/>
+    <mergeCell ref="B166:B167"/>
+    <mergeCell ref="B168:B169"/>
+    <mergeCell ref="B170:B171"/>
+    <mergeCell ref="B172:B173"/>
+    <mergeCell ref="B174:B175"/>
+    <mergeCell ref="B176:B177"/>
+    <mergeCell ref="B154:B155"/>
+    <mergeCell ref="B156:B157"/>
+    <mergeCell ref="B158:B159"/>
+    <mergeCell ref="B160:B161"/>
+    <mergeCell ref="B162:B163"/>
+    <mergeCell ref="B164:B165"/>
+    <mergeCell ref="B190:B191"/>
+    <mergeCell ref="B192:B193"/>
+    <mergeCell ref="B194:B195"/>
+    <mergeCell ref="B196:B197"/>
+    <mergeCell ref="B198:B199"/>
+    <mergeCell ref="B200:B201"/>
+    <mergeCell ref="B178:B179"/>
+    <mergeCell ref="B180:B181"/>
+    <mergeCell ref="B182:B183"/>
+    <mergeCell ref="B184:B185"/>
+    <mergeCell ref="B186:B187"/>
+    <mergeCell ref="B188:B189"/>
+    <mergeCell ref="B214:B215"/>
+    <mergeCell ref="B216:B217"/>
+    <mergeCell ref="B218:B219"/>
+    <mergeCell ref="B220:B221"/>
+    <mergeCell ref="B222:B223"/>
+    <mergeCell ref="B224:B225"/>
+    <mergeCell ref="B202:B203"/>
+    <mergeCell ref="B204:B205"/>
+    <mergeCell ref="B206:B207"/>
+    <mergeCell ref="B208:B209"/>
+    <mergeCell ref="B210:B211"/>
+    <mergeCell ref="B212:B213"/>
+    <mergeCell ref="B238:B239"/>
+    <mergeCell ref="B240:B241"/>
+    <mergeCell ref="B242:B243"/>
+    <mergeCell ref="B244:B245"/>
+    <mergeCell ref="B246:B247"/>
+    <mergeCell ref="B248:B249"/>
+    <mergeCell ref="B226:B227"/>
+    <mergeCell ref="B228:B229"/>
+    <mergeCell ref="B230:B231"/>
+    <mergeCell ref="B232:B233"/>
+    <mergeCell ref="B234:B235"/>
+    <mergeCell ref="B236:B237"/>
+    <mergeCell ref="B262:B263"/>
+    <mergeCell ref="B264:B265"/>
+    <mergeCell ref="B266:B267"/>
+    <mergeCell ref="B268:B269"/>
+    <mergeCell ref="B270:B271"/>
+    <mergeCell ref="B272:B273"/>
+    <mergeCell ref="B250:B251"/>
+    <mergeCell ref="B252:B253"/>
+    <mergeCell ref="B254:B255"/>
+    <mergeCell ref="B256:B257"/>
+    <mergeCell ref="B258:B259"/>
+    <mergeCell ref="B260:B261"/>
+    <mergeCell ref="B286:B287"/>
+    <mergeCell ref="B288:B289"/>
+    <mergeCell ref="B290:B291"/>
+    <mergeCell ref="B292:B293"/>
+    <mergeCell ref="B294:B295"/>
+    <mergeCell ref="B296:B297"/>
+    <mergeCell ref="B274:B275"/>
+    <mergeCell ref="B276:B277"/>
+    <mergeCell ref="B278:B279"/>
+    <mergeCell ref="B280:B281"/>
+    <mergeCell ref="B282:B283"/>
+    <mergeCell ref="B284:B285"/>
+    <mergeCell ref="B310:B311"/>
+    <mergeCell ref="B312:B313"/>
+    <mergeCell ref="B314:B315"/>
+    <mergeCell ref="B316:B317"/>
+    <mergeCell ref="B318:B319"/>
+    <mergeCell ref="B320:B321"/>
+    <mergeCell ref="B298:B299"/>
+    <mergeCell ref="B300:B301"/>
+    <mergeCell ref="B302:B303"/>
+    <mergeCell ref="B304:B305"/>
+    <mergeCell ref="B306:B307"/>
+    <mergeCell ref="B308:B309"/>
+    <mergeCell ref="B334:B335"/>
+    <mergeCell ref="B336:B337"/>
+    <mergeCell ref="B338:B339"/>
+    <mergeCell ref="B340:B341"/>
+    <mergeCell ref="B342:B343"/>
+    <mergeCell ref="B344:B345"/>
+    <mergeCell ref="B322:B323"/>
+    <mergeCell ref="B324:B325"/>
+    <mergeCell ref="B326:B327"/>
+    <mergeCell ref="B328:B329"/>
+    <mergeCell ref="B330:B331"/>
+    <mergeCell ref="B332:B333"/>
+    <mergeCell ref="B358:B359"/>
+    <mergeCell ref="B360:B361"/>
+    <mergeCell ref="B362:B363"/>
+    <mergeCell ref="B364:B365"/>
+    <mergeCell ref="B366:B367"/>
+    <mergeCell ref="B368:B369"/>
+    <mergeCell ref="B346:B347"/>
+    <mergeCell ref="B348:B349"/>
+    <mergeCell ref="B350:B351"/>
+    <mergeCell ref="B352:B353"/>
+    <mergeCell ref="B354:B355"/>
+    <mergeCell ref="B356:B357"/>
+    <mergeCell ref="B382:B383"/>
+    <mergeCell ref="B384:B385"/>
+    <mergeCell ref="B386:B387"/>
+    <mergeCell ref="B388:B389"/>
+    <mergeCell ref="B390:B391"/>
+    <mergeCell ref="B392:B393"/>
+    <mergeCell ref="B370:B371"/>
+    <mergeCell ref="B372:B373"/>
+    <mergeCell ref="B374:B375"/>
+    <mergeCell ref="B376:B377"/>
+    <mergeCell ref="B378:B379"/>
+    <mergeCell ref="B380:B381"/>
+    <mergeCell ref="B406:B407"/>
+    <mergeCell ref="B408:B409"/>
+    <mergeCell ref="B410:B411"/>
+    <mergeCell ref="B412:B413"/>
+    <mergeCell ref="B414:B415"/>
+    <mergeCell ref="B416:B417"/>
+    <mergeCell ref="B394:B395"/>
+    <mergeCell ref="B396:B397"/>
+    <mergeCell ref="B398:B399"/>
+    <mergeCell ref="B400:B401"/>
+    <mergeCell ref="B402:B403"/>
+    <mergeCell ref="B404:B405"/>
+    <mergeCell ref="B432:B433"/>
+    <mergeCell ref="B434:B435"/>
+    <mergeCell ref="B436:B437"/>
+    <mergeCell ref="B438:B439"/>
+    <mergeCell ref="B440:B441"/>
+    <mergeCell ref="B418:B419"/>
+    <mergeCell ref="B420:B421"/>
+    <mergeCell ref="B422:B423"/>
+    <mergeCell ref="B424:B425"/>
+    <mergeCell ref="B426:B427"/>
+    <mergeCell ref="B428:B429"/>
     <mergeCell ref="C158:C159"/>
     <mergeCell ref="B466:B467"/>
     <mergeCell ref="C160:C161"/>
@@ -9056,222 +8980,290 @@
     <mergeCell ref="B450:B451"/>
     <mergeCell ref="B452:B453"/>
     <mergeCell ref="B430:B431"/>
-    <mergeCell ref="B432:B433"/>
-    <mergeCell ref="B434:B435"/>
-    <mergeCell ref="B436:B437"/>
-    <mergeCell ref="B438:B439"/>
-    <mergeCell ref="B440:B441"/>
-    <mergeCell ref="B418:B419"/>
-    <mergeCell ref="B420:B421"/>
-    <mergeCell ref="B422:B423"/>
-    <mergeCell ref="B424:B425"/>
-    <mergeCell ref="B426:B427"/>
-    <mergeCell ref="B428:B429"/>
-    <mergeCell ref="B406:B407"/>
-    <mergeCell ref="B408:B409"/>
-    <mergeCell ref="B410:B411"/>
-    <mergeCell ref="B412:B413"/>
-    <mergeCell ref="B414:B415"/>
-    <mergeCell ref="B416:B417"/>
-    <mergeCell ref="B394:B395"/>
-    <mergeCell ref="B396:B397"/>
-    <mergeCell ref="B398:B399"/>
-    <mergeCell ref="B400:B401"/>
-    <mergeCell ref="B402:B403"/>
-    <mergeCell ref="B404:B405"/>
-    <mergeCell ref="B382:B383"/>
-    <mergeCell ref="B384:B385"/>
-    <mergeCell ref="B386:B387"/>
-    <mergeCell ref="B388:B389"/>
-    <mergeCell ref="B390:B391"/>
-    <mergeCell ref="B392:B393"/>
-    <mergeCell ref="B370:B371"/>
-    <mergeCell ref="B372:B373"/>
-    <mergeCell ref="B374:B375"/>
-    <mergeCell ref="B376:B377"/>
-    <mergeCell ref="B378:B379"/>
-    <mergeCell ref="B380:B381"/>
-    <mergeCell ref="B358:B359"/>
-    <mergeCell ref="B360:B361"/>
-    <mergeCell ref="B362:B363"/>
-    <mergeCell ref="B364:B365"/>
-    <mergeCell ref="B366:B367"/>
-    <mergeCell ref="B368:B369"/>
-    <mergeCell ref="B346:B347"/>
-    <mergeCell ref="B348:B349"/>
-    <mergeCell ref="B350:B351"/>
-    <mergeCell ref="B352:B353"/>
-    <mergeCell ref="B354:B355"/>
-    <mergeCell ref="B356:B357"/>
-    <mergeCell ref="B334:B335"/>
-    <mergeCell ref="B336:B337"/>
-    <mergeCell ref="B338:B339"/>
-    <mergeCell ref="B340:B341"/>
-    <mergeCell ref="B342:B343"/>
-    <mergeCell ref="B344:B345"/>
-    <mergeCell ref="B322:B323"/>
-    <mergeCell ref="B324:B325"/>
-    <mergeCell ref="B326:B327"/>
-    <mergeCell ref="B328:B329"/>
-    <mergeCell ref="B330:B331"/>
-    <mergeCell ref="B332:B333"/>
-    <mergeCell ref="B310:B311"/>
-    <mergeCell ref="B312:B313"/>
-    <mergeCell ref="B314:B315"/>
-    <mergeCell ref="B316:B317"/>
-    <mergeCell ref="B318:B319"/>
-    <mergeCell ref="B320:B321"/>
-    <mergeCell ref="B298:B299"/>
-    <mergeCell ref="B300:B301"/>
-    <mergeCell ref="B302:B303"/>
-    <mergeCell ref="B304:B305"/>
-    <mergeCell ref="B306:B307"/>
-    <mergeCell ref="B308:B309"/>
-    <mergeCell ref="B286:B287"/>
-    <mergeCell ref="B288:B289"/>
-    <mergeCell ref="B290:B291"/>
-    <mergeCell ref="B292:B293"/>
-    <mergeCell ref="B294:B295"/>
-    <mergeCell ref="B296:B297"/>
-    <mergeCell ref="B274:B275"/>
-    <mergeCell ref="B276:B277"/>
-    <mergeCell ref="B278:B279"/>
-    <mergeCell ref="B280:B281"/>
-    <mergeCell ref="B282:B283"/>
-    <mergeCell ref="B284:B285"/>
-    <mergeCell ref="B262:B263"/>
-    <mergeCell ref="B264:B265"/>
-    <mergeCell ref="B266:B267"/>
-    <mergeCell ref="B268:B269"/>
-    <mergeCell ref="B270:B271"/>
-    <mergeCell ref="B272:B273"/>
-    <mergeCell ref="B250:B251"/>
-    <mergeCell ref="B252:B253"/>
-    <mergeCell ref="B254:B255"/>
-    <mergeCell ref="B256:B257"/>
-    <mergeCell ref="B258:B259"/>
-    <mergeCell ref="B260:B261"/>
-    <mergeCell ref="B238:B239"/>
-    <mergeCell ref="B240:B241"/>
-    <mergeCell ref="B242:B243"/>
-    <mergeCell ref="B244:B245"/>
-    <mergeCell ref="B246:B247"/>
-    <mergeCell ref="B248:B249"/>
-    <mergeCell ref="B226:B227"/>
-    <mergeCell ref="B228:B229"/>
-    <mergeCell ref="B230:B231"/>
-    <mergeCell ref="B232:B233"/>
-    <mergeCell ref="B234:B235"/>
-    <mergeCell ref="B236:B237"/>
-    <mergeCell ref="B214:B215"/>
-    <mergeCell ref="B216:B217"/>
-    <mergeCell ref="B218:B219"/>
-    <mergeCell ref="B220:B221"/>
-    <mergeCell ref="B222:B223"/>
-    <mergeCell ref="B224:B225"/>
-    <mergeCell ref="B202:B203"/>
-    <mergeCell ref="B204:B205"/>
-    <mergeCell ref="B206:B207"/>
-    <mergeCell ref="B208:B209"/>
-    <mergeCell ref="B210:B211"/>
-    <mergeCell ref="B212:B213"/>
-    <mergeCell ref="B190:B191"/>
-    <mergeCell ref="B192:B193"/>
-    <mergeCell ref="B194:B195"/>
-    <mergeCell ref="B196:B197"/>
-    <mergeCell ref="B198:B199"/>
-    <mergeCell ref="B200:B201"/>
-    <mergeCell ref="B178:B179"/>
-    <mergeCell ref="B180:B181"/>
-    <mergeCell ref="B182:B183"/>
-    <mergeCell ref="B184:B185"/>
-    <mergeCell ref="B186:B187"/>
-    <mergeCell ref="B188:B189"/>
-    <mergeCell ref="B166:B167"/>
-    <mergeCell ref="B168:B169"/>
-    <mergeCell ref="B170:B171"/>
-    <mergeCell ref="B172:B173"/>
-    <mergeCell ref="B174:B175"/>
-    <mergeCell ref="B176:B177"/>
-    <mergeCell ref="B154:B155"/>
-    <mergeCell ref="B156:B157"/>
-    <mergeCell ref="B158:B159"/>
-    <mergeCell ref="B160:B161"/>
-    <mergeCell ref="B162:B163"/>
-    <mergeCell ref="B164:B165"/>
-    <mergeCell ref="B142:B143"/>
-    <mergeCell ref="B144:B145"/>
-    <mergeCell ref="B146:B147"/>
-    <mergeCell ref="B148:B149"/>
-    <mergeCell ref="B150:B151"/>
-    <mergeCell ref="B152:B153"/>
-    <mergeCell ref="B130:B131"/>
-    <mergeCell ref="B132:B133"/>
-    <mergeCell ref="B134:B135"/>
-    <mergeCell ref="B136:B137"/>
-    <mergeCell ref="B138:B139"/>
-    <mergeCell ref="B140:B141"/>
-    <mergeCell ref="B118:B119"/>
-    <mergeCell ref="B120:B121"/>
-    <mergeCell ref="B122:B123"/>
-    <mergeCell ref="B124:B125"/>
-    <mergeCell ref="B126:B127"/>
-    <mergeCell ref="B128:B129"/>
-    <mergeCell ref="B106:B107"/>
-    <mergeCell ref="B108:B109"/>
-    <mergeCell ref="B110:B111"/>
-    <mergeCell ref="B112:B113"/>
-    <mergeCell ref="B114:B115"/>
-    <mergeCell ref="B116:B117"/>
-    <mergeCell ref="B68:B69"/>
-    <mergeCell ref="B94:B95"/>
-    <mergeCell ref="B96:B97"/>
-    <mergeCell ref="B98:B99"/>
-    <mergeCell ref="B100:B101"/>
-    <mergeCell ref="B102:B103"/>
-    <mergeCell ref="B104:B105"/>
-    <mergeCell ref="B82:B83"/>
-    <mergeCell ref="B84:B85"/>
-    <mergeCell ref="B86:B87"/>
-    <mergeCell ref="B88:B89"/>
-    <mergeCell ref="B90:B91"/>
-    <mergeCell ref="B92:B93"/>
-    <mergeCell ref="B46:B47"/>
-    <mergeCell ref="B48:B49"/>
-    <mergeCell ref="B50:B51"/>
-    <mergeCell ref="B52:B53"/>
-    <mergeCell ref="B54:B55"/>
-    <mergeCell ref="B56:B57"/>
-    <mergeCell ref="C178:C179"/>
-    <mergeCell ref="C14:C16"/>
-    <mergeCell ref="B12:B13"/>
-    <mergeCell ref="B14:B16"/>
-    <mergeCell ref="B17:B18"/>
-    <mergeCell ref="B20:B21"/>
-    <mergeCell ref="B22:B23"/>
-    <mergeCell ref="B58:B59"/>
-    <mergeCell ref="B60:B61"/>
-    <mergeCell ref="B62:B63"/>
-    <mergeCell ref="B70:B71"/>
-    <mergeCell ref="B72:B73"/>
-    <mergeCell ref="B74:B75"/>
-    <mergeCell ref="B76:B77"/>
-    <mergeCell ref="B78:B79"/>
-    <mergeCell ref="B80:B81"/>
-    <mergeCell ref="B64:B65"/>
-    <mergeCell ref="B66:B67"/>
-    <mergeCell ref="B10:B11"/>
-    <mergeCell ref="B34:B35"/>
-    <mergeCell ref="B36:B37"/>
-    <mergeCell ref="B38:B39"/>
-    <mergeCell ref="B40:B41"/>
-    <mergeCell ref="B42:B43"/>
-    <mergeCell ref="B44:B45"/>
-    <mergeCell ref="B24:B25"/>
-    <mergeCell ref="B26:B27"/>
-    <mergeCell ref="B28:B29"/>
-    <mergeCell ref="B30:B31"/>
-    <mergeCell ref="B32:B33"/>
+    <mergeCell ref="C140:C141"/>
+    <mergeCell ref="C142:C143"/>
+    <mergeCell ref="C144:C145"/>
+    <mergeCell ref="C146:C147"/>
+    <mergeCell ref="C148:C149"/>
+    <mergeCell ref="C150:C151"/>
+    <mergeCell ref="C152:C153"/>
+    <mergeCell ref="C154:C155"/>
+    <mergeCell ref="C156:C157"/>
+    <mergeCell ref="C122:C123"/>
+    <mergeCell ref="C124:C125"/>
+    <mergeCell ref="C126:C127"/>
+    <mergeCell ref="C128:C129"/>
+    <mergeCell ref="C130:C131"/>
+    <mergeCell ref="C132:C133"/>
+    <mergeCell ref="C134:C135"/>
+    <mergeCell ref="C136:C137"/>
+    <mergeCell ref="C138:C139"/>
+    <mergeCell ref="C104:C105"/>
+    <mergeCell ref="C106:C107"/>
+    <mergeCell ref="C108:C109"/>
+    <mergeCell ref="C110:C111"/>
+    <mergeCell ref="C112:C113"/>
+    <mergeCell ref="C114:C115"/>
+    <mergeCell ref="C116:C117"/>
+    <mergeCell ref="C118:C119"/>
+    <mergeCell ref="C120:C121"/>
+    <mergeCell ref="C86:C87"/>
+    <mergeCell ref="C88:C89"/>
+    <mergeCell ref="C90:C91"/>
+    <mergeCell ref="C92:C93"/>
+    <mergeCell ref="C94:C95"/>
+    <mergeCell ref="C96:C97"/>
+    <mergeCell ref="C98:C99"/>
+    <mergeCell ref="C100:C101"/>
+    <mergeCell ref="C102:C103"/>
+    <mergeCell ref="C68:C69"/>
+    <mergeCell ref="C70:C71"/>
+    <mergeCell ref="C72:C73"/>
+    <mergeCell ref="C74:C75"/>
+    <mergeCell ref="C76:C77"/>
+    <mergeCell ref="C78:C79"/>
+    <mergeCell ref="C80:C81"/>
+    <mergeCell ref="C82:C83"/>
+    <mergeCell ref="C84:C85"/>
+    <mergeCell ref="C48:C49"/>
+    <mergeCell ref="C50:C51"/>
+    <mergeCell ref="C52:C53"/>
+    <mergeCell ref="C54:C55"/>
+    <mergeCell ref="C56:C57"/>
+    <mergeCell ref="C58:C59"/>
+    <mergeCell ref="C60:C61"/>
+    <mergeCell ref="C62:C63"/>
+    <mergeCell ref="C64:C65"/>
+    <mergeCell ref="C30:C31"/>
+    <mergeCell ref="C32:C33"/>
+    <mergeCell ref="C34:C35"/>
+    <mergeCell ref="C36:C37"/>
+    <mergeCell ref="C38:C39"/>
+    <mergeCell ref="C40:C41"/>
+    <mergeCell ref="C42:C43"/>
+    <mergeCell ref="C44:C45"/>
+    <mergeCell ref="C46:C47"/>
+    <mergeCell ref="E10:E11"/>
+    <mergeCell ref="E12:E13"/>
+    <mergeCell ref="E14:E16"/>
+    <mergeCell ref="E17:E18"/>
+    <mergeCell ref="C20:C21"/>
+    <mergeCell ref="C22:C23"/>
+    <mergeCell ref="C24:C25"/>
+    <mergeCell ref="C26:C27"/>
+    <mergeCell ref="C28:C29"/>
+    <mergeCell ref="E28:E29"/>
+    <mergeCell ref="E30:E31"/>
+    <mergeCell ref="E32:E33"/>
+    <mergeCell ref="E34:E35"/>
+    <mergeCell ref="E36:E37"/>
+    <mergeCell ref="E38:E39"/>
+    <mergeCell ref="E20:E21"/>
+    <mergeCell ref="E22:E23"/>
+    <mergeCell ref="E24:E25"/>
+    <mergeCell ref="E26:E27"/>
+    <mergeCell ref="E52:E53"/>
+    <mergeCell ref="E54:E55"/>
+    <mergeCell ref="E56:E57"/>
+    <mergeCell ref="E58:E59"/>
+    <mergeCell ref="E60:E61"/>
+    <mergeCell ref="E62:E63"/>
+    <mergeCell ref="E40:E41"/>
+    <mergeCell ref="E42:E43"/>
+    <mergeCell ref="E44:E45"/>
+    <mergeCell ref="E46:E47"/>
+    <mergeCell ref="E48:E49"/>
+    <mergeCell ref="E50:E51"/>
+    <mergeCell ref="E76:E77"/>
+    <mergeCell ref="E78:E79"/>
+    <mergeCell ref="E80:E81"/>
+    <mergeCell ref="E82:E83"/>
+    <mergeCell ref="E84:E85"/>
+    <mergeCell ref="E86:E87"/>
+    <mergeCell ref="E64:E65"/>
+    <mergeCell ref="E68:E69"/>
+    <mergeCell ref="E70:E71"/>
+    <mergeCell ref="E72:E73"/>
+    <mergeCell ref="E74:E75"/>
+    <mergeCell ref="E100:E101"/>
+    <mergeCell ref="E102:E103"/>
+    <mergeCell ref="E104:E105"/>
+    <mergeCell ref="E106:E107"/>
+    <mergeCell ref="E108:E109"/>
+    <mergeCell ref="E110:E111"/>
+    <mergeCell ref="E88:E89"/>
+    <mergeCell ref="E90:E91"/>
+    <mergeCell ref="E92:E93"/>
+    <mergeCell ref="E94:E95"/>
+    <mergeCell ref="E96:E97"/>
+    <mergeCell ref="E98:E99"/>
+    <mergeCell ref="E148:E149"/>
+    <mergeCell ref="E150:E151"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="C12:C13"/>
+    <mergeCell ref="C17:C18"/>
+    <mergeCell ref="E136:E137"/>
+    <mergeCell ref="E138:E139"/>
+    <mergeCell ref="E140:E141"/>
+    <mergeCell ref="E142:E143"/>
+    <mergeCell ref="E144:E145"/>
+    <mergeCell ref="E146:E147"/>
+    <mergeCell ref="E124:E125"/>
+    <mergeCell ref="E126:E127"/>
+    <mergeCell ref="E128:E129"/>
+    <mergeCell ref="E130:E131"/>
+    <mergeCell ref="E132:E133"/>
+    <mergeCell ref="E134:E135"/>
+    <mergeCell ref="E112:E113"/>
+    <mergeCell ref="E114:E115"/>
+    <mergeCell ref="E116:E117"/>
+    <mergeCell ref="E118:E119"/>
+    <mergeCell ref="E120:E121"/>
+    <mergeCell ref="E122:E123"/>
+    <mergeCell ref="C192:C193"/>
+    <mergeCell ref="C194:C195"/>
+    <mergeCell ref="C196:C197"/>
+    <mergeCell ref="C198:C199"/>
+    <mergeCell ref="C200:C201"/>
+    <mergeCell ref="C202:C203"/>
+    <mergeCell ref="C180:C181"/>
+    <mergeCell ref="C182:C183"/>
+    <mergeCell ref="C184:C185"/>
+    <mergeCell ref="C186:C187"/>
+    <mergeCell ref="C188:C189"/>
+    <mergeCell ref="C190:C191"/>
+    <mergeCell ref="C216:C217"/>
+    <mergeCell ref="C218:C219"/>
+    <mergeCell ref="C220:C221"/>
+    <mergeCell ref="C222:C223"/>
+    <mergeCell ref="C224:C225"/>
+    <mergeCell ref="C226:C227"/>
+    <mergeCell ref="C204:C205"/>
+    <mergeCell ref="C206:C207"/>
+    <mergeCell ref="C208:C209"/>
+    <mergeCell ref="C210:C211"/>
+    <mergeCell ref="C212:C213"/>
+    <mergeCell ref="C214:C215"/>
+    <mergeCell ref="C240:C241"/>
+    <mergeCell ref="C242:C243"/>
+    <mergeCell ref="C244:C245"/>
+    <mergeCell ref="C246:C247"/>
+    <mergeCell ref="C248:C249"/>
+    <mergeCell ref="C250:C251"/>
+    <mergeCell ref="C228:C229"/>
+    <mergeCell ref="C230:C231"/>
+    <mergeCell ref="C232:C233"/>
+    <mergeCell ref="C234:C235"/>
+    <mergeCell ref="C236:C237"/>
+    <mergeCell ref="C238:C239"/>
+    <mergeCell ref="C264:C265"/>
+    <mergeCell ref="C266:C267"/>
+    <mergeCell ref="C268:C269"/>
+    <mergeCell ref="C270:C271"/>
+    <mergeCell ref="C272:C273"/>
+    <mergeCell ref="C274:C275"/>
+    <mergeCell ref="C252:C253"/>
+    <mergeCell ref="C254:C255"/>
+    <mergeCell ref="C256:C257"/>
+    <mergeCell ref="C258:C259"/>
+    <mergeCell ref="C260:C261"/>
+    <mergeCell ref="C262:C263"/>
+    <mergeCell ref="C288:C289"/>
+    <mergeCell ref="C290:C291"/>
+    <mergeCell ref="C292:C293"/>
+    <mergeCell ref="C294:C295"/>
+    <mergeCell ref="C296:C297"/>
+    <mergeCell ref="C298:C299"/>
+    <mergeCell ref="C276:C277"/>
+    <mergeCell ref="C278:C279"/>
+    <mergeCell ref="C280:C281"/>
+    <mergeCell ref="C282:C283"/>
+    <mergeCell ref="C284:C285"/>
+    <mergeCell ref="C286:C287"/>
+    <mergeCell ref="C312:C313"/>
+    <mergeCell ref="C314:C315"/>
+    <mergeCell ref="C316:C317"/>
+    <mergeCell ref="C318:C319"/>
+    <mergeCell ref="C320:C321"/>
+    <mergeCell ref="C322:C323"/>
+    <mergeCell ref="C300:C301"/>
+    <mergeCell ref="C302:C303"/>
+    <mergeCell ref="C304:C305"/>
+    <mergeCell ref="C306:C307"/>
+    <mergeCell ref="C308:C309"/>
+    <mergeCell ref="C310:C311"/>
+    <mergeCell ref="C336:C337"/>
+    <mergeCell ref="C338:C339"/>
+    <mergeCell ref="C340:C341"/>
+    <mergeCell ref="C342:C343"/>
+    <mergeCell ref="C344:C345"/>
+    <mergeCell ref="C346:C347"/>
+    <mergeCell ref="C324:C325"/>
+    <mergeCell ref="C326:C327"/>
+    <mergeCell ref="C328:C329"/>
+    <mergeCell ref="C330:C331"/>
+    <mergeCell ref="C332:C333"/>
+    <mergeCell ref="C334:C335"/>
+    <mergeCell ref="C360:C361"/>
+    <mergeCell ref="C362:C363"/>
+    <mergeCell ref="C364:C365"/>
+    <mergeCell ref="C366:C367"/>
+    <mergeCell ref="C368:C369"/>
+    <mergeCell ref="C370:C371"/>
+    <mergeCell ref="C348:C349"/>
+    <mergeCell ref="C350:C351"/>
+    <mergeCell ref="C352:C353"/>
+    <mergeCell ref="C354:C355"/>
+    <mergeCell ref="C356:C357"/>
+    <mergeCell ref="C358:C359"/>
+    <mergeCell ref="C384:C385"/>
+    <mergeCell ref="C386:C387"/>
+    <mergeCell ref="C388:C389"/>
+    <mergeCell ref="C390:C391"/>
+    <mergeCell ref="C392:C393"/>
+    <mergeCell ref="C394:C395"/>
+    <mergeCell ref="C372:C373"/>
+    <mergeCell ref="C374:C375"/>
+    <mergeCell ref="C376:C377"/>
+    <mergeCell ref="C378:C379"/>
+    <mergeCell ref="C380:C381"/>
+    <mergeCell ref="C382:C383"/>
+    <mergeCell ref="C408:C409"/>
+    <mergeCell ref="C410:C411"/>
+    <mergeCell ref="C412:C413"/>
+    <mergeCell ref="C414:C415"/>
+    <mergeCell ref="C416:C417"/>
+    <mergeCell ref="C418:C419"/>
+    <mergeCell ref="C396:C397"/>
+    <mergeCell ref="C398:C399"/>
+    <mergeCell ref="C400:C401"/>
+    <mergeCell ref="C402:C403"/>
+    <mergeCell ref="C404:C405"/>
+    <mergeCell ref="C406:C407"/>
+    <mergeCell ref="C432:C433"/>
+    <mergeCell ref="C434:C435"/>
+    <mergeCell ref="C436:C437"/>
+    <mergeCell ref="C438:C439"/>
+    <mergeCell ref="C440:C441"/>
+    <mergeCell ref="C442:C443"/>
+    <mergeCell ref="C420:C421"/>
+    <mergeCell ref="C422:C423"/>
+    <mergeCell ref="C424:C425"/>
+    <mergeCell ref="C426:C427"/>
+    <mergeCell ref="C428:C429"/>
+    <mergeCell ref="C430:C431"/>
+    <mergeCell ref="C456:C457"/>
+    <mergeCell ref="C458:C459"/>
+    <mergeCell ref="C460:C461"/>
+    <mergeCell ref="C462:C463"/>
+    <mergeCell ref="C464:C465"/>
+    <mergeCell ref="C466:C467"/>
+    <mergeCell ref="C444:C445"/>
+    <mergeCell ref="C446:C447"/>
+    <mergeCell ref="C448:C449"/>
+    <mergeCell ref="C450:C451"/>
+    <mergeCell ref="C452:C453"/>
+    <mergeCell ref="C454:C455"/>
   </mergeCells>
   <phoneticPr fontId="11"/>
   <dataValidations count="1">
